--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\QUT\Year 2\Sem 2\IFB299\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="8145" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="89">
   <si>
     <t>User story: Database</t>
   </si>
@@ -275,6 +275,18 @@
   </si>
   <si>
     <t>Maybe display the information in a textbox, rather than just plain html</t>
+  </si>
+  <si>
+    <t>Total Tasks</t>
+  </si>
+  <si>
+    <t>Current Velocity</t>
+  </si>
+  <si>
+    <t>Undefined</t>
+  </si>
+  <si>
+    <t>Sprint Tasks</t>
   </si>
 </sst>
 </file>
@@ -348,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -456,11 +468,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -470,38 +491,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -513,7 +510,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -522,10 +554,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -533,143 +565,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1086,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1099,387 +1009,404 @@
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="21.140625" customWidth="1"/>
     <col min="8" max="8" width="94.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="J2" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32">
         <v>6</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>6.1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="19">
         <v>6085</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="8">
+      <c r="J3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33"/>
+      <c r="B4" s="7">
         <v>6.2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
         <v>2</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>42378</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="8">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33"/>
+      <c r="B5" s="7">
         <v>6.3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
         <v>0.5</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>42378</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="8">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33"/>
+      <c r="B6" s="7">
         <v>6.4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
         <v>0.5</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>42378</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="8">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
+      <c r="B7" s="7">
         <v>6.5</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.5</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>0.5</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="19">
         <v>6085</v>
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="8">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="34"/>
+      <c r="B8" s="7">
         <v>6.6</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>36</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>25</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="19">
         <v>6085</v>
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="31"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="20">
-        <v>1</v>
-      </c>
-      <c r="B12" s="24">
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="31">
+        <v>1</v>
+      </c>
+      <c r="B12" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="24">
-        <v>1</v>
-      </c>
-      <c r="E12" s="23">
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15">
         <v>5</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="19">
         <v>6085</v>
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="24">
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="31"/>
+      <c r="B13" s="16">
         <v>1.2</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="16">
         <v>2</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>42409</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="24">
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="31"/>
+      <c r="B14" s="16">
         <v>1.3</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="23"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="23"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="25">
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="31"/>
+      <c r="B15" s="37">
         <v>1.4</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="25">
-        <v>1</v>
-      </c>
-      <c r="E15" s="26">
-        <v>1</v>
-      </c>
-      <c r="F15" s="26" t="s">
+      <c r="D15" s="37">
+        <v>1</v>
+      </c>
+      <c r="E15" s="35">
+        <v>1</v>
+      </c>
+      <c r="F15" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="36">
         <v>42378</v>
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="29" t="s">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="31"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="23">
+      <c r="A17" s="31"/>
+      <c r="B17" s="15">
         <v>1.5</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="23">
-        <v>1</v>
-      </c>
-      <c r="E17" s="23">
-        <v>1</v>
-      </c>
-      <c r="F17" s="23" t="s">
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="19">
         <v>6085</v>
       </c>
       <c r="H17" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="17"/>
+      <c r="H19" s="29"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H20" s="5" t="s">
@@ -1487,25 +1414,25 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="32">
         <v>11</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="9">
         <v>11.1</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="9">
         <v>0.5</v>
       </c>
-      <c r="E21" s="8">
-        <v>1</v>
-      </c>
-      <c r="F21" s="8" t="s">
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>42378</v>
       </c>
       <c r="H21" s="5" t="s">
@@ -1513,23 +1440,23 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="13">
+      <c r="A22" s="33"/>
+      <c r="B22" s="9">
         <v>11.2</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="9">
         <v>0.5</v>
       </c>
-      <c r="E22" s="8">
-        <v>1</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="19">
         <v>6085</v>
       </c>
       <c r="H22" s="5" t="s">
@@ -1537,51 +1464,51 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="17"/>
+      <c r="H25" s="29"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -1589,25 +1516,25 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
+      <c r="A27" s="31">
         <v>12</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="9">
         <v>12.1</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="9">
         <v>3</v>
       </c>
-      <c r="E27" s="8">
-        <v>1</v>
-      </c>
-      <c r="F27" s="18" t="s">
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>42378</v>
       </c>
       <c r="H27" s="5" t="s">
@@ -1615,45 +1542,45 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="13">
+      <c r="A28" s="31"/>
+      <c r="B28" s="9">
         <v>12.2</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="13">
-        <v>1</v>
-      </c>
-      <c r="E28" s="8">
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7">
         <v>0.5</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <v>42378</v>
       </c>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="13">
+      <c r="A29" s="31"/>
+      <c r="B29" s="9">
         <v>12.3</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="9">
         <v>2</v>
       </c>
-      <c r="E29" s="8">
-        <v>1</v>
-      </c>
-      <c r="F29" s="8" t="s">
+      <c r="E29" s="7">
+        <v>1</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <v>42378</v>
       </c>
       <c r="H29" s="5"/>
@@ -1664,41 +1591,41 @@
       <c r="D30" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="6"/>
+      <c r="H32" s="30"/>
     </row>
     <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H33" s="5" t="s">
@@ -1706,67 +1633,67 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="14"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1787,13 +1714,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
@@ -1805,6 +1725,13 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="D15:D16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A25:E25"/>
   </mergeCells>
@@ -1819,10 +1746,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1835,372 +1762,390 @@
     <col min="8" max="8" width="93.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="36" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="42"/>
+      <c r="H1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+      <c r="J2" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="31">
         <v>21</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>21.1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>5</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>5</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>42378</v>
       </c>
       <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="8">
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>24</v>
+      </c>
+      <c r="L3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31"/>
+      <c r="B4" s="7">
         <v>21.2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>42378</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="8">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="31"/>
+      <c r="B5" s="7">
         <v>21.3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="8">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="7">
         <v>21.4</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="8">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
+      <c r="B7" s="7">
         <v>21.5</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="8">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="31"/>
+      <c r="B8" s="7">
         <v>21.6</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="8">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="31"/>
+      <c r="B9" s="7">
         <v>21.7</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="14"/>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="8">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="7">
         <v>21.8</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>42378</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="8">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="31"/>
+      <c r="B11" s="7">
         <v>21.9</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>10</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="36" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="15" t="s">
+      <c r="G13" s="42"/>
+      <c r="H13" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="32">
         <v>20</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>20.100000000000001</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>0.5</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="8">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
+      <c r="B16" s="7">
         <v>20.2</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>0.5</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8">
+      <c r="A17" s="33"/>
+      <c r="B17" s="7">
         <v>20.3</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>0.5</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="8">
+      <c r="A18" s="34"/>
+      <c r="B18" s="7">
         <v>20.399999999999999</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>0.5</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="36" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="15" t="s">
+      <c r="G20" s="42"/>
+      <c r="H20" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H21" s="5" t="s">
@@ -2208,77 +2153,77 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20">
+      <c r="A22" s="31">
         <v>5</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="23">
         <v>0.5</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="40" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="8">
+      <c r="A23" s="31"/>
+      <c r="B23" s="7">
         <v>5.2</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="23">
         <v>0.5</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="36" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="15" t="s">
+      <c r="G25" s="42"/>
+      <c r="H25" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -2286,101 +2231,101 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19">
+      <c r="A27" s="13">
         <v>8</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>8.1</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="8">
-        <v>1</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="8">
+      <c r="A28" s="13"/>
+      <c r="B28" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="8">
-        <v>1</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="8">
+      <c r="A29" s="13"/>
+      <c r="B29" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="8">
-        <v>1</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="40" t="s">
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="8">
+      <c r="A30" s="13"/>
+      <c r="B30" s="7">
         <v>8.4</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="8">
-        <v>1</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="8">
+      <c r="A31" s="13"/>
+      <c r="B31" s="7">
         <v>8.5</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>0.5</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="14"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -2390,41 +2335,41 @@
       <c r="H33" s="5"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="36" t="s">
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="37"/>
-      <c r="H35" s="15" t="s">
+      <c r="G35" s="42"/>
+      <c r="H35" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H36" s="5" t="s">
@@ -2432,103 +2377,103 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19">
+      <c r="A37" s="13">
         <v>4</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>5</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="43" t="s">
+      <c r="E37" s="10"/>
+      <c r="F37" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="14"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="8">
+      <c r="A38" s="13"/>
+      <c r="B38" s="7">
         <v>4.2</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>5</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="43" t="s">
+      <c r="E38" s="10"/>
+      <c r="F38" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="14"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
-      <c r="B39" s="8">
+      <c r="A39" s="13"/>
+      <c r="B39" s="7">
         <v>4.3</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="8">
-        <v>1</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
-      <c r="B40" s="8">
+      <c r="A40" s="13"/>
+      <c r="B40" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="8">
-        <v>1</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="40" t="s">
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="24" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
-      <c r="B41" s="8">
+      <c r="A41" s="13"/>
+      <c r="B41" s="7">
         <v>4.5</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="8">
+      <c r="A42" s="13"/>
+      <c r="B42" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="14"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -2539,19 +2484,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 F13 H13">
     <cfRule type="notContainsBlanks" dxfId="8" priority="12">

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\QUT\Year 2\Sem 2\IFB299\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,17 +15,17 @@
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+  <si>
+    <t>G</t>
+  </si>
   <si>
     <t>User story: General Website Features</t>
-  </si>
-  <si>
-    <t>G</t>
   </si>
   <si>
     <t xml:space="preserve"> Story Points: 6</t>
@@ -34,10 +34,10 @@
     <t>Statues: Done</t>
   </si>
   <si>
-    <t>Statues: Ongoing</t>
+    <t>Story ID</t>
   </si>
   <si>
-    <t>Story ID</t>
+    <t>Statues: Ongoing</t>
   </si>
   <si>
     <t>Task ID</t>
@@ -73,10 +73,10 @@
     <t xml:space="preserve">Create virtual computer to load files on </t>
   </si>
   <si>
-    <t>Glynn</t>
+    <t>Create Homepage template</t>
   </si>
   <si>
-    <t>Create Homepage template</t>
+    <t>Glynn</t>
   </si>
   <si>
     <t>Ben</t>
@@ -88,10 +88,16 @@
     <t>//Rather than creating a dedicated server</t>
   </si>
   <si>
-    <t>Undefined</t>
+    <t>Create Registered Members table</t>
   </si>
   <si>
-    <t>Create Registered Members table</t>
+    <t>GLynn</t>
+  </si>
+  <si>
+    <t>// Does not contain all columns. but can be added later</t>
+  </si>
+  <si>
+    <t>Undefined</t>
   </si>
   <si>
     <t xml:space="preserve">Create Event page template </t>
@@ -103,22 +109,13 @@
     <t xml:space="preserve">Create General Account page template </t>
   </si>
   <si>
-    <t>GLynn</t>
-  </si>
-  <si>
-    <t>// Does not contain all columns. but can be added later</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create Admin login page </t>
-  </si>
-  <si>
-    <t>Allow Website interactivity (click tabs, change webpages)</t>
   </si>
   <si>
     <t>Create Committee Planner table</t>
   </si>
   <si>
-    <t>Over all website style (css, html body)</t>
+    <t>Allow Website interactivity (click tabs, change webpages)</t>
   </si>
   <si>
     <t>Create Sponsors table</t>
@@ -127,10 +124,10 @@
     <t>Create Volunteers table</t>
   </si>
   <si>
-    <t>User story: Social Media Integration</t>
+    <t>Create Events table</t>
   </si>
   <si>
-    <t>Create Events table</t>
+    <t>Over all website style (css, html body)</t>
   </si>
   <si>
     <t xml:space="preserve">Load HTML to virtual computer </t>
@@ -139,10 +136,13 @@
     <t>// Loaded templates</t>
   </si>
   <si>
+    <t>User story: Social Media Integration</t>
+  </si>
+  <si>
     <t>Connect database to website</t>
   </si>
   <si>
-    <t xml:space="preserve"> // As in have access to all tables, and display on html as needed. -- might be added to individual page tasks</t>
+    <t xml:space="preserve"> // Works if the proper queries are used to connect to the database</t>
   </si>
   <si>
     <t xml:space="preserve"> Story Points: 4</t>
@@ -160,13 +160,22 @@
     <t>Display all registered members emails</t>
   </si>
   <si>
-    <t>Use appropriate plugins to connect the user's facebook account to the website</t>
-  </si>
-  <si>
     <t>Send Email containing event details to all members</t>
   </si>
   <si>
     <t>Was thinking of just making it manual. As in just send an email to a bunch of dummy addresses, through one of our emails</t>
+  </si>
+  <si>
+    <t>See if they arrived</t>
+  </si>
+  <si>
+    <t>User story: FAQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Story Points: 1</t>
+  </si>
+  <si>
+    <t>Use appropriate plugins to connect the user's facebook account to the website</t>
   </si>
   <si>
     <t>Send notifications to users facebook page from the website facebook</t>
@@ -175,28 +184,16 @@
     <t>Facebook</t>
   </si>
   <si>
-    <t>See if they arrived</t>
-  </si>
-  <si>
     <t xml:space="preserve">(can't be created by website) this is an automated fetaure of facebook /// User would recive notifcation through </t>
-  </si>
-  <si>
-    <t>User story: FAQ</t>
   </si>
   <si>
     <t>Moved to new event planning user story in Sprint 2</t>
   </si>
   <si>
-    <t xml:space="preserve"> Story Points: 1</t>
+    <t>Write code containing the FAQs entries</t>
   </si>
   <si>
     <t xml:space="preserve">Test if plugin is working by sending notifications </t>
-  </si>
-  <si>
-    <t>Write code containing the FAQs entries</t>
-  </si>
-  <si>
-    <t>Ben (facebook twiter)</t>
   </si>
   <si>
     <t>Lance</t>
@@ -211,7 +208,7 @@
     <t>User story: Profile Management</t>
   </si>
   <si>
-    <t xml:space="preserve">and emails to accessible facebook twiter and email account </t>
+    <t>Ben (facebook twiter)</t>
   </si>
   <si>
     <t>Create login page</t>
@@ -223,16 +220,16 @@
     <t>Make account details editable</t>
   </si>
   <si>
-    <t>Create Socail Media accounts</t>
-  </si>
-  <si>
     <t>When editting account details, ask to enter password again</t>
   </si>
   <si>
-    <t>Make sure edits are saved back to database</t>
+    <t xml:space="preserve">and emails to accessible facebook twiter and email account </t>
   </si>
   <si>
-    <t>User story: Comment Section</t>
+    <t>// yes but the re-entry field isnt hidden... still works though</t>
+  </si>
+  <si>
+    <t>Make sure edits are saved back to database</t>
   </si>
   <si>
     <t>User story:  Track Events</t>
@@ -250,10 +247,16 @@
     <t>Query search to retrieve event information</t>
   </si>
   <si>
+    <t>Create Socail Media accounts</t>
+  </si>
+  <si>
     <t>Display important information (Location, time of event, date) on event page</t>
   </si>
   <si>
     <t>//Just as text on html page</t>
+  </si>
+  <si>
+    <t>User story: Comment Section</t>
   </si>
   <si>
     <t xml:space="preserve">Use appropriate plugins to allow users to post comments on the event pages </t>
@@ -485,23 +488,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -971,7 +974,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -989,7 +994,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -1005,28 +1010,28 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -1043,155 +1048,155 @@
       <c r="A3" s="25">
         <v>6</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>6.1</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="10">
         <v>6085</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26"/>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>6.2</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>2</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="9">
         <v>42378</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>25</v>
+      <c r="H4" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26"/>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>6.3</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0.5</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="9">
         <v>42378</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>25</v>
+      <c r="H5" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>6.4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>0.5</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="9">
         <v>42378</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>25</v>
+      <c r="H6" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>6.5</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="5">
         <v>0.5</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>0.5</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="10">
         <v>6085</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="3"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>6.6</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5">
         <v>36</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>25</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="10">
         <v>6085</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="3"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1204,13 +1209,13 @@
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="32" t="s">
@@ -1220,8 +1225,8 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
+      <c r="A11" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>6</v>
@@ -1235,13 +1240,13 @@
       <c r="E11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="2"/>
@@ -1254,7 +1259,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
@@ -1268,7 +1273,7 @@
       <c r="G12" s="10">
         <v>6085</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="3"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1277,20 +1282,20 @@
         <v>1.2</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D13" s="17">
         <v>2</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G13" s="9">
         <v>42409</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>52</v>
+      <c r="H13" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -1302,10 +1307,10 @@
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="4" t="s">
-        <v>54</v>
+      <c r="H14" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="J14" s="2"/>
     </row>
@@ -1315,7 +1320,7 @@
         <v>1.4</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" s="29">
         <v>1</v>
@@ -1324,25 +1329,25 @@
         <v>1</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G15" s="33">
         <v>42378</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
       <c r="C16" s="20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
-      <c r="H16" s="4"/>
+      <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1351,7 +1356,7 @@
         <v>1.5</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D17" s="16">
         <v>1</v>
@@ -1365,7 +1370,7 @@
       <c r="G17" s="10">
         <v>6085</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="3"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1378,14 +1383,14 @@
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="30" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="31"/>
       <c r="F19" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>3</v>
@@ -1394,28 +1399,28 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J20" s="2"/>
@@ -1428,22 +1433,22 @@
         <v>11.1</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D21" s="22">
         <v>0.5</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>1</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="9">
         <v>42378</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>79</v>
+      <c r="H21" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="J21" s="2"/>
     </row>
@@ -1453,34 +1458,34 @@
         <v>11.2</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D22" s="22">
         <v>0.5</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>1</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="10">
         <v>6085</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>81</v>
+      <c r="H22" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="3"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1493,7 +1498,7 @@
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
@@ -1509,28 +1514,28 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J26" s="2"/>
@@ -1543,12 +1548,12 @@
         <v>12.1</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="22">
         <v>3</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>1</v>
       </c>
       <c r="F27" s="23" t="s">
@@ -1557,8 +1562,8 @@
       <c r="G27" s="9">
         <v>42378</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>84</v>
+      <c r="H27" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="J27" s="2"/>
     </row>
@@ -1568,12 +1573,12 @@
         <v>12.2</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="22">
         <v>1</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>0.5</v>
       </c>
       <c r="F28" s="23" t="s">
@@ -1582,7 +1587,7 @@
       <c r="G28" s="9">
         <v>42378</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="3"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1591,21 +1596,21 @@
         <v>12.3</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="22">
         <v>2</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>1</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G29" s="9">
         <v>42378</v>
       </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="3"/>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1627,14 +1632,14 @@
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
       <c r="E32" s="31"/>
       <c r="F32" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G32" s="30" t="s">
         <v>3</v>
@@ -1643,107 +1648,107 @@
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="25"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="3"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="3"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="26"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="3"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="26"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="3"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="26"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="3"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="3"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1772,7 +1777,7 @@
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D44" s="2"/>
       <c r="F44" s="2"/>
@@ -1782,7 +1787,7 @@
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D45" s="2"/>
       <c r="F45" s="2"/>
@@ -9464,10 +9469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1000"/>
+  <dimension ref="A1:L995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9485,7 +9490,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -9495,33 +9500,33 @@
         <v>2</v>
       </c>
       <c r="G1" s="36"/>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -9538,25 +9543,25 @@
       <c r="A3" s="25">
         <v>21</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>21.1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>5</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>17</v>
+      <c r="F3" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="G3" s="9">
         <v>42378</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="3"/>
       <c r="J3" s="2">
         <v>13</v>
       </c>
@@ -9564,174 +9569,192 @@
         <v>24</v>
       </c>
       <c r="L3" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26"/>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>21.2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>17</v>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="G4" s="9">
         <v>42378</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26"/>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>21.3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="G5" s="37">
         <v>6104</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>21.4</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>1</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>17</v>
+      <c r="F6" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G6" s="37">
         <v>6104</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>21.5</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="4"/>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="37">
+        <v>6105</v>
+      </c>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>21.6</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="4"/>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="37">
+        <v>6105</v>
+      </c>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26"/>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>21.7</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="4"/>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="37">
+        <v>6105</v>
+      </c>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26"/>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>21.8</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>17</v>
+      <c r="F10" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="G10" s="9">
         <v>42378</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>38</v>
+      <c r="H10" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>21.9</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>10</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="4" t="s">
+      <c r="E11" s="11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="37">
+        <v>6105</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9741,7 +9764,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="15"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9756,33 +9779,33 @@
         <v>43</v>
       </c>
       <c r="G13" s="36"/>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9790,69 +9813,93 @@
       <c r="A15" s="25">
         <v>20</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>20.100000000000001</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>0.5</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="4"/>
+      <c r="E15" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="37">
+        <v>6105</v>
+      </c>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26"/>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>20.2</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>0.5</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="4"/>
+      <c r="E16" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="37">
+        <v>6105</v>
+      </c>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>20.3</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="37">
+        <v>6105</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>20.399999999999999</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="5">
         <v>0.5</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="4"/>
+      <c r="E18" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="37">
+        <v>6105</v>
+      </c>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
@@ -9864,43 +9911,43 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
       <c r="E20" s="31"/>
       <c r="F20" s="35" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G20" s="36"/>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9908,41 +9955,41 @@
       <c r="A22" s="25">
         <v>5</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>5.0999999999999996</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="19">
         <v>0.5</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="12" t="s">
+      <c r="E22" s="5"/>
+      <c r="F22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>5.2</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="19">
         <v>0.5</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
@@ -9954,7 +10001,7 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
@@ -9964,323 +10011,323 @@
         <v>41</v>
       </c>
       <c r="G25" s="36"/>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="6">
         <v>8</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>8.1</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="C27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="5">
         <v>1</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="11">
         <v>1</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>17</v>
+      <c r="F27" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G27" s="37">
         <v>6104</v>
       </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6">
+      <c r="A28" s="6"/>
+      <c r="B28" s="5">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="6">
+      <c r="C28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="5">
         <v>1</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <v>1</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>17</v>
+      <c r="F28" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G28" s="37">
         <v>6104</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="C29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="5">
         <v>1</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="11">
         <v>1</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>17</v>
+      <c r="F29" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G29" s="37">
         <v>6104</v>
       </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6">
+      <c r="A30" s="6"/>
+      <c r="B30" s="5">
         <v>8.4</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="37">
+        <v>6105</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="6">
-        <v>1</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6">
+      <c r="A31" s="6"/>
+      <c r="B31" s="5">
         <v>8.5</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>0.5</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="11">
         <v>0.5</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>17</v>
+      <c r="F31" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G31" s="37">
         <v>6104</v>
       </c>
-      <c r="H31" s="4"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="4"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="A33" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="36"/>
+      <c r="H33" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="A34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="35" t="s">
+      <c r="A35" s="6">
+        <v>4</v>
+      </c>
+      <c r="B35" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="36"/>
-      <c r="H35" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="D35" s="5">
+        <v>5</v>
+      </c>
+      <c r="E35" s="11">
+        <v>5</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="37">
+        <v>6105</v>
+      </c>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6"/>
+      <c r="B36" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="5">
         <v>5</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E36" s="11">
+        <v>5</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="37">
+        <v>6105</v>
+      </c>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
-        <v>4</v>
-      </c>
-      <c r="B37" s="6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="6">
-        <v>5</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="4"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6">
-        <v>4.2</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="6">
-        <v>5</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="4"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6">
-        <v>4.3</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="4"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="4"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="4"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
@@ -17898,53 +17945,13 @@
       <c r="F995" s="2"/>
       <c r="H995" s="2"/>
     </row>
-    <row r="996" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B996" s="2"/>
-      <c r="C996" s="2"/>
-      <c r="D996" s="2"/>
-      <c r="E996" s="2"/>
-      <c r="F996" s="2"/>
-      <c r="H996" s="2"/>
-    </row>
-    <row r="997" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B997" s="2"/>
-      <c r="C997" s="2"/>
-      <c r="D997" s="2"/>
-      <c r="E997" s="2"/>
-      <c r="F997" s="2"/>
-      <c r="H997" s="2"/>
-    </row>
-    <row r="998" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B998" s="2"/>
-      <c r="C998" s="2"/>
-      <c r="D998" s="2"/>
-      <c r="E998" s="2"/>
-      <c r="F998" s="2"/>
-      <c r="H998" s="2"/>
-    </row>
-    <row r="999" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B999" s="2"/>
-      <c r="C999" s="2"/>
-      <c r="D999" s="2"/>
-      <c r="E999" s="2"/>
-      <c r="F999" s="2"/>
-      <c r="H999" s="2"/>
-    </row>
-    <row r="1000" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1000" s="2"/>
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="2"/>
-      <c r="F1000" s="2"/>
-      <c r="H1000" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="F33:G33"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="A20:E20"/>
@@ -17989,14 +17996,14 @@
       <formula>LEN(TRIM(F25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
+  <conditionalFormatting sqref="A33">
     <cfRule type="notContainsBlanks" dxfId="1" priority="8">
-      <formula>LEN(TRIM(A35))&gt;0</formula>
+      <formula>LEN(TRIM(A33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35 H35">
+  <conditionalFormatting sqref="F33 H33">
     <cfRule type="notContainsBlanks" dxfId="0" priority="9">
-      <formula>LEN(TRIM(F35))&gt;0</formula>
+      <formula>LEN(TRIM(F33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\QUT\Year 2\Sem 2\IFB299\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\QUT\Year 2\Sem 2\IFB299\IFB299-Group23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -226,9 +226,6 @@
     <t xml:space="preserve">and emails to accessible facebook twiter and email account </t>
   </si>
   <si>
-    <t>// yes but the re-entry field isnt hidden... still works though</t>
-  </si>
-  <si>
     <t>Make sure edits are saved back to database</t>
   </si>
   <si>
@@ -296,6 +293,9 @@
   </si>
   <si>
     <t>https://docs.google.com/spreadsheets/d/13qp7GBObVRwCOuKaldAYDRk46rpQ0ARoLywaFVi5zPs/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>//Re-enter of password is now hidden from edit details input textboxs</t>
   </si>
 </sst>
 </file>
@@ -524,33 +524,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,20 +993,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="27"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1045,7 +1045,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25">
+      <c r="A3" s="29">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -1079,7 +1079,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -1104,7 +1104,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -1129,7 +1129,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -1154,7 +1154,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -1177,7 +1177,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="5">
         <v>6.6</v>
       </c>
@@ -1211,17 +1211,17 @@
       <c r="A10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="31"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="15" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="31"/>
+      <c r="H10" s="27"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1252,7 +1252,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
+      <c r="A12" s="29">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -1277,7 +1277,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -1300,7 +1300,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -1315,20 +1315,20 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="29">
+      <c r="A15" s="30"/>
+      <c r="B15" s="35">
         <v>1.4</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="35">
         <v>1</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="34">
         <v>1</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="34" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="33">
@@ -1338,25 +1338,25 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="16">
         <v>1.5</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="16">
         <v>1</v>
@@ -1382,20 +1382,20 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="31"/>
+      <c r="A19" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="27"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1426,14 +1426,14 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
+      <c r="A21" s="29">
         <v>11</v>
       </c>
       <c r="B21" s="22">
         <v>11.1</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="22">
         <v>0.5</v>
@@ -1448,17 +1448,17 @@
         <v>42378</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="22">
         <v>11.2</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" s="22">
         <v>0.5</v>
@@ -1473,12 +1473,12 @@
         <v>6085</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1497,20 +1497,20 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="31"/>
+      <c r="A25" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="31"/>
+      <c r="H25" s="27"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1541,14 +1541,14 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+      <c r="A27" s="29">
         <v>12</v>
       </c>
       <c r="B27" s="22">
         <v>12.1</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="22">
         <v>3</v>
@@ -1563,17 +1563,17 @@
         <v>42378</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="22">
         <v>12.2</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="22">
         <v>1</v>
@@ -1591,12 +1591,12 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="22">
         <v>12.3</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="22">
         <v>2</v>
@@ -1631,20 +1631,20 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G32" s="30" t="s">
+      <c r="G32" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="31"/>
+      <c r="H32" s="27"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1675,7 +1675,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1686,7 +1686,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="26"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1697,7 +1697,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="26"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1708,7 +1708,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="26"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1719,7 +1719,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1730,7 +1730,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="26"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -1741,7 +1741,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D44" s="2"/>
       <c r="F44" s="2"/>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D45" s="2"/>
       <c r="F45" s="2"/>
@@ -9437,15 +9437,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:E19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G15:G16"/>
@@ -9457,6 +9448,15 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G1 A1 F10:G10 A10 F19:G19 A19 F25:G25 A25 F32:G32 A32">
     <cfRule type="notContainsBlanks" dxfId="9" priority="1">
@@ -9471,8 +9471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9489,17 +9489,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="35" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="36"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -9540,7 +9540,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25">
+      <c r="A3" s="29">
         <v>21</v>
       </c>
       <c r="B3" s="5">
@@ -9573,7 +9573,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="5">
         <v>21.2</v>
       </c>
@@ -9597,7 +9597,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="5">
         <v>21.3</v>
       </c>
@@ -9613,7 +9613,7 @@
       <c r="F5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="25">
         <v>6104</v>
       </c>
       <c r="H5" s="13" t="s">
@@ -9621,7 +9621,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5">
         <v>21.4</v>
       </c>
@@ -9637,7 +9637,7 @@
       <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="25">
         <v>6104</v>
       </c>
       <c r="H6" s="13" t="s">
@@ -9645,7 +9645,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="5">
         <v>21.5</v>
       </c>
@@ -9661,13 +9661,13 @@
       <c r="F7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="25">
         <v>6105</v>
       </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="5">
         <v>21.6</v>
       </c>
@@ -9683,13 +9683,13 @@
       <c r="F8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="25">
         <v>6105</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="5">
         <v>21.7</v>
       </c>
@@ -9705,13 +9705,13 @@
       <c r="F9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="25">
         <v>6105</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="5">
         <v>21.8</v>
       </c>
@@ -9735,7 +9735,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="5">
         <v>21.9</v>
       </c>
@@ -9751,7 +9751,7 @@
       <c r="F11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="25">
         <v>6105</v>
       </c>
       <c r="H11" s="13" t="s">
@@ -9768,17 +9768,17 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="35" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="36"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="4" t="s">
         <v>5</v>
       </c>
@@ -9810,7 +9810,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25">
+      <c r="A15" s="29">
         <v>20</v>
       </c>
       <c r="B15" s="5">
@@ -9828,13 +9828,13 @@
       <c r="F15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="25">
         <v>6105</v>
       </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="5">
         <v>20.2</v>
       </c>
@@ -9850,13 +9850,13 @@
       <c r="F16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="25">
         <v>6105</v>
       </c>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="5">
         <v>20.3</v>
       </c>
@@ -9872,7 +9872,7 @@
       <c r="F17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="25">
         <v>6105</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -9880,7 +9880,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="5">
         <v>20.399999999999999</v>
       </c>
@@ -9896,7 +9896,7 @@
       <c r="F18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="25">
         <v>6105</v>
       </c>
       <c r="H18" s="3"/>
@@ -9910,17 +9910,17 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="35" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="36"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="4" t="s">
         <v>5</v>
       </c>
@@ -9952,7 +9952,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25">
+      <c r="A22" s="29">
         <v>5</v>
       </c>
       <c r="B22" s="5">
@@ -9964,17 +9964,21 @@
       <c r="D22" s="19">
         <v>0.5</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5">
+        <v>0.5</v>
+      </c>
       <c r="F22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="10">
+        <v>38978</v>
+      </c>
       <c r="H22" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="5">
         <v>5.2</v>
       </c>
@@ -9984,11 +9988,15 @@
       <c r="D23" s="19">
         <v>0.5</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5">
+        <v>0.5</v>
+      </c>
       <c r="F23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="10">
+        <v>38978</v>
+      </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10000,17 +10008,17 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="35" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="36"/>
+      <c r="G25" s="37"/>
       <c r="H25" s="4" t="s">
         <v>5</v>
       </c>
@@ -10060,7 +10068,7 @@
       <c r="F27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="25">
         <v>6104</v>
       </c>
       <c r="H27" s="3"/>
@@ -10082,7 +10090,7 @@
       <c r="F28" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="25">
         <v>6104</v>
       </c>
       <c r="H28" s="3"/>
@@ -10104,7 +10112,7 @@
       <c r="F29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="25">
         <v>6104</v>
       </c>
       <c r="H29" s="3"/>
@@ -10126,11 +10134,11 @@
       <c r="F30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="25">
         <v>6105</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10139,7 +10147,7 @@
         <v>8.5</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="5">
         <v>0.5</v>
@@ -10150,7 +10158,7 @@
       <c r="F31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="25">
         <v>6104</v>
       </c>
       <c r="H31" s="3"/>
@@ -10164,17 +10172,17 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33" s="36"/>
+      <c r="G33" s="37"/>
       <c r="H33" s="4" t="s">
         <v>5</v>
       </c>
@@ -10213,7 +10221,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="5">
         <v>5</v>
@@ -10224,7 +10232,7 @@
       <c r="F35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="25">
         <v>6105</v>
       </c>
       <c r="H35" s="3"/>
@@ -10235,7 +10243,7 @@
         <v>4.2</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="5">
         <v>5</v>
@@ -10246,7 +10254,7 @@
       <c r="F36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="37">
+      <c r="G36" s="25">
         <v>6105</v>
       </c>
       <c r="H36" s="3"/>
@@ -10257,7 +10265,7 @@
         <v>4.3</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
@@ -10275,7 +10283,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
@@ -10286,7 +10294,7 @@
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
-  <si>
-    <t>G</t>
-  </si>
   <si>
     <t>User story: General Website Features</t>
   </si>
@@ -296,6 +293,9 @@
   </si>
   <si>
     <t>//Re-enter of password is now hidden from edit details input textboxs</t>
+  </si>
+  <si>
+    <t>User Story: Database</t>
   </si>
 </sst>
 </file>
@@ -974,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -994,54 +994,54 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
       <c r="E1" s="27"/>
       <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>2</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>3</v>
       </c>
       <c r="H1" s="27"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1052,7 +1052,7 @@
         <v>6.1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="10">
         <v>6085</v>
@@ -1069,7 +1069,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3" s="2">
         <v>15</v>
@@ -1084,7 +1084,7 @@
         <v>6.2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -1093,13 +1093,13 @@
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="9">
         <v>42378</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -1109,7 +1109,7 @@
         <v>6.3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -1118,13 +1118,13 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="9">
         <v>42378</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -1134,7 +1134,7 @@
         <v>6.4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -1143,13 +1143,13 @@
         <v>0.5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="9">
         <v>42378</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -1159,7 +1159,7 @@
         <v>6.5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5">
         <v>0.5</v>
@@ -1168,7 +1168,7 @@
         <v>0.5</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="10">
         <v>6085</v>
@@ -1182,7 +1182,7 @@
         <v>6.6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5">
         <v>36</v>
@@ -1191,7 +1191,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="10">
         <v>6085</v>
@@ -1209,45 +1209,45 @@
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="27"/>
       <c r="F10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" s="27"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="J11" s="2"/>
     </row>
@@ -1259,7 +1259,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
@@ -1268,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="10">
         <v>6085</v>
@@ -1282,20 +1282,22 @@
         <v>1.2</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="17">
         <v>2</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="16">
+        <v>2</v>
+      </c>
       <c r="F13" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="9">
         <v>42409</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -1310,7 +1312,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="16"/>
       <c r="H14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" s="2"/>
     </row>
@@ -1320,7 +1322,7 @@
         <v>1.4</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="35">
         <v>1</v>
@@ -1329,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="33">
         <v>42378</v>
@@ -1341,7 +1343,7 @@
       <c r="A16" s="30"/>
       <c r="B16" s="31"/>
       <c r="C16" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
@@ -1356,7 +1358,7 @@
         <v>1.5</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="16">
         <v>1</v>
@@ -1365,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="10">
         <v>6085</v>
@@ -1383,45 +1385,45 @@
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="27"/>
       <c r="F19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="27"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="J20" s="2"/>
     </row>
@@ -1433,7 +1435,7 @@
         <v>11.1</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="22">
         <v>0.5</v>
@@ -1442,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" s="9">
         <v>42378</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J21" s="2"/>
     </row>
@@ -1458,7 +1460,7 @@
         <v>11.2</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22" s="22">
         <v>0.5</v>
@@ -1467,13 +1469,13 @@
         <v>1</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22" s="10">
         <v>6085</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J22" s="2"/>
     </row>
@@ -1498,45 +1500,45 @@
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="E25" s="27"/>
       <c r="F25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" s="27"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="J26" s="2"/>
     </row>
@@ -1548,7 +1550,7 @@
         <v>12.1</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="22">
         <v>3</v>
@@ -1557,13 +1559,13 @@
         <v>1</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G27" s="9">
         <v>42378</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J27" s="2"/>
     </row>
@@ -1573,7 +1575,7 @@
         <v>12.2</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="22">
         <v>1</v>
@@ -1582,7 +1584,7 @@
         <v>0.5</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G28" s="9">
         <v>42378</v>
@@ -1596,7 +1598,7 @@
         <v>12.3</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="22">
         <v>2</v>
@@ -1605,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G29" s="9">
         <v>42378</v>
@@ -1632,45 +1634,45 @@
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
       <c r="E32" s="27"/>
       <c r="F32" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" s="27"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="J33" s="2"/>
     </row>
@@ -1777,7 +1779,7 @@
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D44" s="2"/>
       <c r="F44" s="2"/>
@@ -1787,7 +1789,7 @@
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D45" s="2"/>
       <c r="F45" s="2"/>
@@ -9471,8 +9473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9490,53 +9492,53 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
       <c r="E1" s="27"/>
       <c r="F1" s="36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1" s="37"/>
       <c r="H1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9547,7 +9549,7 @@
         <v>21.1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5">
         <v>5</v>
@@ -9556,7 +9558,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="9">
         <v>42378</v>
@@ -9578,7 +9580,7 @@
         <v>21.2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -9587,13 +9589,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="9">
         <v>42378</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9602,7 +9604,7 @@
         <v>21.3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -9611,13 +9613,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="25">
         <v>6104</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9626,7 +9628,7 @@
         <v>21.4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -9635,13 +9637,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="25">
         <v>6104</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9650,7 +9652,7 @@
         <v>21.5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -9659,7 +9661,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="25">
         <v>6105</v>
@@ -9672,7 +9674,7 @@
         <v>21.6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -9681,7 +9683,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="25">
         <v>6105</v>
@@ -9694,7 +9696,7 @@
         <v>21.7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -9703,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="25">
         <v>6105</v>
@@ -9716,7 +9718,7 @@
         <v>21.8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -9725,13 +9727,13 @@
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="9">
         <v>42378</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9740,7 +9742,7 @@
         <v>21.9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="5">
         <v>10</v>
@@ -9749,13 +9751,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="25">
         <v>6105</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9769,44 +9771,44 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="27"/>
       <c r="F13" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9817,7 +9819,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="5">
         <v>0.5</v>
@@ -9826,7 +9828,7 @@
         <v>0.5</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" s="25">
         <v>6105</v>
@@ -9839,7 +9841,7 @@
         <v>20.2</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="5">
         <v>0.5</v>
@@ -9848,7 +9850,7 @@
         <v>0.5</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="25">
         <v>6105</v>
@@ -9861,7 +9863,7 @@
         <v>20.3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="5">
         <v>0.5</v>
@@ -9870,13 +9872,13 @@
         <v>0.5</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="25">
         <v>6105</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9885,7 +9887,7 @@
         <v>20.399999999999999</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="5">
         <v>0.5</v>
@@ -9894,7 +9896,7 @@
         <v>0.5</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="25">
         <v>6105</v>
@@ -9911,44 +9913,44 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="27"/>
       <c r="F20" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="E21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9959,7 +9961,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="19">
         <v>0.5</v>
@@ -9968,13 +9970,13 @@
         <v>0.5</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G22" s="10">
         <v>38978</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9983,7 +9985,7 @@
         <v>5.2</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="19">
         <v>0.5</v>
@@ -9992,7 +9994,7 @@
         <v>0.5</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G23" s="10">
         <v>38978</v>
@@ -10009,44 +10011,44 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="E25" s="27"/>
       <c r="F25" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10057,7 +10059,7 @@
         <v>8.1</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -10066,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" s="25">
         <v>6104</v>
@@ -10079,7 +10081,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
@@ -10088,7 +10090,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" s="25">
         <v>6104</v>
@@ -10101,7 +10103,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
@@ -10110,7 +10112,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G29" s="25">
         <v>6104</v>
@@ -10123,7 +10125,7 @@
         <v>8.4</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -10132,13 +10134,13 @@
         <v>1</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G30" s="25">
         <v>6105</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10147,7 +10149,7 @@
         <v>8.5</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="5">
         <v>0.5</v>
@@ -10156,7 +10158,7 @@
         <v>0.5</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G31" s="25">
         <v>6104</v>
@@ -10173,44 +10175,44 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
       <c r="E33" s="27"/>
       <c r="F33" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G33" s="37"/>
       <c r="H33" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10221,7 +10223,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35" s="5">
         <v>5</v>
@@ -10230,7 +10232,7 @@
         <v>5</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G35" s="25">
         <v>6105</v>
@@ -10243,7 +10245,7 @@
         <v>4.2</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" s="5">
         <v>5</v>
@@ -10252,7 +10254,7 @@
         <v>5</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G36" s="25">
         <v>6105</v>
@@ -10265,14 +10267,14 @@
         <v>4.3</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="3"/>
@@ -10283,18 +10285,18 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -2,25 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\QUT\Year 2\Sem 2\IFB299\IFB299-Group23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\QUT\Year 2\Sem 2\IFB299\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="8145" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="8145" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="138">
   <si>
     <t>User story: General Website Features</t>
   </si>
@@ -223,6 +224,9 @@
     <t xml:space="preserve">and emails to accessible facebook twiter and email account </t>
   </si>
   <si>
+    <t>// yes but the re-entry field isnt hidden... still works though</t>
+  </si>
+  <si>
     <t>Make sure edits are saved back to database</t>
   </si>
   <si>
@@ -292,10 +296,145 @@
     <t>https://docs.google.com/spreadsheets/d/13qp7GBObVRwCOuKaldAYDRk46rpQ0ARoLywaFVi5zPs/edit?usp=sharing</t>
   </si>
   <si>
-    <t>//Re-enter of password is now hidden from edit details input textboxs</t>
+    <t>User story: Database</t>
   </si>
   <si>
-    <t>User Story: Database</t>
+    <t>User story: Finish login</t>
+  </si>
+  <si>
+    <t>Format login text boxes and buttons to match design</t>
+  </si>
+  <si>
+    <t>User story: Add new sponsors</t>
+  </si>
+  <si>
+    <t>Create form with proper textboxes, labels, buttons etc.</t>
+  </si>
+  <si>
+    <t>Connect to database and save as new entry on confirm</t>
+  </si>
+  <si>
+    <t>User story: List all sponsors</t>
+  </si>
+  <si>
+    <t>Create page with labels and buttons to match design</t>
+  </si>
+  <si>
+    <t>Display on page</t>
+  </si>
+  <si>
+    <t>Connect to databse to pull entries</t>
+  </si>
+  <si>
+    <t>User story: Sponsor's donation history</t>
+  </si>
+  <si>
+    <t>Write sql queires to retrieve required data</t>
+  </si>
+  <si>
+    <t>User story: Log new sponsor's donation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connect to databse </t>
+  </si>
+  <si>
+    <t>Write sql queires to add entry to table</t>
+  </si>
+  <si>
+    <t>Update table with new entry on confirm</t>
+  </si>
+  <si>
+    <t>User story: Members account registry</t>
+  </si>
+  <si>
+    <t>Create login account form with proper textboxes, labels etc.</t>
+  </si>
+  <si>
+    <t>Create account details form with proper textboxes, labels etc.</t>
+  </si>
+  <si>
+    <t>Connect to database</t>
+  </si>
+  <si>
+    <t>Write sql queires to pull information from table</t>
+  </si>
+  <si>
+    <t>Display  pulled information on page</t>
+  </si>
+  <si>
+    <t>Create form with textboxes and buttons to match design</t>
+  </si>
+  <si>
+    <t>User story: Volunteer's list</t>
+  </si>
+  <si>
+    <t>User story: Register new volunteer</t>
+  </si>
+  <si>
+    <t>Test functionality (drop down box, buttons, links)</t>
+  </si>
+  <si>
+    <t>User story: Edit account details</t>
+  </si>
+  <si>
+    <t>Write sql queires to update table on confirm</t>
+  </si>
+  <si>
+    <t>Write sql queires to update table on cofirm</t>
+  </si>
+  <si>
+    <t>Create edit login form with textboxes and buttons to match design</t>
+  </si>
+  <si>
+    <t>Connect edit button to the two new forms</t>
+  </si>
+  <si>
+    <t>Connect Homepage login tab to login file</t>
+  </si>
+  <si>
+    <t>Write code for verification form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create verificiation form with textboxes and buttons </t>
+  </si>
+  <si>
+    <t>Test functionality (drop down box, buttons, links, queries, code)</t>
+  </si>
+  <si>
+    <t>User story: edit login details</t>
+  </si>
+  <si>
+    <t>User story: view account</t>
+  </si>
+  <si>
+    <t>Apply google map extension as the map</t>
+  </si>
+  <si>
+    <t>Make the map extension show the location pulled</t>
+  </si>
+  <si>
+    <t>User story: View event</t>
+  </si>
+  <si>
+    <t>Write code to show/hide features depending on account</t>
+  </si>
+  <si>
+    <t>User story: List all planners</t>
+  </si>
+  <si>
+    <t>Display pulled information on page</t>
+  </si>
+  <si>
+    <t>Format page to match design (tabs on top, logo, display of information etc.)</t>
+  </si>
+  <si>
+    <t>Connect to the other pages on design (tab links and navigation)</t>
+  </si>
+  <si>
+    <t>Total Task</t>
+  </si>
+  <si>
+    <t>Total story points</t>
   </si>
 </sst>
 </file>
@@ -315,19 +454,23 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -350,7 +493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -478,11 +621,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -525,37 +705,438 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -972,10 +1553,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:E29"/>
+      <selection activeCell="F78" sqref="F78:F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -993,20 +1575,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="27"/>
+      <c r="H1" s="41"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1045,7 +1627,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29">
+      <c r="A3" s="45">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -1079,7 +1661,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -1104,7 +1686,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -1129,7 +1711,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -1154,7 +1736,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -1177,7 +1759,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="5">
         <v>6.6</v>
       </c>
@@ -1208,20 +1790,20 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="27"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="27"/>
+      <c r="H10" s="41"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1252,7 +1834,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
+      <c r="A12" s="45">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -1277,7 +1859,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -1287,9 +1869,7 @@
       <c r="D13" s="17">
         <v>2</v>
       </c>
-      <c r="E13" s="16">
-        <v>2</v>
-      </c>
+      <c r="E13" s="16"/>
       <c r="F13" s="16" t="s">
         <v>52</v>
       </c>
@@ -1302,7 +1882,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -1317,48 +1897,48 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="35">
+      <c r="A15" s="46"/>
+      <c r="B15" s="49">
         <v>1.4</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="49">
         <v>1</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="48">
         <v>1</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="43">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
       <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="16">
         <v>1.5</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" s="16">
         <v>1</v>
@@ -1384,20 +1964,20 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="27"/>
+      <c r="A19" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="27"/>
+      <c r="H19" s="41"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1428,14 +2008,14 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
+      <c r="A21" s="45">
         <v>11</v>
       </c>
       <c r="B21" s="22">
         <v>11.1</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" s="22">
         <v>0.5</v>
@@ -1450,17 +2030,17 @@
         <v>42378</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="22">
         <v>11.2</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D22" s="22">
         <v>0.5</v>
@@ -1475,12 +2055,12 @@
         <v>6085</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1499,20 +2079,20 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="27"/>
+      <c r="A25" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="41"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="27"/>
+      <c r="H25" s="41"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1543,14 +2123,14 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
+      <c r="A27" s="45">
         <v>12</v>
       </c>
       <c r="B27" s="22">
         <v>12.1</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="22">
         <v>3</v>
@@ -1565,17 +2145,17 @@
         <v>42378</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="22">
         <v>12.2</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="22">
         <v>1</v>
@@ -1593,12 +2173,12 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="22">
         <v>12.3</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="22">
         <v>2</v>
@@ -1633,20 +2213,20 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="27"/>
+      <c r="A32" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="41"/>
       <c r="F32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="27"/>
+      <c r="H32" s="41"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1677,7 +2257,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="29"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1688,7 +2268,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1699,7 +2279,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1710,7 +2290,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1721,7 +2301,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1732,7 +2312,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -1743,7 +2323,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="31"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1779,7 +2359,7 @@
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D44" s="2"/>
       <c r="F44" s="2"/>
@@ -1789,7 +2369,7 @@
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D45" s="2"/>
       <c r="F45" s="2"/>
@@ -9439,6 +10019,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:E19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G15:G16"/>
@@ -9450,18 +10039,9 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G1 A1 F10:G10 A10 F19:G19 A19 F25:G25 A25 F32:G32 A32">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="35" priority="1">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9471,10 +10051,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78:F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9491,17 +10072,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="36" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="37"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
@@ -9542,7 +10123,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29">
+      <c r="A3" s="45">
         <v>21</v>
       </c>
       <c r="B3" s="5">
@@ -9575,7 +10156,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="5">
         <v>21.2</v>
       </c>
@@ -9599,7 +10180,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="5">
         <v>21.3</v>
       </c>
@@ -9623,7 +10204,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="5">
         <v>21.4</v>
       </c>
@@ -9647,7 +10228,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="5">
         <v>21.5</v>
       </c>
@@ -9669,7 +10250,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="5">
         <v>21.6</v>
       </c>
@@ -9691,7 +10272,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="5">
         <v>21.7</v>
       </c>
@@ -9713,7 +10294,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="5">
         <v>21.8</v>
       </c>
@@ -9737,7 +10318,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="5">
         <v>21.9</v>
       </c>
@@ -9770,17 +10351,17 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="36" t="s">
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="37"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="4" t="s">
         <v>4</v>
       </c>
@@ -9812,7 +10393,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
+      <c r="A15" s="45">
         <v>20</v>
       </c>
       <c r="B15" s="5">
@@ -9836,7 +10417,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="5">
         <v>20.2</v>
       </c>
@@ -9858,7 +10439,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="5">
         <v>20.3</v>
       </c>
@@ -9882,7 +10463,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="5">
         <v>20.399999999999999</v>
       </c>
@@ -9912,17 +10493,17 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="36" t="s">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="37"/>
+      <c r="G20" s="53"/>
       <c r="H20" s="4" t="s">
         <v>4</v>
       </c>
@@ -9954,7 +10535,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29">
+      <c r="A22" s="45">
         <v>5</v>
       </c>
       <c r="B22" s="5">
@@ -9966,21 +10547,17 @@
       <c r="D22" s="19">
         <v>0.5</v>
       </c>
-      <c r="E22" s="5">
-        <v>0.5</v>
-      </c>
+      <c r="E22" s="5"/>
       <c r="F22" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="10">
-        <v>38978</v>
-      </c>
+      <c r="G22" s="5"/>
       <c r="H22" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="5">
         <v>5.2</v>
       </c>
@@ -9990,15 +10567,11 @@
       <c r="D23" s="19">
         <v>0.5</v>
       </c>
-      <c r="E23" s="5">
-        <v>0.5</v>
-      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="10">
-        <v>38978</v>
-      </c>
+      <c r="G23" s="5"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10010,17 +10583,17 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="36" t="s">
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="37"/>
+      <c r="G25" s="53"/>
       <c r="H25" s="4" t="s">
         <v>4</v>
       </c>
@@ -10052,7 +10625,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="45">
         <v>8</v>
       </c>
       <c r="B27" s="5">
@@ -10076,7 +10649,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="5">
         <v>8.1999999999999993</v>
       </c>
@@ -10098,7 +10671,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="5">
         <v>8.3000000000000007</v>
       </c>
@@ -10120,7 +10693,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="5">
         <v>8.4</v>
       </c>
@@ -10140,16 +10713,16 @@
         <v>6105</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="5">
         <v>8.5</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D31" s="5">
         <v>0.5</v>
@@ -10174,17 +10747,17 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="36" t="s">
+      <c r="A33" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="37"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="53"/>
       <c r="H33" s="4" t="s">
         <v>4</v>
       </c>
@@ -10216,14 +10789,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35" s="45">
         <v>4</v>
       </c>
       <c r="B35" s="5">
         <v>4.0999999999999996</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D35" s="5">
         <v>5</v>
@@ -10240,12 +10813,12 @@
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="5">
         <v>4.2</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D36" s="5">
         <v>5</v>
@@ -10262,12 +10835,12 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="5">
         <v>4.3</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
@@ -10280,12 +10853,12 @@
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="5">
         <v>4.4000000000000004</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
@@ -10296,7 +10869,7 @@
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17956,7 +18529,8 @@
       <c r="H995" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="A35:A38"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A1:E1"/>
@@ -17970,52 +18544,2346 @@
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A27:A31"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 F13 H13">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="2">
       <formula>LEN(TRIM(A13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="3">
       <formula>LEN(TRIM(A20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="4">
       <formula>LEN(TRIM(A25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 H1">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="5">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 H20">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="6">
       <formula>LEN(TRIM(F20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25 H25">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="7">
       <formula>LEN(TRIM(F25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="8">
       <formula>LEN(TRIM(A33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33 H33">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="9">
       <formula>LEN(TRIM(F33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:K130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="59">
+        <v>22</v>
+      </c>
+      <c r="B3" s="31">
+        <v>22.1</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3"/>
+      <c r="J3">
+        <v>90</v>
+      </c>
+      <c r="K3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="59"/>
+      <c r="B4" s="31">
+        <v>22.2</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="31">
+        <v>1</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="35"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="59"/>
+      <c r="B5" s="31">
+        <v>22.3</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="59">
+        <v>33</v>
+      </c>
+      <c r="B9" s="31">
+        <v>33.1</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="28">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="59"/>
+      <c r="B10" s="33">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="59"/>
+      <c r="B11" s="31">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="28">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="59"/>
+      <c r="B12" s="31">
+        <v>33.4</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="37">
+        <v>1</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="35"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="59"/>
+      <c r="B13" s="31">
+        <v>33.5</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="59">
+        <v>34</v>
+      </c>
+      <c r="B17" s="31">
+        <v>34.1</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="60"/>
+      <c r="B18" s="31">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="60"/>
+      <c r="B19" s="31">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="31">
+        <v>1</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="60"/>
+      <c r="B20" s="31">
+        <v>34.4</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="60"/>
+      <c r="B21" s="31">
+        <v>34.5</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="31">
+        <v>2</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="60"/>
+      <c r="B22" s="31">
+        <v>34.6</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="31">
+        <v>1</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="60"/>
+      <c r="B23" s="31">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="41"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="45">
+        <v>35</v>
+      </c>
+      <c r="B27" s="5">
+        <v>35.1</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="46"/>
+      <c r="B28" s="31">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="46"/>
+      <c r="B29" s="5">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="46"/>
+      <c r="B30" s="31">
+        <v>35.4</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="46"/>
+      <c r="B31" s="5">
+        <v>35.5</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="46"/>
+      <c r="B32" s="31">
+        <v>35.6</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="31">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="44"/>
+      <c r="B33" s="5">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="41"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="45">
+        <v>40</v>
+      </c>
+      <c r="B37" s="5">
+        <v>40.1</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="46"/>
+      <c r="B38" s="5">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="46"/>
+      <c r="B39" s="5">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="46"/>
+      <c r="B40" s="5">
+        <v>40.4</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="46"/>
+      <c r="B41" s="5">
+        <v>40.5</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="31">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="46"/>
+      <c r="B42" s="5">
+        <v>40.6</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="31">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="44"/>
+      <c r="B43" s="5">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="41"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="45">
+        <v>23</v>
+      </c>
+      <c r="B47" s="5">
+        <v>23.1</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="46"/>
+      <c r="B48" s="5">
+        <v>23.2</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="46"/>
+      <c r="B49" s="5">
+        <v>23.3</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="46"/>
+      <c r="B50" s="5">
+        <v>23.4</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="5">
+        <v>2</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="46"/>
+      <c r="B51" s="5">
+        <v>23.5</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="5">
+        <v>2</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="46"/>
+      <c r="B52" s="5">
+        <v>23.6</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="31">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="46"/>
+      <c r="B53" s="5">
+        <v>23.7</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="44"/>
+      <c r="B54" s="5">
+        <v>23.8</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" s="41"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="45">
+        <v>3</v>
+      </c>
+      <c r="B58" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="5">
+        <v>2</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="46"/>
+      <c r="B59" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="46"/>
+      <c r="B60" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="5">
+        <v>1</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="46"/>
+      <c r="B61" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="46"/>
+      <c r="B62" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" s="5">
+        <v>2</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="46"/>
+      <c r="B63" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="44"/>
+      <c r="B64" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G66" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="41"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="45">
+        <v>41</v>
+      </c>
+      <c r="B68" s="5">
+        <v>41.1</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="46"/>
+      <c r="B69" s="5">
+        <v>41.2</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="46"/>
+      <c r="B70" s="5">
+        <v>41.3</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="46"/>
+      <c r="B71" s="5">
+        <v>41.4</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="46"/>
+      <c r="B72" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D72" s="5">
+        <v>1</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="46"/>
+      <c r="B73" s="5">
+        <v>41.6</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73" s="31">
+        <v>1</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="44"/>
+      <c r="B74" s="5">
+        <v>41.7</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" s="54"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G76" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="41"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="45">
+        <v>25</v>
+      </c>
+      <c r="B78" s="5">
+        <v>25.1</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="46"/>
+      <c r="B79" s="5">
+        <v>25.2</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D79" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" s="5"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="46"/>
+      <c r="B80" s="5">
+        <v>25.3</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="46"/>
+      <c r="B81" s="5">
+        <v>25.4</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1</v>
+      </c>
+      <c r="E81" s="5"/>
+      <c r="F81" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="5"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="46"/>
+      <c r="B82" s="5">
+        <v>25.5</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D82" s="31">
+        <v>1</v>
+      </c>
+      <c r="E82" s="5"/>
+      <c r="F82" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" s="5"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="46"/>
+      <c r="B83" s="5">
+        <v>25.6</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="5"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="46"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="44"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" s="54"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G87" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H87" s="41"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="45">
+        <v>26</v>
+      </c>
+      <c r="B89" s="39">
+        <v>26.1</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D89" s="31">
+        <v>1</v>
+      </c>
+      <c r="E89" s="28"/>
+      <c r="F89" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" s="5"/>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="46"/>
+      <c r="B90" s="39">
+        <v>26.2</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D90" s="33">
+        <v>1</v>
+      </c>
+      <c r="E90" s="28"/>
+      <c r="F90" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90" s="5"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="46"/>
+      <c r="B91" s="39">
+        <v>26.3</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="E91" s="28"/>
+      <c r="F91" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" s="5"/>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="46"/>
+      <c r="B92" s="39">
+        <v>26.4</v>
+      </c>
+      <c r="C92" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" s="33">
+        <v>2</v>
+      </c>
+      <c r="E92" s="28"/>
+      <c r="F92" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" s="5"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="46"/>
+      <c r="B93" s="39">
+        <v>26.5</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D93" s="33">
+        <v>2</v>
+      </c>
+      <c r="E93" s="28"/>
+      <c r="F93" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93" s="5"/>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="46"/>
+      <c r="B94" s="39">
+        <v>26.6</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D94" s="31">
+        <v>2</v>
+      </c>
+      <c r="E94" s="28"/>
+      <c r="F94" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" s="5"/>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="46"/>
+      <c r="B95" s="39">
+        <v>26.7</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D95" s="5">
+        <v>1</v>
+      </c>
+      <c r="E95" s="28"/>
+      <c r="F95" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="5"/>
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="46"/>
+      <c r="B96" s="39">
+        <v>26.8</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D96" s="31">
+        <v>1</v>
+      </c>
+      <c r="E96" s="28"/>
+      <c r="F96" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" s="5"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="44"/>
+      <c r="B97" s="39">
+        <v>26.9</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="E97" s="29"/>
+      <c r="F97" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B99" s="54"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G99" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H99" s="41"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="45">
+        <v>27</v>
+      </c>
+      <c r="B101" s="5">
+        <v>27.1</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D101" s="5">
+        <v>2</v>
+      </c>
+      <c r="E101" s="5"/>
+      <c r="F101" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" s="5"/>
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="46"/>
+      <c r="B102" s="5">
+        <v>27.2</v>
+      </c>
+      <c r="C102" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" s="5"/>
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="46"/>
+      <c r="B103" s="5">
+        <v>27.3</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D103" s="5">
+        <v>1</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G103" s="5"/>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="46"/>
+      <c r="B104" s="5">
+        <v>27.4</v>
+      </c>
+      <c r="C104" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" s="5"/>
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="46"/>
+      <c r="B105" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D105" s="5">
+        <v>2</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" s="5"/>
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="46"/>
+      <c r="B106" s="5">
+        <v>27.6</v>
+      </c>
+      <c r="C106" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D106" s="5">
+        <v>1</v>
+      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G106" s="5"/>
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="44"/>
+      <c r="B107" s="5">
+        <v>27.7</v>
+      </c>
+      <c r="C107" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="F107" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B109" s="54"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G109" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H109" s="41"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="56">
+        <v>4</v>
+      </c>
+      <c r="B111" s="31">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C111" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D111" s="31">
+        <v>2</v>
+      </c>
+      <c r="E111" s="28"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="3"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="57"/>
+      <c r="B112" s="31">
+        <v>4.2</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D112" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="E112" s="28"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="3"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="57"/>
+      <c r="B113" s="31">
+        <v>4.3</v>
+      </c>
+      <c r="C113" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D113" s="31">
+        <v>1</v>
+      </c>
+      <c r="E113" s="28"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="57"/>
+      <c r="B114" s="31">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C114" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D114" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="E114" s="28"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="57"/>
+      <c r="B115" s="31">
+        <v>4.5</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D115" s="31">
+        <v>2</v>
+      </c>
+      <c r="E115" s="28"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="3"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="57"/>
+      <c r="B116" s="31">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C116" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D116" s="31">
+        <v>2</v>
+      </c>
+      <c r="E116" s="28"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="57"/>
+      <c r="B117" s="31">
+        <v>4.7</v>
+      </c>
+      <c r="C117" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D117" s="31">
+        <v>2</v>
+      </c>
+      <c r="E117" s="28"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="3"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="57"/>
+      <c r="B118" s="31">
+        <v>4.8</v>
+      </c>
+      <c r="C118" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D118" s="31">
+        <v>2</v>
+      </c>
+      <c r="E118" s="28"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="3"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="57"/>
+      <c r="B119" s="31">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C119" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D119" s="31">
+        <v>1</v>
+      </c>
+      <c r="E119" s="28"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="3"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="58"/>
+      <c r="B120" s="31">
+        <v>5</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D120" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="E120" s="29"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B122" s="54"/>
+      <c r="C122" s="54"/>
+      <c r="D122" s="54"/>
+      <c r="E122" s="55"/>
+      <c r="F122" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G122" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H122" s="41"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="45">
+        <v>30</v>
+      </c>
+      <c r="B124" s="5">
+        <v>27.1</v>
+      </c>
+      <c r="C124" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D124" s="5">
+        <v>2</v>
+      </c>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="46"/>
+      <c r="B125" s="5">
+        <v>27.2</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D125" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="46"/>
+      <c r="B126" s="5">
+        <v>27.3</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D126" s="5">
+        <v>1</v>
+      </c>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="46"/>
+      <c r="B127" s="5">
+        <v>27.4</v>
+      </c>
+      <c r="C127" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D127" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="3"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="46"/>
+      <c r="B128" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="C128" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D128" s="5">
+        <v>2</v>
+      </c>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="3"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="46"/>
+      <c r="B129" s="5">
+        <v>27.6</v>
+      </c>
+      <c r="C129" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D129" s="5">
+        <v>1</v>
+      </c>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="3"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="44"/>
+      <c r="B130" s="5">
+        <v>27.7</v>
+      </c>
+      <c r="C130" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A89:A97"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="A124:A130"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="A101:A107"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="A111:A120"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="21">
+      <formula>LEN(TRIM(F35))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:G1 A1">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="25">
+      <formula>LEN(TRIM(F1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7 A7">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="24">
+      <formula>LEN(TRIM(F7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15 A15">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="23">
+      <formula>LEN(TRIM(F15))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25 A25">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="22">
+      <formula>LEN(TRIM(F25))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="17">
+      <formula>LEN(TRIM(L35))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="20">
+      <formula>LEN(TRIM(L7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="19">
+      <formula>LEN(TRIM(L15))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="18">
+      <formula>LEN(TRIM(L25))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45 A45">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="16">
+      <formula>LEN(TRIM(F45))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="15">
+      <formula>LEN(TRIM(L45))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56 A56">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="14">
+      <formula>LEN(TRIM(F56))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="13">
+      <formula>LEN(TRIM(L56))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66 A66">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="12">
+      <formula>LEN(TRIM(F66))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="11">
+      <formula>LEN(TRIM(L66))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F76 A76">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="10">
+      <formula>LEN(TRIM(F76))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G76">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="9">
+      <formula>LEN(TRIM(L76))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87 A87">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="8">
+      <formula>LEN(TRIM(F87))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G87">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="7">
+      <formula>LEN(TRIM(L87))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F99 A99">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="6">
+      <formula>LEN(TRIM(F99))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G99">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+      <formula>LEN(TRIM(L99))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F109 A109">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="4">
+      <formula>LEN(TRIM(F109))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G109">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="3">
+      <formula>LEN(TRIM(L109))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F122 A122">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="2">
+      <formula>LEN(TRIM(F122))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G122">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(L122))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="26">
+      <formula>LEN(TRIM(K2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="139">
   <si>
     <t>User story: General Website Features</t>
   </si>
@@ -436,6 +436,9 @@
   <si>
     <t>Total story points</t>
   </si>
+  <si>
+    <t>If the table doesn’t exists. Create table for sponsors donations</t>
+  </si>
 </sst>
 </file>
 
@@ -493,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -658,11 +661,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -721,6 +766,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -764,10 +813,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1575,20 +1637,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="41"/>
+      <c r="H1" s="45"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1627,7 +1689,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45">
+      <c r="A3" s="49">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -1661,7 +1723,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -1686,7 +1748,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -1711,7 +1773,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -1736,7 +1798,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -1759,7 +1821,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="5">
         <v>6.6</v>
       </c>
@@ -1790,20 +1852,20 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="41"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="41"/>
+      <c r="H10" s="45"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1834,7 +1896,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45">
+      <c r="A12" s="49">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -1859,7 +1921,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -1882,7 +1944,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -1897,43 +1959,43 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="49">
+      <c r="A15" s="50"/>
+      <c r="B15" s="53">
         <v>1.4</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="53">
         <v>1</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="52">
         <v>1</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="47">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="16">
         <v>1.5</v>
       </c>
@@ -1964,20 +2026,20 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="41"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="41"/>
+      <c r="H19" s="45"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2008,7 +2070,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45">
+      <c r="A21" s="49">
         <v>11</v>
       </c>
       <c r="B21" s="22">
@@ -2035,7 +2097,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="22">
         <v>11.2</v>
       </c>
@@ -2060,7 +2122,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2079,20 +2141,20 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="41"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="41"/>
+      <c r="H25" s="45"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2123,7 +2185,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45">
+      <c r="A27" s="49">
         <v>12</v>
       </c>
       <c r="B27" s="22">
@@ -2150,7 +2212,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="22">
         <v>12.2</v>
       </c>
@@ -2173,7 +2235,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="22">
         <v>12.3</v>
       </c>
@@ -2213,20 +2275,20 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="41"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="40" t="s">
+      <c r="G32" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="41"/>
+      <c r="H32" s="45"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2257,7 +2319,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2268,7 +2330,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="46"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2279,7 +2341,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="46"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2290,7 +2352,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="46"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2301,7 +2363,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="46"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2312,7 +2374,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="46"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2323,7 +2385,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="44"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -10072,17 +10134,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="52" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="53"/>
+      <c r="G1" s="57"/>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
@@ -10123,7 +10185,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45">
+      <c r="A3" s="49">
         <v>21</v>
       </c>
       <c r="B3" s="5">
@@ -10156,7 +10218,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="5">
         <v>21.2</v>
       </c>
@@ -10180,7 +10242,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="5">
         <v>21.3</v>
       </c>
@@ -10204,7 +10266,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="5">
         <v>21.4</v>
       </c>
@@ -10228,7 +10290,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="5">
         <v>21.5</v>
       </c>
@@ -10250,7 +10312,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="5">
         <v>21.6</v>
       </c>
@@ -10272,7 +10334,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="5">
         <v>21.7</v>
       </c>
@@ -10294,7 +10356,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="5">
         <v>21.8</v>
       </c>
@@ -10318,7 +10380,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="5">
         <v>21.9</v>
       </c>
@@ -10351,17 +10413,17 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="52" t="s">
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="53"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="4" t="s">
         <v>4</v>
       </c>
@@ -10393,7 +10455,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45">
+      <c r="A15" s="49">
         <v>20</v>
       </c>
       <c r="B15" s="5">
@@ -10417,7 +10479,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="5">
         <v>20.2</v>
       </c>
@@ -10439,7 +10501,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="5">
         <v>20.3</v>
       </c>
@@ -10463,7 +10525,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="5">
         <v>20.399999999999999</v>
       </c>
@@ -10493,17 +10555,17 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="52" t="s">
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="53"/>
+      <c r="G20" s="57"/>
       <c r="H20" s="4" t="s">
         <v>4</v>
       </c>
@@ -10535,7 +10597,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="45">
+      <c r="A22" s="49">
         <v>5</v>
       </c>
       <c r="B22" s="5">
@@ -10557,7 +10619,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="5">
         <v>5.2</v>
       </c>
@@ -10583,17 +10645,17 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="52" t="s">
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="53"/>
+      <c r="G25" s="57"/>
       <c r="H25" s="4" t="s">
         <v>4</v>
       </c>
@@ -10625,7 +10687,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="45">
+      <c r="A27" s="49">
         <v>8</v>
       </c>
       <c r="B27" s="5">
@@ -10649,7 +10711,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="5">
         <v>8.1999999999999993</v>
       </c>
@@ -10671,7 +10733,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="5">
         <v>8.3000000000000007</v>
       </c>
@@ -10693,7 +10755,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="5">
         <v>8.4</v>
       </c>
@@ -10717,7 +10779,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="5">
         <v>8.5</v>
       </c>
@@ -10747,17 +10809,17 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="52" t="s">
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="53"/>
+      <c r="G33" s="57"/>
       <c r="H33" s="4" t="s">
         <v>4</v>
       </c>
@@ -10789,7 +10851,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="45">
+      <c r="A35" s="49">
         <v>4</v>
       </c>
       <c r="B35" s="5">
@@ -10813,7 +10875,7 @@
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="50"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="5">
         <v>4.2</v>
       </c>
@@ -10835,7 +10897,7 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="5">
         <v>4.3</v>
       </c>
@@ -10853,7 +10915,7 @@
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="51"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="5">
         <v>4.4000000000000004</v>
       </c>
@@ -18598,10 +18660,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K130"/>
+  <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18618,20 +18680,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="41"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -18666,7 +18728,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="59">
+      <c r="A3" s="69">
         <v>22</v>
       </c>
       <c r="B3" s="31">
@@ -18685,14 +18747,14 @@
       <c r="G3" s="5"/>
       <c r="H3" s="3"/>
       <c r="J3">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K3">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="31">
         <v>22.2</v>
       </c>
@@ -18710,7 +18772,7 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="31">
         <v>22.3</v>
       </c>
@@ -18728,20 +18790,20 @@
       <c r="H5" s="34"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="41"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="41"/>
+      <c r="H7" s="45"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
@@ -18770,7 +18832,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="59">
+      <c r="A9" s="69">
         <v>33</v>
       </c>
       <c r="B9" s="31">
@@ -18788,7 +18850,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -18804,7 +18866,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -18820,7 +18882,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="31">
         <v>33.4</v>
       </c>
@@ -18836,7 +18898,7 @@
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="31">
         <v>33.5</v>
       </c>
@@ -18852,38 +18914,38 @@
       <c r="H13" s="34"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="41"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="41"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="28" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -18894,9 +18956,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="59">
-        <v>34</v>
-      </c>
+      <c r="A17" s="65"/>
       <c r="B17" s="31">
         <v>34.1</v>
       </c>
@@ -18912,8 +18972,8 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
-      <c r="B18" s="31">
+      <c r="A18" s="65"/>
+      <c r="B18" s="43">
         <v>34.200000000000003</v>
       </c>
       <c r="C18" s="32" t="s">
@@ -18928,7 +18988,7 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="31">
         <v>34.299999999999997</v>
       </c>
@@ -18944,8 +19004,8 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
-      <c r="B20" s="31">
+      <c r="A20" s="65"/>
+      <c r="B20" s="43">
         <v>34.4</v>
       </c>
       <c r="C20" s="32" t="s">
@@ -18960,7 +19020,7 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="60"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="31">
         <v>34.5</v>
       </c>
@@ -18976,8 +19036,8 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="60"/>
-      <c r="B22" s="31">
+      <c r="A22" s="65"/>
+      <c r="B22" s="43">
         <v>34.6</v>
       </c>
       <c r="C22" s="32" t="s">
@@ -18992,11 +19052,11 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="60"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="31">
         <v>34.700000000000003</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="40" t="s">
         <v>116</v>
       </c>
       <c r="D23" s="3">
@@ -19008,20 +19068,20 @@
       <c r="H23" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="55"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="41"/>
+      <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
@@ -19050,14 +19110,14 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="45">
+      <c r="A27" s="60">
         <v>35</v>
       </c>
       <c r="B27" s="5">
         <v>35.1</v>
       </c>
-      <c r="C27" s="32" t="s">
-        <v>98</v>
+      <c r="C27" s="41" t="s">
+        <v>138</v>
       </c>
       <c r="D27" s="5">
         <v>0.5</v>
@@ -19068,12 +19128,12 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="31">
         <v>35.200000000000003</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D28" s="5">
         <v>0.5</v>
@@ -19084,15 +19144,15 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="5">
         <v>35.299999999999997</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D29" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -19100,15 +19160,15 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="31">
         <v>35.4</v>
       </c>
-      <c r="C30" s="27" t="s">
-        <v>99</v>
+      <c r="C30" s="32" t="s">
+        <v>102</v>
       </c>
       <c r="D30" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -19116,15 +19176,15 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="5">
         <v>35.5</v>
       </c>
-      <c r="C31" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" s="31">
-        <v>1</v>
+      <c r="C31" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.5</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -19132,12 +19192,12 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
+      <c r="A32" s="67"/>
       <c r="B32" s="31">
         <v>35.6</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D32" s="31">
         <v>1</v>
@@ -19148,90 +19208,90 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="44"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="5">
         <v>35.700000000000003</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="31">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="68"/>
+      <c r="B34" s="5">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="C34" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D34" s="3">
         <v>0.5</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="40" t="s">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="1" t="s">
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="40" t="s">
+      <c r="G36" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="41"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="H36" s="45"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="49">
         <v>40</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B38" s="5">
         <v>40.1</v>
       </c>
-      <c r="C37" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="5">
-        <v>2</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="46"/>
-      <c r="B38" s="5">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="C38" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="31">
         <v>0.5</v>
       </c>
       <c r="E38" s="5"/>
@@ -19240,15 +19300,15 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="46"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="5">
-        <v>40.299999999999997</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D39" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -19256,15 +19316,15 @@
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="46"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="5">
-        <v>40.4</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>106</v>
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>104</v>
       </c>
       <c r="D40" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -19272,14 +19332,14 @@
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="46"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="5">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" s="31">
+        <v>105</v>
+      </c>
+      <c r="D41" s="5">
         <v>1</v>
       </c>
       <c r="E41" s="5"/>
@@ -19288,14 +19348,14 @@
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="46"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="5">
-        <v>40.6</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D42" s="31">
+        <v>40.5</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="5">
         <v>1</v>
       </c>
       <c r="E42" s="5"/>
@@ -19304,107 +19364,107 @@
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="44"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="5">
+        <v>40.6</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="31">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="54"/>
+      <c r="B44" s="5">
         <v>40.700000000000003</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C44" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="31">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="55"/>
+      <c r="B45" s="5">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="C45" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D45" s="3">
         <v>0.5</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="40" t="s">
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="1" t="s">
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G45" s="40" t="s">
+      <c r="G47" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="41"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+      <c r="H47" s="45"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="49">
         <v>23</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B49" s="5">
         <v>23.1</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C49" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D49" s="5">
         <v>1</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="46"/>
-      <c r="B48" s="5">
-        <v>23.2</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" s="5">
-        <v>1</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="46"/>
-      <c r="B49" s="5">
-        <v>23.3</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D49" s="5">
-        <v>0.5</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -19412,15 +19472,15 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="46"/>
+      <c r="A50" s="50"/>
       <c r="B50" s="5">
-        <v>23.4</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>105</v>
+        <v>23.2</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="D50" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -19428,15 +19488,15 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="46"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="5">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D51" s="5">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -19444,15 +19504,15 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="46"/>
+      <c r="A52" s="50"/>
       <c r="B52" s="5">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="D52" s="31">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="D52" s="5">
+        <v>2</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -19460,12 +19520,12 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="46"/>
+      <c r="A53" s="50"/>
       <c r="B53" s="5">
-        <v>23.7</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>135</v>
+        <v>23.5</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="D53" s="5">
         <v>2</v>
@@ -19476,107 +19536,107 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="44"/>
+      <c r="A54" s="50"/>
       <c r="B54" s="5">
+        <v>23.6</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="31">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="50"/>
+      <c r="B55" s="5">
+        <v>23.7</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="5">
+        <v>2</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="48"/>
+      <c r="B56" s="5">
         <v>23.8</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C56" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D56" s="3">
         <v>0.5</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="40" t="s">
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="1" t="s">
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G56" s="40" t="s">
+      <c r="G58" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H56" s="41"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
+      <c r="H58" s="45"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B59" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F59" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="49">
         <v>3</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B60" s="5">
         <v>3.1</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C60" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D60" s="5">
         <v>2</v>
-      </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="46"/>
-      <c r="B59" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D59" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="46"/>
-      <c r="B60" s="5">
-        <v>3.3</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D60" s="5">
-        <v>1</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -19584,12 +19644,12 @@
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="46"/>
+      <c r="A61" s="50"/>
       <c r="B61" s="5">
-        <v>3.4</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>112</v>
+        <v>3.2</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>104</v>
       </c>
       <c r="D61" s="5">
         <v>0.5</v>
@@ -19600,15 +19660,15 @@
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="46"/>
+      <c r="A62" s="50"/>
       <c r="B62" s="5">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D62" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -19616,15 +19676,15 @@
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="46"/>
+      <c r="A63" s="50"/>
       <c r="B63" s="5">
-        <v>3.6</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>135</v>
+        <v>3.4</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="D63" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -19632,104 +19692,104 @@
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="44"/>
+      <c r="A64" s="50"/>
       <c r="B64" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="5">
+        <v>2</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="50"/>
+      <c r="B65" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="48"/>
+      <c r="B66" s="5">
         <v>3.7</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C66" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D66" s="3">
         <v>0.5</v>
       </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="40" t="s">
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="54"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="1" t="s">
+      <c r="B68" s="58"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G66" s="40" t="s">
+      <c r="G68" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H66" s="41"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
+      <c r="H68" s="45"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B69" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F69" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G69" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H69" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="49">
         <v>41</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B70" s="5">
         <v>41.1</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="C70" s="32" t="s">
         <v>113</v>
-      </c>
-      <c r="D68" s="5">
-        <v>1</v>
-      </c>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="46"/>
-      <c r="B69" s="5">
-        <v>41.2</v>
-      </c>
-      <c r="C69" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D69" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="46"/>
-      <c r="B70" s="5">
-        <v>41.3</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>105</v>
       </c>
       <c r="D70" s="5">
         <v>1</v>
@@ -19740,15 +19800,15 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="46"/>
+      <c r="A71" s="50"/>
       <c r="B71" s="5">
-        <v>41.4</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>106</v>
+        <v>41.2</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>104</v>
       </c>
       <c r="D71" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -19756,12 +19816,12 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="46"/>
+      <c r="A72" s="50"/>
       <c r="B72" s="5">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="D72" s="5">
         <v>1</v>
@@ -19772,14 +19832,14 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="46"/>
+      <c r="A73" s="50"/>
       <c r="B73" s="5">
-        <v>41.6</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D73" s="31">
+        <v>41.4</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" s="5">
         <v>1</v>
       </c>
       <c r="E73" s="5"/>
@@ -19788,108 +19848,104 @@
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="44"/>
+      <c r="A74" s="50"/>
       <c r="B74" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="50"/>
+      <c r="B75" s="5">
+        <v>41.6</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" s="31">
+        <v>1</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="48"/>
+      <c r="B76" s="5">
         <v>41.7</v>
       </c>
-      <c r="C74" s="27" t="s">
+      <c r="C76" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D76" s="3">
         <v>0.5</v>
       </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="40" t="s">
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B76" s="54"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="1" t="s">
+      <c r="B78" s="58"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G76" s="40" t="s">
+      <c r="G78" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H76" s="41"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
+      <c r="H78" s="45"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B79" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E79" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F79" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H79" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="49">
         <v>25</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B80" s="5">
         <v>25.1</v>
       </c>
-      <c r="C78" s="32" t="s">
+      <c r="C80" s="32" t="s">
         <v>113</v>
-      </c>
-      <c r="D78" s="5">
-        <v>1</v>
-      </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="3"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="46"/>
-      <c r="B79" s="5">
-        <v>25.2</v>
-      </c>
-      <c r="C79" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D79" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E79" s="5"/>
-      <c r="F79" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" s="5"/>
-      <c r="H79" s="3"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="46"/>
-      <c r="B80" s="5">
-        <v>25.3</v>
-      </c>
-      <c r="C80" s="32" t="s">
-        <v>118</v>
       </c>
       <c r="D80" s="5">
         <v>1</v>
@@ -19902,15 +19958,15 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="46"/>
+      <c r="A81" s="50"/>
       <c r="B81" s="5">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="D81" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="27" t="s">
@@ -19920,14 +19976,14 @@
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="46"/>
+      <c r="A82" s="50"/>
       <c r="B82" s="5">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D82" s="31">
+        <v>118</v>
+      </c>
+      <c r="D82" s="5">
         <v>1</v>
       </c>
       <c r="E82" s="5"/>
@@ -19938,15 +19994,15 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="46"/>
+      <c r="A83" s="50"/>
       <c r="B83" s="5">
-        <v>25.6</v>
-      </c>
-      <c r="C83" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D83" s="3">
-        <v>0.5</v>
+        <v>25.4</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="27" t="s">
@@ -19956,115 +20012,115 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="46"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
+      <c r="A84" s="50"/>
+      <c r="B84" s="5">
+        <v>25.5</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D84" s="31">
+        <v>1</v>
+      </c>
       <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
+      <c r="F84" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G84" s="5"/>
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="44"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
+      <c r="A85" s="50"/>
+      <c r="B85" s="5">
+        <v>25.6</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E85" s="5"/>
+      <c r="F85" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="5"/>
       <c r="H85" s="3"/>
     </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="50"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="3"/>
+    </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="48"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B87" s="54"/>
-      <c r="C87" s="54"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="1" t="s">
+      <c r="B89" s="58"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G87" s="40" t="s">
+      <c r="G89" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H87" s="41"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
+      <c r="H89" s="45"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B90" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C90" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="18" t="s">
+      <c r="D90" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E90" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F90" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G90" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="H90" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="45">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="49">
         <v>26</v>
       </c>
-      <c r="B89" s="39">
+      <c r="B91" s="39">
         <v>26.1</v>
       </c>
-      <c r="C89" s="32" t="s">
+      <c r="C91" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="D89" s="31">
+      <c r="D91" s="31">
         <v>1</v>
-      </c>
-      <c r="E89" s="28"/>
-      <c r="F89" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G89" s="5"/>
-      <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="46"/>
-      <c r="B90" s="39">
-        <v>26.2</v>
-      </c>
-      <c r="C90" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D90" s="33">
-        <v>1</v>
-      </c>
-      <c r="E90" s="28"/>
-      <c r="F90" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" s="5"/>
-      <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="46"/>
-      <c r="B91" s="39">
-        <v>26.3</v>
-      </c>
-      <c r="C91" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D91" s="31">
-        <v>0.5</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="27" t="s">
@@ -20074,15 +20130,15 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="46"/>
+      <c r="A92" s="50"/>
       <c r="B92" s="39">
-        <v>26.4</v>
-      </c>
-      <c r="C92" s="38" t="s">
-        <v>121</v>
+        <v>26.2</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>120</v>
       </c>
       <c r="D92" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E92" s="28"/>
       <c r="F92" s="27" t="s">
@@ -20092,15 +20148,15 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="46"/>
+      <c r="A93" s="50"/>
       <c r="B93" s="39">
-        <v>26.5</v>
-      </c>
-      <c r="C93" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D93" s="33">
-        <v>2</v>
+        <v>26.3</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D93" s="31">
+        <v>0.5</v>
       </c>
       <c r="E93" s="28"/>
       <c r="F93" s="27" t="s">
@@ -20110,14 +20166,14 @@
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="46"/>
+      <c r="A94" s="50"/>
       <c r="B94" s="39">
-        <v>26.6</v>
-      </c>
-      <c r="C94" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D94" s="31">
+        <v>26.4</v>
+      </c>
+      <c r="C94" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D94" s="33">
         <v>2</v>
       </c>
       <c r="E94" s="28"/>
@@ -20128,15 +20184,15 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="46"/>
+      <c r="A95" s="50"/>
       <c r="B95" s="39">
-        <v>26.7</v>
-      </c>
-      <c r="C95" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="D95" s="5">
-        <v>1</v>
+        <v>26.5</v>
+      </c>
+      <c r="C95" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" s="33">
+        <v>2</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="27" t="s">
@@ -20146,15 +20202,15 @@
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="46"/>
+      <c r="A96" s="50"/>
       <c r="B96" s="39">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D96" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" s="28"/>
       <c r="F96" s="27" t="s">
@@ -20164,113 +20220,113 @@
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="44"/>
+      <c r="A97" s="50"/>
       <c r="B97" s="39">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D97" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="E97" s="29"/>
+        <v>134</v>
+      </c>
+      <c r="D97" s="5">
+        <v>1</v>
+      </c>
+      <c r="E97" s="28"/>
       <c r="F97" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G97" s="3"/>
+      <c r="G97" s="5"/>
       <c r="H97" s="3"/>
     </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="50"/>
+      <c r="B98" s="39">
+        <v>26.8</v>
+      </c>
+      <c r="C98" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D98" s="31">
+        <v>1</v>
+      </c>
+      <c r="E98" s="28"/>
+      <c r="F98" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" s="5"/>
+      <c r="H98" s="3"/>
+    </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="40" t="s">
+      <c r="A99" s="48"/>
+      <c r="B99" s="39">
+        <v>26.9</v>
+      </c>
+      <c r="C99" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D99" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="E99" s="29"/>
+      <c r="F99" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="B99" s="54"/>
-      <c r="C99" s="54"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="55"/>
-      <c r="F99" s="1" t="s">
+      <c r="B101" s="58"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="58"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G99" s="40" t="s">
+      <c r="G101" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H99" s="41"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="6" t="s">
+      <c r="H101" s="45"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B102" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C102" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E102" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F102" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="G102" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="H102" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="45">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="49">
         <v>27</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B103" s="5">
         <v>27.1</v>
       </c>
-      <c r="C101" s="32" t="s">
+      <c r="C103" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D103" s="5">
         <v>2</v>
-      </c>
-      <c r="E101" s="5"/>
-      <c r="F101" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G101" s="5"/>
-      <c r="H101" s="3"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="46"/>
-      <c r="B102" s="5">
-        <v>27.2</v>
-      </c>
-      <c r="C102" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D102" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E102" s="5"/>
-      <c r="F102" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" s="5"/>
-      <c r="H102" s="3"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="46"/>
-      <c r="B103" s="5">
-        <v>27.3</v>
-      </c>
-      <c r="C103" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D103" s="5">
-        <v>1</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="27" t="s">
@@ -20280,12 +20336,12 @@
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="46"/>
+      <c r="A104" s="50"/>
       <c r="B104" s="5">
-        <v>27.4</v>
-      </c>
-      <c r="C104" s="27" t="s">
-        <v>112</v>
+        <v>27.2</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>104</v>
       </c>
       <c r="D104" s="5">
         <v>0.5</v>
@@ -20298,15 +20354,15 @@
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="46"/>
+      <c r="A105" s="50"/>
       <c r="B105" s="5">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D105" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="27" t="s">
@@ -20316,15 +20372,15 @@
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="46"/>
+      <c r="A106" s="50"/>
       <c r="B106" s="5">
-        <v>27.6</v>
-      </c>
-      <c r="C106" s="32" t="s">
-        <v>135</v>
+        <v>27.4</v>
+      </c>
+      <c r="C106" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="D106" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="27" t="s">
@@ -20334,109 +20390,113 @@
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="44"/>
+      <c r="A107" s="50"/>
       <c r="B107" s="5">
-        <v>27.7</v>
-      </c>
-      <c r="C107" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D107" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E107" s="3"/>
+        <v>27.5</v>
+      </c>
+      <c r="C107" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D107" s="5">
+        <v>2</v>
+      </c>
+      <c r="E107" s="5"/>
       <c r="F107" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G107" s="3"/>
+      <c r="G107" s="5"/>
       <c r="H107" s="3"/>
     </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="50"/>
+      <c r="B108" s="5">
+        <v>27.6</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G108" s="5"/>
+      <c r="H108" s="3"/>
+    </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="40" t="s">
+      <c r="A109" s="48"/>
+      <c r="B109" s="5">
+        <v>27.7</v>
+      </c>
+      <c r="C109" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E109" s="3"/>
+      <c r="F109" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="B109" s="54"/>
-      <c r="C109" s="54"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="55"/>
-      <c r="F109" s="1" t="s">
+      <c r="B111" s="58"/>
+      <c r="C111" s="58"/>
+      <c r="D111" s="58"/>
+      <c r="E111" s="59"/>
+      <c r="F111" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G109" s="40" t="s">
+      <c r="G111" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H109" s="41"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="6" t="s">
+      <c r="H111" s="45"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B112" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C112" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D110" s="18" t="s">
+      <c r="D112" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E112" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F110" s="5" t="s">
+      <c r="F112" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G110" s="5" t="s">
+      <c r="G112" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="H112" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="56">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="60">
         <v>4</v>
       </c>
-      <c r="B111" s="31">
+      <c r="B113" s="31">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C111" s="32" t="s">
+      <c r="C113" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D111" s="31">
+      <c r="D113" s="31">
         <v>2</v>
-      </c>
-      <c r="E111" s="28"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="3"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="57"/>
-      <c r="B112" s="31">
-        <v>4.2</v>
-      </c>
-      <c r="C112" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D112" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="E112" s="28"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="3"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="57"/>
-      <c r="B113" s="31">
-        <v>4.3</v>
-      </c>
-      <c r="C113" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D113" s="31">
-        <v>1</v>
       </c>
       <c r="E113" s="28"/>
       <c r="F113" s="5"/>
@@ -20444,12 +20504,12 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="57"/>
+      <c r="A114" s="61"/>
       <c r="B114" s="31">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D114" s="31">
         <v>0.5</v>
@@ -20460,15 +20520,15 @@
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="57"/>
+      <c r="A115" s="61"/>
       <c r="B115" s="31">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="D115" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115" s="28"/>
       <c r="F115" s="5"/>
@@ -20476,15 +20536,15 @@
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="57"/>
+      <c r="A116" s="61"/>
       <c r="B116" s="31">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D116" s="31">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E116" s="28"/>
       <c r="F116" s="5"/>
@@ -20492,12 +20552,12 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="57"/>
+      <c r="A117" s="61"/>
       <c r="B117" s="31">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D117" s="31">
         <v>2</v>
@@ -20508,12 +20568,12 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="57"/>
+      <c r="A118" s="61"/>
       <c r="B118" s="31">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D118" s="31">
         <v>2</v>
@@ -20524,15 +20584,15 @@
       <c r="H118" s="3"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="57"/>
+      <c r="A119" s="61"/>
       <c r="B119" s="31">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D119" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E119" s="28"/>
       <c r="F119" s="5"/>
@@ -20540,107 +20600,107 @@
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="58"/>
+      <c r="A120" s="61"/>
       <c r="B120" s="31">
+        <v>4.8</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D120" s="31">
+        <v>2</v>
+      </c>
+      <c r="E120" s="28"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="3"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="61"/>
+      <c r="B121" s="31">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D121" s="31">
+        <v>1</v>
+      </c>
+      <c r="E121" s="28"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="3"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="62"/>
+      <c r="B122" s="31">
         <v>5</v>
       </c>
-      <c r="C120" s="32" t="s">
+      <c r="C122" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="D120" s="34">
+      <c r="D122" s="34">
         <v>0.5</v>
       </c>
-      <c r="E120" s="29"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="40" t="s">
+      <c r="E122" s="29"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="B122" s="54"/>
-      <c r="C122" s="54"/>
-      <c r="D122" s="54"/>
-      <c r="E122" s="55"/>
-      <c r="F122" s="1" t="s">
+      <c r="B124" s="58"/>
+      <c r="C124" s="58"/>
+      <c r="D124" s="58"/>
+      <c r="E124" s="59"/>
+      <c r="F124" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G122" s="40" t="s">
+      <c r="G124" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H122" s="41"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="6" t="s">
+      <c r="H124" s="45"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B125" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C125" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D125" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="E125" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F123" s="5" t="s">
+      <c r="F125" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G123" s="5" t="s">
+      <c r="G125" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H123" s="3" t="s">
+      <c r="H125" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="45">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="49">
         <v>30</v>
       </c>
-      <c r="B124" s="5">
+      <c r="B126" s="5">
         <v>27.1</v>
       </c>
-      <c r="C124" s="32" t="s">
+      <c r="C126" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D126" s="5">
         <v>2</v>
-      </c>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="3"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="46"/>
-      <c r="B125" s="5">
-        <v>27.2</v>
-      </c>
-      <c r="C125" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D125" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="3"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="46"/>
-      <c r="B126" s="5">
-        <v>27.3</v>
-      </c>
-      <c r="C126" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D126" s="5">
-        <v>1</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -20648,12 +20708,12 @@
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="46"/>
+      <c r="A127" s="50"/>
       <c r="B127" s="5">
-        <v>27.4</v>
-      </c>
-      <c r="C127" s="27" t="s">
-        <v>133</v>
+        <v>27.2</v>
+      </c>
+      <c r="C127" s="32" t="s">
+        <v>104</v>
       </c>
       <c r="D127" s="5">
         <v>0.5</v>
@@ -20664,15 +20724,15 @@
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="46"/>
+      <c r="A128" s="50"/>
       <c r="B128" s="5">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D128" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -20680,15 +20740,15 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="46"/>
+      <c r="A129" s="50"/>
       <c r="B129" s="5">
-        <v>27.6</v>
-      </c>
-      <c r="C129" s="32" t="s">
-        <v>135</v>
+        <v>27.4</v>
+      </c>
+      <c r="C129" s="27" t="s">
+        <v>133</v>
       </c>
       <c r="D129" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -20696,20 +20756,52 @@
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="44"/>
+      <c r="A130" s="50"/>
       <c r="B130" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="C130" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D130" s="5">
+        <v>2</v>
+      </c>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="3"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="50"/>
+      <c r="B131" s="5">
+        <v>27.6</v>
+      </c>
+      <c r="C131" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D131" s="5">
+        <v>1</v>
+      </c>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="3"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="48"/>
+      <c r="B132" s="5">
         <v>27.7</v>
       </c>
-      <c r="C130" s="27" t="s">
+      <c r="C132" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D132" s="3">
         <v>0.5</v>
       </c>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -20719,43 +20811,43 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="A49:A56"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:A23"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="A89:A97"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="A58:A64"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="A78:A85"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="A124:A130"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="A101:A107"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="A111:A120"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A113:A122"/>
   </mergeCells>
-  <conditionalFormatting sqref="A35">
+  <conditionalFormatting sqref="A36">
     <cfRule type="notContainsBlanks" dxfId="25" priority="21">
-      <formula>LEN(TRIM(F35))&gt;0</formula>
+      <formula>LEN(TRIM(F36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1 A1">
@@ -20778,9 +20870,9 @@
       <formula>LEN(TRIM(F25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+  <conditionalFormatting sqref="G36">
     <cfRule type="notContainsBlanks" dxfId="20" priority="17">
-      <formula>LEN(TRIM(L35))&gt;0</formula>
+      <formula>LEN(TRIM(L36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
@@ -20798,87 +20890,87 @@
       <formula>LEN(TRIM(L25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45 A45">
+  <conditionalFormatting sqref="F47 A47">
     <cfRule type="notContainsBlanks" dxfId="16" priority="16">
-      <formula>LEN(TRIM(F45))&gt;0</formula>
+      <formula>LEN(TRIM(F47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
+  <conditionalFormatting sqref="G47">
     <cfRule type="notContainsBlanks" dxfId="15" priority="15">
-      <formula>LEN(TRIM(L45))&gt;0</formula>
+      <formula>LEN(TRIM(L47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56 A56">
+  <conditionalFormatting sqref="F58 A58">
     <cfRule type="notContainsBlanks" dxfId="14" priority="14">
-      <formula>LEN(TRIM(F56))&gt;0</formula>
+      <formula>LEN(TRIM(F58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56">
+  <conditionalFormatting sqref="G58">
     <cfRule type="notContainsBlanks" dxfId="13" priority="13">
-      <formula>LEN(TRIM(L56))&gt;0</formula>
+      <formula>LEN(TRIM(L58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F66 A66">
+  <conditionalFormatting sqref="F68 A68">
     <cfRule type="notContainsBlanks" dxfId="12" priority="12">
-      <formula>LEN(TRIM(F66))&gt;0</formula>
+      <formula>LEN(TRIM(F68))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
+  <conditionalFormatting sqref="G68">
     <cfRule type="notContainsBlanks" dxfId="11" priority="11">
-      <formula>LEN(TRIM(L66))&gt;0</formula>
+      <formula>LEN(TRIM(L68))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76 A76">
+  <conditionalFormatting sqref="F78 A78">
     <cfRule type="notContainsBlanks" dxfId="10" priority="10">
-      <formula>LEN(TRIM(F76))&gt;0</formula>
+      <formula>LEN(TRIM(F78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G76">
+  <conditionalFormatting sqref="G78">
     <cfRule type="notContainsBlanks" dxfId="9" priority="9">
-      <formula>LEN(TRIM(L76))&gt;0</formula>
+      <formula>LEN(TRIM(L78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87 A87">
+  <conditionalFormatting sqref="F89 A89">
     <cfRule type="notContainsBlanks" dxfId="8" priority="8">
-      <formula>LEN(TRIM(F87))&gt;0</formula>
+      <formula>LEN(TRIM(F89))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G87">
+  <conditionalFormatting sqref="G89">
     <cfRule type="notContainsBlanks" dxfId="7" priority="7">
-      <formula>LEN(TRIM(L87))&gt;0</formula>
+      <formula>LEN(TRIM(L89))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F99 A99">
+  <conditionalFormatting sqref="F101 A101">
     <cfRule type="notContainsBlanks" dxfId="6" priority="6">
-      <formula>LEN(TRIM(F99))&gt;0</formula>
+      <formula>LEN(TRIM(F101))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99">
+  <conditionalFormatting sqref="G101">
     <cfRule type="notContainsBlanks" dxfId="5" priority="5">
-      <formula>LEN(TRIM(L99))&gt;0</formula>
+      <formula>LEN(TRIM(L101))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F109 A109">
+  <conditionalFormatting sqref="F111 A111">
     <cfRule type="notContainsBlanks" dxfId="4" priority="4">
-      <formula>LEN(TRIM(F109))&gt;0</formula>
+      <formula>LEN(TRIM(F111))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G109">
+  <conditionalFormatting sqref="G111">
     <cfRule type="notContainsBlanks" dxfId="3" priority="3">
-      <formula>LEN(TRIM(L109))&gt;0</formula>
+      <formula>LEN(TRIM(L111))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F122 A122">
+  <conditionalFormatting sqref="F124 A124">
     <cfRule type="notContainsBlanks" dxfId="2" priority="2">
-      <formula>LEN(TRIM(F122))&gt;0</formula>
+      <formula>LEN(TRIM(F124))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G122">
+  <conditionalFormatting sqref="G124">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(L122))&gt;0</formula>
+      <formula>LEN(TRIM(L124))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
+  <conditionalFormatting sqref="F36">
     <cfRule type="notContainsBlanks" dxfId="0" priority="26">
       <formula>LEN(TRIM(K2))&gt;0</formula>
     </cfRule>

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\QUT\Year 2\Sem 2\IFB299\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\QUT\Year 2\Sem 2\IFB299\IFB299-Group23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -707,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -774,18 +774,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -802,23 +802,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -827,9 +828,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1640,9 +1641,9 @@
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="45"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1689,7 +1690,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49">
+      <c r="A3" s="47">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -1723,7 +1724,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -1748,7 +1749,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -1773,7 +1774,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -1798,7 +1799,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -1821,7 +1822,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="5">
         <v>6.6</v>
       </c>
@@ -1852,17 +1853,17 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="45"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="50" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="45"/>
@@ -1896,7 +1897,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49">
+      <c r="A12" s="47">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -1921,7 +1922,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -1944,7 +1945,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -1959,7 +1960,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="53">
         <v>1.4</v>
       </c>
@@ -1975,27 +1976,27 @@
       <c r="F15" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G15" s="51">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
       <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="16">
         <v>1.5</v>
       </c>
@@ -2029,9 +2030,9 @@
       <c r="A19" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="45"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
@@ -2070,7 +2071,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49">
+      <c r="A21" s="47">
         <v>11</v>
       </c>
       <c r="B21" s="22">
@@ -2097,7 +2098,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="22">
         <v>11.2</v>
       </c>
@@ -2122,7 +2123,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2144,9 +2145,9 @@
       <c r="A25" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="45"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
@@ -2185,7 +2186,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49">
+      <c r="A27" s="47">
         <v>12</v>
       </c>
       <c r="B27" s="22">
@@ -2212,7 +2213,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="22">
         <v>12.2</v>
       </c>
@@ -2235,7 +2236,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="22">
         <v>12.3</v>
       </c>
@@ -2278,9 +2279,9 @@
       <c r="A32" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="45"/>
       <c r="F32" s="1" t="s">
         <v>88</v>
@@ -2319,7 +2320,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="49"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2330,7 +2331,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="50"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2341,7 +2342,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="50"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2352,7 +2353,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2363,7 +2364,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2374,7 +2375,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2385,7 +2386,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -10081,15 +10082,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:E19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G15:G16"/>
@@ -10101,6 +10093,15 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G1 A1 F10:G10 A10 F19:G19 A19 F25:G25 A25 F32:G32 A32">
     <cfRule type="notContainsBlanks" dxfId="35" priority="1">
@@ -10137,9 +10138,9 @@
       <c r="A1" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="45"/>
       <c r="F1" s="56" t="s">
         <v>1</v>
@@ -10185,7 +10186,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49">
+      <c r="A3" s="47">
         <v>21</v>
       </c>
       <c r="B3" s="5">
@@ -10218,7 +10219,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="5">
         <v>21.2</v>
       </c>
@@ -10242,7 +10243,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="5">
         <v>21.3</v>
       </c>
@@ -10266,7 +10267,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="5">
         <v>21.4</v>
       </c>
@@ -10290,7 +10291,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="5">
         <v>21.5</v>
       </c>
@@ -10312,7 +10313,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="5">
         <v>21.6</v>
       </c>
@@ -10334,7 +10335,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="5">
         <v>21.7</v>
       </c>
@@ -10356,7 +10357,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="5">
         <v>21.8</v>
       </c>
@@ -10380,7 +10381,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="5">
         <v>21.9</v>
       </c>
@@ -10416,9 +10417,9 @@
       <c r="A13" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="45"/>
       <c r="F13" s="56" t="s">
         <v>42</v>
@@ -10455,7 +10456,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49">
+      <c r="A15" s="47">
         <v>20</v>
       </c>
       <c r="B15" s="5">
@@ -10479,7 +10480,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="5">
         <v>20.2</v>
       </c>
@@ -10501,7 +10502,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="5">
         <v>20.3</v>
       </c>
@@ -10525,7 +10526,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="5">
         <v>20.399999999999999</v>
       </c>
@@ -10558,9 +10559,9 @@
       <c r="A20" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="45"/>
       <c r="F20" s="56" t="s">
         <v>49</v>
@@ -10597,7 +10598,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49">
+      <c r="A22" s="47">
         <v>5</v>
       </c>
       <c r="B22" s="5">
@@ -10619,7 +10620,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="5">
         <v>5.2</v>
       </c>
@@ -10648,9 +10649,9 @@
       <c r="A25" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="45"/>
       <c r="F25" s="56" t="s">
         <v>40</v>
@@ -10687,7 +10688,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49">
+      <c r="A27" s="47">
         <v>8</v>
       </c>
       <c r="B27" s="5">
@@ -10812,9 +10813,9 @@
       <c r="A33" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="45"/>
       <c r="F33" s="56" t="s">
         <v>70</v>
@@ -10851,7 +10852,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="49">
+      <c r="A35" s="47">
         <v>4</v>
       </c>
       <c r="B35" s="5">
@@ -18662,8 +18663,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18683,15 +18684,15 @@
       <c r="A1" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="45"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1" s="45"/>
     </row>
@@ -18728,7 +18729,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="69">
+      <c r="A3" s="58">
         <v>22</v>
       </c>
       <c r="B3" s="31">
@@ -18740,11 +18741,15 @@
       <c r="D3" s="31">
         <v>0.5</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="31">
+        <v>0.5</v>
+      </c>
       <c r="F3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="70">
+        <v>42635</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="J3">
         <v>92</v>
@@ -18754,7 +18759,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="31">
         <v>22.2</v>
       </c>
@@ -18764,15 +18769,19 @@
       <c r="D4" s="31">
         <v>1</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="31">
+        <v>1</v>
+      </c>
       <c r="F4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="70">
+        <v>42635</v>
+      </c>
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="31">
         <v>22.3</v>
       </c>
@@ -18782,20 +18791,24 @@
       <c r="D5" s="34">
         <v>0.5</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="31">
+        <v>1</v>
+      </c>
       <c r="F5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="70">
+        <v>42635</v>
+      </c>
       <c r="H5" s="34"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="45"/>
       <c r="F7" s="1" t="s">
         <v>49</v>
@@ -18832,7 +18845,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="69">
+      <c r="A9" s="58">
         <v>33</v>
       </c>
       <c r="B9" s="31">
@@ -18850,7 +18863,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="69"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -18866,7 +18879,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="69"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -18882,7 +18895,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="69"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="31">
         <v>33.4</v>
       </c>
@@ -18898,7 +18911,7 @@
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="69"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="31">
         <v>33.5</v>
       </c>
@@ -18917,10 +18930,10 @@
       <c r="A15" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
@@ -18956,7 +18969,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="31">
         <v>34.1</v>
       </c>
@@ -18972,7 +18985,7 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="43">
         <v>34.200000000000003</v>
       </c>
@@ -18988,7 +19001,7 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="31">
         <v>34.299999999999997</v>
       </c>
@@ -19004,7 +19017,7 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="43">
         <v>34.4</v>
       </c>
@@ -19020,7 +19033,7 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
+      <c r="A21" s="63"/>
       <c r="B21" s="31">
         <v>34.5</v>
       </c>
@@ -19036,7 +19049,7 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="43">
         <v>34.6</v>
       </c>
@@ -19052,7 +19065,7 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="66"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="31">
         <v>34.700000000000003</v>
       </c>
@@ -19071,10 +19084,10 @@
       <c r="A25" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
       </c>
@@ -19110,7 +19123,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="60">
+      <c r="A27" s="65">
         <v>35</v>
       </c>
       <c r="B27" s="5">
@@ -19128,7 +19141,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="67"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -19144,7 +19157,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="67"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -19160,7 +19173,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="67"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="31">
         <v>35.4</v>
       </c>
@@ -19176,7 +19189,7 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="67"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="5">
         <v>35.5</v>
       </c>
@@ -19192,7 +19205,7 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="67"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="31">
         <v>35.6</v>
       </c>
@@ -19208,7 +19221,7 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="67"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -19224,7 +19237,7 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="68"/>
+      <c r="A34" s="67"/>
       <c r="B34" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -19243,10 +19256,10 @@
       <c r="A36" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="59"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
       <c r="F36" s="1" t="s">
         <v>42</v>
       </c>
@@ -19282,7 +19295,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="49">
+      <c r="A38" s="47">
         <v>40</v>
       </c>
       <c r="B38" s="5">
@@ -19415,10 +19428,10 @@
       <c r="A47" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="59"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="62"/>
       <c r="F47" s="1" t="s">
         <v>70</v>
       </c>
@@ -19454,7 +19467,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="49">
+      <c r="A49" s="47">
         <v>23</v>
       </c>
       <c r="B49" s="5">
@@ -19472,7 +19485,7 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="50"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="5">
         <v>23.2</v>
       </c>
@@ -19488,7 +19501,7 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="50"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="5">
         <v>23.3</v>
       </c>
@@ -19504,7 +19517,7 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="50"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="5">
         <v>23.4</v>
       </c>
@@ -19520,7 +19533,7 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="50"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="5">
         <v>23.5</v>
       </c>
@@ -19536,7 +19549,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="50"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="5">
         <v>23.6</v>
       </c>
@@ -19552,7 +19565,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="50"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="5">
         <v>23.7</v>
       </c>
@@ -19568,7 +19581,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="48"/>
+      <c r="A56" s="49"/>
       <c r="B56" s="5">
         <v>23.8</v>
       </c>
@@ -19587,10 +19600,10 @@
       <c r="A58" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="59"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="62"/>
       <c r="F58" s="1" t="s">
         <v>42</v>
       </c>
@@ -19626,7 +19639,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="49">
+      <c r="A60" s="47">
         <v>3</v>
       </c>
       <c r="B60" s="5">
@@ -19644,7 +19657,7 @@
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="50"/>
+      <c r="A61" s="48"/>
       <c r="B61" s="5">
         <v>3.2</v>
       </c>
@@ -19660,7 +19673,7 @@
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="50"/>
+      <c r="A62" s="48"/>
       <c r="B62" s="5">
         <v>3.3</v>
       </c>
@@ -19676,7 +19689,7 @@
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="50"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="5">
         <v>3.4</v>
       </c>
@@ -19692,7 +19705,7 @@
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="50"/>
+      <c r="A64" s="48"/>
       <c r="B64" s="5">
         <v>3.5</v>
       </c>
@@ -19708,7 +19721,7 @@
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="50"/>
+      <c r="A65" s="48"/>
       <c r="B65" s="5">
         <v>3.6</v>
       </c>
@@ -19724,7 +19737,7 @@
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="48"/>
+      <c r="A66" s="49"/>
       <c r="B66" s="5">
         <v>3.7</v>
       </c>
@@ -19743,10 +19756,10 @@
       <c r="A68" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="59"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="62"/>
       <c r="F68" s="1" t="s">
         <v>49</v>
       </c>
@@ -19782,7 +19795,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="49">
+      <c r="A70" s="47">
         <v>41</v>
       </c>
       <c r="B70" s="5">
@@ -19800,7 +19813,7 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="50"/>
+      <c r="A71" s="48"/>
       <c r="B71" s="5">
         <v>41.2</v>
       </c>
@@ -19816,7 +19829,7 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="50"/>
+      <c r="A72" s="48"/>
       <c r="B72" s="5">
         <v>41.3</v>
       </c>
@@ -19832,7 +19845,7 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="50"/>
+      <c r="A73" s="48"/>
       <c r="B73" s="5">
         <v>41.4</v>
       </c>
@@ -19848,7 +19861,7 @@
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="50"/>
+      <c r="A74" s="48"/>
       <c r="B74" s="5">
         <v>41.5</v>
       </c>
@@ -19864,7 +19877,7 @@
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="50"/>
+      <c r="A75" s="48"/>
       <c r="B75" s="5">
         <v>41.6</v>
       </c>
@@ -19880,7 +19893,7 @@
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="48"/>
+      <c r="A76" s="49"/>
       <c r="B76" s="5">
         <v>41.7</v>
       </c>
@@ -19899,10 +19912,10 @@
       <c r="A78" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="58"/>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="59"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="62"/>
       <c r="F78" s="1" t="s">
         <v>49</v>
       </c>
@@ -19938,7 +19951,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="49">
+      <c r="A80" s="47">
         <v>25</v>
       </c>
       <c r="B80" s="5">
@@ -19958,7 +19971,7 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="50"/>
+      <c r="A81" s="48"/>
       <c r="B81" s="5">
         <v>25.2</v>
       </c>
@@ -19976,7 +19989,7 @@
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="50"/>
+      <c r="A82" s="48"/>
       <c r="B82" s="5">
         <v>25.3</v>
       </c>
@@ -19994,7 +20007,7 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="50"/>
+      <c r="A83" s="48"/>
       <c r="B83" s="5">
         <v>25.4</v>
       </c>
@@ -20012,7 +20025,7 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="50"/>
+      <c r="A84" s="48"/>
       <c r="B84" s="5">
         <v>25.5</v>
       </c>
@@ -20030,7 +20043,7 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="50"/>
+      <c r="A85" s="48"/>
       <c r="B85" s="5">
         <v>25.6</v>
       </c>
@@ -20048,7 +20061,7 @@
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="50"/>
+      <c r="A86" s="48"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -20058,7 +20071,7 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="48"/>
+      <c r="A87" s="49"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -20071,10 +20084,10 @@
       <c r="A89" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B89" s="58"/>
-      <c r="C89" s="58"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="59"/>
+      <c r="B89" s="61"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="62"/>
       <c r="F89" s="1" t="s">
         <v>70</v>
       </c>
@@ -20110,7 +20123,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="49">
+      <c r="A91" s="47">
         <v>26</v>
       </c>
       <c r="B91" s="39">
@@ -20130,7 +20143,7 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="50"/>
+      <c r="A92" s="48"/>
       <c r="B92" s="39">
         <v>26.2</v>
       </c>
@@ -20148,7 +20161,7 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="50"/>
+      <c r="A93" s="48"/>
       <c r="B93" s="39">
         <v>26.3</v>
       </c>
@@ -20166,7 +20179,7 @@
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="50"/>
+      <c r="A94" s="48"/>
       <c r="B94" s="39">
         <v>26.4</v>
       </c>
@@ -20184,7 +20197,7 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="50"/>
+      <c r="A95" s="48"/>
       <c r="B95" s="39">
         <v>26.5</v>
       </c>
@@ -20202,7 +20215,7 @@
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="50"/>
+      <c r="A96" s="48"/>
       <c r="B96" s="39">
         <v>26.6</v>
       </c>
@@ -20220,7 +20233,7 @@
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="50"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="39">
         <v>26.7</v>
       </c>
@@ -20238,7 +20251,7 @@
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="50"/>
+      <c r="A98" s="48"/>
       <c r="B98" s="39">
         <v>26.8</v>
       </c>
@@ -20256,7 +20269,7 @@
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="48"/>
+      <c r="A99" s="49"/>
       <c r="B99" s="39">
         <v>26.9</v>
       </c>
@@ -20277,10 +20290,10 @@
       <c r="A101" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="B101" s="58"/>
-      <c r="C101" s="58"/>
-      <c r="D101" s="58"/>
-      <c r="E101" s="59"/>
+      <c r="B101" s="61"/>
+      <c r="C101" s="61"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="62"/>
       <c r="F101" s="1" t="s">
         <v>49</v>
       </c>
@@ -20316,7 +20329,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="49">
+      <c r="A103" s="47">
         <v>27</v>
       </c>
       <c r="B103" s="5">
@@ -20336,7 +20349,7 @@
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="50"/>
+      <c r="A104" s="48"/>
       <c r="B104" s="5">
         <v>27.2</v>
       </c>
@@ -20354,7 +20367,7 @@
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="50"/>
+      <c r="A105" s="48"/>
       <c r="B105" s="5">
         <v>27.3</v>
       </c>
@@ -20372,7 +20385,7 @@
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="50"/>
+      <c r="A106" s="48"/>
       <c r="B106" s="5">
         <v>27.4</v>
       </c>
@@ -20390,7 +20403,7 @@
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="50"/>
+      <c r="A107" s="48"/>
       <c r="B107" s="5">
         <v>27.5</v>
       </c>
@@ -20408,7 +20421,7 @@
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="50"/>
+      <c r="A108" s="48"/>
       <c r="B108" s="5">
         <v>27.6</v>
       </c>
@@ -20426,7 +20439,7 @@
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="48"/>
+      <c r="A109" s="49"/>
       <c r="B109" s="5">
         <v>27.7</v>
       </c>
@@ -20447,10 +20460,10 @@
       <c r="A111" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="B111" s="58"/>
-      <c r="C111" s="58"/>
-      <c r="D111" s="58"/>
-      <c r="E111" s="59"/>
+      <c r="B111" s="61"/>
+      <c r="C111" s="61"/>
+      <c r="D111" s="61"/>
+      <c r="E111" s="62"/>
       <c r="F111" s="1" t="s">
         <v>40</v>
       </c>
@@ -20486,7 +20499,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="60">
+      <c r="A113" s="65">
         <v>4</v>
       </c>
       <c r="B113" s="31">
@@ -20504,7 +20517,7 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="61"/>
+      <c r="A114" s="68"/>
       <c r="B114" s="31">
         <v>4.2</v>
       </c>
@@ -20520,7 +20533,7 @@
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="61"/>
+      <c r="A115" s="68"/>
       <c r="B115" s="31">
         <v>4.3</v>
       </c>
@@ -20536,7 +20549,7 @@
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="61"/>
+      <c r="A116" s="68"/>
       <c r="B116" s="31">
         <v>4.4000000000000004</v>
       </c>
@@ -20552,7 +20565,7 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="61"/>
+      <c r="A117" s="68"/>
       <c r="B117" s="31">
         <v>4.5</v>
       </c>
@@ -20568,7 +20581,7 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="61"/>
+      <c r="A118" s="68"/>
       <c r="B118" s="31">
         <v>4.5999999999999996</v>
       </c>
@@ -20584,7 +20597,7 @@
       <c r="H118" s="3"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="61"/>
+      <c r="A119" s="68"/>
       <c r="B119" s="31">
         <v>4.7</v>
       </c>
@@ -20600,7 +20613,7 @@
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="61"/>
+      <c r="A120" s="68"/>
       <c r="B120" s="31">
         <v>4.8</v>
       </c>
@@ -20616,7 +20629,7 @@
       <c r="H120" s="3"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="61"/>
+      <c r="A121" s="68"/>
       <c r="B121" s="31">
         <v>4.9000000000000004</v>
       </c>
@@ -20632,7 +20645,7 @@
       <c r="H121" s="3"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="62"/>
+      <c r="A122" s="69"/>
       <c r="B122" s="31">
         <v>5</v>
       </c>
@@ -20651,10 +20664,10 @@
       <c r="A124" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="B124" s="58"/>
-      <c r="C124" s="58"/>
-      <c r="D124" s="58"/>
-      <c r="E124" s="59"/>
+      <c r="B124" s="61"/>
+      <c r="C124" s="61"/>
+      <c r="D124" s="61"/>
+      <c r="E124" s="62"/>
       <c r="F124" s="1" t="s">
         <v>49</v>
       </c>
@@ -20690,7 +20703,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="49">
+      <c r="A126" s="47">
         <v>30</v>
       </c>
       <c r="B126" s="5">
@@ -20708,7 +20721,7 @@
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="50"/>
+      <c r="A127" s="48"/>
       <c r="B127" s="5">
         <v>27.2</v>
       </c>
@@ -20724,7 +20737,7 @@
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="50"/>
+      <c r="A128" s="48"/>
       <c r="B128" s="5">
         <v>27.3</v>
       </c>
@@ -20740,7 +20753,7 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="50"/>
+      <c r="A129" s="48"/>
       <c r="B129" s="5">
         <v>27.4</v>
       </c>
@@ -20756,7 +20769,7 @@
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="50"/>
+      <c r="A130" s="48"/>
       <c r="B130" s="5">
         <v>27.5</v>
       </c>
@@ -20772,7 +20785,7 @@
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="50"/>
+      <c r="A131" s="48"/>
       <c r="B131" s="5">
         <v>27.6</v>
       </c>
@@ -20788,7 +20801,7 @@
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="48"/>
+      <c r="A132" s="49"/>
       <c r="B132" s="5">
         <v>27.7</v>
       </c>
@@ -20805,12 +20818,27 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A113:A122"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="G89:H89"/>
     <mergeCell ref="A49:A56"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="G15:H15"/>
@@ -20823,27 +20851,12 @@
     <mergeCell ref="A17:A23"/>
     <mergeCell ref="A27:A34"/>
     <mergeCell ref="A38:A45"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="A113:A122"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <conditionalFormatting sqref="A36">
     <cfRule type="notContainsBlanks" dxfId="25" priority="21">

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="139">
   <si>
     <t>User story: General Website Features</t>
   </si>
@@ -770,22 +770,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -802,24 +803,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -828,9 +828,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1638,20 +1638,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="45"/>
+      <c r="H1" s="46"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1690,7 +1690,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
+      <c r="A3" s="50">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -1724,7 +1724,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -1749,7 +1749,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -1774,7 +1774,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -1799,7 +1799,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -1853,20 +1853,20 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="45"/>
+      <c r="H10" s="46"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1897,7 +1897,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47">
+      <c r="A12" s="50">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -1922,7 +1922,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -1945,7 +1945,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -1960,30 +1960,30 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="53">
+      <c r="A15" s="51"/>
+      <c r="B15" s="54">
         <v>1.4</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="54">
         <v>1</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="53">
         <v>1</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="51">
+      <c r="G15" s="48">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="49"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
@@ -2027,20 +2027,20 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="45"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="45"/>
+      <c r="H19" s="46"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2071,7 +2071,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47">
+      <c r="A21" s="50">
         <v>11</v>
       </c>
       <c r="B21" s="22">
@@ -2098,7 +2098,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="22">
         <v>11.2</v>
       </c>
@@ -2142,20 +2142,20 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="45"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="44" t="s">
+      <c r="G25" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="45"/>
+      <c r="H25" s="46"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2186,7 +2186,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47">
+      <c r="A27" s="50">
         <v>12</v>
       </c>
       <c r="B27" s="22">
@@ -2213,7 +2213,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="22">
         <v>12.2</v>
       </c>
@@ -2276,20 +2276,20 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="45"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="44" t="s">
+      <c r="G32" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="45"/>
+      <c r="H32" s="46"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2320,7 +2320,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2331,7 +2331,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="48"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2342,7 +2342,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2353,7 +2353,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="48"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2364,7 +2364,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="48"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2375,7 +2375,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="48"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -10082,6 +10082,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:E19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G15:G16"/>
@@ -10093,15 +10102,6 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G1 A1 F10:G10 A10 F19:G19 A19 F25:G25 A25 F32:G32 A32">
     <cfRule type="notContainsBlanks" dxfId="35" priority="1">
@@ -10135,17 +10135,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="56" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="57"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
@@ -10186,7 +10186,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
+      <c r="A3" s="50">
         <v>21</v>
       </c>
       <c r="B3" s="5">
@@ -10219,7 +10219,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="5">
         <v>21.2</v>
       </c>
@@ -10243,7 +10243,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="5">
         <v>21.3</v>
       </c>
@@ -10267,7 +10267,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="5">
         <v>21.4</v>
       </c>
@@ -10291,7 +10291,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="5">
         <v>21.5</v>
       </c>
@@ -10313,7 +10313,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="5">
         <v>21.6</v>
       </c>
@@ -10335,7 +10335,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="5">
         <v>21.7</v>
       </c>
@@ -10357,7 +10357,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="5">
         <v>21.8</v>
       </c>
@@ -10414,17 +10414,17 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="56" t="s">
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="57"/>
+      <c r="G13" s="58"/>
       <c r="H13" s="4" t="s">
         <v>4</v>
       </c>
@@ -10456,7 +10456,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47">
+      <c r="A15" s="50">
         <v>20</v>
       </c>
       <c r="B15" s="5">
@@ -10480,7 +10480,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="5">
         <v>20.2</v>
       </c>
@@ -10502,7 +10502,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="5">
         <v>20.3</v>
       </c>
@@ -10556,17 +10556,17 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="56" t="s">
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="57"/>
+      <c r="G20" s="58"/>
       <c r="H20" s="4" t="s">
         <v>4</v>
       </c>
@@ -10598,7 +10598,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47">
+      <c r="A22" s="50">
         <v>5</v>
       </c>
       <c r="B22" s="5">
@@ -10646,17 +10646,17 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="56" t="s">
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="57"/>
+      <c r="G25" s="58"/>
       <c r="H25" s="4" t="s">
         <v>4</v>
       </c>
@@ -10688,7 +10688,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="47">
+      <c r="A27" s="50">
         <v>8</v>
       </c>
       <c r="B27" s="5">
@@ -10712,7 +10712,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="5">
         <v>8.1999999999999993</v>
       </c>
@@ -10734,7 +10734,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="5">
         <v>8.3000000000000007</v>
       </c>
@@ -10756,7 +10756,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="5">
         <v>8.4</v>
       </c>
@@ -10780,7 +10780,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="55"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="5">
         <v>8.5</v>
       </c>
@@ -10810,17 +10810,17 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="56" t="s">
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="57"/>
+      <c r="G33" s="58"/>
       <c r="H33" s="4" t="s">
         <v>4</v>
       </c>
@@ -10852,7 +10852,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47">
+      <c r="A35" s="50">
         <v>4</v>
       </c>
       <c r="B35" s="5">
@@ -10876,7 +10876,7 @@
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="54"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="5">
         <v>4.2</v>
       </c>
@@ -10898,7 +10898,7 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="5">
         <v>4.3</v>
       </c>
@@ -10916,7 +10916,7 @@
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="55"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="5">
         <v>4.4000000000000004</v>
       </c>
@@ -18663,8 +18663,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18681,20 +18681,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -18729,7 +18729,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="58">
+      <c r="A3" s="70">
         <v>22</v>
       </c>
       <c r="B3" s="31">
@@ -18747,7 +18747,7 @@
       <c r="F3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="70">
+      <c r="G3" s="44">
         <v>42635</v>
       </c>
       <c r="H3" s="3"/>
@@ -18759,7 +18759,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="58"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="31">
         <v>22.2</v>
       </c>
@@ -18775,13 +18775,13 @@
       <c r="F4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="44">
         <v>42635</v>
       </c>
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="31">
         <v>22.3</v>
       </c>
@@ -18797,26 +18797,26 @@
       <c r="F5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="70">
+      <c r="G5" s="44">
         <v>42635</v>
       </c>
       <c r="H5" s="34"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="45"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="45"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
@@ -18845,7 +18845,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="58">
+      <c r="A9" s="70">
         <v>33</v>
       </c>
       <c r="B9" s="31">
@@ -18863,7 +18863,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -18879,7 +18879,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -18895,7 +18895,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="31">
         <v>33.4</v>
       </c>
@@ -18911,7 +18911,7 @@
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="31">
         <v>33.5</v>
       </c>
@@ -18927,20 +18927,20 @@
       <c r="H13" s="34"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="45"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
@@ -18969,7 +18969,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="31">
         <v>34.1</v>
       </c>
@@ -18985,7 +18985,7 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="43">
         <v>34.200000000000003</v>
       </c>
@@ -19001,7 +19001,7 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="31">
         <v>34.299999999999997</v>
       </c>
@@ -19017,7 +19017,7 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="63"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="43">
         <v>34.4</v>
       </c>
@@ -19033,7 +19033,7 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="63"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="31">
         <v>34.5</v>
       </c>
@@ -19049,7 +19049,7 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="63"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="43">
         <v>34.6</v>
       </c>
@@ -19065,7 +19065,7 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="64"/>
+      <c r="A23" s="67"/>
       <c r="B23" s="31">
         <v>34.700000000000003</v>
       </c>
@@ -19081,20 +19081,20 @@
       <c r="H23" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="60"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="44" t="s">
+      <c r="G25" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="45"/>
+      <c r="H25" s="46"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
@@ -19123,7 +19123,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="65">
+      <c r="A27" s="61">
         <v>35</v>
       </c>
       <c r="B27" s="5">
@@ -19141,7 +19141,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="66"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -19157,7 +19157,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="66"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -19173,7 +19173,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="66"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="31">
         <v>35.4</v>
       </c>
@@ -19189,7 +19189,7 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="66"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="5">
         <v>35.5</v>
       </c>
@@ -19205,7 +19205,7 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="66"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="31">
         <v>35.6</v>
       </c>
@@ -19221,7 +19221,7 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="66"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -19237,7 +19237,7 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="67"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -19253,20 +19253,20 @@
       <c r="H34" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="62"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="60"/>
       <c r="F36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H36" s="45"/>
+      <c r="H36" s="46"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
@@ -19295,7 +19295,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="47">
+      <c r="A38" s="50">
         <v>40</v>
       </c>
       <c r="B38" s="5">
@@ -19313,7 +19313,7 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="5">
         <v>40.200000000000003</v>
       </c>
@@ -19329,7 +19329,7 @@
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="5">
         <v>40.299999999999997</v>
       </c>
@@ -19345,7 +19345,7 @@
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="54"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="5">
         <v>40.4</v>
       </c>
@@ -19361,7 +19361,7 @@
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
+      <c r="A42" s="55"/>
       <c r="B42" s="5">
         <v>40.5</v>
       </c>
@@ -19377,7 +19377,7 @@
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="54"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="5">
         <v>40.6</v>
       </c>
@@ -19393,7 +19393,7 @@
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
+      <c r="A44" s="55"/>
       <c r="B44" s="5">
         <v>40.700000000000003</v>
       </c>
@@ -19409,7 +19409,7 @@
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="55"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="5">
         <v>40.799999999999997</v>
       </c>
@@ -19425,20 +19425,20 @@
       <c r="H45" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="62"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="60"/>
       <c r="F47" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G47" s="44" t="s">
+      <c r="G47" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="45"/>
+      <c r="H47" s="46"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -19467,7 +19467,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="47">
+      <c r="A49" s="50">
         <v>23</v>
       </c>
       <c r="B49" s="5">
@@ -19480,12 +19480,14 @@
         <v>1</v>
       </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="F49" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G49" s="5"/>
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="48"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="5">
         <v>23.2</v>
       </c>
@@ -19496,12 +19498,14 @@
         <v>1</v>
       </c>
       <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+      <c r="F50" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G50" s="5"/>
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="48"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="5">
         <v>23.3</v>
       </c>
@@ -19512,12 +19516,14 @@
         <v>0.5</v>
       </c>
       <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="F51" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G51" s="5"/>
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="48"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="5">
         <v>23.4</v>
       </c>
@@ -19528,12 +19534,14 @@
         <v>2</v>
       </c>
       <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
+      <c r="F52" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G52" s="5"/>
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="48"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="5">
         <v>23.5</v>
       </c>
@@ -19544,12 +19552,14 @@
         <v>2</v>
       </c>
       <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
+      <c r="F53" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G53" s="5"/>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="48"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="5">
         <v>23.6</v>
       </c>
@@ -19560,12 +19570,14 @@
         <v>1</v>
       </c>
       <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
+      <c r="F54" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G54" s="5"/>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="48"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="5">
         <v>23.7</v>
       </c>
@@ -19576,7 +19588,9 @@
         <v>2</v>
       </c>
       <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
+      <c r="F55" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G55" s="5"/>
       <c r="H55" s="3"/>
     </row>
@@ -19592,25 +19606,27 @@
         <v>0.5</v>
       </c>
       <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="F56" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="44" t="s">
+      <c r="A58" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="61"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="62"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="60"/>
       <c r="F58" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G58" s="44" t="s">
+      <c r="G58" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="45"/>
+      <c r="H58" s="46"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
@@ -19639,7 +19655,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="47">
+      <c r="A60" s="50">
         <v>3</v>
       </c>
       <c r="B60" s="5">
@@ -19657,7 +19673,7 @@
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="48"/>
+      <c r="A61" s="51"/>
       <c r="B61" s="5">
         <v>3.2</v>
       </c>
@@ -19673,7 +19689,7 @@
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="48"/>
+      <c r="A62" s="51"/>
       <c r="B62" s="5">
         <v>3.3</v>
       </c>
@@ -19689,7 +19705,7 @@
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="48"/>
+      <c r="A63" s="51"/>
       <c r="B63" s="5">
         <v>3.4</v>
       </c>
@@ -19705,7 +19721,7 @@
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="48"/>
+      <c r="A64" s="51"/>
       <c r="B64" s="5">
         <v>3.5</v>
       </c>
@@ -19721,7 +19737,7 @@
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="48"/>
+      <c r="A65" s="51"/>
       <c r="B65" s="5">
         <v>3.6</v>
       </c>
@@ -19753,20 +19769,20 @@
       <c r="H66" s="3"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="61"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="62"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="60"/>
       <c r="F68" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G68" s="44" t="s">
+      <c r="G68" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H68" s="45"/>
+      <c r="H68" s="46"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
@@ -19795,7 +19811,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="47">
+      <c r="A70" s="50">
         <v>41</v>
       </c>
       <c r="B70" s="5">
@@ -19813,7 +19829,7 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="48"/>
+      <c r="A71" s="51"/>
       <c r="B71" s="5">
         <v>41.2</v>
       </c>
@@ -19829,7 +19845,7 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="48"/>
+      <c r="A72" s="51"/>
       <c r="B72" s="5">
         <v>41.3</v>
       </c>
@@ -19845,7 +19861,7 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="48"/>
+      <c r="A73" s="51"/>
       <c r="B73" s="5">
         <v>41.4</v>
       </c>
@@ -19861,7 +19877,7 @@
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="48"/>
+      <c r="A74" s="51"/>
       <c r="B74" s="5">
         <v>41.5</v>
       </c>
@@ -19877,7 +19893,7 @@
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="48"/>
+      <c r="A75" s="51"/>
       <c r="B75" s="5">
         <v>41.6</v>
       </c>
@@ -19909,20 +19925,20 @@
       <c r="H76" s="3"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="44" t="s">
+      <c r="A78" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="61"/>
-      <c r="C78" s="61"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="62"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="60"/>
       <c r="F78" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G78" s="44" t="s">
+      <c r="G78" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H78" s="45"/>
+      <c r="H78" s="46"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
@@ -19951,7 +19967,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="47">
+      <c r="A80" s="50">
         <v>25</v>
       </c>
       <c r="B80" s="5">
@@ -19963,7 +19979,9 @@
       <c r="D80" s="5">
         <v>1</v>
       </c>
-      <c r="E80" s="5"/>
+      <c r="E80" s="5">
+        <v>1</v>
+      </c>
       <c r="F80" s="27" t="s">
         <v>17</v>
       </c>
@@ -19971,7 +19989,7 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="48"/>
+      <c r="A81" s="51"/>
       <c r="B81" s="5">
         <v>25.2</v>
       </c>
@@ -19981,7 +19999,9 @@
       <c r="D81" s="5">
         <v>0.5</v>
       </c>
-      <c r="E81" s="5"/>
+      <c r="E81" s="5">
+        <v>0.5</v>
+      </c>
       <c r="F81" s="27" t="s">
         <v>17</v>
       </c>
@@ -19989,7 +20009,7 @@
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="48"/>
+      <c r="A82" s="51"/>
       <c r="B82" s="5">
         <v>25.3</v>
       </c>
@@ -19999,7 +20019,9 @@
       <c r="D82" s="5">
         <v>1</v>
       </c>
-      <c r="E82" s="5"/>
+      <c r="E82" s="5">
+        <v>1</v>
+      </c>
       <c r="F82" s="27" t="s">
         <v>17</v>
       </c>
@@ -20007,7 +20029,7 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="48"/>
+      <c r="A83" s="51"/>
       <c r="B83" s="5">
         <v>25.4</v>
       </c>
@@ -20017,7 +20039,9 @@
       <c r="D83" s="5">
         <v>1</v>
       </c>
-      <c r="E83" s="5"/>
+      <c r="E83" s="5">
+        <v>1</v>
+      </c>
       <c r="F83" s="27" t="s">
         <v>17</v>
       </c>
@@ -20025,7 +20049,7 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="48"/>
+      <c r="A84" s="51"/>
       <c r="B84" s="5">
         <v>25.5</v>
       </c>
@@ -20035,7 +20059,9 @@
       <c r="D84" s="31">
         <v>1</v>
       </c>
-      <c r="E84" s="5"/>
+      <c r="E84" s="31">
+        <v>1</v>
+      </c>
       <c r="F84" s="27" t="s">
         <v>17</v>
       </c>
@@ -20043,7 +20069,7 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="48"/>
+      <c r="A85" s="51"/>
       <c r="B85" s="5">
         <v>25.6</v>
       </c>
@@ -20053,7 +20079,9 @@
       <c r="D85" s="3">
         <v>0.5</v>
       </c>
-      <c r="E85" s="5"/>
+      <c r="E85" s="3">
+        <v>0.5</v>
+      </c>
       <c r="F85" s="27" t="s">
         <v>17</v>
       </c>
@@ -20061,7 +20089,7 @@
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="48"/>
+      <c r="A86" s="51"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -20081,20 +20109,20 @@
       <c r="H87" s="3"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="44" t="s">
+      <c r="A89" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="B89" s="61"/>
-      <c r="C89" s="61"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="62"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="60"/>
       <c r="F89" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G89" s="44" t="s">
+      <c r="G89" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H89" s="45"/>
+      <c r="H89" s="46"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
@@ -20123,7 +20151,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="47">
+      <c r="A91" s="50">
         <v>26</v>
       </c>
       <c r="B91" s="39">
@@ -20135,7 +20163,9 @@
       <c r="D91" s="31">
         <v>1</v>
       </c>
-      <c r="E91" s="28"/>
+      <c r="E91" s="31">
+        <v>1</v>
+      </c>
       <c r="F91" s="27" t="s">
         <v>17</v>
       </c>
@@ -20143,7 +20173,7 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="48"/>
+      <c r="A92" s="51"/>
       <c r="B92" s="39">
         <v>26.2</v>
       </c>
@@ -20153,7 +20183,9 @@
       <c r="D92" s="33">
         <v>1</v>
       </c>
-      <c r="E92" s="28"/>
+      <c r="E92" s="33">
+        <v>1</v>
+      </c>
       <c r="F92" s="27" t="s">
         <v>17</v>
       </c>
@@ -20161,7 +20193,7 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="48"/>
+      <c r="A93" s="51"/>
       <c r="B93" s="39">
         <v>26.3</v>
       </c>
@@ -20171,7 +20203,9 @@
       <c r="D93" s="31">
         <v>0.5</v>
       </c>
-      <c r="E93" s="28"/>
+      <c r="E93" s="31">
+        <v>0.5</v>
+      </c>
       <c r="F93" s="27" t="s">
         <v>17</v>
       </c>
@@ -20179,7 +20213,7 @@
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="48"/>
+      <c r="A94" s="51"/>
       <c r="B94" s="39">
         <v>26.4</v>
       </c>
@@ -20189,7 +20223,9 @@
       <c r="D94" s="33">
         <v>2</v>
       </c>
-      <c r="E94" s="28"/>
+      <c r="E94" s="33">
+        <v>2</v>
+      </c>
       <c r="F94" s="27" t="s">
         <v>17</v>
       </c>
@@ -20197,7 +20233,7 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="48"/>
+      <c r="A95" s="51"/>
       <c r="B95" s="39">
         <v>26.5</v>
       </c>
@@ -20207,7 +20243,9 @@
       <c r="D95" s="33">
         <v>2</v>
       </c>
-      <c r="E95" s="28"/>
+      <c r="E95" s="33">
+        <v>2</v>
+      </c>
       <c r="F95" s="27" t="s">
         <v>17</v>
       </c>
@@ -20215,7 +20253,7 @@
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="48"/>
+      <c r="A96" s="51"/>
       <c r="B96" s="39">
         <v>26.6</v>
       </c>
@@ -20225,7 +20263,9 @@
       <c r="D96" s="31">
         <v>2</v>
       </c>
-      <c r="E96" s="28"/>
+      <c r="E96" s="31">
+        <v>2</v>
+      </c>
       <c r="F96" s="27" t="s">
         <v>17</v>
       </c>
@@ -20233,7 +20273,7 @@
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="48"/>
+      <c r="A97" s="51"/>
       <c r="B97" s="39">
         <v>26.7</v>
       </c>
@@ -20243,7 +20283,9 @@
       <c r="D97" s="5">
         <v>1</v>
       </c>
-      <c r="E97" s="28"/>
+      <c r="E97" s="5">
+        <v>1</v>
+      </c>
       <c r="F97" s="27" t="s">
         <v>17</v>
       </c>
@@ -20251,7 +20293,7 @@
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="48"/>
+      <c r="A98" s="51"/>
       <c r="B98" s="39">
         <v>26.8</v>
       </c>
@@ -20261,7 +20303,9 @@
       <c r="D98" s="31">
         <v>1</v>
       </c>
-      <c r="E98" s="28"/>
+      <c r="E98" s="31">
+        <v>1</v>
+      </c>
       <c r="F98" s="27" t="s">
         <v>17</v>
       </c>
@@ -20279,7 +20323,9 @@
       <c r="D99" s="34">
         <v>0.5</v>
       </c>
-      <c r="E99" s="29"/>
+      <c r="E99" s="34">
+        <v>0.5</v>
+      </c>
       <c r="F99" s="27" t="s">
         <v>17</v>
       </c>
@@ -20287,20 +20333,20 @@
       <c r="H99" s="3"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="44" t="s">
+      <c r="A101" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B101" s="61"/>
-      <c r="C101" s="61"/>
-      <c r="D101" s="61"/>
-      <c r="E101" s="62"/>
+      <c r="B101" s="59"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="59"/>
+      <c r="E101" s="60"/>
       <c r="F101" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G101" s="44" t="s">
+      <c r="G101" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="45"/>
+      <c r="H101" s="46"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
@@ -20329,7 +20375,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="47">
+      <c r="A103" s="50">
         <v>27</v>
       </c>
       <c r="B103" s="5">
@@ -20341,7 +20387,9 @@
       <c r="D103" s="5">
         <v>2</v>
       </c>
-      <c r="E103" s="5"/>
+      <c r="E103" s="5">
+        <v>2</v>
+      </c>
       <c r="F103" s="27" t="s">
         <v>17</v>
       </c>
@@ -20349,7 +20397,7 @@
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="48"/>
+      <c r="A104" s="51"/>
       <c r="B104" s="5">
         <v>27.2</v>
       </c>
@@ -20359,7 +20407,9 @@
       <c r="D104" s="5">
         <v>0.5</v>
       </c>
-      <c r="E104" s="5"/>
+      <c r="E104" s="5">
+        <v>0.5</v>
+      </c>
       <c r="F104" s="27" t="s">
         <v>17</v>
       </c>
@@ -20367,7 +20417,7 @@
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="48"/>
+      <c r="A105" s="51"/>
       <c r="B105" s="5">
         <v>27.3</v>
       </c>
@@ -20377,7 +20427,9 @@
       <c r="D105" s="5">
         <v>1</v>
       </c>
-      <c r="E105" s="5"/>
+      <c r="E105" s="5">
+        <v>1</v>
+      </c>
       <c r="F105" s="27" t="s">
         <v>17</v>
       </c>
@@ -20385,7 +20437,7 @@
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="48"/>
+      <c r="A106" s="51"/>
       <c r="B106" s="5">
         <v>27.4</v>
       </c>
@@ -20395,7 +20447,9 @@
       <c r="D106" s="5">
         <v>0.5</v>
       </c>
-      <c r="E106" s="5"/>
+      <c r="E106" s="5">
+        <v>0.5</v>
+      </c>
       <c r="F106" s="27" t="s">
         <v>17</v>
       </c>
@@ -20403,7 +20457,7 @@
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="48"/>
+      <c r="A107" s="51"/>
       <c r="B107" s="5">
         <v>27.5</v>
       </c>
@@ -20413,7 +20467,9 @@
       <c r="D107" s="5">
         <v>2</v>
       </c>
-      <c r="E107" s="5"/>
+      <c r="E107" s="5">
+        <v>2</v>
+      </c>
       <c r="F107" s="27" t="s">
         <v>17</v>
       </c>
@@ -20421,7 +20477,7 @@
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="48"/>
+      <c r="A108" s="51"/>
       <c r="B108" s="5">
         <v>27.6</v>
       </c>
@@ -20431,7 +20487,9 @@
       <c r="D108" s="5">
         <v>1</v>
       </c>
-      <c r="E108" s="5"/>
+      <c r="E108" s="5">
+        <v>1</v>
+      </c>
       <c r="F108" s="27" t="s">
         <v>17</v>
       </c>
@@ -20449,7 +20507,9 @@
       <c r="D109" s="3">
         <v>0.5</v>
       </c>
-      <c r="E109" s="3"/>
+      <c r="E109" s="3">
+        <v>0.5</v>
+      </c>
       <c r="F109" s="27" t="s">
         <v>17</v>
       </c>
@@ -20457,20 +20517,20 @@
       <c r="H109" s="3"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="44" t="s">
+      <c r="A111" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="B111" s="61"/>
-      <c r="C111" s="61"/>
-      <c r="D111" s="61"/>
-      <c r="E111" s="62"/>
+      <c r="B111" s="59"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="59"/>
+      <c r="E111" s="60"/>
       <c r="F111" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G111" s="44" t="s">
+      <c r="G111" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H111" s="45"/>
+      <c r="H111" s="46"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
@@ -20499,7 +20559,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="65">
+      <c r="A113" s="61">
         <v>4</v>
       </c>
       <c r="B113" s="31">
@@ -20517,7 +20577,7 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="68"/>
+      <c r="A114" s="62"/>
       <c r="B114" s="31">
         <v>4.2</v>
       </c>
@@ -20533,7 +20593,7 @@
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="68"/>
+      <c r="A115" s="62"/>
       <c r="B115" s="31">
         <v>4.3</v>
       </c>
@@ -20549,7 +20609,7 @@
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="68"/>
+      <c r="A116" s="62"/>
       <c r="B116" s="31">
         <v>4.4000000000000004</v>
       </c>
@@ -20565,7 +20625,7 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="68"/>
+      <c r="A117" s="62"/>
       <c r="B117" s="31">
         <v>4.5</v>
       </c>
@@ -20581,7 +20641,7 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="68"/>
+      <c r="A118" s="62"/>
       <c r="B118" s="31">
         <v>4.5999999999999996</v>
       </c>
@@ -20597,7 +20657,7 @@
       <c r="H118" s="3"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="68"/>
+      <c r="A119" s="62"/>
       <c r="B119" s="31">
         <v>4.7</v>
       </c>
@@ -20613,7 +20673,7 @@
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="68"/>
+      <c r="A120" s="62"/>
       <c r="B120" s="31">
         <v>4.8</v>
       </c>
@@ -20629,7 +20689,7 @@
       <c r="H120" s="3"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="68"/>
+      <c r="A121" s="62"/>
       <c r="B121" s="31">
         <v>4.9000000000000004</v>
       </c>
@@ -20645,7 +20705,7 @@
       <c r="H121" s="3"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="69"/>
+      <c r="A122" s="63"/>
       <c r="B122" s="31">
         <v>5</v>
       </c>
@@ -20661,20 +20721,20 @@
       <c r="H122" s="3"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="44" t="s">
+      <c r="A124" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="B124" s="61"/>
-      <c r="C124" s="61"/>
-      <c r="D124" s="61"/>
-      <c r="E124" s="62"/>
+      <c r="B124" s="59"/>
+      <c r="C124" s="59"/>
+      <c r="D124" s="59"/>
+      <c r="E124" s="60"/>
       <c r="F124" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G124" s="44" t="s">
+      <c r="G124" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H124" s="45"/>
+      <c r="H124" s="46"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
@@ -20703,7 +20763,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="47">
+      <c r="A126" s="50">
         <v>30</v>
       </c>
       <c r="B126" s="5">
@@ -20721,7 +20781,7 @@
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="48"/>
+      <c r="A127" s="51"/>
       <c r="B127" s="5">
         <v>27.2</v>
       </c>
@@ -20737,7 +20797,7 @@
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="48"/>
+      <c r="A128" s="51"/>
       <c r="B128" s="5">
         <v>27.3</v>
       </c>
@@ -20753,7 +20813,7 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="48"/>
+      <c r="A129" s="51"/>
       <c r="B129" s="5">
         <v>27.4</v>
       </c>
@@ -20769,7 +20829,7 @@
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="48"/>
+      <c r="A130" s="51"/>
       <c r="B130" s="5">
         <v>27.5</v>
       </c>
@@ -20785,7 +20845,7 @@
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="48"/>
+      <c r="A131" s="51"/>
       <c r="B131" s="5">
         <v>27.6</v>
       </c>
@@ -20818,15 +20878,24 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="A113:A122"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A49:A56"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A38:A45"/>
     <mergeCell ref="A91:A99"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="G58:H58"/>
@@ -20839,24 +20908,15 @@
     <mergeCell ref="A80:A87"/>
     <mergeCell ref="A89:E89"/>
     <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A49:A56"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A113:A122"/>
   </mergeCells>
   <conditionalFormatting sqref="A36">
     <cfRule type="notContainsBlanks" dxfId="25" priority="21">

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="139">
   <si>
     <t>User story: General Website Features</t>
   </si>
@@ -775,18 +775,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -803,23 +803,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -828,9 +829,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1641,9 +1641,9 @@
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="46"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1690,7 +1690,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50">
+      <c r="A3" s="48">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -1724,7 +1724,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -1749,7 +1749,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -1774,7 +1774,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -1799,7 +1799,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="5">
         <v>6.6</v>
       </c>
@@ -1853,17 +1853,17 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="46"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="51" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="46"/>
@@ -1897,7 +1897,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50">
+      <c r="A12" s="48">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -1922,7 +1922,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -1945,7 +1945,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -1960,7 +1960,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="54">
         <v>1.4</v>
       </c>
@@ -1976,27 +1976,27 @@
       <c r="F15" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="52">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="16">
         <v>1.5</v>
       </c>
@@ -2030,9 +2030,9 @@
       <c r="A19" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="46"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
@@ -2071,7 +2071,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50">
+      <c r="A21" s="48">
         <v>11</v>
       </c>
       <c r="B21" s="22">
@@ -2098,7 +2098,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="22">
         <v>11.2</v>
       </c>
@@ -2123,7 +2123,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2145,9 +2145,9 @@
       <c r="A25" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="46"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
@@ -2186,7 +2186,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50">
+      <c r="A27" s="48">
         <v>12</v>
       </c>
       <c r="B27" s="22">
@@ -2213,7 +2213,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="22">
         <v>12.2</v>
       </c>
@@ -2236,7 +2236,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="22">
         <v>12.3</v>
       </c>
@@ -2279,9 +2279,9 @@
       <c r="A32" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="46"/>
       <c r="F32" s="1" t="s">
         <v>88</v>
@@ -2320,7 +2320,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="50"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2331,7 +2331,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="51"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2342,7 +2342,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="51"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2353,7 +2353,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="51"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2364,7 +2364,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="51"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2375,7 +2375,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="51"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2386,7 +2386,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="49"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -10082,15 +10082,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:E19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G15:G16"/>
@@ -10102,6 +10093,15 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G1 A1 F10:G10 A10 F19:G19 A19 F25:G25 A25 F32:G32 A32">
     <cfRule type="notContainsBlanks" dxfId="35" priority="1">
@@ -10138,9 +10138,9 @@
       <c r="A1" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="46"/>
       <c r="F1" s="57" t="s">
         <v>1</v>
@@ -10186,7 +10186,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50">
+      <c r="A3" s="48">
         <v>21</v>
       </c>
       <c r="B3" s="5">
@@ -10219,7 +10219,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="5">
         <v>21.2</v>
       </c>
@@ -10243,7 +10243,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="5">
         <v>21.3</v>
       </c>
@@ -10267,7 +10267,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="5">
         <v>21.4</v>
       </c>
@@ -10291,7 +10291,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="5">
         <v>21.5</v>
       </c>
@@ -10313,7 +10313,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="5">
         <v>21.6</v>
       </c>
@@ -10335,7 +10335,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="5">
         <v>21.7</v>
       </c>
@@ -10357,7 +10357,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="5">
         <v>21.8</v>
       </c>
@@ -10381,7 +10381,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="5">
         <v>21.9</v>
       </c>
@@ -10417,9 +10417,9 @@
       <c r="A13" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="46"/>
       <c r="F13" s="57" t="s">
         <v>42</v>
@@ -10456,7 +10456,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50">
+      <c r="A15" s="48">
         <v>20</v>
       </c>
       <c r="B15" s="5">
@@ -10480,7 +10480,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="5">
         <v>20.2</v>
       </c>
@@ -10502,7 +10502,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="5">
         <v>20.3</v>
       </c>
@@ -10526,7 +10526,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="5">
         <v>20.399999999999999</v>
       </c>
@@ -10559,9 +10559,9 @@
       <c r="A20" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="46"/>
       <c r="F20" s="57" t="s">
         <v>49</v>
@@ -10598,7 +10598,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="50">
+      <c r="A22" s="48">
         <v>5</v>
       </c>
       <c r="B22" s="5">
@@ -10620,7 +10620,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="5">
         <v>5.2</v>
       </c>
@@ -10649,9 +10649,9 @@
       <c r="A25" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="46"/>
       <c r="F25" s="57" t="s">
         <v>40</v>
@@ -10688,7 +10688,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50">
+      <c r="A27" s="48">
         <v>8</v>
       </c>
       <c r="B27" s="5">
@@ -10813,9 +10813,9 @@
       <c r="A33" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="46"/>
       <c r="F33" s="57" t="s">
         <v>70</v>
@@ -10852,7 +10852,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="50">
+      <c r="A35" s="48">
         <v>4</v>
       </c>
       <c r="B35" s="5">
@@ -18663,8 +18663,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49:F56"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18684,9 +18684,9 @@
       <c r="A1" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="46"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
@@ -18729,7 +18729,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="70">
+      <c r="A3" s="59">
         <v>22</v>
       </c>
       <c r="B3" s="31">
@@ -18759,7 +18759,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="31">
         <v>22.2</v>
       </c>
@@ -18781,7 +18781,7 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="31">
         <v>22.3</v>
       </c>
@@ -18806,9 +18806,9 @@
       <c r="A7" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="46"/>
       <c r="F7" s="1" t="s">
         <v>49</v>
@@ -18845,7 +18845,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="70">
+      <c r="A9" s="59">
         <v>33</v>
       </c>
       <c r="B9" s="31">
@@ -18863,7 +18863,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -18879,7 +18879,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="70"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -18895,7 +18895,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="70"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="31">
         <v>33.4</v>
       </c>
@@ -18911,7 +18911,7 @@
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="70"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="31">
         <v>33.5</v>
       </c>
@@ -18930,10 +18930,10 @@
       <c r="A15" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
@@ -18969,7 +18969,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="66"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="31">
         <v>34.1</v>
       </c>
@@ -18985,7 +18985,7 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="66"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="43">
         <v>34.200000000000003</v>
       </c>
@@ -19001,7 +19001,7 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="66"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="31">
         <v>34.299999999999997</v>
       </c>
@@ -19017,7 +19017,7 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="66"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="43">
         <v>34.4</v>
       </c>
@@ -19033,7 +19033,7 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="66"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="31">
         <v>34.5</v>
       </c>
@@ -19049,7 +19049,7 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="66"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="43">
         <v>34.6</v>
       </c>
@@ -19065,7 +19065,7 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="67"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="31">
         <v>34.700000000000003</v>
       </c>
@@ -19084,10 +19084,10 @@
       <c r="A25" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
       </c>
@@ -19123,7 +19123,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="61">
+      <c r="A27" s="66">
         <v>35</v>
       </c>
       <c r="B27" s="5">
@@ -19141,7 +19141,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="68"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -19157,7 +19157,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="68"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -19173,7 +19173,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="68"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="31">
         <v>35.4</v>
       </c>
@@ -19189,7 +19189,7 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="68"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="5">
         <v>35.5</v>
       </c>
@@ -19205,7 +19205,7 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="68"/>
+      <c r="A32" s="67"/>
       <c r="B32" s="31">
         <v>35.6</v>
       </c>
@@ -19221,7 +19221,7 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="68"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -19237,7 +19237,7 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="69"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -19256,10 +19256,10 @@
       <c r="A36" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="60"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
       <c r="F36" s="1" t="s">
         <v>42</v>
       </c>
@@ -19295,7 +19295,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="50">
+      <c r="A38" s="48">
         <v>40</v>
       </c>
       <c r="B38" s="5">
@@ -19428,10 +19428,10 @@
       <c r="A47" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="60"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="63"/>
       <c r="F47" s="1" t="s">
         <v>70</v>
       </c>
@@ -19467,7 +19467,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="50">
+      <c r="A49" s="48">
         <v>23</v>
       </c>
       <c r="B49" s="5">
@@ -19479,7 +19479,9 @@
       <c r="D49" s="5">
         <v>1</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
       <c r="F49" s="27" t="s">
         <v>17</v>
       </c>
@@ -19487,7 +19489,7 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="51"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="5">
         <v>23.2</v>
       </c>
@@ -19497,7 +19499,9 @@
       <c r="D50" s="5">
         <v>1</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
       <c r="F50" s="27" t="s">
         <v>17</v>
       </c>
@@ -19505,7 +19509,7 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="51"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="5">
         <v>23.3</v>
       </c>
@@ -19515,7 +19519,9 @@
       <c r="D51" s="5">
         <v>0.5</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="E51" s="5">
+        <v>0.5</v>
+      </c>
       <c r="F51" s="27" t="s">
         <v>17</v>
       </c>
@@ -19523,7 +19529,7 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="51"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="5">
         <v>23.4</v>
       </c>
@@ -19533,7 +19539,9 @@
       <c r="D52" s="5">
         <v>2</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="E52" s="5">
+        <v>2</v>
+      </c>
       <c r="F52" s="27" t="s">
         <v>17</v>
       </c>
@@ -19541,7 +19549,7 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="51"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="5">
         <v>23.5</v>
       </c>
@@ -19551,7 +19559,9 @@
       <c r="D53" s="5">
         <v>2</v>
       </c>
-      <c r="E53" s="5"/>
+      <c r="E53" s="5">
+        <v>2</v>
+      </c>
       <c r="F53" s="27" t="s">
         <v>17</v>
       </c>
@@ -19559,7 +19569,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="51"/>
+      <c r="A54" s="49"/>
       <c r="B54" s="5">
         <v>23.6</v>
       </c>
@@ -19569,7 +19579,9 @@
       <c r="D54" s="31">
         <v>1</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="31">
+        <v>1</v>
+      </c>
       <c r="F54" s="27" t="s">
         <v>17</v>
       </c>
@@ -19577,7 +19589,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="51"/>
+      <c r="A55" s="49"/>
       <c r="B55" s="5">
         <v>23.7</v>
       </c>
@@ -19587,7 +19599,9 @@
       <c r="D55" s="5">
         <v>2</v>
       </c>
-      <c r="E55" s="5"/>
+      <c r="E55" s="5">
+        <v>2</v>
+      </c>
       <c r="F55" s="27" t="s">
         <v>17</v>
       </c>
@@ -19595,7 +19609,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="49"/>
+      <c r="A56" s="50"/>
       <c r="B56" s="5">
         <v>23.8</v>
       </c>
@@ -19605,7 +19619,9 @@
       <c r="D56" s="3">
         <v>0.5</v>
       </c>
-      <c r="E56" s="3"/>
+      <c r="E56" s="3">
+        <v>0.5</v>
+      </c>
       <c r="F56" s="27" t="s">
         <v>17</v>
       </c>
@@ -19616,10 +19632,10 @@
       <c r="A58" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="60"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="63"/>
       <c r="F58" s="1" t="s">
         <v>42</v>
       </c>
@@ -19655,7 +19671,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="50">
+      <c r="A60" s="48">
         <v>3</v>
       </c>
       <c r="B60" s="5">
@@ -19673,7 +19689,7 @@
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="51"/>
+      <c r="A61" s="49"/>
       <c r="B61" s="5">
         <v>3.2</v>
       </c>
@@ -19689,7 +19705,7 @@
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="51"/>
+      <c r="A62" s="49"/>
       <c r="B62" s="5">
         <v>3.3</v>
       </c>
@@ -19705,7 +19721,7 @@
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="51"/>
+      <c r="A63" s="49"/>
       <c r="B63" s="5">
         <v>3.4</v>
       </c>
@@ -19721,7 +19737,7 @@
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="51"/>
+      <c r="A64" s="49"/>
       <c r="B64" s="5">
         <v>3.5</v>
       </c>
@@ -19737,7 +19753,7 @@
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="51"/>
+      <c r="A65" s="49"/>
       <c r="B65" s="5">
         <v>3.6</v>
       </c>
@@ -19753,7 +19769,7 @@
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="49"/>
+      <c r="A66" s="50"/>
       <c r="B66" s="5">
         <v>3.7</v>
       </c>
@@ -19772,10 +19788,10 @@
       <c r="A68" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="60"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="63"/>
       <c r="F68" s="1" t="s">
         <v>49</v>
       </c>
@@ -19811,7 +19827,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="50">
+      <c r="A70" s="48">
         <v>41</v>
       </c>
       <c r="B70" s="5">
@@ -19829,7 +19845,7 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="51"/>
+      <c r="A71" s="49"/>
       <c r="B71" s="5">
         <v>41.2</v>
       </c>
@@ -19845,7 +19861,7 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="51"/>
+      <c r="A72" s="49"/>
       <c r="B72" s="5">
         <v>41.3</v>
       </c>
@@ -19861,7 +19877,7 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="51"/>
+      <c r="A73" s="49"/>
       <c r="B73" s="5">
         <v>41.4</v>
       </c>
@@ -19877,7 +19893,7 @@
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="51"/>
+      <c r="A74" s="49"/>
       <c r="B74" s="5">
         <v>41.5</v>
       </c>
@@ -19893,7 +19909,7 @@
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="51"/>
+      <c r="A75" s="49"/>
       <c r="B75" s="5">
         <v>41.6</v>
       </c>
@@ -19909,7 +19925,7 @@
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="49"/>
+      <c r="A76" s="50"/>
       <c r="B76" s="5">
         <v>41.7</v>
       </c>
@@ -19928,10 +19944,10 @@
       <c r="A78" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="59"/>
-      <c r="C78" s="59"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="60"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="63"/>
       <c r="F78" s="1" t="s">
         <v>49</v>
       </c>
@@ -19967,7 +19983,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="50">
+      <c r="A80" s="48">
         <v>25</v>
       </c>
       <c r="B80" s="5">
@@ -19989,7 +20005,7 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="51"/>
+      <c r="A81" s="49"/>
       <c r="B81" s="5">
         <v>25.2</v>
       </c>
@@ -20009,7 +20025,7 @@
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="51"/>
+      <c r="A82" s="49"/>
       <c r="B82" s="5">
         <v>25.3</v>
       </c>
@@ -20029,7 +20045,7 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="51"/>
+      <c r="A83" s="49"/>
       <c r="B83" s="5">
         <v>25.4</v>
       </c>
@@ -20049,7 +20065,7 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="51"/>
+      <c r="A84" s="49"/>
       <c r="B84" s="5">
         <v>25.5</v>
       </c>
@@ -20069,7 +20085,7 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="51"/>
+      <c r="A85" s="49"/>
       <c r="B85" s="5">
         <v>25.6</v>
       </c>
@@ -20089,7 +20105,7 @@
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="51"/>
+      <c r="A86" s="49"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -20099,7 +20115,7 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="49"/>
+      <c r="A87" s="50"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -20112,10 +20128,10 @@
       <c r="A89" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="B89" s="59"/>
-      <c r="C89" s="59"/>
-      <c r="D89" s="59"/>
-      <c r="E89" s="60"/>
+      <c r="B89" s="62"/>
+      <c r="C89" s="62"/>
+      <c r="D89" s="62"/>
+      <c r="E89" s="63"/>
       <c r="F89" s="1" t="s">
         <v>70</v>
       </c>
@@ -20151,7 +20167,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="50">
+      <c r="A91" s="48">
         <v>26</v>
       </c>
       <c r="B91" s="39">
@@ -20173,7 +20189,7 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="51"/>
+      <c r="A92" s="49"/>
       <c r="B92" s="39">
         <v>26.2</v>
       </c>
@@ -20193,7 +20209,7 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="51"/>
+      <c r="A93" s="49"/>
       <c r="B93" s="39">
         <v>26.3</v>
       </c>
@@ -20213,7 +20229,7 @@
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="51"/>
+      <c r="A94" s="49"/>
       <c r="B94" s="39">
         <v>26.4</v>
       </c>
@@ -20233,7 +20249,7 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="51"/>
+      <c r="A95" s="49"/>
       <c r="B95" s="39">
         <v>26.5</v>
       </c>
@@ -20253,7 +20269,7 @@
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="51"/>
+      <c r="A96" s="49"/>
       <c r="B96" s="39">
         <v>26.6</v>
       </c>
@@ -20273,7 +20289,7 @@
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="51"/>
+      <c r="A97" s="49"/>
       <c r="B97" s="39">
         <v>26.7</v>
       </c>
@@ -20293,7 +20309,7 @@
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="51"/>
+      <c r="A98" s="49"/>
       <c r="B98" s="39">
         <v>26.8</v>
       </c>
@@ -20313,7 +20329,7 @@
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="49"/>
+      <c r="A99" s="50"/>
       <c r="B99" s="39">
         <v>26.9</v>
       </c>
@@ -20336,10 +20352,10 @@
       <c r="A101" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B101" s="59"/>
-      <c r="C101" s="59"/>
-      <c r="D101" s="59"/>
-      <c r="E101" s="60"/>
+      <c r="B101" s="62"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="62"/>
+      <c r="E101" s="63"/>
       <c r="F101" s="1" t="s">
         <v>49</v>
       </c>
@@ -20375,7 +20391,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="50">
+      <c r="A103" s="48">
         <v>27</v>
       </c>
       <c r="B103" s="5">
@@ -20397,7 +20413,7 @@
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="51"/>
+      <c r="A104" s="49"/>
       <c r="B104" s="5">
         <v>27.2</v>
       </c>
@@ -20417,7 +20433,7 @@
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="51"/>
+      <c r="A105" s="49"/>
       <c r="B105" s="5">
         <v>27.3</v>
       </c>
@@ -20437,7 +20453,7 @@
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="51"/>
+      <c r="A106" s="49"/>
       <c r="B106" s="5">
         <v>27.4</v>
       </c>
@@ -20457,7 +20473,7 @@
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="51"/>
+      <c r="A107" s="49"/>
       <c r="B107" s="5">
         <v>27.5</v>
       </c>
@@ -20477,7 +20493,7 @@
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="51"/>
+      <c r="A108" s="49"/>
       <c r="B108" s="5">
         <v>27.6</v>
       </c>
@@ -20497,7 +20513,7 @@
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="49"/>
+      <c r="A109" s="50"/>
       <c r="B109" s="5">
         <v>27.7</v>
       </c>
@@ -20520,10 +20536,10 @@
       <c r="A111" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="B111" s="59"/>
-      <c r="C111" s="59"/>
-      <c r="D111" s="59"/>
-      <c r="E111" s="60"/>
+      <c r="B111" s="62"/>
+      <c r="C111" s="62"/>
+      <c r="D111" s="62"/>
+      <c r="E111" s="63"/>
       <c r="F111" s="1" t="s">
         <v>40</v>
       </c>
@@ -20559,7 +20575,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="61">
+      <c r="A113" s="66">
         <v>4</v>
       </c>
       <c r="B113" s="31">
@@ -20572,12 +20588,14 @@
         <v>2</v>
       </c>
       <c r="E113" s="28"/>
-      <c r="F113" s="5"/>
+      <c r="F113" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G113" s="5"/>
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="62"/>
+      <c r="A114" s="69"/>
       <c r="B114" s="31">
         <v>4.2</v>
       </c>
@@ -20588,12 +20606,14 @@
         <v>0.5</v>
       </c>
       <c r="E114" s="28"/>
-      <c r="F114" s="5"/>
+      <c r="F114" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G114" s="5"/>
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="62"/>
+      <c r="A115" s="69"/>
       <c r="B115" s="31">
         <v>4.3</v>
       </c>
@@ -20604,12 +20624,14 @@
         <v>1</v>
       </c>
       <c r="E115" s="28"/>
-      <c r="F115" s="5"/>
+      <c r="F115" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G115" s="5"/>
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="62"/>
+      <c r="A116" s="69"/>
       <c r="B116" s="31">
         <v>4.4000000000000004</v>
       </c>
@@ -20620,12 +20642,14 @@
         <v>0.5</v>
       </c>
       <c r="E116" s="28"/>
-      <c r="F116" s="5"/>
+      <c r="F116" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G116" s="5"/>
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="62"/>
+      <c r="A117" s="69"/>
       <c r="B117" s="31">
         <v>4.5</v>
       </c>
@@ -20636,12 +20660,14 @@
         <v>2</v>
       </c>
       <c r="E117" s="28"/>
-      <c r="F117" s="5"/>
+      <c r="F117" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G117" s="5"/>
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="62"/>
+      <c r="A118" s="69"/>
       <c r="B118" s="31">
         <v>4.5999999999999996</v>
       </c>
@@ -20652,12 +20678,14 @@
         <v>2</v>
       </c>
       <c r="E118" s="28"/>
-      <c r="F118" s="5"/>
+      <c r="F118" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G118" s="5"/>
       <c r="H118" s="3"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="62"/>
+      <c r="A119" s="69"/>
       <c r="B119" s="31">
         <v>4.7</v>
       </c>
@@ -20668,12 +20696,14 @@
         <v>2</v>
       </c>
       <c r="E119" s="28"/>
-      <c r="F119" s="5"/>
+      <c r="F119" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G119" s="5"/>
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="62"/>
+      <c r="A120" s="69"/>
       <c r="B120" s="31">
         <v>4.8</v>
       </c>
@@ -20684,12 +20714,14 @@
         <v>2</v>
       </c>
       <c r="E120" s="28"/>
-      <c r="F120" s="5"/>
+      <c r="F120" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G120" s="5"/>
       <c r="H120" s="3"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="62"/>
+      <c r="A121" s="69"/>
       <c r="B121" s="31">
         <v>4.9000000000000004</v>
       </c>
@@ -20700,12 +20732,14 @@
         <v>1</v>
       </c>
       <c r="E121" s="28"/>
-      <c r="F121" s="5"/>
+      <c r="F121" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G121" s="5"/>
       <c r="H121" s="3"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="63"/>
+      <c r="A122" s="70"/>
       <c r="B122" s="31">
         <v>5</v>
       </c>
@@ -20716,7 +20750,9 @@
         <v>0.5</v>
       </c>
       <c r="E122" s="29"/>
-      <c r="F122" s="3"/>
+      <c r="F122" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
     </row>
@@ -20724,10 +20760,10 @@
       <c r="A124" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="B124" s="59"/>
-      <c r="C124" s="59"/>
-      <c r="D124" s="59"/>
-      <c r="E124" s="60"/>
+      <c r="B124" s="62"/>
+      <c r="C124" s="62"/>
+      <c r="D124" s="62"/>
+      <c r="E124" s="63"/>
       <c r="F124" s="1" t="s">
         <v>49</v>
       </c>
@@ -20763,7 +20799,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="50">
+      <c r="A126" s="48">
         <v>30</v>
       </c>
       <c r="B126" s="5">
@@ -20781,7 +20817,7 @@
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="51"/>
+      <c r="A127" s="49"/>
       <c r="B127" s="5">
         <v>27.2</v>
       </c>
@@ -20797,7 +20833,7 @@
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="51"/>
+      <c r="A128" s="49"/>
       <c r="B128" s="5">
         <v>27.3</v>
       </c>
@@ -20813,7 +20849,7 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="51"/>
+      <c r="A129" s="49"/>
       <c r="B129" s="5">
         <v>27.4</v>
       </c>
@@ -20829,7 +20865,7 @@
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="51"/>
+      <c r="A130" s="49"/>
       <c r="B130" s="5">
         <v>27.5</v>
       </c>
@@ -20845,7 +20881,7 @@
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="51"/>
+      <c r="A131" s="49"/>
       <c r="B131" s="5">
         <v>27.6</v>
       </c>
@@ -20861,7 +20897,7 @@
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="49"/>
+      <c r="A132" s="50"/>
       <c r="B132" s="5">
         <v>27.7</v>
       </c>
@@ -20878,12 +20914,27 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A113:A122"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="G89:H89"/>
     <mergeCell ref="A49:A56"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="G15:H15"/>
@@ -20896,27 +20947,12 @@
     <mergeCell ref="A17:A23"/>
     <mergeCell ref="A27:A34"/>
     <mergeCell ref="A38:A45"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="A113:A122"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <conditionalFormatting sqref="A36">
     <cfRule type="notContainsBlanks" dxfId="25" priority="21">

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="141">
   <si>
     <t>User story: General Website Features</t>
   </si>
@@ -439,6 +439,12 @@
   <si>
     <t>If the table doesn’t exists. Create table for sponsors donations</t>
   </si>
+  <si>
+    <t>Lance(In progress)</t>
+  </si>
+  <si>
+    <t>User story:Events attending</t>
+  </si>
 </sst>
 </file>
 
@@ -447,7 +453,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -473,6 +479,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -707,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -771,22 +783,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -803,24 +816,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -829,13 +839,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1638,20 +1679,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="46"/>
+      <c r="H1" s="47"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1690,7 +1731,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48">
+      <c r="A3" s="51">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -1724,7 +1765,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -1749,7 +1790,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -1774,7 +1815,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -1799,7 +1840,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -1853,20 +1894,20 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="46"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="46"/>
+      <c r="H10" s="47"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1897,7 +1938,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48">
+      <c r="A12" s="51">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -1922,7 +1963,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -1945,7 +1986,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -1960,30 +2001,30 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
-      <c r="B15" s="54">
+      <c r="A15" s="52"/>
+      <c r="B15" s="55">
         <v>1.4</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="55">
         <v>1</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="54">
         <v>1</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="49">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="50"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
@@ -2027,20 +2068,20 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="46"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="46"/>
+      <c r="H19" s="47"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2071,7 +2112,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48">
+      <c r="A21" s="51">
         <v>11</v>
       </c>
       <c r="B21" s="22">
@@ -2098,7 +2139,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="22">
         <v>11.2</v>
       </c>
@@ -2142,20 +2183,20 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="46"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="46"/>
+      <c r="H25" s="47"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2186,7 +2227,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48">
+      <c r="A27" s="51">
         <v>12</v>
       </c>
       <c r="B27" s="22">
@@ -2213,7 +2254,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="22">
         <v>12.2</v>
       </c>
@@ -2276,20 +2317,20 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="46"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="45" t="s">
+      <c r="G32" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="46"/>
+      <c r="H32" s="47"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2320,7 +2361,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="48"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2331,7 +2372,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="49"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2342,7 +2383,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="49"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2353,7 +2394,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="49"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2364,7 +2405,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="49"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2375,7 +2416,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="49"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -10082,6 +10123,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:E19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G15:G16"/>
@@ -10093,18 +10143,9 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G1 A1 F10:G10 A10 F19:G19 A19 F25:G25 A25 F32:G32 A32">
-    <cfRule type="notContainsBlanks" dxfId="35" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="1">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10135,17 +10176,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="57" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
+      <c r="G1" s="59"/>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
@@ -10186,7 +10227,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48">
+      <c r="A3" s="51">
         <v>21</v>
       </c>
       <c r="B3" s="5">
@@ -10219,7 +10260,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="5">
         <v>21.2</v>
       </c>
@@ -10243,7 +10284,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="5">
         <v>21.3</v>
       </c>
@@ -10267,7 +10308,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="5">
         <v>21.4</v>
       </c>
@@ -10291,7 +10332,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="5">
         <v>21.5</v>
       </c>
@@ -10313,7 +10354,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="5">
         <v>21.6</v>
       </c>
@@ -10335,7 +10376,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="5">
         <v>21.7</v>
       </c>
@@ -10357,7 +10398,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="5">
         <v>21.8</v>
       </c>
@@ -10414,17 +10455,17 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="57" t="s">
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="58"/>
+      <c r="G13" s="59"/>
       <c r="H13" s="4" t="s">
         <v>4</v>
       </c>
@@ -10456,7 +10497,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48">
+      <c r="A15" s="51">
         <v>20</v>
       </c>
       <c r="B15" s="5">
@@ -10480,7 +10521,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="5">
         <v>20.2</v>
       </c>
@@ -10502,7 +10543,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="5">
         <v>20.3</v>
       </c>
@@ -10556,17 +10597,17 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="57" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="58"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="4" t="s">
         <v>4</v>
       </c>
@@ -10598,7 +10639,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48">
+      <c r="A22" s="51">
         <v>5</v>
       </c>
       <c r="B22" s="5">
@@ -10646,17 +10687,17 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="57" t="s">
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="58"/>
+      <c r="G25" s="59"/>
       <c r="H25" s="4" t="s">
         <v>4</v>
       </c>
@@ -10688,7 +10729,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48">
+      <c r="A27" s="51">
         <v>8</v>
       </c>
       <c r="B27" s="5">
@@ -10712,7 +10753,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="5">
         <v>8.1999999999999993</v>
       </c>
@@ -10734,7 +10775,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="5">
         <v>8.3000000000000007</v>
       </c>
@@ -10756,7 +10797,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="5">
         <v>8.4</v>
       </c>
@@ -10780,7 +10821,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="56"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="5">
         <v>8.5</v>
       </c>
@@ -10810,17 +10851,17 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="57" t="s">
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="58"/>
+      <c r="G33" s="59"/>
       <c r="H33" s="4" t="s">
         <v>4</v>
       </c>
@@ -10852,7 +10893,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="48">
+      <c r="A35" s="51">
         <v>4</v>
       </c>
       <c r="B35" s="5">
@@ -10876,7 +10917,7 @@
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="55"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="5">
         <v>4.2</v>
       </c>
@@ -10898,7 +10939,7 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="55"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="5">
         <v>4.3</v>
       </c>
@@ -10916,7 +10957,7 @@
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="56"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="5">
         <v>4.4000000000000004</v>
       </c>
@@ -18610,47 +18651,47 @@
     <mergeCell ref="A27:A31"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 F13 H13">
-    <cfRule type="notContainsBlanks" dxfId="34" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="notContainsBlanks" dxfId="33" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="35" priority="2">
       <formula>LEN(TRIM(A13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="3">
       <formula>LEN(TRIM(A20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="notContainsBlanks" dxfId="31" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="4">
       <formula>LEN(TRIM(A25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 H1">
-    <cfRule type="notContainsBlanks" dxfId="30" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="5">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 H20">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="6">
       <formula>LEN(TRIM(F20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25 H25">
-    <cfRule type="notContainsBlanks" dxfId="28" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="7">
       <formula>LEN(TRIM(F25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="notContainsBlanks" dxfId="27" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="8">
       <formula>LEN(TRIM(A33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33 H33">
-    <cfRule type="notContainsBlanks" dxfId="26" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="9">
       <formula>LEN(TRIM(F33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18661,10 +18702,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136:B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18673,7 +18714,7 @@
     <col min="3" max="3" width="65" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -18681,20 +18722,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -18729,7 +18770,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="59">
+      <c r="A3" s="69">
         <v>22</v>
       </c>
       <c r="B3" s="31">
@@ -18759,7 +18800,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="31">
         <v>22.2</v>
       </c>
@@ -18781,7 +18822,7 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="31">
         <v>22.3</v>
       </c>
@@ -18803,20 +18844,20 @@
       <c r="H5" s="34"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="46"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="46"/>
+      <c r="H7" s="47"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
@@ -18845,7 +18886,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="59">
+      <c r="A9" s="69">
         <v>33</v>
       </c>
       <c r="B9" s="31">
@@ -18863,7 +18904,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -18879,7 +18920,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -18895,7 +18936,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="31">
         <v>33.4</v>
       </c>
@@ -18911,7 +18952,7 @@
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="31">
         <v>33.5</v>
       </c>
@@ -18927,20 +18968,20 @@
       <c r="H13" s="34"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="46"/>
+      <c r="H15" s="47"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
@@ -18969,7 +19010,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="64"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="31">
         <v>34.1</v>
       </c>
@@ -18985,7 +19026,7 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="64"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="43">
         <v>34.200000000000003</v>
       </c>
@@ -19001,7 +19042,7 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="64"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="31">
         <v>34.299999999999997</v>
       </c>
@@ -19017,7 +19058,7 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="64"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="43">
         <v>34.4</v>
       </c>
@@ -19033,7 +19074,7 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="64"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="31">
         <v>34.5</v>
       </c>
@@ -19049,7 +19090,7 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="64"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="43">
         <v>34.6</v>
       </c>
@@ -19065,7 +19106,7 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="31">
         <v>34.700000000000003</v>
       </c>
@@ -19081,20 +19122,20 @@
       <c r="H23" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="63"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="46"/>
+      <c r="H25" s="47"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
@@ -19123,7 +19164,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="66">
+      <c r="A27" s="62">
         <v>35</v>
       </c>
       <c r="B27" s="5">
@@ -19253,20 +19294,20 @@
       <c r="H34" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="61"/>
       <c r="F36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H36" s="46"/>
+      <c r="H36" s="47"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
@@ -19295,7 +19336,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="48">
+      <c r="A38" s="51">
         <v>40</v>
       </c>
       <c r="B38" s="5">
@@ -19313,7 +19354,7 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="55"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="5">
         <v>40.200000000000003</v>
       </c>
@@ -19329,7 +19370,7 @@
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="55"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="5">
         <v>40.299999999999997</v>
       </c>
@@ -19345,7 +19386,7 @@
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="55"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="5">
         <v>40.4</v>
       </c>
@@ -19361,7 +19402,7 @@
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="55"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="5">
         <v>40.5</v>
       </c>
@@ -19377,7 +19418,7 @@
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="55"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="5">
         <v>40.6</v>
       </c>
@@ -19393,7 +19434,7 @@
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="55"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="5">
         <v>40.700000000000003</v>
       </c>
@@ -19409,7 +19450,7 @@
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="56"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="5">
         <v>40.799999999999997</v>
       </c>
@@ -19425,20 +19466,20 @@
       <c r="H45" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="63"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="61"/>
       <c r="F47" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G47" s="45" t="s">
+      <c r="G47" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="46"/>
+      <c r="H47" s="47"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -19467,7 +19508,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="48">
+      <c r="A49" s="51">
         <v>23</v>
       </c>
       <c r="B49" s="5">
@@ -19489,7 +19530,7 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="49"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="5">
         <v>23.2</v>
       </c>
@@ -19509,7 +19550,7 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="49"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="5">
         <v>23.3</v>
       </c>
@@ -19529,7 +19570,7 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="49"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="5">
         <v>23.4</v>
       </c>
@@ -19549,7 +19590,7 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="49"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="5">
         <v>23.5</v>
       </c>
@@ -19569,7 +19610,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="49"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="5">
         <v>23.6</v>
       </c>
@@ -19589,7 +19630,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="49"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="5">
         <v>23.7</v>
       </c>
@@ -19629,20 +19670,20 @@
       <c r="H56" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="45" t="s">
+      <c r="A58" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="62"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="63"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="61"/>
       <c r="F58" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G58" s="45" t="s">
+      <c r="G58" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="46"/>
+      <c r="H58" s="47"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
@@ -19671,7 +19712,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="48">
+      <c r="A60" s="51">
         <v>3</v>
       </c>
       <c r="B60" s="5">
@@ -19689,7 +19730,7 @@
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="49"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="5">
         <v>3.2</v>
       </c>
@@ -19705,7 +19746,7 @@
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="49"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="5">
         <v>3.3</v>
       </c>
@@ -19721,7 +19762,7 @@
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="49"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="5">
         <v>3.4</v>
       </c>
@@ -19737,7 +19778,7 @@
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="49"/>
+      <c r="A64" s="52"/>
       <c r="B64" s="5">
         <v>3.5</v>
       </c>
@@ -19753,7 +19794,7 @@
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="49"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="5">
         <v>3.6</v>
       </c>
@@ -19785,20 +19826,20 @@
       <c r="H66" s="3"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="45" t="s">
+      <c r="A68" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="62"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="63"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="61"/>
       <c r="F68" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G68" s="45" t="s">
+      <c r="G68" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H68" s="46"/>
+      <c r="H68" s="47"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
@@ -19827,7 +19868,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="48">
+      <c r="A70" s="51">
         <v>41</v>
       </c>
       <c r="B70" s="5">
@@ -19840,12 +19881,14 @@
         <v>1</v>
       </c>
       <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
+      <c r="F70" s="45" t="s">
+        <v>139</v>
+      </c>
       <c r="G70" s="5"/>
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="49"/>
+      <c r="A71" s="52"/>
       <c r="B71" s="5">
         <v>41.2</v>
       </c>
@@ -19856,12 +19899,14 @@
         <v>0.5</v>
       </c>
       <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
+      <c r="F71" s="45" t="s">
+        <v>139</v>
+      </c>
       <c r="G71" s="5"/>
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="49"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="5">
         <v>41.3</v>
       </c>
@@ -19872,12 +19917,14 @@
         <v>1</v>
       </c>
       <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
+      <c r="F72" s="45" t="s">
+        <v>139</v>
+      </c>
       <c r="G72" s="5"/>
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="49"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="5">
         <v>41.4</v>
       </c>
@@ -19888,12 +19935,14 @@
         <v>1</v>
       </c>
       <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
+      <c r="F73" s="45" t="s">
+        <v>139</v>
+      </c>
       <c r="G73" s="5"/>
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="49"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="5">
         <v>41.5</v>
       </c>
@@ -19904,12 +19953,14 @@
         <v>1</v>
       </c>
       <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
+      <c r="F74" s="45" t="s">
+        <v>139</v>
+      </c>
       <c r="G74" s="5"/>
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="49"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="5">
         <v>41.6</v>
       </c>
@@ -19920,7 +19971,9 @@
         <v>1</v>
       </c>
       <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
+      <c r="F75" s="45" t="s">
+        <v>139</v>
+      </c>
       <c r="G75" s="5"/>
       <c r="H75" s="3"/>
     </row>
@@ -19936,25 +19989,27 @@
         <v>0.5</v>
       </c>
       <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
+      <c r="F76" s="45" t="s">
+        <v>139</v>
+      </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="45" t="s">
+      <c r="A78" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="62"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="63"/>
+      <c r="B78" s="60"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="61"/>
       <c r="F78" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G78" s="45" t="s">
+      <c r="G78" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H78" s="46"/>
+      <c r="H78" s="47"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
@@ -19983,7 +20038,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="48">
+      <c r="A80" s="51">
         <v>25</v>
       </c>
       <c r="B80" s="5">
@@ -20005,7 +20060,7 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="49"/>
+      <c r="A81" s="52"/>
       <c r="B81" s="5">
         <v>25.2</v>
       </c>
@@ -20025,7 +20080,7 @@
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="49"/>
+      <c r="A82" s="52"/>
       <c r="B82" s="5">
         <v>25.3</v>
       </c>
@@ -20045,7 +20100,7 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="49"/>
+      <c r="A83" s="52"/>
       <c r="B83" s="5">
         <v>25.4</v>
       </c>
@@ -20065,7 +20120,7 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="49"/>
+      <c r="A84" s="52"/>
       <c r="B84" s="5">
         <v>25.5</v>
       </c>
@@ -20085,7 +20140,7 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="49"/>
+      <c r="A85" s="52"/>
       <c r="B85" s="5">
         <v>25.6</v>
       </c>
@@ -20105,7 +20160,7 @@
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="49"/>
+      <c r="A86" s="52"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -20125,20 +20180,20 @@
       <c r="H87" s="3"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="45" t="s">
+      <c r="A89" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="B89" s="62"/>
-      <c r="C89" s="62"/>
-      <c r="D89" s="62"/>
-      <c r="E89" s="63"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="60"/>
+      <c r="D89" s="60"/>
+      <c r="E89" s="61"/>
       <c r="F89" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G89" s="45" t="s">
+      <c r="G89" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H89" s="46"/>
+      <c r="H89" s="47"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
@@ -20167,7 +20222,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="48">
+      <c r="A91" s="51">
         <v>26</v>
       </c>
       <c r="B91" s="39">
@@ -20189,7 +20244,7 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="49"/>
+      <c r="A92" s="52"/>
       <c r="B92" s="39">
         <v>26.2</v>
       </c>
@@ -20209,7 +20264,7 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="49"/>
+      <c r="A93" s="52"/>
       <c r="B93" s="39">
         <v>26.3</v>
       </c>
@@ -20229,7 +20284,7 @@
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="49"/>
+      <c r="A94" s="52"/>
       <c r="B94" s="39">
         <v>26.4</v>
       </c>
@@ -20249,7 +20304,7 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="49"/>
+      <c r="A95" s="52"/>
       <c r="B95" s="39">
         <v>26.5</v>
       </c>
@@ -20269,7 +20324,7 @@
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="49"/>
+      <c r="A96" s="52"/>
       <c r="B96" s="39">
         <v>26.6</v>
       </c>
@@ -20289,7 +20344,7 @@
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="49"/>
+      <c r="A97" s="52"/>
       <c r="B97" s="39">
         <v>26.7</v>
       </c>
@@ -20309,7 +20364,7 @@
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="49"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="39">
         <v>26.8</v>
       </c>
@@ -20349,20 +20404,20 @@
       <c r="H99" s="3"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="45" t="s">
+      <c r="A101" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B101" s="62"/>
-      <c r="C101" s="62"/>
-      <c r="D101" s="62"/>
-      <c r="E101" s="63"/>
+      <c r="B101" s="60"/>
+      <c r="C101" s="60"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="61"/>
       <c r="F101" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G101" s="45" t="s">
+      <c r="G101" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="46"/>
+      <c r="H101" s="47"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
@@ -20391,7 +20446,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="48">
+      <c r="A103" s="51">
         <v>27</v>
       </c>
       <c r="B103" s="5">
@@ -20413,7 +20468,7 @@
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="49"/>
+      <c r="A104" s="52"/>
       <c r="B104" s="5">
         <v>27.2</v>
       </c>
@@ -20433,7 +20488,7 @@
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="49"/>
+      <c r="A105" s="52"/>
       <c r="B105" s="5">
         <v>27.3</v>
       </c>
@@ -20453,7 +20508,7 @@
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="49"/>
+      <c r="A106" s="52"/>
       <c r="B106" s="5">
         <v>27.4</v>
       </c>
@@ -20473,7 +20528,7 @@
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="49"/>
+      <c r="A107" s="52"/>
       <c r="B107" s="5">
         <v>27.5</v>
       </c>
@@ -20493,7 +20548,7 @@
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="49"/>
+      <c r="A108" s="52"/>
       <c r="B108" s="5">
         <v>27.6</v>
       </c>
@@ -20533,20 +20588,20 @@
       <c r="H109" s="3"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="45" t="s">
+      <c r="A111" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="B111" s="62"/>
-      <c r="C111" s="62"/>
-      <c r="D111" s="62"/>
-      <c r="E111" s="63"/>
+      <c r="B111" s="60"/>
+      <c r="C111" s="60"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="61"/>
       <c r="F111" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G111" s="45" t="s">
+      <c r="G111" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H111" s="46"/>
+      <c r="H111" s="47"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
@@ -20575,7 +20630,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="66">
+      <c r="A113" s="62">
         <v>4</v>
       </c>
       <c r="B113" s="31">
@@ -20595,7 +20650,7 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="69"/>
+      <c r="A114" s="63"/>
       <c r="B114" s="31">
         <v>4.2</v>
       </c>
@@ -20613,7 +20668,7 @@
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="69"/>
+      <c r="A115" s="63"/>
       <c r="B115" s="31">
         <v>4.3</v>
       </c>
@@ -20631,7 +20686,7 @@
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="69"/>
+      <c r="A116" s="63"/>
       <c r="B116" s="31">
         <v>4.4000000000000004</v>
       </c>
@@ -20649,7 +20704,7 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="69"/>
+      <c r="A117" s="63"/>
       <c r="B117" s="31">
         <v>4.5</v>
       </c>
@@ -20667,7 +20722,7 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="69"/>
+      <c r="A118" s="63"/>
       <c r="B118" s="31">
         <v>4.5999999999999996</v>
       </c>
@@ -20685,7 +20740,7 @@
       <c r="H118" s="3"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="69"/>
+      <c r="A119" s="63"/>
       <c r="B119" s="31">
         <v>4.7</v>
       </c>
@@ -20703,7 +20758,7 @@
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="69"/>
+      <c r="A120" s="63"/>
       <c r="B120" s="31">
         <v>4.8</v>
       </c>
@@ -20721,7 +20776,7 @@
       <c r="H120" s="3"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="69"/>
+      <c r="A121" s="63"/>
       <c r="B121" s="31">
         <v>4.9000000000000004</v>
       </c>
@@ -20739,7 +20794,7 @@
       <c r="H121" s="3"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="70"/>
+      <c r="A122" s="64"/>
       <c r="B122" s="31">
         <v>5</v>
       </c>
@@ -20757,20 +20812,20 @@
       <c r="H122" s="3"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="45" t="s">
+      <c r="A124" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="B124" s="62"/>
-      <c r="C124" s="62"/>
-      <c r="D124" s="62"/>
-      <c r="E124" s="63"/>
+      <c r="B124" s="60"/>
+      <c r="C124" s="60"/>
+      <c r="D124" s="60"/>
+      <c r="E124" s="61"/>
       <c r="F124" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G124" s="45" t="s">
+      <c r="G124" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H124" s="46"/>
+      <c r="H124" s="47"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
@@ -20799,7 +20854,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="48">
+      <c r="A126" s="51">
         <v>30</v>
       </c>
       <c r="B126" s="5">
@@ -20812,12 +20867,14 @@
         <v>2</v>
       </c>
       <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
+      <c r="F126" s="45" t="s">
+        <v>139</v>
+      </c>
       <c r="G126" s="5"/>
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="49"/>
+      <c r="A127" s="52"/>
       <c r="B127" s="5">
         <v>27.2</v>
       </c>
@@ -20828,12 +20885,14 @@
         <v>0.5</v>
       </c>
       <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
+      <c r="F127" s="45" t="s">
+        <v>139</v>
+      </c>
       <c r="G127" s="5"/>
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="49"/>
+      <c r="A128" s="52"/>
       <c r="B128" s="5">
         <v>27.3</v>
       </c>
@@ -20844,12 +20903,14 @@
         <v>1</v>
       </c>
       <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
+      <c r="F128" s="45" t="s">
+        <v>139</v>
+      </c>
       <c r="G128" s="5"/>
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="49"/>
+      <c r="A129" s="52"/>
       <c r="B129" s="5">
         <v>27.4</v>
       </c>
@@ -20860,12 +20921,14 @@
         <v>0.5</v>
       </c>
       <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
+      <c r="F129" s="45" t="s">
+        <v>139</v>
+      </c>
       <c r="G129" s="5"/>
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="49"/>
+      <c r="A130" s="52"/>
       <c r="B130" s="5">
         <v>27.5</v>
       </c>
@@ -20876,12 +20939,14 @@
         <v>2</v>
       </c>
       <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
+      <c r="F130" s="45" t="s">
+        <v>139</v>
+      </c>
       <c r="G130" s="5"/>
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="49"/>
+      <c r="A131" s="52"/>
       <c r="B131" s="5">
         <v>27.6</v>
       </c>
@@ -20892,7 +20957,9 @@
         <v>1</v>
       </c>
       <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
+      <c r="F131" s="45" t="s">
+        <v>139</v>
+      </c>
       <c r="G131" s="5"/>
       <c r="H131" s="3"/>
     </row>
@@ -20908,21 +20975,219 @@
         <v>0.5</v>
       </c>
       <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
+      <c r="F132" s="45" t="s">
+        <v>139</v>
+      </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
     </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134" s="60"/>
+      <c r="C134" s="60"/>
+      <c r="D134" s="60"/>
+      <c r="E134" s="61"/>
+      <c r="F134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G134" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H134" s="47"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="51">
+        <v>32</v>
+      </c>
+      <c r="B136" s="5">
+        <v>32.1</v>
+      </c>
+      <c r="C136" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D136" s="5">
+        <v>1</v>
+      </c>
+      <c r="E136" s="5">
+        <v>2</v>
+      </c>
+      <c r="F136" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G136" s="5"/>
+      <c r="H136" s="3"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="52"/>
+      <c r="B137" s="5">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="C137" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D137" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E137" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F137" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G137" s="5"/>
+      <c r="H137" s="3"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="52"/>
+      <c r="B138" s="5">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C138" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D138" s="5">
+        <v>2</v>
+      </c>
+      <c r="E138" s="5">
+        <v>1</v>
+      </c>
+      <c r="F138" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G138" s="5"/>
+      <c r="H138" s="3"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="52"/>
+      <c r="B139" s="5">
+        <v>32.4</v>
+      </c>
+      <c r="C139" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D139" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E139" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F139" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G139" s="5"/>
+      <c r="H139" s="3"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="52"/>
+      <c r="B140" s="5">
+        <v>32.5</v>
+      </c>
+      <c r="C140" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D140" s="5">
+        <v>3</v>
+      </c>
+      <c r="E140" s="5">
+        <v>2</v>
+      </c>
+      <c r="F140" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G140" s="5"/>
+      <c r="H140" s="3"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="52"/>
+      <c r="B141" s="5">
+        <v>32.6</v>
+      </c>
+      <c r="C141" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D141" s="5">
+        <v>1</v>
+      </c>
+      <c r="E141" s="5">
+        <v>1</v>
+      </c>
+      <c r="F141" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G141" s="5"/>
+      <c r="H141" s="3"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="50"/>
+      <c r="B142" s="5">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="C142" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E142" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F142" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="A113:A122"/>
+  <mergeCells count="42">
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="A136:A142"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A49:A56"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A38:A45"/>
     <mergeCell ref="A91:A99"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="G58:H58"/>
@@ -20935,153 +21200,154 @@
     <mergeCell ref="A80:A87"/>
     <mergeCell ref="A89:E89"/>
     <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A49:A56"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A113:A122"/>
   </mergeCells>
   <conditionalFormatting sqref="A36">
-    <cfRule type="notContainsBlanks" dxfId="25" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="23">
       <formula>LEN(TRIM(F36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1 A1">
-    <cfRule type="notContainsBlanks" dxfId="24" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="27">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 A7">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="26">
       <formula>LEN(TRIM(F7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15 A15">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="25">
       <formula>LEN(TRIM(F15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25 A25">
-    <cfRule type="notContainsBlanks" dxfId="21" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="24">
       <formula>LEN(TRIM(F25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="19">
       <formula>LEN(TRIM(L36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="22">
       <formula>LEN(TRIM(L7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="21">
       <formula>LEN(TRIM(L15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="20">
       <formula>LEN(TRIM(L25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 A47">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="18">
       <formula>LEN(TRIM(F47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="17">
       <formula>LEN(TRIM(L47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58 A58">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="16">
       <formula>LEN(TRIM(F58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="15">
       <formula>LEN(TRIM(L58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68 A68">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="14">
       <formula>LEN(TRIM(F68))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="13">
       <formula>LEN(TRIM(L68))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78 A78">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="12">
       <formula>LEN(TRIM(F78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="11">
       <formula>LEN(TRIM(L78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89 A89">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="10">
       <formula>LEN(TRIM(F89))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="9">
       <formula>LEN(TRIM(L89))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101 A101">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="8">
       <formula>LEN(TRIM(F101))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G101">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="7">
       <formula>LEN(TRIM(L101))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111 A111">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="6">
       <formula>LEN(TRIM(F111))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
       <formula>LEN(TRIM(L111))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F124 A124">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="4">
       <formula>LEN(TRIM(F124))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="3">
       <formula>LEN(TRIM(L124))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="28">
       <formula>LEN(TRIM(K2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F134 A134">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(F134))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G134">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(L134))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -788,18 +788,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -822,15 +822,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -839,11 +842,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1682,9 +1682,9 @@
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="47"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1731,7 +1731,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51">
+      <c r="A3" s="49">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -1765,7 +1765,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -1790,7 +1790,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -1815,7 +1815,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -1840,7 +1840,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -1863,7 +1863,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="5">
         <v>6.6</v>
       </c>
@@ -1894,17 +1894,17 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="47"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="52" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="47"/>
@@ -1938,7 +1938,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51">
+      <c r="A12" s="49">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -1963,7 +1963,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -1986,7 +1986,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -2001,7 +2001,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="55">
         <v>1.4</v>
       </c>
@@ -2017,27 +2017,27 @@
       <c r="F15" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="53">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
       <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="16">
         <v>1.5</v>
       </c>
@@ -2071,9 +2071,9 @@
       <c r="A19" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="47"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
@@ -2112,7 +2112,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51">
+      <c r="A21" s="49">
         <v>11</v>
       </c>
       <c r="B21" s="22">
@@ -2139,7 +2139,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="22">
         <v>11.2</v>
       </c>
@@ -2164,7 +2164,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2186,9 +2186,9 @@
       <c r="A25" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="47"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
@@ -2227,7 +2227,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51">
+      <c r="A27" s="49">
         <v>12</v>
       </c>
       <c r="B27" s="22">
@@ -2254,7 +2254,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="22">
         <v>12.2</v>
       </c>
@@ -2277,7 +2277,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="22">
         <v>12.3</v>
       </c>
@@ -2320,9 +2320,9 @@
       <c r="A32" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
       <c r="E32" s="47"/>
       <c r="F32" s="1" t="s">
         <v>88</v>
@@ -2361,7 +2361,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="51"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2372,7 +2372,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="52"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2383,7 +2383,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="52"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2394,7 +2394,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="52"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2405,7 +2405,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="52"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2416,7 +2416,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="52"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2427,7 +2427,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="50"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -10123,15 +10123,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:E19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G15:G16"/>
@@ -10143,6 +10134,15 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G1 A1 F10:G10 A10 F19:G19 A19 F25:G25 A25 F32:G32 A32">
     <cfRule type="notContainsBlanks" dxfId="37" priority="1">
@@ -10179,9 +10179,9 @@
       <c r="A1" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="47"/>
       <c r="F1" s="58" t="s">
         <v>1</v>
@@ -10227,7 +10227,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51">
+      <c r="A3" s="49">
         <v>21</v>
       </c>
       <c r="B3" s="5">
@@ -10260,7 +10260,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="5">
         <v>21.2</v>
       </c>
@@ -10284,7 +10284,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="5">
         <v>21.3</v>
       </c>
@@ -10308,7 +10308,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="5">
         <v>21.4</v>
       </c>
@@ -10332,7 +10332,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="5">
         <v>21.5</v>
       </c>
@@ -10354,7 +10354,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="5">
         <v>21.6</v>
       </c>
@@ -10376,7 +10376,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="5">
         <v>21.7</v>
       </c>
@@ -10398,7 +10398,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="5">
         <v>21.8</v>
       </c>
@@ -10422,7 +10422,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="5">
         <v>21.9</v>
       </c>
@@ -10458,9 +10458,9 @@
       <c r="A13" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="47"/>
       <c r="F13" s="58" t="s">
         <v>42</v>
@@ -10497,7 +10497,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51">
+      <c r="A15" s="49">
         <v>20</v>
       </c>
       <c r="B15" s="5">
@@ -10521,7 +10521,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="5">
         <v>20.2</v>
       </c>
@@ -10543,7 +10543,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="5">
         <v>20.3</v>
       </c>
@@ -10567,7 +10567,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="5">
         <v>20.399999999999999</v>
       </c>
@@ -10600,9 +10600,9 @@
       <c r="A20" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="47"/>
       <c r="F20" s="58" t="s">
         <v>49</v>
@@ -10639,7 +10639,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51">
+      <c r="A22" s="49">
         <v>5</v>
       </c>
       <c r="B22" s="5">
@@ -10661,7 +10661,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="5">
         <v>5.2</v>
       </c>
@@ -10690,9 +10690,9 @@
       <c r="A25" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="47"/>
       <c r="F25" s="58" t="s">
         <v>40</v>
@@ -10729,7 +10729,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51">
+      <c r="A27" s="49">
         <v>8</v>
       </c>
       <c r="B27" s="5">
@@ -10854,9 +10854,9 @@
       <c r="A33" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
       <c r="E33" s="47"/>
       <c r="F33" s="58" t="s">
         <v>70</v>
@@ -10893,7 +10893,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="51">
+      <c r="A35" s="49">
         <v>4</v>
       </c>
       <c r="B35" s="5">
@@ -18705,7 +18705,7 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136:B142"/>
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18725,9 +18725,9 @@
       <c r="A1" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="47"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
@@ -18770,7 +18770,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="69">
+      <c r="A3" s="62">
         <v>22</v>
       </c>
       <c r="B3" s="31">
@@ -18800,7 +18800,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="31">
         <v>22.2</v>
       </c>
@@ -18822,7 +18822,7 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="31">
         <v>22.3</v>
       </c>
@@ -18847,9 +18847,9 @@
       <c r="A7" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="47"/>
       <c r="F7" s="1" t="s">
         <v>49</v>
@@ -18886,7 +18886,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="69">
+      <c r="A9" s="62">
         <v>33</v>
       </c>
       <c r="B9" s="31">
@@ -18904,7 +18904,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="69"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -18920,7 +18920,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="69"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -18936,7 +18936,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="69"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="31">
         <v>33.4</v>
       </c>
@@ -18952,7 +18952,7 @@
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="69"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="31">
         <v>33.5</v>
       </c>
@@ -18971,10 +18971,10 @@
       <c r="A15" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
@@ -19164,7 +19164,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="62">
+      <c r="A27" s="67">
         <v>35</v>
       </c>
       <c r="B27" s="5">
@@ -19182,7 +19182,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="67"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -19198,7 +19198,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="67"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -19214,7 +19214,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="67"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="31">
         <v>35.4</v>
       </c>
@@ -19230,7 +19230,7 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="67"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="5">
         <v>35.5</v>
       </c>
@@ -19246,7 +19246,7 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="67"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="31">
         <v>35.6</v>
       </c>
@@ -19262,7 +19262,7 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="67"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -19278,7 +19278,7 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="68"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -19336,7 +19336,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="51">
+      <c r="A38" s="49">
         <v>40</v>
       </c>
       <c r="B38" s="5">
@@ -19508,7 +19508,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="51">
+      <c r="A49" s="49">
         <v>23</v>
       </c>
       <c r="B49" s="5">
@@ -19530,7 +19530,7 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="52"/>
+      <c r="A50" s="50"/>
       <c r="B50" s="5">
         <v>23.2</v>
       </c>
@@ -19550,7 +19550,7 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="52"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="5">
         <v>23.3</v>
       </c>
@@ -19570,7 +19570,7 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="52"/>
+      <c r="A52" s="50"/>
       <c r="B52" s="5">
         <v>23.4</v>
       </c>
@@ -19590,7 +19590,7 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="52"/>
+      <c r="A53" s="50"/>
       <c r="B53" s="5">
         <v>23.5</v>
       </c>
@@ -19610,7 +19610,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
+      <c r="A54" s="50"/>
       <c r="B54" s="5">
         <v>23.6</v>
       </c>
@@ -19630,7 +19630,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="52"/>
+      <c r="A55" s="50"/>
       <c r="B55" s="5">
         <v>23.7</v>
       </c>
@@ -19650,7 +19650,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="50"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="5">
         <v>23.8</v>
       </c>
@@ -19712,7 +19712,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="51">
+      <c r="A60" s="49">
         <v>3</v>
       </c>
       <c r="B60" s="5">
@@ -19730,7 +19730,7 @@
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="52"/>
+      <c r="A61" s="50"/>
       <c r="B61" s="5">
         <v>3.2</v>
       </c>
@@ -19746,7 +19746,7 @@
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="52"/>
+      <c r="A62" s="50"/>
       <c r="B62" s="5">
         <v>3.3</v>
       </c>
@@ -19762,7 +19762,7 @@
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="52"/>
+      <c r="A63" s="50"/>
       <c r="B63" s="5">
         <v>3.4</v>
       </c>
@@ -19778,7 +19778,7 @@
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="52"/>
+      <c r="A64" s="50"/>
       <c r="B64" s="5">
         <v>3.5</v>
       </c>
@@ -19794,7 +19794,7 @@
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="52"/>
+      <c r="A65" s="50"/>
       <c r="B65" s="5">
         <v>3.6</v>
       </c>
@@ -19810,7 +19810,7 @@
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="50"/>
+      <c r="A66" s="51"/>
       <c r="B66" s="5">
         <v>3.7</v>
       </c>
@@ -19868,7 +19868,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="51">
+      <c r="A70" s="49">
         <v>41</v>
       </c>
       <c r="B70" s="5">
@@ -19888,7 +19888,7 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="52"/>
+      <c r="A71" s="50"/>
       <c r="B71" s="5">
         <v>41.2</v>
       </c>
@@ -19906,7 +19906,7 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="52"/>
+      <c r="A72" s="50"/>
       <c r="B72" s="5">
         <v>41.3</v>
       </c>
@@ -19924,7 +19924,7 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="52"/>
+      <c r="A73" s="50"/>
       <c r="B73" s="5">
         <v>41.4</v>
       </c>
@@ -19942,7 +19942,7 @@
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="52"/>
+      <c r="A74" s="50"/>
       <c r="B74" s="5">
         <v>41.5</v>
       </c>
@@ -19960,7 +19960,7 @@
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="52"/>
+      <c r="A75" s="50"/>
       <c r="B75" s="5">
         <v>41.6</v>
       </c>
@@ -19978,7 +19978,7 @@
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="50"/>
+      <c r="A76" s="51"/>
       <c r="B76" s="5">
         <v>41.7</v>
       </c>
@@ -20038,7 +20038,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="51">
+      <c r="A80" s="49">
         <v>25</v>
       </c>
       <c r="B80" s="5">
@@ -20060,7 +20060,7 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="52"/>
+      <c r="A81" s="50"/>
       <c r="B81" s="5">
         <v>25.2</v>
       </c>
@@ -20080,7 +20080,7 @@
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="52"/>
+      <c r="A82" s="50"/>
       <c r="B82" s="5">
         <v>25.3</v>
       </c>
@@ -20100,7 +20100,7 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="52"/>
+      <c r="A83" s="50"/>
       <c r="B83" s="5">
         <v>25.4</v>
       </c>
@@ -20120,7 +20120,7 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="52"/>
+      <c r="A84" s="50"/>
       <c r="B84" s="5">
         <v>25.5</v>
       </c>
@@ -20140,7 +20140,7 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="52"/>
+      <c r="A85" s="50"/>
       <c r="B85" s="5">
         <v>25.6</v>
       </c>
@@ -20160,7 +20160,7 @@
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="52"/>
+      <c r="A86" s="50"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -20170,7 +20170,7 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="50"/>
+      <c r="A87" s="51"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -20222,7 +20222,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="51">
+      <c r="A91" s="49">
         <v>26</v>
       </c>
       <c r="B91" s="39">
@@ -20244,7 +20244,7 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="52"/>
+      <c r="A92" s="50"/>
       <c r="B92" s="39">
         <v>26.2</v>
       </c>
@@ -20264,7 +20264,7 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="52"/>
+      <c r="A93" s="50"/>
       <c r="B93" s="39">
         <v>26.3</v>
       </c>
@@ -20284,7 +20284,7 @@
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="52"/>
+      <c r="A94" s="50"/>
       <c r="B94" s="39">
         <v>26.4</v>
       </c>
@@ -20304,7 +20304,7 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="52"/>
+      <c r="A95" s="50"/>
       <c r="B95" s="39">
         <v>26.5</v>
       </c>
@@ -20324,7 +20324,7 @@
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="52"/>
+      <c r="A96" s="50"/>
       <c r="B96" s="39">
         <v>26.6</v>
       </c>
@@ -20344,7 +20344,7 @@
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="52"/>
+      <c r="A97" s="50"/>
       <c r="B97" s="39">
         <v>26.7</v>
       </c>
@@ -20364,7 +20364,7 @@
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="52"/>
+      <c r="A98" s="50"/>
       <c r="B98" s="39">
         <v>26.8</v>
       </c>
@@ -20384,7 +20384,7 @@
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="50"/>
+      <c r="A99" s="51"/>
       <c r="B99" s="39">
         <v>26.9</v>
       </c>
@@ -20446,7 +20446,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="51">
+      <c r="A103" s="49">
         <v>27</v>
       </c>
       <c r="B103" s="5">
@@ -20468,7 +20468,7 @@
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="52"/>
+      <c r="A104" s="50"/>
       <c r="B104" s="5">
         <v>27.2</v>
       </c>
@@ -20488,7 +20488,7 @@
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="52"/>
+      <c r="A105" s="50"/>
       <c r="B105" s="5">
         <v>27.3</v>
       </c>
@@ -20508,7 +20508,7 @@
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="52"/>
+      <c r="A106" s="50"/>
       <c r="B106" s="5">
         <v>27.4</v>
       </c>
@@ -20528,7 +20528,7 @@
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="52"/>
+      <c r="A107" s="50"/>
       <c r="B107" s="5">
         <v>27.5</v>
       </c>
@@ -20548,7 +20548,7 @@
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="52"/>
+      <c r="A108" s="50"/>
       <c r="B108" s="5">
         <v>27.6</v>
       </c>
@@ -20568,7 +20568,7 @@
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="50"/>
+      <c r="A109" s="51"/>
       <c r="B109" s="5">
         <v>27.7</v>
       </c>
@@ -20630,7 +20630,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="62">
+      <c r="A113" s="67">
         <v>4</v>
       </c>
       <c r="B113" s="31">
@@ -20650,7 +20650,7 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="63"/>
+      <c r="A114" s="70"/>
       <c r="B114" s="31">
         <v>4.2</v>
       </c>
@@ -20668,7 +20668,7 @@
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="63"/>
+      <c r="A115" s="70"/>
       <c r="B115" s="31">
         <v>4.3</v>
       </c>
@@ -20686,7 +20686,7 @@
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="63"/>
+      <c r="A116" s="70"/>
       <c r="B116" s="31">
         <v>4.4000000000000004</v>
       </c>
@@ -20704,7 +20704,7 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="63"/>
+      <c r="A117" s="70"/>
       <c r="B117" s="31">
         <v>4.5</v>
       </c>
@@ -20722,7 +20722,7 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="63"/>
+      <c r="A118" s="70"/>
       <c r="B118" s="31">
         <v>4.5999999999999996</v>
       </c>
@@ -20740,7 +20740,7 @@
       <c r="H118" s="3"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="63"/>
+      <c r="A119" s="70"/>
       <c r="B119" s="31">
         <v>4.7</v>
       </c>
@@ -20758,7 +20758,7 @@
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="63"/>
+      <c r="A120" s="70"/>
       <c r="B120" s="31">
         <v>4.8</v>
       </c>
@@ -20776,7 +20776,7 @@
       <c r="H120" s="3"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="63"/>
+      <c r="A121" s="70"/>
       <c r="B121" s="31">
         <v>4.9000000000000004</v>
       </c>
@@ -20794,7 +20794,7 @@
       <c r="H121" s="3"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="64"/>
+      <c r="A122" s="71"/>
       <c r="B122" s="31">
         <v>5</v>
       </c>
@@ -20854,7 +20854,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="51">
+      <c r="A126" s="49">
         <v>30</v>
       </c>
       <c r="B126" s="5">
@@ -20874,7 +20874,7 @@
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="52"/>
+      <c r="A127" s="50"/>
       <c r="B127" s="5">
         <v>27.2</v>
       </c>
@@ -20892,7 +20892,7 @@
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="52"/>
+      <c r="A128" s="50"/>
       <c r="B128" s="5">
         <v>27.3</v>
       </c>
@@ -20910,7 +20910,7 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="52"/>
+      <c r="A129" s="50"/>
       <c r="B129" s="5">
         <v>27.4</v>
       </c>
@@ -20928,7 +20928,7 @@
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="52"/>
+      <c r="A130" s="50"/>
       <c r="B130" s="5">
         <v>27.5</v>
       </c>
@@ -20946,7 +20946,7 @@
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="52"/>
+      <c r="A131" s="50"/>
       <c r="B131" s="5">
         <v>27.6</v>
       </c>
@@ -20964,7 +20964,7 @@
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="50"/>
+      <c r="A132" s="51"/>
       <c r="B132" s="5">
         <v>27.7</v>
       </c>
@@ -21024,7 +21024,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="51">
+      <c r="A136" s="49">
         <v>32</v>
       </c>
       <c r="B136" s="5">
@@ -21046,7 +21046,7 @@
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="52"/>
+      <c r="A137" s="50"/>
       <c r="B137" s="5">
         <v>32.200000000000003</v>
       </c>
@@ -21066,7 +21066,7 @@
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="52"/>
+      <c r="A138" s="50"/>
       <c r="B138" s="5">
         <v>32.299999999999997</v>
       </c>
@@ -21086,7 +21086,7 @@
       <c r="H138" s="3"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="52"/>
+      <c r="A139" s="50"/>
       <c r="B139" s="5">
         <v>32.4</v>
       </c>
@@ -21106,7 +21106,7 @@
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="52"/>
+      <c r="A140" s="50"/>
       <c r="B140" s="5">
         <v>32.5</v>
       </c>
@@ -21126,7 +21126,7 @@
       <c r="H140" s="3"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="52"/>
+      <c r="A141" s="50"/>
       <c r="B141" s="5">
         <v>32.6</v>
       </c>
@@ -21146,7 +21146,7 @@
       <c r="H141" s="3"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="50"/>
+      <c r="A142" s="51"/>
       <c r="B142" s="5">
         <v>32.700000000000003</v>
       </c>
@@ -21167,6 +21167,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A113:A122"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A38:A45"/>
     <mergeCell ref="A134:E134"/>
     <mergeCell ref="G134:H134"/>
     <mergeCell ref="A136:A142"/>
@@ -21183,32 +21209,6 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="A113:A122"/>
   </mergeCells>
   <conditionalFormatting sqref="A36">
     <cfRule type="notContainsBlanks" dxfId="27" priority="23">

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -788,18 +788,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -822,18 +822,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -842,8 +839,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1682,9 +1682,9 @@
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="47"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1731,7 +1731,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49">
+      <c r="A3" s="51">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -1765,7 +1765,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -1790,7 +1790,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -1815,7 +1815,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -1840,7 +1840,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -1863,7 +1863,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="5">
         <v>6.6</v>
       </c>
@@ -1894,17 +1894,17 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="47"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="47"/>
@@ -1938,7 +1938,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49">
+      <c r="A12" s="51">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -1963,7 +1963,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -1986,7 +1986,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -2001,7 +2001,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="55">
         <v>1.4</v>
       </c>
@@ -2017,27 +2017,27 @@
       <c r="F15" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="49">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="16">
         <v>1.5</v>
       </c>
@@ -2071,9 +2071,9 @@
       <c r="A19" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="47"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
@@ -2112,7 +2112,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49">
+      <c r="A21" s="51">
         <v>11</v>
       </c>
       <c r="B21" s="22">
@@ -2139,7 +2139,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="22">
         <v>11.2</v>
       </c>
@@ -2164,7 +2164,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2186,9 +2186,9 @@
       <c r="A25" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="47"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
@@ -2227,7 +2227,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49">
+      <c r="A27" s="51">
         <v>12</v>
       </c>
       <c r="B27" s="22">
@@ -2254,7 +2254,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="22">
         <v>12.2</v>
       </c>
@@ -2277,7 +2277,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="22">
         <v>12.3</v>
       </c>
@@ -2320,9 +2320,9 @@
       <c r="A32" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="47"/>
       <c r="F32" s="1" t="s">
         <v>88</v>
@@ -2361,7 +2361,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="49"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2372,7 +2372,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="50"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2383,7 +2383,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="50"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2394,7 +2394,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2405,7 +2405,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2416,7 +2416,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2427,7 +2427,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="51"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -10123,6 +10123,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:E19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G15:G16"/>
@@ -10134,15 +10143,6 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G1 A1 F10:G10 A10 F19:G19 A19 F25:G25 A25 F32:G32 A32">
     <cfRule type="notContainsBlanks" dxfId="37" priority="1">
@@ -10179,9 +10179,9 @@
       <c r="A1" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="47"/>
       <c r="F1" s="58" t="s">
         <v>1</v>
@@ -10227,7 +10227,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49">
+      <c r="A3" s="51">
         <v>21</v>
       </c>
       <c r="B3" s="5">
@@ -10260,7 +10260,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="5">
         <v>21.2</v>
       </c>
@@ -10284,7 +10284,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="5">
         <v>21.3</v>
       </c>
@@ -10308,7 +10308,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="5">
         <v>21.4</v>
       </c>
@@ -10332,7 +10332,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="5">
         <v>21.5</v>
       </c>
@@ -10354,7 +10354,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="5">
         <v>21.6</v>
       </c>
@@ -10376,7 +10376,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="5">
         <v>21.7</v>
       </c>
@@ -10398,7 +10398,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="5">
         <v>21.8</v>
       </c>
@@ -10422,7 +10422,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="5">
         <v>21.9</v>
       </c>
@@ -10458,9 +10458,9 @@
       <c r="A13" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="47"/>
       <c r="F13" s="58" t="s">
         <v>42</v>
@@ -10497,7 +10497,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49">
+      <c r="A15" s="51">
         <v>20</v>
       </c>
       <c r="B15" s="5">
@@ -10521,7 +10521,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="5">
         <v>20.2</v>
       </c>
@@ -10543,7 +10543,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="5">
         <v>20.3</v>
       </c>
@@ -10567,7 +10567,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="5">
         <v>20.399999999999999</v>
       </c>
@@ -10600,9 +10600,9 @@
       <c r="A20" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="47"/>
       <c r="F20" s="58" t="s">
         <v>49</v>
@@ -10639,7 +10639,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49">
+      <c r="A22" s="51">
         <v>5</v>
       </c>
       <c r="B22" s="5">
@@ -10661,7 +10661,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="5">
         <v>5.2</v>
       </c>
@@ -10690,9 +10690,9 @@
       <c r="A25" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="47"/>
       <c r="F25" s="58" t="s">
         <v>40</v>
@@ -10729,7 +10729,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49">
+      <c r="A27" s="51">
         <v>8</v>
       </c>
       <c r="B27" s="5">
@@ -10854,9 +10854,9 @@
       <c r="A33" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="47"/>
       <c r="F33" s="58" t="s">
         <v>70</v>
@@ -10893,7 +10893,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="49">
+      <c r="A35" s="51">
         <v>4</v>
       </c>
       <c r="B35" s="5">
@@ -18705,7 +18705,7 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+      <selection activeCell="B136" sqref="B136:B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18725,9 +18725,9 @@
       <c r="A1" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="47"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
@@ -18770,7 +18770,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="62">
+      <c r="A3" s="69">
         <v>22</v>
       </c>
       <c r="B3" s="31">
@@ -18800,7 +18800,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="31">
         <v>22.2</v>
       </c>
@@ -18822,7 +18822,7 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="31">
         <v>22.3</v>
       </c>
@@ -18847,9 +18847,9 @@
       <c r="A7" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="47"/>
       <c r="F7" s="1" t="s">
         <v>49</v>
@@ -18886,7 +18886,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="62">
+      <c r="A9" s="69">
         <v>33</v>
       </c>
       <c r="B9" s="31">
@@ -18904,7 +18904,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -18920,7 +18920,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -18936,7 +18936,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="31">
         <v>33.4</v>
       </c>
@@ -18952,7 +18952,7 @@
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="31">
         <v>33.5</v>
       </c>
@@ -18971,10 +18971,10 @@
       <c r="A15" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
@@ -19164,7 +19164,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="67">
+      <c r="A27" s="62">
         <v>35</v>
       </c>
       <c r="B27" s="5">
@@ -19182,7 +19182,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="68"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -19198,7 +19198,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="68"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -19214,7 +19214,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="68"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="31">
         <v>35.4</v>
       </c>
@@ -19230,7 +19230,7 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="68"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="5">
         <v>35.5</v>
       </c>
@@ -19246,7 +19246,7 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="68"/>
+      <c r="A32" s="67"/>
       <c r="B32" s="31">
         <v>35.6</v>
       </c>
@@ -19262,7 +19262,7 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="68"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -19278,7 +19278,7 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="69"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -19336,7 +19336,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="49">
+      <c r="A38" s="51">
         <v>40</v>
       </c>
       <c r="B38" s="5">
@@ -19508,7 +19508,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="49">
+      <c r="A49" s="51">
         <v>23</v>
       </c>
       <c r="B49" s="5">
@@ -19530,7 +19530,7 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="50"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="5">
         <v>23.2</v>
       </c>
@@ -19550,7 +19550,7 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="50"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="5">
         <v>23.3</v>
       </c>
@@ -19570,7 +19570,7 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="50"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="5">
         <v>23.4</v>
       </c>
@@ -19590,7 +19590,7 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="50"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="5">
         <v>23.5</v>
       </c>
@@ -19610,7 +19610,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="50"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="5">
         <v>23.6</v>
       </c>
@@ -19630,7 +19630,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="50"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="5">
         <v>23.7</v>
       </c>
@@ -19650,7 +19650,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="51"/>
+      <c r="A56" s="50"/>
       <c r="B56" s="5">
         <v>23.8</v>
       </c>
@@ -19712,7 +19712,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="49">
+      <c r="A60" s="51">
         <v>3</v>
       </c>
       <c r="B60" s="5">
@@ -19730,7 +19730,7 @@
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="50"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="5">
         <v>3.2</v>
       </c>
@@ -19746,7 +19746,7 @@
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="50"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="5">
         <v>3.3</v>
       </c>
@@ -19762,7 +19762,7 @@
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="50"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="5">
         <v>3.4</v>
       </c>
@@ -19778,7 +19778,7 @@
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="50"/>
+      <c r="A64" s="52"/>
       <c r="B64" s="5">
         <v>3.5</v>
       </c>
@@ -19794,7 +19794,7 @@
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="50"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="5">
         <v>3.6</v>
       </c>
@@ -19810,7 +19810,7 @@
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="51"/>
+      <c r="A66" s="50"/>
       <c r="B66" s="5">
         <v>3.7</v>
       </c>
@@ -19868,7 +19868,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="49">
+      <c r="A70" s="51">
         <v>41</v>
       </c>
       <c r="B70" s="5">
@@ -19888,7 +19888,7 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="50"/>
+      <c r="A71" s="52"/>
       <c r="B71" s="5">
         <v>41.2</v>
       </c>
@@ -19906,7 +19906,7 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="50"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="5">
         <v>41.3</v>
       </c>
@@ -19924,7 +19924,7 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="50"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="5">
         <v>41.4</v>
       </c>
@@ -19942,7 +19942,7 @@
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="50"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="5">
         <v>41.5</v>
       </c>
@@ -19960,7 +19960,7 @@
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="50"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="5">
         <v>41.6</v>
       </c>
@@ -19978,7 +19978,7 @@
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="51"/>
+      <c r="A76" s="50"/>
       <c r="B76" s="5">
         <v>41.7</v>
       </c>
@@ -20038,7 +20038,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="49">
+      <c r="A80" s="51">
         <v>25</v>
       </c>
       <c r="B80" s="5">
@@ -20060,7 +20060,7 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="50"/>
+      <c r="A81" s="52"/>
       <c r="B81" s="5">
         <v>25.2</v>
       </c>
@@ -20080,7 +20080,7 @@
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="50"/>
+      <c r="A82" s="52"/>
       <c r="B82" s="5">
         <v>25.3</v>
       </c>
@@ -20100,7 +20100,7 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="50"/>
+      <c r="A83" s="52"/>
       <c r="B83" s="5">
         <v>25.4</v>
       </c>
@@ -20120,7 +20120,7 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="50"/>
+      <c r="A84" s="52"/>
       <c r="B84" s="5">
         <v>25.5</v>
       </c>
@@ -20140,7 +20140,7 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="50"/>
+      <c r="A85" s="52"/>
       <c r="B85" s="5">
         <v>25.6</v>
       </c>
@@ -20160,7 +20160,7 @@
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="50"/>
+      <c r="A86" s="52"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -20170,7 +20170,7 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="51"/>
+      <c r="A87" s="50"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -20222,7 +20222,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="49">
+      <c r="A91" s="51">
         <v>26</v>
       </c>
       <c r="B91" s="39">
@@ -20244,7 +20244,7 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="50"/>
+      <c r="A92" s="52"/>
       <c r="B92" s="39">
         <v>26.2</v>
       </c>
@@ -20264,7 +20264,7 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="50"/>
+      <c r="A93" s="52"/>
       <c r="B93" s="39">
         <v>26.3</v>
       </c>
@@ -20284,7 +20284,7 @@
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="50"/>
+      <c r="A94" s="52"/>
       <c r="B94" s="39">
         <v>26.4</v>
       </c>
@@ -20304,7 +20304,7 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="50"/>
+      <c r="A95" s="52"/>
       <c r="B95" s="39">
         <v>26.5</v>
       </c>
@@ -20324,7 +20324,7 @@
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="50"/>
+      <c r="A96" s="52"/>
       <c r="B96" s="39">
         <v>26.6</v>
       </c>
@@ -20344,7 +20344,7 @@
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="50"/>
+      <c r="A97" s="52"/>
       <c r="B97" s="39">
         <v>26.7</v>
       </c>
@@ -20364,7 +20364,7 @@
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="50"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="39">
         <v>26.8</v>
       </c>
@@ -20384,7 +20384,7 @@
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="51"/>
+      <c r="A99" s="50"/>
       <c r="B99" s="39">
         <v>26.9</v>
       </c>
@@ -20446,7 +20446,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="49">
+      <c r="A103" s="51">
         <v>27</v>
       </c>
       <c r="B103" s="5">
@@ -20468,7 +20468,7 @@
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="50"/>
+      <c r="A104" s="52"/>
       <c r="B104" s="5">
         <v>27.2</v>
       </c>
@@ -20488,7 +20488,7 @@
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="50"/>
+      <c r="A105" s="52"/>
       <c r="B105" s="5">
         <v>27.3</v>
       </c>
@@ -20508,7 +20508,7 @@
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="50"/>
+      <c r="A106" s="52"/>
       <c r="B106" s="5">
         <v>27.4</v>
       </c>
@@ -20528,7 +20528,7 @@
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="50"/>
+      <c r="A107" s="52"/>
       <c r="B107" s="5">
         <v>27.5</v>
       </c>
@@ -20548,7 +20548,7 @@
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="50"/>
+      <c r="A108" s="52"/>
       <c r="B108" s="5">
         <v>27.6</v>
       </c>
@@ -20568,7 +20568,7 @@
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="51"/>
+      <c r="A109" s="50"/>
       <c r="B109" s="5">
         <v>27.7</v>
       </c>
@@ -20630,7 +20630,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="67">
+      <c r="A113" s="62">
         <v>4</v>
       </c>
       <c r="B113" s="31">
@@ -20650,7 +20650,7 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="70"/>
+      <c r="A114" s="63"/>
       <c r="B114" s="31">
         <v>4.2</v>
       </c>
@@ -20668,7 +20668,7 @@
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="70"/>
+      <c r="A115" s="63"/>
       <c r="B115" s="31">
         <v>4.3</v>
       </c>
@@ -20686,7 +20686,7 @@
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="70"/>
+      <c r="A116" s="63"/>
       <c r="B116" s="31">
         <v>4.4000000000000004</v>
       </c>
@@ -20704,7 +20704,7 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="70"/>
+      <c r="A117" s="63"/>
       <c r="B117" s="31">
         <v>4.5</v>
       </c>
@@ -20722,7 +20722,7 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="70"/>
+      <c r="A118" s="63"/>
       <c r="B118" s="31">
         <v>4.5999999999999996</v>
       </c>
@@ -20740,7 +20740,7 @@
       <c r="H118" s="3"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="70"/>
+      <c r="A119" s="63"/>
       <c r="B119" s="31">
         <v>4.7</v>
       </c>
@@ -20758,7 +20758,7 @@
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="70"/>
+      <c r="A120" s="63"/>
       <c r="B120" s="31">
         <v>4.8</v>
       </c>
@@ -20776,7 +20776,7 @@
       <c r="H120" s="3"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="70"/>
+      <c r="A121" s="63"/>
       <c r="B121" s="31">
         <v>4.9000000000000004</v>
       </c>
@@ -20794,7 +20794,7 @@
       <c r="H121" s="3"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="71"/>
+      <c r="A122" s="64"/>
       <c r="B122" s="31">
         <v>5</v>
       </c>
@@ -20854,7 +20854,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="49">
+      <c r="A126" s="51">
         <v>30</v>
       </c>
       <c r="B126" s="5">
@@ -20874,7 +20874,7 @@
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="50"/>
+      <c r="A127" s="52"/>
       <c r="B127" s="5">
         <v>27.2</v>
       </c>
@@ -20892,7 +20892,7 @@
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="50"/>
+      <c r="A128" s="52"/>
       <c r="B128" s="5">
         <v>27.3</v>
       </c>
@@ -20910,7 +20910,7 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="50"/>
+      <c r="A129" s="52"/>
       <c r="B129" s="5">
         <v>27.4</v>
       </c>
@@ -20928,7 +20928,7 @@
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="50"/>
+      <c r="A130" s="52"/>
       <c r="B130" s="5">
         <v>27.5</v>
       </c>
@@ -20946,7 +20946,7 @@
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="50"/>
+      <c r="A131" s="52"/>
       <c r="B131" s="5">
         <v>27.6</v>
       </c>
@@ -20964,7 +20964,7 @@
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="51"/>
+      <c r="A132" s="50"/>
       <c r="B132" s="5">
         <v>27.7</v>
       </c>
@@ -21024,7 +21024,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="49">
+      <c r="A136" s="51">
         <v>32</v>
       </c>
       <c r="B136" s="5">
@@ -21046,7 +21046,7 @@
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="50"/>
+      <c r="A137" s="52"/>
       <c r="B137" s="5">
         <v>32.200000000000003</v>
       </c>
@@ -21066,7 +21066,7 @@
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="50"/>
+      <c r="A138" s="52"/>
       <c r="B138" s="5">
         <v>32.299999999999997</v>
       </c>
@@ -21086,7 +21086,7 @@
       <c r="H138" s="3"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="50"/>
+      <c r="A139" s="52"/>
       <c r="B139" s="5">
         <v>32.4</v>
       </c>
@@ -21106,7 +21106,7 @@
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="50"/>
+      <c r="A140" s="52"/>
       <c r="B140" s="5">
         <v>32.5</v>
       </c>
@@ -21126,7 +21126,7 @@
       <c r="H140" s="3"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="50"/>
+      <c r="A141" s="52"/>
       <c r="B141" s="5">
         <v>32.6</v>
       </c>
@@ -21146,7 +21146,7 @@
       <c r="H141" s="3"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="51"/>
+      <c r="A142" s="50"/>
       <c r="B142" s="5">
         <v>32.700000000000003</v>
       </c>
@@ -21167,32 +21167,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="A113:A122"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A38:A45"/>
     <mergeCell ref="A134:E134"/>
     <mergeCell ref="G134:H134"/>
     <mergeCell ref="A136:A142"/>
@@ -21209,6 +21183,32 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A113:A122"/>
   </mergeCells>
   <conditionalFormatting sqref="A36">
     <cfRule type="notContainsBlanks" dxfId="27" priority="23">

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -788,18 +788,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -822,18 +822,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -842,8 +839,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1682,9 +1682,9 @@
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="47"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1731,7 +1731,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49">
+      <c r="A3" s="51">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -1765,7 +1765,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -1790,7 +1790,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -1815,7 +1815,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -1840,7 +1840,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -1863,7 +1863,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="5">
         <v>6.6</v>
       </c>
@@ -1894,17 +1894,17 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="47"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="47"/>
@@ -1938,7 +1938,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49">
+      <c r="A12" s="51">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -1963,7 +1963,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -1986,7 +1986,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -2001,7 +2001,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="55">
         <v>1.4</v>
       </c>
@@ -2017,27 +2017,27 @@
       <c r="F15" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="49">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="16">
         <v>1.5</v>
       </c>
@@ -2071,9 +2071,9 @@
       <c r="A19" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="47"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
@@ -2112,7 +2112,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49">
+      <c r="A21" s="51">
         <v>11</v>
       </c>
       <c r="B21" s="22">
@@ -2139,7 +2139,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="22">
         <v>11.2</v>
       </c>
@@ -2164,7 +2164,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2186,9 +2186,9 @@
       <c r="A25" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="47"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
@@ -2227,7 +2227,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49">
+      <c r="A27" s="51">
         <v>12</v>
       </c>
       <c r="B27" s="22">
@@ -2254,7 +2254,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="22">
         <v>12.2</v>
       </c>
@@ -2277,7 +2277,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="22">
         <v>12.3</v>
       </c>
@@ -2320,9 +2320,9 @@
       <c r="A32" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="47"/>
       <c r="F32" s="1" t="s">
         <v>88</v>
@@ -2361,7 +2361,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="49"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2372,7 +2372,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="50"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2383,7 +2383,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="50"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2394,7 +2394,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2405,7 +2405,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2416,7 +2416,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2427,7 +2427,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="51"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -10123,6 +10123,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:E19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G15:G16"/>
@@ -10134,15 +10143,6 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G1 A1 F10:G10 A10 F19:G19 A19 F25:G25 A25 F32:G32 A32">
     <cfRule type="notContainsBlanks" dxfId="37" priority="1">
@@ -10179,9 +10179,9 @@
       <c r="A1" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="47"/>
       <c r="F1" s="58" t="s">
         <v>1</v>
@@ -10227,7 +10227,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49">
+      <c r="A3" s="51">
         <v>21</v>
       </c>
       <c r="B3" s="5">
@@ -10260,7 +10260,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="5">
         <v>21.2</v>
       </c>
@@ -10284,7 +10284,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="5">
         <v>21.3</v>
       </c>
@@ -10308,7 +10308,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="5">
         <v>21.4</v>
       </c>
@@ -10332,7 +10332,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="5">
         <v>21.5</v>
       </c>
@@ -10354,7 +10354,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="5">
         <v>21.6</v>
       </c>
@@ -10376,7 +10376,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="5">
         <v>21.7</v>
       </c>
@@ -10398,7 +10398,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="5">
         <v>21.8</v>
       </c>
@@ -10422,7 +10422,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="5">
         <v>21.9</v>
       </c>
@@ -10458,9 +10458,9 @@
       <c r="A13" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="47"/>
       <c r="F13" s="58" t="s">
         <v>42</v>
@@ -10497,7 +10497,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49">
+      <c r="A15" s="51">
         <v>20</v>
       </c>
       <c r="B15" s="5">
@@ -10521,7 +10521,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="5">
         <v>20.2</v>
       </c>
@@ -10543,7 +10543,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="5">
         <v>20.3</v>
       </c>
@@ -10567,7 +10567,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="5">
         <v>20.399999999999999</v>
       </c>
@@ -10600,9 +10600,9 @@
       <c r="A20" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="47"/>
       <c r="F20" s="58" t="s">
         <v>49</v>
@@ -10639,7 +10639,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49">
+      <c r="A22" s="51">
         <v>5</v>
       </c>
       <c r="B22" s="5">
@@ -10661,7 +10661,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="5">
         <v>5.2</v>
       </c>
@@ -10690,9 +10690,9 @@
       <c r="A25" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="47"/>
       <c r="F25" s="58" t="s">
         <v>40</v>
@@ -10729,7 +10729,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49">
+      <c r="A27" s="51">
         <v>8</v>
       </c>
       <c r="B27" s="5">
@@ -10854,9 +10854,9 @@
       <c r="A33" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="47"/>
       <c r="F33" s="58" t="s">
         <v>70</v>
@@ -10893,7 +10893,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="49">
+      <c r="A35" s="51">
         <v>4</v>
       </c>
       <c r="B35" s="5">
@@ -18705,7 +18705,7 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+      <selection activeCell="E136" sqref="E136:E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18725,9 +18725,9 @@
       <c r="A1" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="47"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
@@ -18770,7 +18770,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="62">
+      <c r="A3" s="69">
         <v>22</v>
       </c>
       <c r="B3" s="31">
@@ -18800,7 +18800,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="31">
         <v>22.2</v>
       </c>
@@ -18822,7 +18822,7 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="31">
         <v>22.3</v>
       </c>
@@ -18847,9 +18847,9 @@
       <c r="A7" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="47"/>
       <c r="F7" s="1" t="s">
         <v>49</v>
@@ -18886,7 +18886,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="62">
+      <c r="A9" s="69">
         <v>33</v>
       </c>
       <c r="B9" s="31">
@@ -18904,7 +18904,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -18920,7 +18920,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -18936,7 +18936,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="31">
         <v>33.4</v>
       </c>
@@ -18952,7 +18952,7 @@
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="31">
         <v>33.5</v>
       </c>
@@ -18971,10 +18971,10 @@
       <c r="A15" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
@@ -19164,7 +19164,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="67">
+      <c r="A27" s="62">
         <v>35</v>
       </c>
       <c r="B27" s="5">
@@ -19182,7 +19182,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="68"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -19198,7 +19198,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="68"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -19214,7 +19214,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="68"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="31">
         <v>35.4</v>
       </c>
@@ -19230,7 +19230,7 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="68"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="5">
         <v>35.5</v>
       </c>
@@ -19246,7 +19246,7 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="68"/>
+      <c r="A32" s="67"/>
       <c r="B32" s="31">
         <v>35.6</v>
       </c>
@@ -19262,7 +19262,7 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="68"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -19278,7 +19278,7 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="69"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -19336,7 +19336,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="49">
+      <c r="A38" s="51">
         <v>40</v>
       </c>
       <c r="B38" s="5">
@@ -19508,7 +19508,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="49">
+      <c r="A49" s="51">
         <v>23</v>
       </c>
       <c r="B49" s="5">
@@ -19530,7 +19530,7 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="50"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="5">
         <v>23.2</v>
       </c>
@@ -19550,7 +19550,7 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="50"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="5">
         <v>23.3</v>
       </c>
@@ -19570,7 +19570,7 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="50"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="5">
         <v>23.4</v>
       </c>
@@ -19590,7 +19590,7 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="50"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="5">
         <v>23.5</v>
       </c>
@@ -19610,7 +19610,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="50"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="5">
         <v>23.6</v>
       </c>
@@ -19630,7 +19630,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="50"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="5">
         <v>23.7</v>
       </c>
@@ -19650,7 +19650,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="51"/>
+      <c r="A56" s="50"/>
       <c r="B56" s="5">
         <v>23.8</v>
       </c>
@@ -19712,7 +19712,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="49">
+      <c r="A60" s="51">
         <v>3</v>
       </c>
       <c r="B60" s="5">
@@ -19730,7 +19730,7 @@
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="50"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="5">
         <v>3.2</v>
       </c>
@@ -19746,7 +19746,7 @@
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="50"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="5">
         <v>3.3</v>
       </c>
@@ -19762,7 +19762,7 @@
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="50"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="5">
         <v>3.4</v>
       </c>
@@ -19778,7 +19778,7 @@
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="50"/>
+      <c r="A64" s="52"/>
       <c r="B64" s="5">
         <v>3.5</v>
       </c>
@@ -19794,7 +19794,7 @@
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="50"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="5">
         <v>3.6</v>
       </c>
@@ -19810,7 +19810,7 @@
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="51"/>
+      <c r="A66" s="50"/>
       <c r="B66" s="5">
         <v>3.7</v>
       </c>
@@ -19868,7 +19868,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="49">
+      <c r="A70" s="51">
         <v>41</v>
       </c>
       <c r="B70" s="5">
@@ -19888,7 +19888,7 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="50"/>
+      <c r="A71" s="52"/>
       <c r="B71" s="5">
         <v>41.2</v>
       </c>
@@ -19906,7 +19906,7 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="50"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="5">
         <v>41.3</v>
       </c>
@@ -19924,7 +19924,7 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="50"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="5">
         <v>41.4</v>
       </c>
@@ -19942,7 +19942,7 @@
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="50"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="5">
         <v>41.5</v>
       </c>
@@ -19960,7 +19960,7 @@
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="50"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="5">
         <v>41.6</v>
       </c>
@@ -19978,7 +19978,7 @@
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="51"/>
+      <c r="A76" s="50"/>
       <c r="B76" s="5">
         <v>41.7</v>
       </c>
@@ -20038,7 +20038,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="49">
+      <c r="A80" s="51">
         <v>25</v>
       </c>
       <c r="B80" s="5">
@@ -20060,7 +20060,7 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="50"/>
+      <c r="A81" s="52"/>
       <c r="B81" s="5">
         <v>25.2</v>
       </c>
@@ -20080,7 +20080,7 @@
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="50"/>
+      <c r="A82" s="52"/>
       <c r="B82" s="5">
         <v>25.3</v>
       </c>
@@ -20100,7 +20100,7 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="50"/>
+      <c r="A83" s="52"/>
       <c r="B83" s="5">
         <v>25.4</v>
       </c>
@@ -20120,7 +20120,7 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="50"/>
+      <c r="A84" s="52"/>
       <c r="B84" s="5">
         <v>25.5</v>
       </c>
@@ -20140,7 +20140,7 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="50"/>
+      <c r="A85" s="52"/>
       <c r="B85" s="5">
         <v>25.6</v>
       </c>
@@ -20160,7 +20160,7 @@
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="50"/>
+      <c r="A86" s="52"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -20170,7 +20170,7 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="51"/>
+      <c r="A87" s="50"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -20222,7 +20222,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="49">
+      <c r="A91" s="51">
         <v>26</v>
       </c>
       <c r="B91" s="39">
@@ -20244,7 +20244,7 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="50"/>
+      <c r="A92" s="52"/>
       <c r="B92" s="39">
         <v>26.2</v>
       </c>
@@ -20264,7 +20264,7 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="50"/>
+      <c r="A93" s="52"/>
       <c r="B93" s="39">
         <v>26.3</v>
       </c>
@@ -20284,7 +20284,7 @@
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="50"/>
+      <c r="A94" s="52"/>
       <c r="B94" s="39">
         <v>26.4</v>
       </c>
@@ -20304,7 +20304,7 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="50"/>
+      <c r="A95" s="52"/>
       <c r="B95" s="39">
         <v>26.5</v>
       </c>
@@ -20324,7 +20324,7 @@
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="50"/>
+      <c r="A96" s="52"/>
       <c r="B96" s="39">
         <v>26.6</v>
       </c>
@@ -20344,7 +20344,7 @@
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="50"/>
+      <c r="A97" s="52"/>
       <c r="B97" s="39">
         <v>26.7</v>
       </c>
@@ -20364,7 +20364,7 @@
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="50"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="39">
         <v>26.8</v>
       </c>
@@ -20384,7 +20384,7 @@
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="51"/>
+      <c r="A99" s="50"/>
       <c r="B99" s="39">
         <v>26.9</v>
       </c>
@@ -20446,7 +20446,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="49">
+      <c r="A103" s="51">
         <v>27</v>
       </c>
       <c r="B103" s="5">
@@ -20468,7 +20468,7 @@
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="50"/>
+      <c r="A104" s="52"/>
       <c r="B104" s="5">
         <v>27.2</v>
       </c>
@@ -20488,7 +20488,7 @@
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="50"/>
+      <c r="A105" s="52"/>
       <c r="B105" s="5">
         <v>27.3</v>
       </c>
@@ -20508,7 +20508,7 @@
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="50"/>
+      <c r="A106" s="52"/>
       <c r="B106" s="5">
         <v>27.4</v>
       </c>
@@ -20528,7 +20528,7 @@
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="50"/>
+      <c r="A107" s="52"/>
       <c r="B107" s="5">
         <v>27.5</v>
       </c>
@@ -20548,7 +20548,7 @@
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="50"/>
+      <c r="A108" s="52"/>
       <c r="B108" s="5">
         <v>27.6</v>
       </c>
@@ -20568,7 +20568,7 @@
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="51"/>
+      <c r="A109" s="50"/>
       <c r="B109" s="5">
         <v>27.7</v>
       </c>
@@ -20630,7 +20630,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="67">
+      <c r="A113" s="62">
         <v>4</v>
       </c>
       <c r="B113" s="31">
@@ -20650,7 +20650,7 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="70"/>
+      <c r="A114" s="63"/>
       <c r="B114" s="31">
         <v>4.2</v>
       </c>
@@ -20668,7 +20668,7 @@
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="70"/>
+      <c r="A115" s="63"/>
       <c r="B115" s="31">
         <v>4.3</v>
       </c>
@@ -20686,7 +20686,7 @@
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="70"/>
+      <c r="A116" s="63"/>
       <c r="B116" s="31">
         <v>4.4000000000000004</v>
       </c>
@@ -20704,7 +20704,7 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="70"/>
+      <c r="A117" s="63"/>
       <c r="B117" s="31">
         <v>4.5</v>
       </c>
@@ -20722,7 +20722,7 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="70"/>
+      <c r="A118" s="63"/>
       <c r="B118" s="31">
         <v>4.5999999999999996</v>
       </c>
@@ -20740,7 +20740,7 @@
       <c r="H118" s="3"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="70"/>
+      <c r="A119" s="63"/>
       <c r="B119" s="31">
         <v>4.7</v>
       </c>
@@ -20758,7 +20758,7 @@
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="70"/>
+      <c r="A120" s="63"/>
       <c r="B120" s="31">
         <v>4.8</v>
       </c>
@@ -20776,7 +20776,7 @@
       <c r="H120" s="3"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="70"/>
+      <c r="A121" s="63"/>
       <c r="B121" s="31">
         <v>4.9000000000000004</v>
       </c>
@@ -20794,7 +20794,7 @@
       <c r="H121" s="3"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="71"/>
+      <c r="A122" s="64"/>
       <c r="B122" s="31">
         <v>5</v>
       </c>
@@ -20854,7 +20854,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="49">
+      <c r="A126" s="51">
         <v>30</v>
       </c>
       <c r="B126" s="5">
@@ -20874,7 +20874,7 @@
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="50"/>
+      <c r="A127" s="52"/>
       <c r="B127" s="5">
         <v>27.2</v>
       </c>
@@ -20892,7 +20892,7 @@
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="50"/>
+      <c r="A128" s="52"/>
       <c r="B128" s="5">
         <v>27.3</v>
       </c>
@@ -20910,7 +20910,7 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="50"/>
+      <c r="A129" s="52"/>
       <c r="B129" s="5">
         <v>27.4</v>
       </c>
@@ -20928,7 +20928,7 @@
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="50"/>
+      <c r="A130" s="52"/>
       <c r="B130" s="5">
         <v>27.5</v>
       </c>
@@ -20946,7 +20946,7 @@
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="50"/>
+      <c r="A131" s="52"/>
       <c r="B131" s="5">
         <v>27.6</v>
       </c>
@@ -20964,7 +20964,7 @@
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="51"/>
+      <c r="A132" s="50"/>
       <c r="B132" s="5">
         <v>27.7</v>
       </c>
@@ -21024,7 +21024,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="49">
+      <c r="A136" s="51">
         <v>32</v>
       </c>
       <c r="B136" s="5">
@@ -21036,9 +21036,7 @@
       <c r="D136" s="5">
         <v>1</v>
       </c>
-      <c r="E136" s="5">
-        <v>2</v>
-      </c>
+      <c r="E136" s="5"/>
       <c r="F136" s="27" t="s">
         <v>17</v>
       </c>
@@ -21046,7 +21044,7 @@
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="50"/>
+      <c r="A137" s="52"/>
       <c r="B137" s="5">
         <v>32.200000000000003</v>
       </c>
@@ -21056,9 +21054,7 @@
       <c r="D137" s="5">
         <v>0.5</v>
       </c>
-      <c r="E137" s="5">
-        <v>0.5</v>
-      </c>
+      <c r="E137" s="5"/>
       <c r="F137" s="27" t="s">
         <v>17</v>
       </c>
@@ -21066,7 +21062,7 @@
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="50"/>
+      <c r="A138" s="52"/>
       <c r="B138" s="5">
         <v>32.299999999999997</v>
       </c>
@@ -21076,9 +21072,7 @@
       <c r="D138" s="5">
         <v>2</v>
       </c>
-      <c r="E138" s="5">
-        <v>1</v>
-      </c>
+      <c r="E138" s="5"/>
       <c r="F138" s="27" t="s">
         <v>17</v>
       </c>
@@ -21086,7 +21080,7 @@
       <c r="H138" s="3"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="50"/>
+      <c r="A139" s="52"/>
       <c r="B139" s="5">
         <v>32.4</v>
       </c>
@@ -21096,9 +21090,7 @@
       <c r="D139" s="5">
         <v>0.5</v>
       </c>
-      <c r="E139" s="5">
-        <v>0.5</v>
-      </c>
+      <c r="E139" s="5"/>
       <c r="F139" s="27" t="s">
         <v>17</v>
       </c>
@@ -21106,7 +21098,7 @@
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="50"/>
+      <c r="A140" s="52"/>
       <c r="B140" s="5">
         <v>32.5</v>
       </c>
@@ -21116,9 +21108,7 @@
       <c r="D140" s="5">
         <v>3</v>
       </c>
-      <c r="E140" s="5">
-        <v>2</v>
-      </c>
+      <c r="E140" s="5"/>
       <c r="F140" s="27" t="s">
         <v>17</v>
       </c>
@@ -21126,7 +21116,7 @@
       <c r="H140" s="3"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="50"/>
+      <c r="A141" s="52"/>
       <c r="B141" s="5">
         <v>32.6</v>
       </c>
@@ -21136,9 +21126,7 @@
       <c r="D141" s="5">
         <v>1</v>
       </c>
-      <c r="E141" s="5">
-        <v>1</v>
-      </c>
+      <c r="E141" s="5"/>
       <c r="F141" s="27" t="s">
         <v>17</v>
       </c>
@@ -21146,7 +21134,7 @@
       <c r="H141" s="3"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="51"/>
+      <c r="A142" s="50"/>
       <c r="B142" s="5">
         <v>32.700000000000003</v>
       </c>
@@ -21156,9 +21144,7 @@
       <c r="D142" s="3">
         <v>0.5</v>
       </c>
-      <c r="E142" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="E142" s="3"/>
       <c r="F142" s="27" t="s">
         <v>17</v>
       </c>
@@ -21167,32 +21153,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="A113:A122"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A38:A45"/>
     <mergeCell ref="A134:E134"/>
     <mergeCell ref="G134:H134"/>
     <mergeCell ref="A136:A142"/>
@@ -21209,6 +21169,32 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A113:A122"/>
   </mergeCells>
   <conditionalFormatting sqref="A36">
     <cfRule type="notContainsBlanks" dxfId="27" priority="23">

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -788,18 +788,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -822,15 +822,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -839,11 +842,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1682,9 +1682,9 @@
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="47"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1731,7 +1731,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51">
+      <c r="A3" s="49">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -1765,7 +1765,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -1790,7 +1790,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -1815,7 +1815,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -1840,7 +1840,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -1863,7 +1863,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="5">
         <v>6.6</v>
       </c>
@@ -1894,17 +1894,17 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="47"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="52" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="47"/>
@@ -1938,7 +1938,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51">
+      <c r="A12" s="49">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -1963,7 +1963,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -1986,7 +1986,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -2001,7 +2001,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="55">
         <v>1.4</v>
       </c>
@@ -2017,27 +2017,27 @@
       <c r="F15" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="53">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
       <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="16">
         <v>1.5</v>
       </c>
@@ -2071,9 +2071,9 @@
       <c r="A19" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="47"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
@@ -2112,7 +2112,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51">
+      <c r="A21" s="49">
         <v>11</v>
       </c>
       <c r="B21" s="22">
@@ -2139,7 +2139,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="22">
         <v>11.2</v>
       </c>
@@ -2164,7 +2164,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2186,9 +2186,9 @@
       <c r="A25" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="47"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
@@ -2227,7 +2227,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51">
+      <c r="A27" s="49">
         <v>12</v>
       </c>
       <c r="B27" s="22">
@@ -2254,7 +2254,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="22">
         <v>12.2</v>
       </c>
@@ -2277,7 +2277,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="22">
         <v>12.3</v>
       </c>
@@ -2320,9 +2320,9 @@
       <c r="A32" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
       <c r="E32" s="47"/>
       <c r="F32" s="1" t="s">
         <v>88</v>
@@ -2361,7 +2361,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="51"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2372,7 +2372,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="52"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2383,7 +2383,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="52"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2394,7 +2394,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="52"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2405,7 +2405,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="52"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2416,7 +2416,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="52"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2427,7 +2427,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="50"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -10123,15 +10123,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:E19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G15:G16"/>
@@ -10143,6 +10134,15 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G1 A1 F10:G10 A10 F19:G19 A19 F25:G25 A25 F32:G32 A32">
     <cfRule type="notContainsBlanks" dxfId="37" priority="1">
@@ -10179,9 +10179,9 @@
       <c r="A1" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="47"/>
       <c r="F1" s="58" t="s">
         <v>1</v>
@@ -10227,7 +10227,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51">
+      <c r="A3" s="49">
         <v>21</v>
       </c>
       <c r="B3" s="5">
@@ -10260,7 +10260,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="5">
         <v>21.2</v>
       </c>
@@ -10284,7 +10284,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="5">
         <v>21.3</v>
       </c>
@@ -10308,7 +10308,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="5">
         <v>21.4</v>
       </c>
@@ -10332,7 +10332,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="5">
         <v>21.5</v>
       </c>
@@ -10354,7 +10354,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="5">
         <v>21.6</v>
       </c>
@@ -10376,7 +10376,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="5">
         <v>21.7</v>
       </c>
@@ -10398,7 +10398,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="5">
         <v>21.8</v>
       </c>
@@ -10422,7 +10422,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="5">
         <v>21.9</v>
       </c>
@@ -10458,9 +10458,9 @@
       <c r="A13" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="47"/>
       <c r="F13" s="58" t="s">
         <v>42</v>
@@ -10497,7 +10497,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51">
+      <c r="A15" s="49">
         <v>20</v>
       </c>
       <c r="B15" s="5">
@@ -10521,7 +10521,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="5">
         <v>20.2</v>
       </c>
@@ -10543,7 +10543,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="5">
         <v>20.3</v>
       </c>
@@ -10567,7 +10567,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="5">
         <v>20.399999999999999</v>
       </c>
@@ -10600,9 +10600,9 @@
       <c r="A20" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="47"/>
       <c r="F20" s="58" t="s">
         <v>49</v>
@@ -10639,7 +10639,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51">
+      <c r="A22" s="49">
         <v>5</v>
       </c>
       <c r="B22" s="5">
@@ -10661,7 +10661,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="5">
         <v>5.2</v>
       </c>
@@ -10690,9 +10690,9 @@
       <c r="A25" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="47"/>
       <c r="F25" s="58" t="s">
         <v>40</v>
@@ -10729,7 +10729,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51">
+      <c r="A27" s="49">
         <v>8</v>
       </c>
       <c r="B27" s="5">
@@ -10854,9 +10854,9 @@
       <c r="A33" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
       <c r="E33" s="47"/>
       <c r="F33" s="58" t="s">
         <v>70</v>
@@ -10893,7 +10893,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="51">
+      <c r="A35" s="49">
         <v>4</v>
       </c>
       <c r="B35" s="5">
@@ -18704,8 +18704,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E136" sqref="E136:E142"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103:G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18725,9 +18725,9 @@
       <c r="A1" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="47"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
@@ -18770,7 +18770,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="69">
+      <c r="A3" s="62">
         <v>22</v>
       </c>
       <c r="B3" s="31">
@@ -18800,7 +18800,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="31">
         <v>22.2</v>
       </c>
@@ -18822,7 +18822,7 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="31">
         <v>22.3</v>
       </c>
@@ -18847,9 +18847,9 @@
       <c r="A7" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="47"/>
       <c r="F7" s="1" t="s">
         <v>49</v>
@@ -18886,7 +18886,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="69">
+      <c r="A9" s="62">
         <v>33</v>
       </c>
       <c r="B9" s="31">
@@ -18904,7 +18904,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="69"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -18920,7 +18920,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="69"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -18936,7 +18936,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="69"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="31">
         <v>33.4</v>
       </c>
@@ -18952,7 +18952,7 @@
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="69"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="31">
         <v>33.5</v>
       </c>
@@ -18971,10 +18971,10 @@
       <c r="A15" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
@@ -19164,7 +19164,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="62">
+      <c r="A27" s="67">
         <v>35</v>
       </c>
       <c r="B27" s="5">
@@ -19182,7 +19182,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="67"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -19198,7 +19198,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="67"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -19214,7 +19214,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="67"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="31">
         <v>35.4</v>
       </c>
@@ -19230,7 +19230,7 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="67"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="5">
         <v>35.5</v>
       </c>
@@ -19246,7 +19246,7 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="67"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="31">
         <v>35.6</v>
       </c>
@@ -19262,7 +19262,7 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="67"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -19278,7 +19278,7 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="68"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -19336,7 +19336,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="51">
+      <c r="A38" s="49">
         <v>40</v>
       </c>
       <c r="B38" s="5">
@@ -19508,7 +19508,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="51">
+      <c r="A49" s="49">
         <v>23</v>
       </c>
       <c r="B49" s="5">
@@ -19526,11 +19526,13 @@
       <c r="F49" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="5"/>
+      <c r="G49" s="10">
+        <v>42637</v>
+      </c>
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="52"/>
+      <c r="A50" s="50"/>
       <c r="B50" s="5">
         <v>23.2</v>
       </c>
@@ -19546,11 +19548,13 @@
       <c r="F50" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G50" s="5"/>
+      <c r="G50" s="10">
+        <v>42637</v>
+      </c>
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="52"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="5">
         <v>23.3</v>
       </c>
@@ -19566,11 +19570,13 @@
       <c r="F51" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G51" s="5"/>
+      <c r="G51" s="10">
+        <v>42637</v>
+      </c>
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="52"/>
+      <c r="A52" s="50"/>
       <c r="B52" s="5">
         <v>23.4</v>
       </c>
@@ -19586,11 +19592,13 @@
       <c r="F52" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="5"/>
+      <c r="G52" s="10">
+        <v>42637</v>
+      </c>
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="52"/>
+      <c r="A53" s="50"/>
       <c r="B53" s="5">
         <v>23.5</v>
       </c>
@@ -19606,11 +19614,13 @@
       <c r="F53" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G53" s="5"/>
+      <c r="G53" s="10">
+        <v>42637</v>
+      </c>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
+      <c r="A54" s="50"/>
       <c r="B54" s="5">
         <v>23.6</v>
       </c>
@@ -19626,11 +19636,13 @@
       <c r="F54" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="5"/>
+      <c r="G54" s="10">
+        <v>42637</v>
+      </c>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="52"/>
+      <c r="A55" s="50"/>
       <c r="B55" s="5">
         <v>23.7</v>
       </c>
@@ -19646,11 +19658,13 @@
       <c r="F55" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="5"/>
+      <c r="G55" s="10">
+        <v>42637</v>
+      </c>
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="50"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="5">
         <v>23.8</v>
       </c>
@@ -19666,7 +19680,9 @@
       <c r="F56" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G56" s="3"/>
+      <c r="G56" s="10">
+        <v>42637</v>
+      </c>
       <c r="H56" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -19712,7 +19728,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="51">
+      <c r="A60" s="49">
         <v>3</v>
       </c>
       <c r="B60" s="5">
@@ -19730,7 +19746,7 @@
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="52"/>
+      <c r="A61" s="50"/>
       <c r="B61" s="5">
         <v>3.2</v>
       </c>
@@ -19746,7 +19762,7 @@
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="52"/>
+      <c r="A62" s="50"/>
       <c r="B62" s="5">
         <v>3.3</v>
       </c>
@@ -19762,7 +19778,7 @@
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="52"/>
+      <c r="A63" s="50"/>
       <c r="B63" s="5">
         <v>3.4</v>
       </c>
@@ -19778,7 +19794,7 @@
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="52"/>
+      <c r="A64" s="50"/>
       <c r="B64" s="5">
         <v>3.5</v>
       </c>
@@ -19794,7 +19810,7 @@
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="52"/>
+      <c r="A65" s="50"/>
       <c r="B65" s="5">
         <v>3.6</v>
       </c>
@@ -19810,7 +19826,7 @@
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="50"/>
+      <c r="A66" s="51"/>
       <c r="B66" s="5">
         <v>3.7</v>
       </c>
@@ -19868,7 +19884,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="51">
+      <c r="A70" s="49">
         <v>41</v>
       </c>
       <c r="B70" s="5">
@@ -19888,7 +19904,7 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="52"/>
+      <c r="A71" s="50"/>
       <c r="B71" s="5">
         <v>41.2</v>
       </c>
@@ -19906,7 +19922,7 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="52"/>
+      <c r="A72" s="50"/>
       <c r="B72" s="5">
         <v>41.3</v>
       </c>
@@ -19924,7 +19940,7 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="52"/>
+      <c r="A73" s="50"/>
       <c r="B73" s="5">
         <v>41.4</v>
       </c>
@@ -19942,7 +19958,7 @@
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="52"/>
+      <c r="A74" s="50"/>
       <c r="B74" s="5">
         <v>41.5</v>
       </c>
@@ -19960,7 +19976,7 @@
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="52"/>
+      <c r="A75" s="50"/>
       <c r="B75" s="5">
         <v>41.6</v>
       </c>
@@ -19978,7 +19994,7 @@
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="50"/>
+      <c r="A76" s="51"/>
       <c r="B76" s="5">
         <v>41.7</v>
       </c>
@@ -20038,7 +20054,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="51">
+      <c r="A80" s="49">
         <v>25</v>
       </c>
       <c r="B80" s="5">
@@ -20056,11 +20072,13 @@
       <c r="F80" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G80" s="5"/>
+      <c r="G80" s="10">
+        <v>42636</v>
+      </c>
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="52"/>
+      <c r="A81" s="50"/>
       <c r="B81" s="5">
         <v>25.2</v>
       </c>
@@ -20076,11 +20094,13 @@
       <c r="F81" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G81" s="5"/>
+      <c r="G81" s="10">
+        <v>42636</v>
+      </c>
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="52"/>
+      <c r="A82" s="50"/>
       <c r="B82" s="5">
         <v>25.3</v>
       </c>
@@ -20096,11 +20116,13 @@
       <c r="F82" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G82" s="5"/>
+      <c r="G82" s="10">
+        <v>42636</v>
+      </c>
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="52"/>
+      <c r="A83" s="50"/>
       <c r="B83" s="5">
         <v>25.4</v>
       </c>
@@ -20116,11 +20138,13 @@
       <c r="F83" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="5"/>
+      <c r="G83" s="10">
+        <v>42636</v>
+      </c>
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="52"/>
+      <c r="A84" s="50"/>
       <c r="B84" s="5">
         <v>25.5</v>
       </c>
@@ -20136,11 +20160,13 @@
       <c r="F84" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G84" s="5"/>
+      <c r="G84" s="10">
+        <v>42636</v>
+      </c>
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="52"/>
+      <c r="A85" s="50"/>
       <c r="B85" s="5">
         <v>25.6</v>
       </c>
@@ -20156,11 +20182,13 @@
       <c r="F85" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G85" s="5"/>
+      <c r="G85" s="10">
+        <v>42636</v>
+      </c>
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="52"/>
+      <c r="A86" s="50"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -20170,7 +20198,7 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="50"/>
+      <c r="A87" s="51"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -20222,7 +20250,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="51">
+      <c r="A91" s="49">
         <v>26</v>
       </c>
       <c r="B91" s="39">
@@ -20240,11 +20268,13 @@
       <c r="F91" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G91" s="5"/>
+      <c r="G91" s="10">
+        <v>42636</v>
+      </c>
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="52"/>
+      <c r="A92" s="50"/>
       <c r="B92" s="39">
         <v>26.2</v>
       </c>
@@ -20260,11 +20290,13 @@
       <c r="F92" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G92" s="5"/>
+      <c r="G92" s="10">
+        <v>42636</v>
+      </c>
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="52"/>
+      <c r="A93" s="50"/>
       <c r="B93" s="39">
         <v>26.3</v>
       </c>
@@ -20280,11 +20312,13 @@
       <c r="F93" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G93" s="5"/>
+      <c r="G93" s="10">
+        <v>42636</v>
+      </c>
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="52"/>
+      <c r="A94" s="50"/>
       <c r="B94" s="39">
         <v>26.4</v>
       </c>
@@ -20300,11 +20334,13 @@
       <c r="F94" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G94" s="5"/>
+      <c r="G94" s="10">
+        <v>42636</v>
+      </c>
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="52"/>
+      <c r="A95" s="50"/>
       <c r="B95" s="39">
         <v>26.5</v>
       </c>
@@ -20320,11 +20356,13 @@
       <c r="F95" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G95" s="5"/>
+      <c r="G95" s="10">
+        <v>42636</v>
+      </c>
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="52"/>
+      <c r="A96" s="50"/>
       <c r="B96" s="39">
         <v>26.6</v>
       </c>
@@ -20340,11 +20378,13 @@
       <c r="F96" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G96" s="5"/>
+      <c r="G96" s="10">
+        <v>42636</v>
+      </c>
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="52"/>
+      <c r="A97" s="50"/>
       <c r="B97" s="39">
         <v>26.7</v>
       </c>
@@ -20360,11 +20400,13 @@
       <c r="F97" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G97" s="5"/>
+      <c r="G97" s="10">
+        <v>42636</v>
+      </c>
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="52"/>
+      <c r="A98" s="50"/>
       <c r="B98" s="39">
         <v>26.8</v>
       </c>
@@ -20380,11 +20422,13 @@
       <c r="F98" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G98" s="5"/>
+      <c r="G98" s="10">
+        <v>42636</v>
+      </c>
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="50"/>
+      <c r="A99" s="51"/>
       <c r="B99" s="39">
         <v>26.9</v>
       </c>
@@ -20400,7 +20444,9 @@
       <c r="F99" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G99" s="3"/>
+      <c r="G99" s="10">
+        <v>42636</v>
+      </c>
       <c r="H99" s="3"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -20446,7 +20492,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="51">
+      <c r="A103" s="49">
         <v>27</v>
       </c>
       <c r="B103" s="5">
@@ -20464,11 +20510,13 @@
       <c r="F103" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G103" s="5"/>
+      <c r="G103" s="10">
+        <v>42636</v>
+      </c>
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="52"/>
+      <c r="A104" s="50"/>
       <c r="B104" s="5">
         <v>27.2</v>
       </c>
@@ -20484,11 +20532,13 @@
       <c r="F104" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G104" s="5"/>
+      <c r="G104" s="10">
+        <v>42636</v>
+      </c>
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="52"/>
+      <c r="A105" s="50"/>
       <c r="B105" s="5">
         <v>27.3</v>
       </c>
@@ -20504,11 +20554,13 @@
       <c r="F105" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G105" s="5"/>
+      <c r="G105" s="10">
+        <v>42636</v>
+      </c>
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="52"/>
+      <c r="A106" s="50"/>
       <c r="B106" s="5">
         <v>27.4</v>
       </c>
@@ -20524,11 +20576,13 @@
       <c r="F106" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G106" s="5"/>
+      <c r="G106" s="10">
+        <v>42636</v>
+      </c>
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="52"/>
+      <c r="A107" s="50"/>
       <c r="B107" s="5">
         <v>27.5</v>
       </c>
@@ -20544,11 +20598,13 @@
       <c r="F107" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G107" s="5"/>
+      <c r="G107" s="10">
+        <v>42636</v>
+      </c>
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="52"/>
+      <c r="A108" s="50"/>
       <c r="B108" s="5">
         <v>27.6</v>
       </c>
@@ -20564,11 +20620,13 @@
       <c r="F108" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G108" s="5"/>
+      <c r="G108" s="10">
+        <v>42636</v>
+      </c>
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="50"/>
+      <c r="A109" s="51"/>
       <c r="B109" s="5">
         <v>27.7</v>
       </c>
@@ -20584,7 +20642,9 @@
       <c r="F109" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G109" s="3"/>
+      <c r="G109" s="10">
+        <v>42636</v>
+      </c>
       <c r="H109" s="3"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -20630,7 +20690,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="62">
+      <c r="A113" s="67">
         <v>4</v>
       </c>
       <c r="B113" s="31">
@@ -20650,7 +20710,7 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="63"/>
+      <c r="A114" s="70"/>
       <c r="B114" s="31">
         <v>4.2</v>
       </c>
@@ -20668,7 +20728,7 @@
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="63"/>
+      <c r="A115" s="70"/>
       <c r="B115" s="31">
         <v>4.3</v>
       </c>
@@ -20686,7 +20746,7 @@
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="63"/>
+      <c r="A116" s="70"/>
       <c r="B116" s="31">
         <v>4.4000000000000004</v>
       </c>
@@ -20704,7 +20764,7 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="63"/>
+      <c r="A117" s="70"/>
       <c r="B117" s="31">
         <v>4.5</v>
       </c>
@@ -20722,7 +20782,7 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="63"/>
+      <c r="A118" s="70"/>
       <c r="B118" s="31">
         <v>4.5999999999999996</v>
       </c>
@@ -20740,7 +20800,7 @@
       <c r="H118" s="3"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="63"/>
+      <c r="A119" s="70"/>
       <c r="B119" s="31">
         <v>4.7</v>
       </c>
@@ -20758,7 +20818,7 @@
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="63"/>
+      <c r="A120" s="70"/>
       <c r="B120" s="31">
         <v>4.8</v>
       </c>
@@ -20776,7 +20836,7 @@
       <c r="H120" s="3"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="63"/>
+      <c r="A121" s="70"/>
       <c r="B121" s="31">
         <v>4.9000000000000004</v>
       </c>
@@ -20794,7 +20854,7 @@
       <c r="H121" s="3"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="64"/>
+      <c r="A122" s="71"/>
       <c r="B122" s="31">
         <v>5</v>
       </c>
@@ -20854,7 +20914,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="51">
+      <c r="A126" s="49">
         <v>30</v>
       </c>
       <c r="B126" s="5">
@@ -20874,7 +20934,7 @@
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="52"/>
+      <c r="A127" s="50"/>
       <c r="B127" s="5">
         <v>27.2</v>
       </c>
@@ -20892,7 +20952,7 @@
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="52"/>
+      <c r="A128" s="50"/>
       <c r="B128" s="5">
         <v>27.3</v>
       </c>
@@ -20910,7 +20970,7 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="52"/>
+      <c r="A129" s="50"/>
       <c r="B129" s="5">
         <v>27.4</v>
       </c>
@@ -20928,7 +20988,7 @@
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="52"/>
+      <c r="A130" s="50"/>
       <c r="B130" s="5">
         <v>27.5</v>
       </c>
@@ -20946,7 +21006,7 @@
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="52"/>
+      <c r="A131" s="50"/>
       <c r="B131" s="5">
         <v>27.6</v>
       </c>
@@ -20964,7 +21024,7 @@
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="50"/>
+      <c r="A132" s="51"/>
       <c r="B132" s="5">
         <v>27.7</v>
       </c>
@@ -21024,7 +21084,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="51">
+      <c r="A136" s="49">
         <v>32</v>
       </c>
       <c r="B136" s="5">
@@ -21044,7 +21104,7 @@
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="52"/>
+      <c r="A137" s="50"/>
       <c r="B137" s="5">
         <v>32.200000000000003</v>
       </c>
@@ -21062,7 +21122,7 @@
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="52"/>
+      <c r="A138" s="50"/>
       <c r="B138" s="5">
         <v>32.299999999999997</v>
       </c>
@@ -21080,7 +21140,7 @@
       <c r="H138" s="3"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="52"/>
+      <c r="A139" s="50"/>
       <c r="B139" s="5">
         <v>32.4</v>
       </c>
@@ -21098,7 +21158,7 @@
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="52"/>
+      <c r="A140" s="50"/>
       <c r="B140" s="5">
         <v>32.5</v>
       </c>
@@ -21116,7 +21176,7 @@
       <c r="H140" s="3"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="52"/>
+      <c r="A141" s="50"/>
       <c r="B141" s="5">
         <v>32.6</v>
       </c>
@@ -21134,7 +21194,7 @@
       <c r="H141" s="3"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="50"/>
+      <c r="A142" s="51"/>
       <c r="B142" s="5">
         <v>32.700000000000003</v>
       </c>
@@ -21153,6 +21213,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A113:A122"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A38:A45"/>
     <mergeCell ref="A134:E134"/>
     <mergeCell ref="G134:H134"/>
     <mergeCell ref="A136:A142"/>
@@ -21169,32 +21255,6 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="A113:A122"/>
   </mergeCells>
   <conditionalFormatting sqref="A36">
     <cfRule type="notContainsBlanks" dxfId="27" priority="23">

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="147">
   <si>
     <t>User story: General Website Features</t>
   </si>
@@ -445,6 +445,24 @@
   <si>
     <t>User story:Events attending</t>
   </si>
+  <si>
+    <t>4,10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essentially yes. The main problem is the initial page to be displayed, in the planners page isnt built yet. </t>
+  </si>
+  <si>
+    <t>But if you manually open the event page, it should load with the hidden features. It will just use the data from previous pages.</t>
+  </si>
+  <si>
+    <t>Also added the tickets reserved</t>
+  </si>
+  <si>
+    <t>Used a different api than what ben used. As in I had to use my own api key, which in bens api didn’t need. Not really a big deal, but just saying.</t>
+  </si>
+  <si>
+    <t>Doesn’t display the planners of the event. Still need to make planners event table.</t>
+  </si>
 </sst>
 </file>
 
@@ -788,18 +806,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -822,18 +840,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -842,8 +857,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1682,9 +1700,9 @@
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="47"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1731,7 +1749,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49">
+      <c r="A3" s="51">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -1765,7 +1783,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -1790,7 +1808,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -1815,7 +1833,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -1840,7 +1858,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -1863,7 +1881,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="5">
         <v>6.6</v>
       </c>
@@ -1894,17 +1912,17 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="47"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="47"/>
@@ -1938,7 +1956,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49">
+      <c r="A12" s="51">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -1963,7 +1981,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -1986,7 +2004,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -2001,7 +2019,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="55">
         <v>1.4</v>
       </c>
@@ -2017,27 +2035,27 @@
       <c r="F15" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="49">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="16">
         <v>1.5</v>
       </c>
@@ -2071,9 +2089,9 @@
       <c r="A19" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="47"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
@@ -2112,7 +2130,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49">
+      <c r="A21" s="51">
         <v>11</v>
       </c>
       <c r="B21" s="22">
@@ -2139,7 +2157,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="22">
         <v>11.2</v>
       </c>
@@ -2164,7 +2182,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2186,9 +2204,9 @@
       <c r="A25" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="47"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
@@ -2227,7 +2245,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49">
+      <c r="A27" s="51">
         <v>12</v>
       </c>
       <c r="B27" s="22">
@@ -2254,7 +2272,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="22">
         <v>12.2</v>
       </c>
@@ -2277,7 +2295,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="22">
         <v>12.3</v>
       </c>
@@ -2320,9 +2338,9 @@
       <c r="A32" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="47"/>
       <c r="F32" s="1" t="s">
         <v>88</v>
@@ -2361,7 +2379,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="49"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2372,7 +2390,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="50"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2383,7 +2401,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="50"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2394,7 +2412,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2405,7 +2423,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2416,7 +2434,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2427,7 +2445,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="51"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -10123,6 +10141,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:E19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G15:G16"/>
@@ -10134,15 +10161,6 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G1 A1 F10:G10 A10 F19:G19 A19 F25:G25 A25 F32:G32 A32">
     <cfRule type="notContainsBlanks" dxfId="37" priority="1">
@@ -10179,9 +10197,9 @@
       <c r="A1" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="47"/>
       <c r="F1" s="58" t="s">
         <v>1</v>
@@ -10227,7 +10245,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49">
+      <c r="A3" s="51">
         <v>21</v>
       </c>
       <c r="B3" s="5">
@@ -10260,7 +10278,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="5">
         <v>21.2</v>
       </c>
@@ -10284,7 +10302,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="5">
         <v>21.3</v>
       </c>
@@ -10308,7 +10326,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="5">
         <v>21.4</v>
       </c>
@@ -10332,7 +10350,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="5">
         <v>21.5</v>
       </c>
@@ -10354,7 +10372,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="5">
         <v>21.6</v>
       </c>
@@ -10376,7 +10394,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="5">
         <v>21.7</v>
       </c>
@@ -10398,7 +10416,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="5">
         <v>21.8</v>
       </c>
@@ -10422,7 +10440,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="5">
         <v>21.9</v>
       </c>
@@ -10458,9 +10476,9 @@
       <c r="A13" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="47"/>
       <c r="F13" s="58" t="s">
         <v>42</v>
@@ -10497,7 +10515,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49">
+      <c r="A15" s="51">
         <v>20</v>
       </c>
       <c r="B15" s="5">
@@ -10521,7 +10539,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="5">
         <v>20.2</v>
       </c>
@@ -10543,7 +10561,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="5">
         <v>20.3</v>
       </c>
@@ -10567,7 +10585,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="5">
         <v>20.399999999999999</v>
       </c>
@@ -10600,9 +10618,9 @@
       <c r="A20" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="47"/>
       <c r="F20" s="58" t="s">
         <v>49</v>
@@ -10639,7 +10657,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49">
+      <c r="A22" s="51">
         <v>5</v>
       </c>
       <c r="B22" s="5">
@@ -10661,7 +10679,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="5">
         <v>5.2</v>
       </c>
@@ -10690,9 +10708,9 @@
       <c r="A25" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="47"/>
       <c r="F25" s="58" t="s">
         <v>40</v>
@@ -10729,7 +10747,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49">
+      <c r="A27" s="51">
         <v>8</v>
       </c>
       <c r="B27" s="5">
@@ -10854,9 +10872,9 @@
       <c r="A33" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="47"/>
       <c r="F33" s="58" t="s">
         <v>70</v>
@@ -10893,7 +10911,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="49">
+      <c r="A35" s="51">
         <v>4</v>
       </c>
       <c r="B35" s="5">
@@ -18704,8 +18722,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103:G109"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J119" sqref="J119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18725,9 +18743,9 @@
       <c r="A1" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="47"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
@@ -18770,7 +18788,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="62">
+      <c r="A3" s="69">
         <v>22</v>
       </c>
       <c r="B3" s="31">
@@ -18800,7 +18818,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="31">
         <v>22.2</v>
       </c>
@@ -18822,7 +18840,7 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="31">
         <v>22.3</v>
       </c>
@@ -18847,9 +18865,9 @@
       <c r="A7" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="47"/>
       <c r="F7" s="1" t="s">
         <v>49</v>
@@ -18886,7 +18904,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="62">
+      <c r="A9" s="69">
         <v>33</v>
       </c>
       <c r="B9" s="31">
@@ -18904,7 +18922,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -18920,7 +18938,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -18936,7 +18954,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="31">
         <v>33.4</v>
       </c>
@@ -18952,7 +18970,7 @@
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="31">
         <v>33.5</v>
       </c>
@@ -18971,10 +18989,10 @@
       <c r="A15" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
@@ -19164,7 +19182,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="67">
+      <c r="A27" s="62">
         <v>35</v>
       </c>
       <c r="B27" s="5">
@@ -19182,7 +19200,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="68"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -19198,7 +19216,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="68"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -19214,7 +19232,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="68"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="31">
         <v>35.4</v>
       </c>
@@ -19230,7 +19248,7 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="68"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="5">
         <v>35.5</v>
       </c>
@@ -19246,7 +19264,7 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="68"/>
+      <c r="A32" s="67"/>
       <c r="B32" s="31">
         <v>35.6</v>
       </c>
@@ -19262,7 +19280,7 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="68"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -19278,7 +19296,7 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="69"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -19336,7 +19354,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="49">
+      <c r="A38" s="51">
         <v>40</v>
       </c>
       <c r="B38" s="5">
@@ -19477,7 +19495,7 @@
         <v>70</v>
       </c>
       <c r="G47" s="46" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H47" s="47"/>
     </row>
@@ -19508,7 +19526,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="49">
+      <c r="A49" s="51">
         <v>23</v>
       </c>
       <c r="B49" s="5">
@@ -19532,7 +19550,7 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="50"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="5">
         <v>23.2</v>
       </c>
@@ -19554,7 +19572,7 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="50"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="5">
         <v>23.3</v>
       </c>
@@ -19576,7 +19594,7 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="50"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="5">
         <v>23.4</v>
       </c>
@@ -19598,7 +19616,7 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="50"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="5">
         <v>23.5</v>
       </c>
@@ -19620,7 +19638,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="50"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="5">
         <v>23.6</v>
       </c>
@@ -19642,7 +19660,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="50"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="5">
         <v>23.7</v>
       </c>
@@ -19664,7 +19682,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="51"/>
+      <c r="A56" s="50"/>
       <c r="B56" s="5">
         <v>23.8</v>
       </c>
@@ -19728,7 +19746,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="49">
+      <c r="A60" s="51">
         <v>3</v>
       </c>
       <c r="B60" s="5">
@@ -19741,12 +19759,14 @@
         <v>2</v>
       </c>
       <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="F60" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G60" s="5"/>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="50"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="5">
         <v>3.2</v>
       </c>
@@ -19757,12 +19777,14 @@
         <v>0.5</v>
       </c>
       <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="F61" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G61" s="5"/>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="50"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="5">
         <v>3.3</v>
       </c>
@@ -19773,12 +19795,14 @@
         <v>1</v>
       </c>
       <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
+      <c r="F62" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G62" s="5"/>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="50"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="5">
         <v>3.4</v>
       </c>
@@ -19789,12 +19813,14 @@
         <v>0.5</v>
       </c>
       <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
+      <c r="F63" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G63" s="5"/>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="50"/>
+      <c r="A64" s="52"/>
       <c r="B64" s="5">
         <v>3.5</v>
       </c>
@@ -19805,12 +19831,14 @@
         <v>2</v>
       </c>
       <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
+      <c r="F64" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G64" s="5"/>
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="50"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="5">
         <v>3.6</v>
       </c>
@@ -19821,12 +19849,14 @@
         <v>1</v>
       </c>
       <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
+      <c r="F65" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G65" s="5"/>
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="51"/>
+      <c r="A66" s="50"/>
       <c r="B66" s="5">
         <v>3.7</v>
       </c>
@@ -19837,7 +19867,9 @@
         <v>0.5</v>
       </c>
       <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
+      <c r="F66" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
@@ -19884,7 +19916,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="49">
+      <c r="A70" s="51">
         <v>41</v>
       </c>
       <c r="B70" s="5">
@@ -19904,7 +19936,7 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="50"/>
+      <c r="A71" s="52"/>
       <c r="B71" s="5">
         <v>41.2</v>
       </c>
@@ -19922,7 +19954,7 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="50"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="5">
         <v>41.3</v>
       </c>
@@ -19940,7 +19972,7 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="50"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="5">
         <v>41.4</v>
       </c>
@@ -19958,7 +19990,7 @@
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="50"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="5">
         <v>41.5</v>
       </c>
@@ -19976,7 +20008,7 @@
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="50"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="5">
         <v>41.6</v>
       </c>
@@ -19994,7 +20026,7 @@
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="51"/>
+      <c r="A76" s="50"/>
       <c r="B76" s="5">
         <v>41.7</v>
       </c>
@@ -20023,7 +20055,7 @@
         <v>49</v>
       </c>
       <c r="G78" s="46" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H78" s="47"/>
     </row>
@@ -20054,7 +20086,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="49">
+      <c r="A80" s="51">
         <v>25</v>
       </c>
       <c r="B80" s="5">
@@ -20078,7 +20110,7 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="50"/>
+      <c r="A81" s="52"/>
       <c r="B81" s="5">
         <v>25.2</v>
       </c>
@@ -20100,7 +20132,7 @@
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="50"/>
+      <c r="A82" s="52"/>
       <c r="B82" s="5">
         <v>25.3</v>
       </c>
@@ -20122,7 +20154,7 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="50"/>
+      <c r="A83" s="52"/>
       <c r="B83" s="5">
         <v>25.4</v>
       </c>
@@ -20144,7 +20176,7 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="50"/>
+      <c r="A84" s="52"/>
       <c r="B84" s="5">
         <v>25.5</v>
       </c>
@@ -20166,7 +20198,7 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="50"/>
+      <c r="A85" s="52"/>
       <c r="B85" s="5">
         <v>25.6</v>
       </c>
@@ -20188,7 +20220,7 @@
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="50"/>
+      <c r="A86" s="52"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -20198,7 +20230,7 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="51"/>
+      <c r="A87" s="50"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -20219,7 +20251,7 @@
         <v>70</v>
       </c>
       <c r="G89" s="46" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H89" s="47"/>
     </row>
@@ -20250,7 +20282,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="49">
+      <c r="A91" s="51">
         <v>26</v>
       </c>
       <c r="B91" s="39">
@@ -20274,7 +20306,7 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="50"/>
+      <c r="A92" s="52"/>
       <c r="B92" s="39">
         <v>26.2</v>
       </c>
@@ -20296,7 +20328,7 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="50"/>
+      <c r="A93" s="52"/>
       <c r="B93" s="39">
         <v>26.3</v>
       </c>
@@ -20318,7 +20350,7 @@
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="50"/>
+      <c r="A94" s="52"/>
       <c r="B94" s="39">
         <v>26.4</v>
       </c>
@@ -20340,7 +20372,7 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="50"/>
+      <c r="A95" s="52"/>
       <c r="B95" s="39">
         <v>26.5</v>
       </c>
@@ -20362,7 +20394,7 @@
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="50"/>
+      <c r="A96" s="52"/>
       <c r="B96" s="39">
         <v>26.6</v>
       </c>
@@ -20384,7 +20416,7 @@
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="50"/>
+      <c r="A97" s="52"/>
       <c r="B97" s="39">
         <v>26.7</v>
       </c>
@@ -20406,7 +20438,7 @@
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="50"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="39">
         <v>26.8</v>
       </c>
@@ -20428,7 +20460,7 @@
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="51"/>
+      <c r="A99" s="50"/>
       <c r="B99" s="39">
         <v>26.9</v>
       </c>
@@ -20461,7 +20493,7 @@
         <v>49</v>
       </c>
       <c r="G101" s="46" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H101" s="47"/>
     </row>
@@ -20492,7 +20524,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="49">
+      <c r="A103" s="51">
         <v>27</v>
       </c>
       <c r="B103" s="5">
@@ -20516,7 +20548,7 @@
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="50"/>
+      <c r="A104" s="52"/>
       <c r="B104" s="5">
         <v>27.2</v>
       </c>
@@ -20538,7 +20570,7 @@
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="50"/>
+      <c r="A105" s="52"/>
       <c r="B105" s="5">
         <v>27.3</v>
       </c>
@@ -20560,7 +20592,7 @@
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="50"/>
+      <c r="A106" s="52"/>
       <c r="B106" s="5">
         <v>27.4</v>
       </c>
@@ -20582,7 +20614,7 @@
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="50"/>
+      <c r="A107" s="52"/>
       <c r="B107" s="5">
         <v>27.5</v>
       </c>
@@ -20604,7 +20636,7 @@
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="50"/>
+      <c r="A108" s="52"/>
       <c r="B108" s="5">
         <v>27.6</v>
       </c>
@@ -20626,7 +20658,7 @@
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="51"/>
+      <c r="A109" s="50"/>
       <c r="B109" s="5">
         <v>27.7</v>
       </c>
@@ -20690,7 +20722,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="67">
+      <c r="A113" s="62">
         <v>4</v>
       </c>
       <c r="B113" s="31">
@@ -20702,15 +20734,19 @@
       <c r="D113" s="31">
         <v>2</v>
       </c>
-      <c r="E113" s="28"/>
+      <c r="E113" s="31">
+        <v>2</v>
+      </c>
       <c r="F113" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G113" s="5"/>
+      <c r="G113" s="10">
+        <v>42648</v>
+      </c>
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="70"/>
+      <c r="A114" s="63"/>
       <c r="B114" s="31">
         <v>4.2</v>
       </c>
@@ -20720,15 +20756,19 @@
       <c r="D114" s="31">
         <v>0.5</v>
       </c>
-      <c r="E114" s="28"/>
+      <c r="E114" s="31">
+        <v>0.5</v>
+      </c>
       <c r="F114" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G114" s="5"/>
+      <c r="G114" s="10">
+        <v>42648</v>
+      </c>
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="70"/>
+      <c r="A115" s="63"/>
       <c r="B115" s="31">
         <v>4.3</v>
       </c>
@@ -20738,15 +20778,19 @@
       <c r="D115" s="31">
         <v>1</v>
       </c>
-      <c r="E115" s="28"/>
+      <c r="E115" s="31">
+        <v>1</v>
+      </c>
       <c r="F115" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G115" s="5"/>
+      <c r="G115" s="10">
+        <v>42648</v>
+      </c>
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="70"/>
+      <c r="A116" s="63"/>
       <c r="B116" s="31">
         <v>4.4000000000000004</v>
       </c>
@@ -20756,15 +20800,19 @@
       <c r="D116" s="31">
         <v>0.5</v>
       </c>
-      <c r="E116" s="28"/>
+      <c r="E116" s="31">
+        <v>0.5</v>
+      </c>
       <c r="F116" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G116" s="5"/>
+      <c r="G116" s="10">
+        <v>42648</v>
+      </c>
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="70"/>
+      <c r="A117" s="63"/>
       <c r="B117" s="31">
         <v>4.5</v>
       </c>
@@ -20774,15 +20822,19 @@
       <c r="D117" s="31">
         <v>2</v>
       </c>
-      <c r="E117" s="28"/>
+      <c r="E117" s="31">
+        <v>2</v>
+      </c>
       <c r="F117" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G117" s="5"/>
+      <c r="G117" s="10">
+        <v>42648</v>
+      </c>
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="70"/>
+      <c r="A118" s="63"/>
       <c r="B118" s="31">
         <v>4.5999999999999996</v>
       </c>
@@ -20792,15 +20844,21 @@
       <c r="D118" s="31">
         <v>2</v>
       </c>
-      <c r="E118" s="28"/>
+      <c r="E118" s="31">
+        <v>2</v>
+      </c>
       <c r="F118" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G118" s="5"/>
-      <c r="H118" s="3"/>
+      <c r="G118" s="10">
+        <v>42648</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="70"/>
+      <c r="A119" s="63"/>
       <c r="B119" s="31">
         <v>4.7</v>
       </c>
@@ -20810,15 +20868,19 @@
       <c r="D119" s="31">
         <v>2</v>
       </c>
-      <c r="E119" s="28"/>
+      <c r="E119" s="31">
+        <v>2</v>
+      </c>
       <c r="F119" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G119" s="5"/>
+      <c r="G119" s="10">
+        <v>42648</v>
+      </c>
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="70"/>
+      <c r="A120" s="63"/>
       <c r="B120" s="31">
         <v>4.8</v>
       </c>
@@ -20828,15 +20890,17 @@
       <c r="D120" s="31">
         <v>2</v>
       </c>
-      <c r="E120" s="28"/>
+      <c r="E120" s="31"/>
       <c r="F120" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G120" s="5"/>
-      <c r="H120" s="3"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="70"/>
+      <c r="A121" s="63"/>
       <c r="B121" s="31">
         <v>4.9000000000000004</v>
       </c>
@@ -20846,17 +20910,23 @@
       <c r="D121" s="31">
         <v>1</v>
       </c>
-      <c r="E121" s="28"/>
+      <c r="E121" s="31">
+        <v>1</v>
+      </c>
       <c r="F121" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G121" s="5"/>
-      <c r="H121" s="3"/>
+      <c r="G121" s="10">
+        <v>42648</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="71"/>
-      <c r="B122" s="31">
-        <v>5</v>
+      <c r="A122" s="64"/>
+      <c r="B122" s="32" t="s">
+        <v>141</v>
       </c>
       <c r="C122" s="32" t="s">
         <v>116</v>
@@ -20864,12 +20934,18 @@
       <c r="D122" s="34">
         <v>0.5</v>
       </c>
-      <c r="E122" s="29"/>
+      <c r="E122" s="34">
+        <v>0.5</v>
+      </c>
       <c r="F122" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
+      <c r="G122" s="10">
+        <v>42648</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="46" t="s">
@@ -20914,7 +20990,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="49">
+      <c r="A126" s="51">
         <v>30</v>
       </c>
       <c r="B126" s="5">
@@ -20934,7 +21010,7 @@
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="50"/>
+      <c r="A127" s="52"/>
       <c r="B127" s="5">
         <v>27.2</v>
       </c>
@@ -20952,7 +21028,7 @@
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="50"/>
+      <c r="A128" s="52"/>
       <c r="B128" s="5">
         <v>27.3</v>
       </c>
@@ -20970,7 +21046,7 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="50"/>
+      <c r="A129" s="52"/>
       <c r="B129" s="5">
         <v>27.4</v>
       </c>
@@ -20988,7 +21064,7 @@
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="50"/>
+      <c r="A130" s="52"/>
       <c r="B130" s="5">
         <v>27.5</v>
       </c>
@@ -21006,7 +21082,7 @@
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="50"/>
+      <c r="A131" s="52"/>
       <c r="B131" s="5">
         <v>27.6</v>
       </c>
@@ -21024,7 +21100,7 @@
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="51"/>
+      <c r="A132" s="50"/>
       <c r="B132" s="5">
         <v>27.7</v>
       </c>
@@ -21053,7 +21129,7 @@
         <v>42</v>
       </c>
       <c r="G134" s="46" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H134" s="47"/>
     </row>
@@ -21084,7 +21160,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="49">
+      <c r="A136" s="51">
         <v>32</v>
       </c>
       <c r="B136" s="5">
@@ -21100,11 +21176,13 @@
       <c r="F136" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G136" s="5"/>
+      <c r="G136" s="10">
+        <v>42648</v>
+      </c>
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="50"/>
+      <c r="A137" s="52"/>
       <c r="B137" s="5">
         <v>32.200000000000003</v>
       </c>
@@ -21118,11 +21196,13 @@
       <c r="F137" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G137" s="5"/>
+      <c r="G137" s="10">
+        <v>42648</v>
+      </c>
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="50"/>
+      <c r="A138" s="52"/>
       <c r="B138" s="5">
         <v>32.299999999999997</v>
       </c>
@@ -21136,11 +21216,13 @@
       <c r="F138" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G138" s="5"/>
+      <c r="G138" s="10">
+        <v>42648</v>
+      </c>
       <c r="H138" s="3"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="50"/>
+      <c r="A139" s="52"/>
       <c r="B139" s="5">
         <v>32.4</v>
       </c>
@@ -21154,11 +21236,13 @@
       <c r="F139" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G139" s="5"/>
+      <c r="G139" s="10">
+        <v>42648</v>
+      </c>
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="50"/>
+      <c r="A140" s="52"/>
       <c r="B140" s="5">
         <v>32.5</v>
       </c>
@@ -21172,11 +21256,15 @@
       <c r="F140" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G140" s="5"/>
-      <c r="H140" s="3"/>
+      <c r="G140" s="10">
+        <v>42648</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="50"/>
+      <c r="A141" s="52"/>
       <c r="B141" s="5">
         <v>32.6</v>
       </c>
@@ -21190,11 +21278,13 @@
       <c r="F141" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G141" s="5"/>
+      <c r="G141" s="10">
+        <v>42648</v>
+      </c>
       <c r="H141" s="3"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="51"/>
+      <c r="A142" s="50"/>
       <c r="B142" s="5">
         <v>32.700000000000003</v>
       </c>
@@ -21208,37 +21298,13 @@
       <c r="F142" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G142" s="3"/>
+      <c r="G142" s="10">
+        <v>42648</v>
+      </c>
       <c r="H142" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="A113:A122"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A38:A45"/>
     <mergeCell ref="A134:E134"/>
     <mergeCell ref="G134:H134"/>
     <mergeCell ref="A136:A142"/>
@@ -21255,6 +21321,32 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A113:A122"/>
   </mergeCells>
   <conditionalFormatting sqref="A36">
     <cfRule type="notContainsBlanks" dxfId="27" priority="23">

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="148">
   <si>
     <t>User story: General Website Features</t>
   </si>
@@ -463,6 +463,9 @@
   <si>
     <t>Doesn’t display the planners of the event. Still need to make planners event table.</t>
   </si>
+  <si>
+    <t>Ben(InProgress)</t>
+  </si>
 </sst>
 </file>
 
@@ -737,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -806,18 +809,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -840,15 +843,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -857,11 +863,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1700,9 +1711,9 @@
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="47"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1749,7 +1760,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51">
+      <c r="A3" s="49">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -1783,7 +1794,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -1808,7 +1819,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -1833,7 +1844,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -1858,7 +1869,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -1881,7 +1892,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="5">
         <v>6.6</v>
       </c>
@@ -1912,17 +1923,17 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="47"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="52" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="47"/>
@@ -1956,7 +1967,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51">
+      <c r="A12" s="49">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -1981,7 +1992,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -2004,7 +2015,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -2019,7 +2030,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="55">
         <v>1.4</v>
       </c>
@@ -2035,27 +2046,27 @@
       <c r="F15" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="53">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
       <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="16">
         <v>1.5</v>
       </c>
@@ -2089,9 +2100,9 @@
       <c r="A19" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="47"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
@@ -2130,7 +2141,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51">
+      <c r="A21" s="49">
         <v>11</v>
       </c>
       <c r="B21" s="22">
@@ -2157,7 +2168,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="22">
         <v>11.2</v>
       </c>
@@ -2182,7 +2193,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2204,9 +2215,9 @@
       <c r="A25" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="47"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
@@ -2245,7 +2256,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51">
+      <c r="A27" s="49">
         <v>12</v>
       </c>
       <c r="B27" s="22">
@@ -2272,7 +2283,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="22">
         <v>12.2</v>
       </c>
@@ -2295,7 +2306,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="22">
         <v>12.3</v>
       </c>
@@ -2338,9 +2349,9 @@
       <c r="A32" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
       <c r="E32" s="47"/>
       <c r="F32" s="1" t="s">
         <v>88</v>
@@ -2379,7 +2390,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="51"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2390,7 +2401,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="52"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2401,7 +2412,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="52"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2412,7 +2423,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="52"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2423,7 +2434,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="52"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2434,7 +2445,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="52"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2445,7 +2456,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="50"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -10141,15 +10152,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:E19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G15:G16"/>
@@ -10161,6 +10163,15 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G1 A1 F10:G10 A10 F19:G19 A19 F25:G25 A25 F32:G32 A32">
     <cfRule type="notContainsBlanks" dxfId="37" priority="1">
@@ -10197,9 +10208,9 @@
       <c r="A1" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="47"/>
       <c r="F1" s="58" t="s">
         <v>1</v>
@@ -10245,7 +10256,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51">
+      <c r="A3" s="49">
         <v>21</v>
       </c>
       <c r="B3" s="5">
@@ -10278,7 +10289,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="5">
         <v>21.2</v>
       </c>
@@ -10302,7 +10313,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="5">
         <v>21.3</v>
       </c>
@@ -10326,7 +10337,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="5">
         <v>21.4</v>
       </c>
@@ -10350,7 +10361,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="5">
         <v>21.5</v>
       </c>
@@ -10372,7 +10383,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="5">
         <v>21.6</v>
       </c>
@@ -10394,7 +10405,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="5">
         <v>21.7</v>
       </c>
@@ -10416,7 +10427,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="5">
         <v>21.8</v>
       </c>
@@ -10440,7 +10451,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="5">
         <v>21.9</v>
       </c>
@@ -10476,9 +10487,9 @@
       <c r="A13" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="47"/>
       <c r="F13" s="58" t="s">
         <v>42</v>
@@ -10515,7 +10526,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51">
+      <c r="A15" s="49">
         <v>20</v>
       </c>
       <c r="B15" s="5">
@@ -10539,7 +10550,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="5">
         <v>20.2</v>
       </c>
@@ -10561,7 +10572,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="5">
         <v>20.3</v>
       </c>
@@ -10585,7 +10596,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="5">
         <v>20.399999999999999</v>
       </c>
@@ -10618,9 +10629,9 @@
       <c r="A20" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="47"/>
       <c r="F20" s="58" t="s">
         <v>49</v>
@@ -10657,7 +10668,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51">
+      <c r="A22" s="49">
         <v>5</v>
       </c>
       <c r="B22" s="5">
@@ -10679,7 +10690,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="5">
         <v>5.2</v>
       </c>
@@ -10708,9 +10719,9 @@
       <c r="A25" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="47"/>
       <c r="F25" s="58" t="s">
         <v>40</v>
@@ -10747,7 +10758,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51">
+      <c r="A27" s="49">
         <v>8</v>
       </c>
       <c r="B27" s="5">
@@ -10872,9 +10883,9 @@
       <c r="A33" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
       <c r="E33" s="47"/>
       <c r="F33" s="58" t="s">
         <v>70</v>
@@ -10911,7 +10922,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="51">
+      <c r="A35" s="49">
         <v>4</v>
       </c>
       <c r="B35" s="5">
@@ -18722,8 +18733,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J119" sqref="J119"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18743,9 +18754,9 @@
       <c r="A1" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="47"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
@@ -18788,7 +18799,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="69">
+      <c r="A3" s="62">
         <v>22</v>
       </c>
       <c r="B3" s="31">
@@ -18818,7 +18829,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="31">
         <v>22.2</v>
       </c>
@@ -18840,7 +18851,7 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="31">
         <v>22.3</v>
       </c>
@@ -18865,9 +18876,9 @@
       <c r="A7" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="47"/>
       <c r="F7" s="1" t="s">
         <v>49</v>
@@ -18904,7 +18915,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="69">
+      <c r="A9" s="62">
         <v>33</v>
       </c>
       <c r="B9" s="31">
@@ -18917,12 +18928,14 @@
         <v>1</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="76" t="s">
+        <v>139</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="69"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -18933,12 +18946,14 @@
         <v>1</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="76" t="s">
+        <v>139</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="69"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -18949,12 +18964,14 @@
         <v>1</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="76" t="s">
+        <v>139</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="69"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="31">
         <v>33.4</v>
       </c>
@@ -18965,12 +18982,14 @@
         <v>1</v>
       </c>
       <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="F12" s="76" t="s">
+        <v>139</v>
+      </c>
       <c r="G12" s="18"/>
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="69"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="31">
         <v>33.5</v>
       </c>
@@ -18981,7 +19000,9 @@
         <v>0.5</v>
       </c>
       <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
+      <c r="F13" s="76" t="s">
+        <v>139</v>
+      </c>
       <c r="G13" s="31"/>
       <c r="H13" s="34"/>
     </row>
@@ -18989,10 +19010,10 @@
       <c r="A15" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
@@ -19039,7 +19060,9 @@
         <v>0.5</v>
       </c>
       <c r="E17" s="31"/>
-      <c r="F17" s="28"/>
+      <c r="F17" s="74" t="s">
+        <v>147</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="3"/>
     </row>
@@ -19055,7 +19078,9 @@
         <v>0.5</v>
       </c>
       <c r="E18" s="31"/>
-      <c r="F18" s="28"/>
+      <c r="F18" s="74" t="s">
+        <v>147</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="3"/>
     </row>
@@ -19071,7 +19096,9 @@
         <v>1</v>
       </c>
       <c r="E19" s="31"/>
-      <c r="F19" s="28"/>
+      <c r="F19" s="74" t="s">
+        <v>147</v>
+      </c>
       <c r="G19" s="5"/>
       <c r="H19" s="3"/>
     </row>
@@ -19087,7 +19114,9 @@
         <v>0.5</v>
       </c>
       <c r="E20" s="31"/>
-      <c r="F20" s="28"/>
+      <c r="F20" s="74" t="s">
+        <v>147</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="3"/>
     </row>
@@ -19103,7 +19132,9 @@
         <v>2</v>
       </c>
       <c r="E21" s="31"/>
-      <c r="F21" s="28"/>
+      <c r="F21" s="74" t="s">
+        <v>147</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
     </row>
@@ -19119,7 +19150,9 @@
         <v>1</v>
       </c>
       <c r="E22" s="31"/>
-      <c r="F22" s="28"/>
+      <c r="F22" s="74" t="s">
+        <v>147</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
     </row>
@@ -19135,7 +19168,9 @@
         <v>0.5</v>
       </c>
       <c r="E23" s="34"/>
-      <c r="F23" s="29"/>
+      <c r="F23" s="74" t="s">
+        <v>147</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
@@ -19147,7 +19182,7 @@
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
       <c r="E25" s="61"/>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="72" t="s">
         <v>42</v>
       </c>
       <c r="G25" s="46" t="s">
@@ -19182,7 +19217,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="62">
+      <c r="A27" s="67">
         <v>35</v>
       </c>
       <c r="B27" s="5">
@@ -19195,12 +19230,14 @@
         <v>0.5</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="F27" s="75" t="s">
+        <v>147</v>
+      </c>
       <c r="G27" s="5"/>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="67"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -19211,12 +19248,14 @@
         <v>0.5</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="F28" s="75" t="s">
+        <v>147</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="67"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -19227,12 +19266,14 @@
         <v>0.5</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="F29" s="75" t="s">
+        <v>147</v>
+      </c>
       <c r="G29" s="5"/>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="67"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="31">
         <v>35.4</v>
       </c>
@@ -19243,12 +19284,14 @@
         <v>1</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="F30" s="75" t="s">
+        <v>147</v>
+      </c>
       <c r="G30" s="5"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="67"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="5">
         <v>35.5</v>
       </c>
@@ -19259,12 +19302,14 @@
         <v>0.5</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="F31" s="75" t="s">
+        <v>147</v>
+      </c>
       <c r="G31" s="5"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="67"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="31">
         <v>35.6</v>
       </c>
@@ -19275,12 +19320,14 @@
         <v>1</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="F32" s="75" t="s">
+        <v>147</v>
+      </c>
       <c r="G32" s="5"/>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="67"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -19291,12 +19338,14 @@
         <v>1</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="F33" s="75" t="s">
+        <v>147</v>
+      </c>
       <c r="G33" s="5"/>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="68"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -19307,7 +19356,9 @@
         <v>0.5</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="75" t="s">
+        <v>147</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
@@ -19319,7 +19370,7 @@
       <c r="C36" s="60"/>
       <c r="D36" s="60"/>
       <c r="E36" s="61"/>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="72" t="s">
         <v>42</v>
       </c>
       <c r="G36" s="46" t="s">
@@ -19354,7 +19405,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="51">
+      <c r="A38" s="49">
         <v>40</v>
       </c>
       <c r="B38" s="5">
@@ -19367,7 +19418,9 @@
         <v>0.5</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="F38" s="77" t="s">
+        <v>147</v>
+      </c>
       <c r="G38" s="5"/>
       <c r="H38" s="3"/>
     </row>
@@ -19383,7 +19436,9 @@
         <v>2</v>
       </c>
       <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="F39" s="77" t="s">
+        <v>147</v>
+      </c>
       <c r="G39" s="5"/>
       <c r="H39" s="3"/>
     </row>
@@ -19399,7 +19454,9 @@
         <v>0.5</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="F40" s="77" t="s">
+        <v>147</v>
+      </c>
       <c r="G40" s="5"/>
       <c r="H40" s="3"/>
     </row>
@@ -19415,7 +19472,9 @@
         <v>1</v>
       </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="F41" s="77" t="s">
+        <v>147</v>
+      </c>
       <c r="G41" s="5"/>
       <c r="H41" s="3"/>
     </row>
@@ -19431,7 +19490,9 @@
         <v>1</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+      <c r="F42" s="77" t="s">
+        <v>147</v>
+      </c>
       <c r="G42" s="5"/>
       <c r="H42" s="3"/>
     </row>
@@ -19447,7 +19508,9 @@
         <v>1</v>
       </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="F43" s="77" t="s">
+        <v>147</v>
+      </c>
       <c r="G43" s="5"/>
       <c r="H43" s="3"/>
     </row>
@@ -19463,7 +19526,9 @@
         <v>1</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="F44" s="77" t="s">
+        <v>147</v>
+      </c>
       <c r="G44" s="5"/>
       <c r="H44" s="3"/>
     </row>
@@ -19479,7 +19544,9 @@
         <v>0.5</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="F45" s="77" t="s">
+        <v>147</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
@@ -19491,7 +19558,7 @@
       <c r="C47" s="60"/>
       <c r="D47" s="60"/>
       <c r="E47" s="61"/>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="72" t="s">
         <v>70</v>
       </c>
       <c r="G47" s="46" t="s">
@@ -19526,7 +19593,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="51">
+      <c r="A49" s="49">
         <v>23</v>
       </c>
       <c r="B49" s="5">
@@ -19541,7 +19608,7 @@
       <c r="E49" s="5">
         <v>1</v>
       </c>
-      <c r="F49" s="27" t="s">
+      <c r="F49" s="73" t="s">
         <v>17</v>
       </c>
       <c r="G49" s="10">
@@ -19550,7 +19617,7 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="52"/>
+      <c r="A50" s="50"/>
       <c r="B50" s="5">
         <v>23.2</v>
       </c>
@@ -19563,7 +19630,7 @@
       <c r="E50" s="5">
         <v>1</v>
       </c>
-      <c r="F50" s="27" t="s">
+      <c r="F50" s="73" t="s">
         <v>17</v>
       </c>
       <c r="G50" s="10">
@@ -19572,7 +19639,7 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="52"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="5">
         <v>23.3</v>
       </c>
@@ -19585,7 +19652,7 @@
       <c r="E51" s="5">
         <v>0.5</v>
       </c>
-      <c r="F51" s="27" t="s">
+      <c r="F51" s="73" t="s">
         <v>17</v>
       </c>
       <c r="G51" s="10">
@@ -19594,7 +19661,7 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="52"/>
+      <c r="A52" s="50"/>
       <c r="B52" s="5">
         <v>23.4</v>
       </c>
@@ -19607,7 +19674,7 @@
       <c r="E52" s="5">
         <v>2</v>
       </c>
-      <c r="F52" s="27" t="s">
+      <c r="F52" s="73" t="s">
         <v>17</v>
       </c>
       <c r="G52" s="10">
@@ -19616,7 +19683,7 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="52"/>
+      <c r="A53" s="50"/>
       <c r="B53" s="5">
         <v>23.5</v>
       </c>
@@ -19629,7 +19696,7 @@
       <c r="E53" s="5">
         <v>2</v>
       </c>
-      <c r="F53" s="27" t="s">
+      <c r="F53" s="73" t="s">
         <v>17</v>
       </c>
       <c r="G53" s="10">
@@ -19638,7 +19705,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
+      <c r="A54" s="50"/>
       <c r="B54" s="5">
         <v>23.6</v>
       </c>
@@ -19651,7 +19718,7 @@
       <c r="E54" s="31">
         <v>1</v>
       </c>
-      <c r="F54" s="27" t="s">
+      <c r="F54" s="73" t="s">
         <v>17</v>
       </c>
       <c r="G54" s="10">
@@ -19660,7 +19727,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="52"/>
+      <c r="A55" s="50"/>
       <c r="B55" s="5">
         <v>23.7</v>
       </c>
@@ -19673,7 +19740,7 @@
       <c r="E55" s="5">
         <v>2</v>
       </c>
-      <c r="F55" s="27" t="s">
+      <c r="F55" s="73" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="10">
@@ -19682,7 +19749,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="50"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="5">
         <v>23.8</v>
       </c>
@@ -19695,7 +19762,7 @@
       <c r="E56" s="3">
         <v>0.5</v>
       </c>
-      <c r="F56" s="27" t="s">
+      <c r="F56" s="73" t="s">
         <v>17</v>
       </c>
       <c r="G56" s="10">
@@ -19711,7 +19778,7 @@
       <c r="C58" s="60"/>
       <c r="D58" s="60"/>
       <c r="E58" s="61"/>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="72" t="s">
         <v>42</v>
       </c>
       <c r="G58" s="46" t="s">
@@ -19746,7 +19813,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="51">
+      <c r="A60" s="49">
         <v>3</v>
       </c>
       <c r="B60" s="5">
@@ -19759,14 +19826,14 @@
         <v>2</v>
       </c>
       <c r="E60" s="5"/>
-      <c r="F60" s="27" t="s">
-        <v>17</v>
+      <c r="F60" s="73" t="s">
+        <v>139</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="52"/>
+      <c r="A61" s="50"/>
       <c r="B61" s="5">
         <v>3.2</v>
       </c>
@@ -19777,14 +19844,14 @@
         <v>0.5</v>
       </c>
       <c r="E61" s="5"/>
-      <c r="F61" s="27" t="s">
-        <v>17</v>
+      <c r="F61" s="73" t="s">
+        <v>139</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="52"/>
+      <c r="A62" s="50"/>
       <c r="B62" s="5">
         <v>3.3</v>
       </c>
@@ -19795,14 +19862,14 @@
         <v>1</v>
       </c>
       <c r="E62" s="5"/>
-      <c r="F62" s="27" t="s">
-        <v>17</v>
+      <c r="F62" s="73" t="s">
+        <v>139</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="52"/>
+      <c r="A63" s="50"/>
       <c r="B63" s="5">
         <v>3.4</v>
       </c>
@@ -19813,14 +19880,14 @@
         <v>0.5</v>
       </c>
       <c r="E63" s="5"/>
-      <c r="F63" s="27" t="s">
-        <v>17</v>
+      <c r="F63" s="73" t="s">
+        <v>139</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="52"/>
+      <c r="A64" s="50"/>
       <c r="B64" s="5">
         <v>3.5</v>
       </c>
@@ -19831,14 +19898,14 @@
         <v>2</v>
       </c>
       <c r="E64" s="5"/>
-      <c r="F64" s="27" t="s">
-        <v>17</v>
+      <c r="F64" s="73" t="s">
+        <v>139</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="52"/>
+      <c r="A65" s="50"/>
       <c r="B65" s="5">
         <v>3.6</v>
       </c>
@@ -19849,14 +19916,14 @@
         <v>1</v>
       </c>
       <c r="E65" s="5"/>
-      <c r="F65" s="27" t="s">
-        <v>17</v>
+      <c r="F65" s="73" t="s">
+        <v>139</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="50"/>
+      <c r="A66" s="51"/>
       <c r="B66" s="5">
         <v>3.7</v>
       </c>
@@ -19867,8 +19934,8 @@
         <v>0.5</v>
       </c>
       <c r="E66" s="3"/>
-      <c r="F66" s="27" t="s">
-        <v>17</v>
+      <c r="F66" s="73" t="s">
+        <v>139</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -19916,7 +19983,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="51">
+      <c r="A70" s="49">
         <v>41</v>
       </c>
       <c r="B70" s="5">
@@ -19936,7 +20003,7 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="52"/>
+      <c r="A71" s="50"/>
       <c r="B71" s="5">
         <v>41.2</v>
       </c>
@@ -19954,7 +20021,7 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="52"/>
+      <c r="A72" s="50"/>
       <c r="B72" s="5">
         <v>41.3</v>
       </c>
@@ -19972,7 +20039,7 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="52"/>
+      <c r="A73" s="50"/>
       <c r="B73" s="5">
         <v>41.4</v>
       </c>
@@ -19990,7 +20057,7 @@
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="52"/>
+      <c r="A74" s="50"/>
       <c r="B74" s="5">
         <v>41.5</v>
       </c>
@@ -20008,7 +20075,7 @@
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="52"/>
+      <c r="A75" s="50"/>
       <c r="B75" s="5">
         <v>41.6</v>
       </c>
@@ -20026,7 +20093,7 @@
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="50"/>
+      <c r="A76" s="51"/>
       <c r="B76" s="5">
         <v>41.7</v>
       </c>
@@ -20086,7 +20153,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="51">
+      <c r="A80" s="49">
         <v>25</v>
       </c>
       <c r="B80" s="5">
@@ -20110,7 +20177,7 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="52"/>
+      <c r="A81" s="50"/>
       <c r="B81" s="5">
         <v>25.2</v>
       </c>
@@ -20132,7 +20199,7 @@
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="52"/>
+      <c r="A82" s="50"/>
       <c r="B82" s="5">
         <v>25.3</v>
       </c>
@@ -20154,7 +20221,7 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="52"/>
+      <c r="A83" s="50"/>
       <c r="B83" s="5">
         <v>25.4</v>
       </c>
@@ -20176,7 +20243,7 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="52"/>
+      <c r="A84" s="50"/>
       <c r="B84" s="5">
         <v>25.5</v>
       </c>
@@ -20198,7 +20265,7 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="52"/>
+      <c r="A85" s="50"/>
       <c r="B85" s="5">
         <v>25.6</v>
       </c>
@@ -20220,7 +20287,7 @@
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="52"/>
+      <c r="A86" s="50"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -20230,7 +20297,7 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="50"/>
+      <c r="A87" s="51"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -20282,7 +20349,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="51">
+      <c r="A91" s="49">
         <v>26</v>
       </c>
       <c r="B91" s="39">
@@ -20306,7 +20373,7 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="52"/>
+      <c r="A92" s="50"/>
       <c r="B92" s="39">
         <v>26.2</v>
       </c>
@@ -20328,7 +20395,7 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="52"/>
+      <c r="A93" s="50"/>
       <c r="B93" s="39">
         <v>26.3</v>
       </c>
@@ -20350,7 +20417,7 @@
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="52"/>
+      <c r="A94" s="50"/>
       <c r="B94" s="39">
         <v>26.4</v>
       </c>
@@ -20372,7 +20439,7 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="52"/>
+      <c r="A95" s="50"/>
       <c r="B95" s="39">
         <v>26.5</v>
       </c>
@@ -20394,7 +20461,7 @@
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="52"/>
+      <c r="A96" s="50"/>
       <c r="B96" s="39">
         <v>26.6</v>
       </c>
@@ -20416,7 +20483,7 @@
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="52"/>
+      <c r="A97" s="50"/>
       <c r="B97" s="39">
         <v>26.7</v>
       </c>
@@ -20438,7 +20505,7 @@
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="52"/>
+      <c r="A98" s="50"/>
       <c r="B98" s="39">
         <v>26.8</v>
       </c>
@@ -20460,7 +20527,7 @@
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="50"/>
+      <c r="A99" s="51"/>
       <c r="B99" s="39">
         <v>26.9</v>
       </c>
@@ -20524,7 +20591,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="51">
+      <c r="A103" s="49">
         <v>27</v>
       </c>
       <c r="B103" s="5">
@@ -20548,7 +20615,7 @@
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="52"/>
+      <c r="A104" s="50"/>
       <c r="B104" s="5">
         <v>27.2</v>
       </c>
@@ -20570,7 +20637,7 @@
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="52"/>
+      <c r="A105" s="50"/>
       <c r="B105" s="5">
         <v>27.3</v>
       </c>
@@ -20592,7 +20659,7 @@
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="52"/>
+      <c r="A106" s="50"/>
       <c r="B106" s="5">
         <v>27.4</v>
       </c>
@@ -20614,7 +20681,7 @@
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="52"/>
+      <c r="A107" s="50"/>
       <c r="B107" s="5">
         <v>27.5</v>
       </c>
@@ -20636,7 +20703,7 @@
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="52"/>
+      <c r="A108" s="50"/>
       <c r="B108" s="5">
         <v>27.6</v>
       </c>
@@ -20658,7 +20725,7 @@
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="50"/>
+      <c r="A109" s="51"/>
       <c r="B109" s="5">
         <v>27.7</v>
       </c>
@@ -20722,7 +20789,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="62">
+      <c r="A113" s="67">
         <v>4</v>
       </c>
       <c r="B113" s="31">
@@ -20746,7 +20813,7 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="63"/>
+      <c r="A114" s="70"/>
       <c r="B114" s="31">
         <v>4.2</v>
       </c>
@@ -20768,7 +20835,7 @@
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="63"/>
+      <c r="A115" s="70"/>
       <c r="B115" s="31">
         <v>4.3</v>
       </c>
@@ -20790,7 +20857,7 @@
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="63"/>
+      <c r="A116" s="70"/>
       <c r="B116" s="31">
         <v>4.4000000000000004</v>
       </c>
@@ -20812,7 +20879,7 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="63"/>
+      <c r="A117" s="70"/>
       <c r="B117" s="31">
         <v>4.5</v>
       </c>
@@ -20834,7 +20901,7 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="63"/>
+      <c r="A118" s="70"/>
       <c r="B118" s="31">
         <v>4.5999999999999996</v>
       </c>
@@ -20858,7 +20925,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="63"/>
+      <c r="A119" s="70"/>
       <c r="B119" s="31">
         <v>4.7</v>
       </c>
@@ -20880,7 +20947,7 @@
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="63"/>
+      <c r="A120" s="70"/>
       <c r="B120" s="31">
         <v>4.8</v>
       </c>
@@ -20900,7 +20967,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="63"/>
+      <c r="A121" s="70"/>
       <c r="B121" s="31">
         <v>4.9000000000000004</v>
       </c>
@@ -20924,7 +20991,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="64"/>
+      <c r="A122" s="71"/>
       <c r="B122" s="32" t="s">
         <v>141</v>
       </c>
@@ -20990,7 +21057,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="51">
+      <c r="A126" s="49">
         <v>30</v>
       </c>
       <c r="B126" s="5">
@@ -21010,7 +21077,7 @@
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="52"/>
+      <c r="A127" s="50"/>
       <c r="B127" s="5">
         <v>27.2</v>
       </c>
@@ -21028,7 +21095,7 @@
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="52"/>
+      <c r="A128" s="50"/>
       <c r="B128" s="5">
         <v>27.3</v>
       </c>
@@ -21046,7 +21113,7 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="52"/>
+      <c r="A129" s="50"/>
       <c r="B129" s="5">
         <v>27.4</v>
       </c>
@@ -21064,7 +21131,7 @@
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="52"/>
+      <c r="A130" s="50"/>
       <c r="B130" s="5">
         <v>27.5</v>
       </c>
@@ -21082,7 +21149,7 @@
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="52"/>
+      <c r="A131" s="50"/>
       <c r="B131" s="5">
         <v>27.6</v>
       </c>
@@ -21100,7 +21167,7 @@
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="50"/>
+      <c r="A132" s="51"/>
       <c r="B132" s="5">
         <v>27.7</v>
       </c>
@@ -21160,7 +21227,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="51">
+      <c r="A136" s="49">
         <v>32</v>
       </c>
       <c r="B136" s="5">
@@ -21182,7 +21249,7 @@
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="52"/>
+      <c r="A137" s="50"/>
       <c r="B137" s="5">
         <v>32.200000000000003</v>
       </c>
@@ -21202,7 +21269,7 @@
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="52"/>
+      <c r="A138" s="50"/>
       <c r="B138" s="5">
         <v>32.299999999999997</v>
       </c>
@@ -21222,7 +21289,7 @@
       <c r="H138" s="3"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="52"/>
+      <c r="A139" s="50"/>
       <c r="B139" s="5">
         <v>32.4</v>
       </c>
@@ -21242,7 +21309,7 @@
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="52"/>
+      <c r="A140" s="50"/>
       <c r="B140" s="5">
         <v>32.5</v>
       </c>
@@ -21264,7 +21331,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="52"/>
+      <c r="A141" s="50"/>
       <c r="B141" s="5">
         <v>32.6</v>
       </c>
@@ -21284,7 +21351,7 @@
       <c r="H141" s="3"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="50"/>
+      <c r="A142" s="51"/>
       <c r="B142" s="5">
         <v>32.700000000000003</v>
       </c>
@@ -21305,6 +21372,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A113:A122"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A38:A45"/>
     <mergeCell ref="A134:E134"/>
     <mergeCell ref="G134:H134"/>
     <mergeCell ref="A136:A142"/>
@@ -21321,32 +21414,6 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="A113:A122"/>
   </mergeCells>
   <conditionalFormatting sqref="A36">
     <cfRule type="notContainsBlanks" dxfId="27" priority="23">

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -805,22 +805,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -843,18 +851,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -863,16 +868,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1708,20 +1708,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="53"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="47"/>
+      <c r="H1" s="53"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1760,7 +1760,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49">
+      <c r="A3" s="57">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -1794,7 +1794,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -1819,7 +1819,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -1869,7 +1869,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="5">
         <v>6.6</v>
       </c>
@@ -1923,20 +1923,20 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="47"/>
+      <c r="H10" s="53"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1967,7 +1967,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49">
+      <c r="A12" s="57">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -1992,7 +1992,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -2015,7 +2015,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -2030,43 +2030,43 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
-      <c r="B15" s="55">
+      <c r="A15" s="58"/>
+      <c r="B15" s="61">
         <v>1.4</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="61">
         <v>1</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="60">
         <v>1</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="55">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="16">
         <v>1.5</v>
       </c>
@@ -2097,20 +2097,20 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="47"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="47"/>
+      <c r="H19" s="53"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2141,7 +2141,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49">
+      <c r="A21" s="57">
         <v>11</v>
       </c>
       <c r="B21" s="22">
@@ -2168,7 +2168,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="22">
         <v>11.2</v>
       </c>
@@ -2193,7 +2193,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2212,20 +2212,20 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="47"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="53"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="47"/>
+      <c r="H25" s="53"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2256,7 +2256,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49">
+      <c r="A27" s="57">
         <v>12</v>
       </c>
       <c r="B27" s="22">
@@ -2283,7 +2283,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="22">
         <v>12.2</v>
       </c>
@@ -2306,7 +2306,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="22">
         <v>12.3</v>
       </c>
@@ -2346,20 +2346,20 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="47"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="47"/>
+      <c r="H32" s="53"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2390,7 +2390,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="49"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2401,7 +2401,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="50"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2412,7 +2412,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="50"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2423,7 +2423,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2434,7 +2434,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2445,7 +2445,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2456,7 +2456,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="51"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -10152,6 +10152,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:E19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G15:G16"/>
@@ -10163,15 +10172,6 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G1 A1 F10:G10 A10 F19:G19 A19 F25:G25 A25 F32:G32 A32">
     <cfRule type="notContainsBlanks" dxfId="37" priority="1">
@@ -10205,17 +10205,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="59"/>
+      <c r="G1" s="65"/>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
@@ -10256,7 +10256,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49">
+      <c r="A3" s="57">
         <v>21</v>
       </c>
       <c r="B3" s="5">
@@ -10289,7 +10289,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="5">
         <v>21.2</v>
       </c>
@@ -10313,7 +10313,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="5">
         <v>21.3</v>
       </c>
@@ -10337,7 +10337,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="5">
         <v>21.4</v>
       </c>
@@ -10361,7 +10361,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="5">
         <v>21.5</v>
       </c>
@@ -10383,7 +10383,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="5">
         <v>21.6</v>
       </c>
@@ -10405,7 +10405,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="5">
         <v>21.7</v>
       </c>
@@ -10427,7 +10427,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="5">
         <v>21.8</v>
       </c>
@@ -10451,7 +10451,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="5">
         <v>21.9</v>
       </c>
@@ -10484,17 +10484,17 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="58" t="s">
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="59"/>
+      <c r="G13" s="65"/>
       <c r="H13" s="4" t="s">
         <v>4</v>
       </c>
@@ -10526,7 +10526,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49">
+      <c r="A15" s="57">
         <v>20</v>
       </c>
       <c r="B15" s="5">
@@ -10550,7 +10550,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="5">
         <v>20.2</v>
       </c>
@@ -10572,7 +10572,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="5">
         <v>20.3</v>
       </c>
@@ -10596,7 +10596,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="5">
         <v>20.399999999999999</v>
       </c>
@@ -10626,17 +10626,17 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="58" t="s">
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="59"/>
+      <c r="G20" s="65"/>
       <c r="H20" s="4" t="s">
         <v>4</v>
       </c>
@@ -10668,7 +10668,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49">
+      <c r="A22" s="57">
         <v>5</v>
       </c>
       <c r="B22" s="5">
@@ -10690,7 +10690,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="5">
         <v>5.2</v>
       </c>
@@ -10716,17 +10716,17 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="58" t="s">
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="59"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="4" t="s">
         <v>4</v>
       </c>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49">
+      <c r="A27" s="57">
         <v>8</v>
       </c>
       <c r="B27" s="5">
@@ -10782,7 +10782,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="5">
         <v>8.1999999999999993</v>
       </c>
@@ -10804,7 +10804,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="5">
         <v>8.3000000000000007</v>
       </c>
@@ -10826,7 +10826,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="56"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="5">
         <v>8.4</v>
       </c>
@@ -10850,7 +10850,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="5">
         <v>8.5</v>
       </c>
@@ -10880,17 +10880,17 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="58" t="s">
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="59"/>
+      <c r="G33" s="65"/>
       <c r="H33" s="4" t="s">
         <v>4</v>
       </c>
@@ -10922,7 +10922,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="49">
+      <c r="A35" s="57">
         <v>4</v>
       </c>
       <c r="B35" s="5">
@@ -10946,7 +10946,7 @@
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="56"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="5">
         <v>4.2</v>
       </c>
@@ -10968,7 +10968,7 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="5">
         <v>4.3</v>
       </c>
@@ -10986,7 +10986,7 @@
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="57"/>
+      <c r="A38" s="63"/>
       <c r="B38" s="5">
         <v>4.4000000000000004</v>
       </c>
@@ -18733,8 +18733,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N134" sqref="N134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18751,20 +18751,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="53"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="47"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -18799,7 +18799,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="62">
+      <c r="A3" s="75">
         <v>22</v>
       </c>
       <c r="B3" s="31">
@@ -18829,7 +18829,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="31">
         <v>22.2</v>
       </c>
@@ -18851,7 +18851,7 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="31">
         <v>22.3</v>
       </c>
@@ -18873,20 +18873,20 @@
       <c r="H5" s="34"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="47"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="47"/>
+      <c r="H7" s="53"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
@@ -18915,7 +18915,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="62">
+      <c r="A9" s="75">
         <v>33</v>
       </c>
       <c r="B9" s="31">
@@ -18928,14 +18928,14 @@
         <v>1</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="50" t="s">
         <v>139</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -18946,14 +18946,14 @@
         <v>1</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="76" t="s">
+      <c r="F10" s="50" t="s">
         <v>139</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -18964,14 +18964,14 @@
         <v>1</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="76" t="s">
+      <c r="F11" s="50" t="s">
         <v>139</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="31">
         <v>33.4</v>
       </c>
@@ -18982,14 +18982,14 @@
         <v>1</v>
       </c>
       <c r="E12" s="18"/>
-      <c r="F12" s="76" t="s">
+      <c r="F12" s="50" t="s">
         <v>139</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="31">
         <v>33.5</v>
       </c>
@@ -19000,27 +19000,27 @@
         <v>0.5</v>
       </c>
       <c r="E13" s="31"/>
-      <c r="F13" s="76" t="s">
+      <c r="F13" s="50" t="s">
         <v>139</v>
       </c>
       <c r="G13" s="31"/>
       <c r="H13" s="34"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="47"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
@@ -19049,7 +19049,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="31">
         <v>34.1</v>
       </c>
@@ -19060,14 +19060,14 @@
         <v>0.5</v>
       </c>
       <c r="E17" s="31"/>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="48" t="s">
         <v>147</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="43">
         <v>34.200000000000003</v>
       </c>
@@ -19078,14 +19078,14 @@
         <v>0.5</v>
       </c>
       <c r="E18" s="31"/>
-      <c r="F18" s="74" t="s">
+      <c r="F18" s="48" t="s">
         <v>147</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="31">
         <v>34.299999999999997</v>
       </c>
@@ -19096,14 +19096,14 @@
         <v>1</v>
       </c>
       <c r="E19" s="31"/>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="48" t="s">
         <v>147</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="43">
         <v>34.4</v>
       </c>
@@ -19114,14 +19114,14 @@
         <v>0.5</v>
       </c>
       <c r="E20" s="31"/>
-      <c r="F20" s="74" t="s">
+      <c r="F20" s="48" t="s">
         <v>147</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="31">
         <v>34.5</v>
       </c>
@@ -19132,14 +19132,14 @@
         <v>2</v>
       </c>
       <c r="E21" s="31"/>
-      <c r="F21" s="74" t="s">
+      <c r="F21" s="48" t="s">
         <v>147</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
+      <c r="A22" s="71"/>
       <c r="B22" s="43">
         <v>34.6</v>
       </c>
@@ -19150,14 +19150,14 @@
         <v>1</v>
       </c>
       <c r="E22" s="31"/>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="48" t="s">
         <v>147</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="66"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="31">
         <v>34.700000000000003</v>
       </c>
@@ -19168,27 +19168,27 @@
         <v>0.5</v>
       </c>
       <c r="E23" s="34"/>
-      <c r="F23" s="74" t="s">
+      <c r="F23" s="48" t="s">
         <v>147</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="72" t="s">
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="47"/>
+      <c r="H25" s="53"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
@@ -19217,7 +19217,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="67">
+      <c r="A27" s="68">
         <v>35</v>
       </c>
       <c r="B27" s="5">
@@ -19230,14 +19230,14 @@
         <v>0.5</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="75" t="s">
+      <c r="F27" s="49" t="s">
         <v>147</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="68"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -19248,14 +19248,14 @@
         <v>0.5</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="75" t="s">
+      <c r="F28" s="49" t="s">
         <v>147</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="68"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -19266,14 +19266,14 @@
         <v>0.5</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="75" t="s">
+      <c r="F29" s="49" t="s">
         <v>147</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="68"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="31">
         <v>35.4</v>
       </c>
@@ -19284,14 +19284,14 @@
         <v>1</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="75" t="s">
+      <c r="F30" s="49" t="s">
         <v>147</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="68"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="5">
         <v>35.5</v>
       </c>
@@ -19302,14 +19302,14 @@
         <v>0.5</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="75" t="s">
+      <c r="F31" s="49" t="s">
         <v>147</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="68"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="31">
         <v>35.6</v>
       </c>
@@ -19320,14 +19320,14 @@
         <v>1</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="75" t="s">
+      <c r="F32" s="49" t="s">
         <v>147</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="68"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -19338,14 +19338,14 @@
         <v>1</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="75" t="s">
+      <c r="F33" s="49" t="s">
         <v>147</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="69"/>
+      <c r="A34" s="74"/>
       <c r="B34" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -19356,27 +19356,27 @@
         <v>0.5</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="75" t="s">
+      <c r="F34" s="49" t="s">
         <v>147</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="72" t="s">
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="H36" s="47"/>
+      <c r="H36" s="53"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
@@ -19405,7 +19405,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="49">
+      <c r="A38" s="57">
         <v>40</v>
       </c>
       <c r="B38" s="5">
@@ -19418,14 +19418,14 @@
         <v>0.5</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="77" t="s">
+      <c r="F38" s="51" t="s">
         <v>147</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="5">
         <v>40.200000000000003</v>
       </c>
@@ -19436,14 +19436,14 @@
         <v>2</v>
       </c>
       <c r="E39" s="5"/>
-      <c r="F39" s="77" t="s">
+      <c r="F39" s="51" t="s">
         <v>147</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="56"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="5">
         <v>40.299999999999997</v>
       </c>
@@ -19454,14 +19454,14 @@
         <v>0.5</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="77" t="s">
+      <c r="F40" s="51" t="s">
         <v>147</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="56"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="5">
         <v>40.4</v>
       </c>
@@ -19472,14 +19472,14 @@
         <v>1</v>
       </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="77" t="s">
+      <c r="F41" s="51" t="s">
         <v>147</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="56"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="5">
         <v>40.5</v>
       </c>
@@ -19490,14 +19490,14 @@
         <v>1</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="77" t="s">
+      <c r="F42" s="51" t="s">
         <v>147</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="56"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="5">
         <v>40.6</v>
       </c>
@@ -19508,14 +19508,14 @@
         <v>1</v>
       </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="77" t="s">
+      <c r="F43" s="51" t="s">
         <v>147</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="56"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="5">
         <v>40.700000000000003</v>
       </c>
@@ -19526,14 +19526,14 @@
         <v>1</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="77" t="s">
+      <c r="F44" s="51" t="s">
         <v>147</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="57"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="5">
         <v>40.799999999999997</v>
       </c>
@@ -19544,27 +19544,27 @@
         <v>0.5</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="77" t="s">
+      <c r="F45" s="51" t="s">
         <v>147</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="72" t="s">
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G47" s="46" t="s">
+      <c r="G47" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H47" s="47"/>
+      <c r="H47" s="53"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -19593,7 +19593,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="49">
+      <c r="A49" s="57">
         <v>23</v>
       </c>
       <c r="B49" s="5">
@@ -19608,7 +19608,7 @@
       <c r="E49" s="5">
         <v>1</v>
       </c>
-      <c r="F49" s="73" t="s">
+      <c r="F49" s="47" t="s">
         <v>17</v>
       </c>
       <c r="G49" s="10">
@@ -19617,7 +19617,7 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="50"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="5">
         <v>23.2</v>
       </c>
@@ -19630,7 +19630,7 @@
       <c r="E50" s="5">
         <v>1</v>
       </c>
-      <c r="F50" s="73" t="s">
+      <c r="F50" s="47" t="s">
         <v>17</v>
       </c>
       <c r="G50" s="10">
@@ -19639,7 +19639,7 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="50"/>
+      <c r="A51" s="58"/>
       <c r="B51" s="5">
         <v>23.3</v>
       </c>
@@ -19652,7 +19652,7 @@
       <c r="E51" s="5">
         <v>0.5</v>
       </c>
-      <c r="F51" s="73" t="s">
+      <c r="F51" s="47" t="s">
         <v>17</v>
       </c>
       <c r="G51" s="10">
@@ -19661,7 +19661,7 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="50"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="5">
         <v>23.4</v>
       </c>
@@ -19674,7 +19674,7 @@
       <c r="E52" s="5">
         <v>2</v>
       </c>
-      <c r="F52" s="73" t="s">
+      <c r="F52" s="47" t="s">
         <v>17</v>
       </c>
       <c r="G52" s="10">
@@ -19683,7 +19683,7 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="50"/>
+      <c r="A53" s="58"/>
       <c r="B53" s="5">
         <v>23.5</v>
       </c>
@@ -19696,7 +19696,7 @@
       <c r="E53" s="5">
         <v>2</v>
       </c>
-      <c r="F53" s="73" t="s">
+      <c r="F53" s="47" t="s">
         <v>17</v>
       </c>
       <c r="G53" s="10">
@@ -19705,7 +19705,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="50"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="5">
         <v>23.6</v>
       </c>
@@ -19718,7 +19718,7 @@
       <c r="E54" s="31">
         <v>1</v>
       </c>
-      <c r="F54" s="73" t="s">
+      <c r="F54" s="47" t="s">
         <v>17</v>
       </c>
       <c r="G54" s="10">
@@ -19727,7 +19727,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="50"/>
+      <c r="A55" s="58"/>
       <c r="B55" s="5">
         <v>23.7</v>
       </c>
@@ -19740,7 +19740,7 @@
       <c r="E55" s="5">
         <v>2</v>
       </c>
-      <c r="F55" s="73" t="s">
+      <c r="F55" s="47" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="10">
@@ -19749,7 +19749,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="51"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="5">
         <v>23.8</v>
       </c>
@@ -19762,7 +19762,7 @@
       <c r="E56" s="3">
         <v>0.5</v>
       </c>
-      <c r="F56" s="73" t="s">
+      <c r="F56" s="47" t="s">
         <v>17</v>
       </c>
       <c r="G56" s="10">
@@ -19771,20 +19771,20 @@
       <c r="H56" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="72" t="s">
+      <c r="B58" s="66"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G58" s="46" t="s">
+      <c r="G58" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="47"/>
+      <c r="H58" s="53"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
@@ -19813,7 +19813,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="49">
+      <c r="A60" s="57">
         <v>3</v>
       </c>
       <c r="B60" s="5">
@@ -19826,14 +19826,14 @@
         <v>2</v>
       </c>
       <c r="E60" s="5"/>
-      <c r="F60" s="73" t="s">
+      <c r="F60" s="47" t="s">
         <v>139</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="50"/>
+      <c r="A61" s="58"/>
       <c r="B61" s="5">
         <v>3.2</v>
       </c>
@@ -19844,14 +19844,14 @@
         <v>0.5</v>
       </c>
       <c r="E61" s="5"/>
-      <c r="F61" s="73" t="s">
+      <c r="F61" s="47" t="s">
         <v>139</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="50"/>
+      <c r="A62" s="58"/>
       <c r="B62" s="5">
         <v>3.3</v>
       </c>
@@ -19862,14 +19862,14 @@
         <v>1</v>
       </c>
       <c r="E62" s="5"/>
-      <c r="F62" s="73" t="s">
+      <c r="F62" s="47" t="s">
         <v>139</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="50"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="5">
         <v>3.4</v>
       </c>
@@ -19880,14 +19880,14 @@
         <v>0.5</v>
       </c>
       <c r="E63" s="5"/>
-      <c r="F63" s="73" t="s">
+      <c r="F63" s="47" t="s">
         <v>139</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="50"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="5">
         <v>3.5</v>
       </c>
@@ -19898,14 +19898,14 @@
         <v>2</v>
       </c>
       <c r="E64" s="5"/>
-      <c r="F64" s="73" t="s">
+      <c r="F64" s="47" t="s">
         <v>139</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="50"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="5">
         <v>3.6</v>
       </c>
@@ -19916,14 +19916,14 @@
         <v>1</v>
       </c>
       <c r="E65" s="5"/>
-      <c r="F65" s="73" t="s">
+      <c r="F65" s="47" t="s">
         <v>139</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="51"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="5">
         <v>3.7</v>
       </c>
@@ -19934,27 +19934,27 @@
         <v>0.5</v>
       </c>
       <c r="E66" s="3"/>
-      <c r="F66" s="73" t="s">
+      <c r="F66" s="47" t="s">
         <v>139</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="60"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="61"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="67"/>
       <c r="F68" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G68" s="46" t="s">
+      <c r="G68" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="H68" s="47"/>
+      <c r="H68" s="53"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
@@ -19983,7 +19983,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="49">
+      <c r="A70" s="57">
         <v>41</v>
       </c>
       <c r="B70" s="5">
@@ -20003,7 +20003,7 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="50"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="5">
         <v>41.2</v>
       </c>
@@ -20021,7 +20021,7 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="50"/>
+      <c r="A72" s="58"/>
       <c r="B72" s="5">
         <v>41.3</v>
       </c>
@@ -20039,7 +20039,7 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="50"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="5">
         <v>41.4</v>
       </c>
@@ -20057,7 +20057,7 @@
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="50"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="5">
         <v>41.5</v>
       </c>
@@ -20075,7 +20075,7 @@
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="50"/>
+      <c r="A75" s="58"/>
       <c r="B75" s="5">
         <v>41.6</v>
       </c>
@@ -20093,7 +20093,7 @@
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="51"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="5">
         <v>41.7</v>
       </c>
@@ -20111,20 +20111,20 @@
       <c r="H76" s="3"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="46" t="s">
+      <c r="A78" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="60"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="61"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="67"/>
       <c r="F78" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G78" s="46" t="s">
+      <c r="G78" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H78" s="47"/>
+      <c r="H78" s="53"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
@@ -20153,7 +20153,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="49">
+      <c r="A80" s="57">
         <v>25</v>
       </c>
       <c r="B80" s="5">
@@ -20177,7 +20177,7 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="50"/>
+      <c r="A81" s="58"/>
       <c r="B81" s="5">
         <v>25.2</v>
       </c>
@@ -20199,7 +20199,7 @@
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="50"/>
+      <c r="A82" s="58"/>
       <c r="B82" s="5">
         <v>25.3</v>
       </c>
@@ -20221,7 +20221,7 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="50"/>
+      <c r="A83" s="58"/>
       <c r="B83" s="5">
         <v>25.4</v>
       </c>
@@ -20243,7 +20243,7 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="50"/>
+      <c r="A84" s="58"/>
       <c r="B84" s="5">
         <v>25.5</v>
       </c>
@@ -20265,7 +20265,7 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="50"/>
+      <c r="A85" s="58"/>
       <c r="B85" s="5">
         <v>25.6</v>
       </c>
@@ -20287,7 +20287,7 @@
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="50"/>
+      <c r="A86" s="58"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -20297,7 +20297,7 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="51"/>
+      <c r="A87" s="56"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -20307,20 +20307,20 @@
       <c r="H87" s="3"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="46" t="s">
+      <c r="A89" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="B89" s="60"/>
-      <c r="C89" s="60"/>
-      <c r="D89" s="60"/>
-      <c r="E89" s="61"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="67"/>
       <c r="F89" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G89" s="46" t="s">
+      <c r="G89" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H89" s="47"/>
+      <c r="H89" s="53"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
@@ -20349,7 +20349,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="49">
+      <c r="A91" s="57">
         <v>26</v>
       </c>
       <c r="B91" s="39">
@@ -20373,7 +20373,7 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="50"/>
+      <c r="A92" s="58"/>
       <c r="B92" s="39">
         <v>26.2</v>
       </c>
@@ -20395,7 +20395,7 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="50"/>
+      <c r="A93" s="58"/>
       <c r="B93" s="39">
         <v>26.3</v>
       </c>
@@ -20417,7 +20417,7 @@
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="50"/>
+      <c r="A94" s="58"/>
       <c r="B94" s="39">
         <v>26.4</v>
       </c>
@@ -20439,7 +20439,7 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="50"/>
+      <c r="A95" s="58"/>
       <c r="B95" s="39">
         <v>26.5</v>
       </c>
@@ -20461,7 +20461,7 @@
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="50"/>
+      <c r="A96" s="58"/>
       <c r="B96" s="39">
         <v>26.6</v>
       </c>
@@ -20483,7 +20483,7 @@
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="50"/>
+      <c r="A97" s="58"/>
       <c r="B97" s="39">
         <v>26.7</v>
       </c>
@@ -20505,7 +20505,7 @@
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="50"/>
+      <c r="A98" s="58"/>
       <c r="B98" s="39">
         <v>26.8</v>
       </c>
@@ -20527,7 +20527,7 @@
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="51"/>
+      <c r="A99" s="56"/>
       <c r="B99" s="39">
         <v>26.9</v>
       </c>
@@ -20549,20 +20549,20 @@
       <c r="H99" s="3"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="46" t="s">
+      <c r="A101" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="B101" s="60"/>
-      <c r="C101" s="60"/>
-      <c r="D101" s="60"/>
-      <c r="E101" s="61"/>
+      <c r="B101" s="66"/>
+      <c r="C101" s="66"/>
+      <c r="D101" s="66"/>
+      <c r="E101" s="67"/>
       <c r="F101" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G101" s="46" t="s">
+      <c r="G101" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H101" s="47"/>
+      <c r="H101" s="53"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
@@ -20591,7 +20591,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="49">
+      <c r="A103" s="57">
         <v>27</v>
       </c>
       <c r="B103" s="5">
@@ -20615,7 +20615,7 @@
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="50"/>
+      <c r="A104" s="58"/>
       <c r="B104" s="5">
         <v>27.2</v>
       </c>
@@ -20637,7 +20637,7 @@
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="50"/>
+      <c r="A105" s="58"/>
       <c r="B105" s="5">
         <v>27.3</v>
       </c>
@@ -20659,7 +20659,7 @@
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="50"/>
+      <c r="A106" s="58"/>
       <c r="B106" s="5">
         <v>27.4</v>
       </c>
@@ -20681,7 +20681,7 @@
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="50"/>
+      <c r="A107" s="58"/>
       <c r="B107" s="5">
         <v>27.5</v>
       </c>
@@ -20703,7 +20703,7 @@
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="50"/>
+      <c r="A108" s="58"/>
       <c r="B108" s="5">
         <v>27.6</v>
       </c>
@@ -20725,7 +20725,7 @@
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="51"/>
+      <c r="A109" s="56"/>
       <c r="B109" s="5">
         <v>27.7</v>
       </c>
@@ -20747,20 +20747,20 @@
       <c r="H109" s="3"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="46" t="s">
+      <c r="A111" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="B111" s="60"/>
-      <c r="C111" s="60"/>
-      <c r="D111" s="60"/>
-      <c r="E111" s="61"/>
+      <c r="B111" s="66"/>
+      <c r="C111" s="66"/>
+      <c r="D111" s="66"/>
+      <c r="E111" s="67"/>
       <c r="F111" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G111" s="46" t="s">
+      <c r="G111" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="H111" s="47"/>
+      <c r="H111" s="53"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
@@ -20789,7 +20789,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="67">
+      <c r="A113" s="68">
         <v>4</v>
       </c>
       <c r="B113" s="31">
@@ -20813,7 +20813,7 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="70"/>
+      <c r="A114" s="69"/>
       <c r="B114" s="31">
         <v>4.2</v>
       </c>
@@ -20835,7 +20835,7 @@
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="70"/>
+      <c r="A115" s="69"/>
       <c r="B115" s="31">
         <v>4.3</v>
       </c>
@@ -20857,7 +20857,7 @@
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="70"/>
+      <c r="A116" s="69"/>
       <c r="B116" s="31">
         <v>4.4000000000000004</v>
       </c>
@@ -20879,7 +20879,7 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="70"/>
+      <c r="A117" s="69"/>
       <c r="B117" s="31">
         <v>4.5</v>
       </c>
@@ -20901,7 +20901,7 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="70"/>
+      <c r="A118" s="69"/>
       <c r="B118" s="31">
         <v>4.5999999999999996</v>
       </c>
@@ -20925,7 +20925,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="70"/>
+      <c r="A119" s="69"/>
       <c r="B119" s="31">
         <v>4.7</v>
       </c>
@@ -20947,7 +20947,7 @@
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="70"/>
+      <c r="A120" s="69"/>
       <c r="B120" s="31">
         <v>4.8</v>
       </c>
@@ -20967,7 +20967,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="70"/>
+      <c r="A121" s="69"/>
       <c r="B121" s="31">
         <v>4.9000000000000004</v>
       </c>
@@ -20991,7 +20991,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="71"/>
+      <c r="A122" s="70"/>
       <c r="B122" s="32" t="s">
         <v>141</v>
       </c>
@@ -21015,20 +21015,20 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="46" t="s">
+      <c r="A124" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="B124" s="60"/>
-      <c r="C124" s="60"/>
-      <c r="D124" s="60"/>
-      <c r="E124" s="61"/>
+      <c r="B124" s="66"/>
+      <c r="C124" s="66"/>
+      <c r="D124" s="66"/>
+      <c r="E124" s="67"/>
       <c r="F124" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G124" s="46" t="s">
+      <c r="G124" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="H124" s="47"/>
+      <c r="H124" s="53"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
@@ -21057,7 +21057,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="49">
+      <c r="A126" s="57">
         <v>30</v>
       </c>
       <c r="B126" s="5">
@@ -21077,7 +21077,7 @@
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="50"/>
+      <c r="A127" s="58"/>
       <c r="B127" s="5">
         <v>27.2</v>
       </c>
@@ -21095,7 +21095,7 @@
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="50"/>
+      <c r="A128" s="58"/>
       <c r="B128" s="5">
         <v>27.3</v>
       </c>
@@ -21113,7 +21113,7 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="50"/>
+      <c r="A129" s="58"/>
       <c r="B129" s="5">
         <v>27.4</v>
       </c>
@@ -21131,7 +21131,7 @@
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="50"/>
+      <c r="A130" s="58"/>
       <c r="B130" s="5">
         <v>27.5</v>
       </c>
@@ -21149,7 +21149,7 @@
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="50"/>
+      <c r="A131" s="58"/>
       <c r="B131" s="5">
         <v>27.6</v>
       </c>
@@ -21167,7 +21167,7 @@
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="51"/>
+      <c r="A132" s="56"/>
       <c r="B132" s="5">
         <v>27.7</v>
       </c>
@@ -21185,20 +21185,20 @@
       <c r="H132" s="3"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="46" t="s">
+      <c r="A134" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="B134" s="60"/>
-      <c r="C134" s="60"/>
-      <c r="D134" s="60"/>
-      <c r="E134" s="61"/>
+      <c r="B134" s="66"/>
+      <c r="C134" s="66"/>
+      <c r="D134" s="66"/>
+      <c r="E134" s="67"/>
       <c r="F134" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G134" s="46" t="s">
+      <c r="G134" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H134" s="47"/>
+      <c r="H134" s="53"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
@@ -21227,7 +21227,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="49">
+      <c r="A136" s="57">
         <v>32</v>
       </c>
       <c r="B136" s="5">
@@ -21239,7 +21239,9 @@
       <c r="D136" s="5">
         <v>1</v>
       </c>
-      <c r="E136" s="5"/>
+      <c r="E136" s="5">
+        <v>1</v>
+      </c>
       <c r="F136" s="27" t="s">
         <v>17</v>
       </c>
@@ -21249,7 +21251,7 @@
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="50"/>
+      <c r="A137" s="58"/>
       <c r="B137" s="5">
         <v>32.200000000000003</v>
       </c>
@@ -21259,7 +21261,9 @@
       <c r="D137" s="5">
         <v>0.5</v>
       </c>
-      <c r="E137" s="5"/>
+      <c r="E137" s="5">
+        <v>0.5</v>
+      </c>
       <c r="F137" s="27" t="s">
         <v>17</v>
       </c>
@@ -21269,7 +21273,7 @@
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="50"/>
+      <c r="A138" s="58"/>
       <c r="B138" s="5">
         <v>32.299999999999997</v>
       </c>
@@ -21279,7 +21283,9 @@
       <c r="D138" s="5">
         <v>2</v>
       </c>
-      <c r="E138" s="5"/>
+      <c r="E138" s="5">
+        <v>2</v>
+      </c>
       <c r="F138" s="27" t="s">
         <v>17</v>
       </c>
@@ -21289,7 +21295,7 @@
       <c r="H138" s="3"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="50"/>
+      <c r="A139" s="58"/>
       <c r="B139" s="5">
         <v>32.4</v>
       </c>
@@ -21299,7 +21305,9 @@
       <c r="D139" s="5">
         <v>0.5</v>
       </c>
-      <c r="E139" s="5"/>
+      <c r="E139" s="5">
+        <v>0.5</v>
+      </c>
       <c r="F139" s="27" t="s">
         <v>17</v>
       </c>
@@ -21309,7 +21317,7 @@
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="50"/>
+      <c r="A140" s="58"/>
       <c r="B140" s="5">
         <v>32.5</v>
       </c>
@@ -21319,7 +21327,9 @@
       <c r="D140" s="5">
         <v>3</v>
       </c>
-      <c r="E140" s="5"/>
+      <c r="E140" s="5">
+        <v>3</v>
+      </c>
       <c r="F140" s="27" t="s">
         <v>17</v>
       </c>
@@ -21331,7 +21341,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="50"/>
+      <c r="A141" s="58"/>
       <c r="B141" s="5">
         <v>32.6</v>
       </c>
@@ -21341,7 +21351,9 @@
       <c r="D141" s="5">
         <v>1</v>
       </c>
-      <c r="E141" s="5"/>
+      <c r="E141" s="5">
+        <v>1</v>
+      </c>
       <c r="F141" s="27" t="s">
         <v>17</v>
       </c>
@@ -21351,7 +21363,7 @@
       <c r="H141" s="3"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="51"/>
+      <c r="A142" s="56"/>
       <c r="B142" s="5">
         <v>32.700000000000003</v>
       </c>
@@ -21361,7 +21373,9 @@
       <c r="D142" s="3">
         <v>0.5</v>
       </c>
-      <c r="E142" s="3"/>
+      <c r="E142" s="3">
+        <v>0.5</v>
+      </c>
       <c r="F142" s="27" t="s">
         <v>17</v>
       </c>
@@ -21372,32 +21386,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="A113:A122"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A38:A45"/>
     <mergeCell ref="A134:E134"/>
     <mergeCell ref="G134:H134"/>
     <mergeCell ref="A136:A142"/>
@@ -21414,6 +21402,32 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A113:A122"/>
   </mergeCells>
   <conditionalFormatting sqref="A36">
     <cfRule type="notContainsBlanks" dxfId="27" priority="23">

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -817,18 +817,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -851,15 +851,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -868,11 +871,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1711,9 +1711,9 @@
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="53"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1760,7 +1760,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57">
+      <c r="A3" s="55">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -1794,7 +1794,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="58"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -1819,7 +1819,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -1869,7 +1869,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="56"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="5">
         <v>6.6</v>
       </c>
@@ -1923,17 +1923,17 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="53"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="58" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="53"/>
@@ -1967,7 +1967,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57">
+      <c r="A12" s="55">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -1992,7 +1992,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -2015,7 +2015,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -2030,7 +2030,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="61">
         <v>1.4</v>
       </c>
@@ -2046,27 +2046,27 @@
       <c r="F15" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="59">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
-      <c r="B16" s="56"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
       <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="16">
         <v>1.5</v>
       </c>
@@ -2100,9 +2100,9 @@
       <c r="A19" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="53"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
@@ -2141,7 +2141,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57">
+      <c r="A21" s="55">
         <v>11</v>
       </c>
       <c r="B21" s="22">
@@ -2168,7 +2168,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="22">
         <v>11.2</v>
       </c>
@@ -2193,7 +2193,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="56"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2215,9 +2215,9 @@
       <c r="A25" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="53"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
@@ -2256,7 +2256,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57">
+      <c r="A27" s="55">
         <v>12</v>
       </c>
       <c r="B27" s="22">
@@ -2283,7 +2283,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="22">
         <v>12.2</v>
       </c>
@@ -2306,7 +2306,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="22">
         <v>12.3</v>
       </c>
@@ -2349,9 +2349,9 @@
       <c r="A32" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="53"/>
       <c r="F32" s="1" t="s">
         <v>88</v>
@@ -2390,7 +2390,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2401,7 +2401,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="58"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2412,7 +2412,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="58"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2423,7 +2423,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="58"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2434,7 +2434,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="58"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2445,7 +2445,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="58"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2456,7 +2456,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="56"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -10152,15 +10152,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:E19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G15:G16"/>
@@ -10172,6 +10163,15 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G1 A1 F10:G10 A10 F19:G19 A19 F25:G25 A25 F32:G32 A32">
     <cfRule type="notContainsBlanks" dxfId="37" priority="1">
@@ -10208,9 +10208,9 @@
       <c r="A1" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="53"/>
       <c r="F1" s="64" t="s">
         <v>1</v>
@@ -10256,7 +10256,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57">
+      <c r="A3" s="55">
         <v>21</v>
       </c>
       <c r="B3" s="5">
@@ -10289,7 +10289,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="58"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="5">
         <v>21.2</v>
       </c>
@@ -10313,7 +10313,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="5">
         <v>21.3</v>
       </c>
@@ -10337,7 +10337,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="5">
         <v>21.4</v>
       </c>
@@ -10361,7 +10361,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="5">
         <v>21.5</v>
       </c>
@@ -10383,7 +10383,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="5">
         <v>21.6</v>
       </c>
@@ -10405,7 +10405,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="5">
         <v>21.7</v>
       </c>
@@ -10427,7 +10427,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="5">
         <v>21.8</v>
       </c>
@@ -10451,7 +10451,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="5">
         <v>21.9</v>
       </c>
@@ -10487,9 +10487,9 @@
       <c r="A13" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="53"/>
       <c r="F13" s="64" t="s">
         <v>42</v>
@@ -10526,7 +10526,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57">
+      <c r="A15" s="55">
         <v>20</v>
       </c>
       <c r="B15" s="5">
@@ -10550,7 +10550,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="5">
         <v>20.2</v>
       </c>
@@ -10572,7 +10572,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="5">
         <v>20.3</v>
       </c>
@@ -10596,7 +10596,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="5">
         <v>20.399999999999999</v>
       </c>
@@ -10629,9 +10629,9 @@
       <c r="A20" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="53"/>
       <c r="F20" s="64" t="s">
         <v>49</v>
@@ -10668,7 +10668,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="57">
+      <c r="A22" s="55">
         <v>5</v>
       </c>
       <c r="B22" s="5">
@@ -10690,7 +10690,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="56"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="5">
         <v>5.2</v>
       </c>
@@ -10719,9 +10719,9 @@
       <c r="A25" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="53"/>
       <c r="F25" s="64" t="s">
         <v>40</v>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57">
+      <c r="A27" s="55">
         <v>8</v>
       </c>
       <c r="B27" s="5">
@@ -10883,9 +10883,9 @@
       <c r="A33" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="53"/>
       <c r="F33" s="64" t="s">
         <v>70</v>
@@ -10922,7 +10922,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57">
+      <c r="A35" s="55">
         <v>4</v>
       </c>
       <c r="B35" s="5">
@@ -18733,8 +18733,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N134" sqref="N134"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60:F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18754,9 +18754,9 @@
       <c r="A1" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="53"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
@@ -18799,7 +18799,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="75">
+      <c r="A3" s="68">
         <v>22</v>
       </c>
       <c r="B3" s="31">
@@ -18829,7 +18829,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="75"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="31">
         <v>22.2</v>
       </c>
@@ -18851,7 +18851,7 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="75"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="31">
         <v>22.3</v>
       </c>
@@ -18876,9 +18876,9 @@
       <c r="A7" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="53"/>
       <c r="F7" s="1" t="s">
         <v>49</v>
@@ -18915,7 +18915,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="75">
+      <c r="A9" s="68">
         <v>33</v>
       </c>
       <c r="B9" s="31">
@@ -18935,7 +18935,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="75"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -18953,7 +18953,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="75"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -18971,7 +18971,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="75"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="31">
         <v>33.4</v>
       </c>
@@ -18989,7 +18989,7 @@
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="75"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="31">
         <v>33.5</v>
       </c>
@@ -19010,10 +19010,10 @@
       <c r="A15" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="70"/>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
@@ -19217,7 +19217,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="68">
+      <c r="A27" s="73">
         <v>35</v>
       </c>
       <c r="B27" s="5">
@@ -19237,7 +19237,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="73"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -19255,7 +19255,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="73"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -19273,7 +19273,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="73"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="31">
         <v>35.4</v>
       </c>
@@ -19291,7 +19291,7 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="73"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="5">
         <v>35.5</v>
       </c>
@@ -19309,7 +19309,7 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="73"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="31">
         <v>35.6</v>
       </c>
@@ -19327,7 +19327,7 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="73"/>
+      <c r="A33" s="74"/>
       <c r="B33" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -19345,7 +19345,7 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="74"/>
+      <c r="A34" s="75"/>
       <c r="B34" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -19405,7 +19405,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="57">
+      <c r="A38" s="55">
         <v>40</v>
       </c>
       <c r="B38" s="5">
@@ -19593,7 +19593,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="57">
+      <c r="A49" s="55">
         <v>23</v>
       </c>
       <c r="B49" s="5">
@@ -19617,7 +19617,7 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="58"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="5">
         <v>23.2</v>
       </c>
@@ -19639,7 +19639,7 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="58"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="5">
         <v>23.3</v>
       </c>
@@ -19661,7 +19661,7 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="5">
         <v>23.4</v>
       </c>
@@ -19683,7 +19683,7 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="58"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="5">
         <v>23.5</v>
       </c>
@@ -19705,7 +19705,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="58"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="5">
         <v>23.6</v>
       </c>
@@ -19727,7 +19727,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="58"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="5">
         <v>23.7</v>
       </c>
@@ -19749,7 +19749,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="56"/>
+      <c r="A56" s="57"/>
       <c r="B56" s="5">
         <v>23.8</v>
       </c>
@@ -19813,7 +19813,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="57">
+      <c r="A60" s="55">
         <v>3</v>
       </c>
       <c r="B60" s="5">
@@ -19826,14 +19826,14 @@
         <v>2</v>
       </c>
       <c r="E60" s="5"/>
-      <c r="F60" s="47" t="s">
-        <v>139</v>
+      <c r="F60" s="50" t="s">
+        <v>17</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="58"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="5">
         <v>3.2</v>
       </c>
@@ -19844,14 +19844,14 @@
         <v>0.5</v>
       </c>
       <c r="E61" s="5"/>
-      <c r="F61" s="47" t="s">
-        <v>139</v>
+      <c r="F61" s="50" t="s">
+        <v>17</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="58"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="5">
         <v>3.3</v>
       </c>
@@ -19862,14 +19862,14 @@
         <v>1</v>
       </c>
       <c r="E62" s="5"/>
-      <c r="F62" s="47" t="s">
-        <v>139</v>
+      <c r="F62" s="50" t="s">
+        <v>17</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="58"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="5">
         <v>3.4</v>
       </c>
@@ -19880,14 +19880,14 @@
         <v>0.5</v>
       </c>
       <c r="E63" s="5"/>
-      <c r="F63" s="47" t="s">
-        <v>139</v>
+      <c r="F63" s="50" t="s">
+        <v>17</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="58"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="5">
         <v>3.5</v>
       </c>
@@ -19898,14 +19898,14 @@
         <v>2</v>
       </c>
       <c r="E64" s="5"/>
-      <c r="F64" s="47" t="s">
-        <v>139</v>
+      <c r="F64" s="50" t="s">
+        <v>17</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="58"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="5">
         <v>3.6</v>
       </c>
@@ -19916,14 +19916,14 @@
         <v>1</v>
       </c>
       <c r="E65" s="5"/>
-      <c r="F65" s="47" t="s">
-        <v>139</v>
+      <c r="F65" s="50" t="s">
+        <v>17</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="56"/>
+      <c r="A66" s="57"/>
       <c r="B66" s="5">
         <v>3.7</v>
       </c>
@@ -19934,8 +19934,8 @@
         <v>0.5</v>
       </c>
       <c r="E66" s="3"/>
-      <c r="F66" s="47" t="s">
-        <v>139</v>
+      <c r="F66" s="50" t="s">
+        <v>17</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -19983,7 +19983,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="57">
+      <c r="A70" s="55">
         <v>41</v>
       </c>
       <c r="B70" s="5">
@@ -20003,7 +20003,7 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="58"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="5">
         <v>41.2</v>
       </c>
@@ -20021,7 +20021,7 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="58"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="5">
         <v>41.3</v>
       </c>
@@ -20039,7 +20039,7 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="58"/>
+      <c r="A73" s="56"/>
       <c r="B73" s="5">
         <v>41.4</v>
       </c>
@@ -20057,7 +20057,7 @@
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="58"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="5">
         <v>41.5</v>
       </c>
@@ -20075,7 +20075,7 @@
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="58"/>
+      <c r="A75" s="56"/>
       <c r="B75" s="5">
         <v>41.6</v>
       </c>
@@ -20093,7 +20093,7 @@
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="56"/>
+      <c r="A76" s="57"/>
       <c r="B76" s="5">
         <v>41.7</v>
       </c>
@@ -20153,7 +20153,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="57">
+      <c r="A80" s="55">
         <v>25</v>
       </c>
       <c r="B80" s="5">
@@ -20177,7 +20177,7 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="58"/>
+      <c r="A81" s="56"/>
       <c r="B81" s="5">
         <v>25.2</v>
       </c>
@@ -20199,7 +20199,7 @@
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="58"/>
+      <c r="A82" s="56"/>
       <c r="B82" s="5">
         <v>25.3</v>
       </c>
@@ -20221,7 +20221,7 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="58"/>
+      <c r="A83" s="56"/>
       <c r="B83" s="5">
         <v>25.4</v>
       </c>
@@ -20243,7 +20243,7 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="58"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="5">
         <v>25.5</v>
       </c>
@@ -20265,7 +20265,7 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="58"/>
+      <c r="A85" s="56"/>
       <c r="B85" s="5">
         <v>25.6</v>
       </c>
@@ -20287,7 +20287,7 @@
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="58"/>
+      <c r="A86" s="56"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -20297,7 +20297,7 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="56"/>
+      <c r="A87" s="57"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -20349,7 +20349,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="57">
+      <c r="A91" s="55">
         <v>26</v>
       </c>
       <c r="B91" s="39">
@@ -20373,7 +20373,7 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="58"/>
+      <c r="A92" s="56"/>
       <c r="B92" s="39">
         <v>26.2</v>
       </c>
@@ -20395,7 +20395,7 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="58"/>
+      <c r="A93" s="56"/>
       <c r="B93" s="39">
         <v>26.3</v>
       </c>
@@ -20417,7 +20417,7 @@
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="58"/>
+      <c r="A94" s="56"/>
       <c r="B94" s="39">
         <v>26.4</v>
       </c>
@@ -20439,7 +20439,7 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="58"/>
+      <c r="A95" s="56"/>
       <c r="B95" s="39">
         <v>26.5</v>
       </c>
@@ -20461,7 +20461,7 @@
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="58"/>
+      <c r="A96" s="56"/>
       <c r="B96" s="39">
         <v>26.6</v>
       </c>
@@ -20483,7 +20483,7 @@
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="58"/>
+      <c r="A97" s="56"/>
       <c r="B97" s="39">
         <v>26.7</v>
       </c>
@@ -20505,7 +20505,7 @@
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="58"/>
+      <c r="A98" s="56"/>
       <c r="B98" s="39">
         <v>26.8</v>
       </c>
@@ -20527,7 +20527,7 @@
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="56"/>
+      <c r="A99" s="57"/>
       <c r="B99" s="39">
         <v>26.9</v>
       </c>
@@ -20591,7 +20591,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="57">
+      <c r="A103" s="55">
         <v>27</v>
       </c>
       <c r="B103" s="5">
@@ -20615,7 +20615,7 @@
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="58"/>
+      <c r="A104" s="56"/>
       <c r="B104" s="5">
         <v>27.2</v>
       </c>
@@ -20637,7 +20637,7 @@
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="58"/>
+      <c r="A105" s="56"/>
       <c r="B105" s="5">
         <v>27.3</v>
       </c>
@@ -20659,7 +20659,7 @@
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="58"/>
+      <c r="A106" s="56"/>
       <c r="B106" s="5">
         <v>27.4</v>
       </c>
@@ -20681,7 +20681,7 @@
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="58"/>
+      <c r="A107" s="56"/>
       <c r="B107" s="5">
         <v>27.5</v>
       </c>
@@ -20703,7 +20703,7 @@
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="58"/>
+      <c r="A108" s="56"/>
       <c r="B108" s="5">
         <v>27.6</v>
       </c>
@@ -20725,7 +20725,7 @@
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="56"/>
+      <c r="A109" s="57"/>
       <c r="B109" s="5">
         <v>27.7</v>
       </c>
@@ -20789,7 +20789,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="68">
+      <c r="A113" s="73">
         <v>4</v>
       </c>
       <c r="B113" s="31">
@@ -20813,7 +20813,7 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="69"/>
+      <c r="A114" s="76"/>
       <c r="B114" s="31">
         <v>4.2</v>
       </c>
@@ -20835,7 +20835,7 @@
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="69"/>
+      <c r="A115" s="76"/>
       <c r="B115" s="31">
         <v>4.3</v>
       </c>
@@ -20857,7 +20857,7 @@
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="69"/>
+      <c r="A116" s="76"/>
       <c r="B116" s="31">
         <v>4.4000000000000004</v>
       </c>
@@ -20879,7 +20879,7 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="69"/>
+      <c r="A117" s="76"/>
       <c r="B117" s="31">
         <v>4.5</v>
       </c>
@@ -20901,7 +20901,7 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="69"/>
+      <c r="A118" s="76"/>
       <c r="B118" s="31">
         <v>4.5999999999999996</v>
       </c>
@@ -20925,7 +20925,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="69"/>
+      <c r="A119" s="76"/>
       <c r="B119" s="31">
         <v>4.7</v>
       </c>
@@ -20947,7 +20947,7 @@
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="69"/>
+      <c r="A120" s="76"/>
       <c r="B120" s="31">
         <v>4.8</v>
       </c>
@@ -20967,7 +20967,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="69"/>
+      <c r="A121" s="76"/>
       <c r="B121" s="31">
         <v>4.9000000000000004</v>
       </c>
@@ -20991,7 +20991,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="70"/>
+      <c r="A122" s="77"/>
       <c r="B122" s="32" t="s">
         <v>141</v>
       </c>
@@ -21057,7 +21057,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="57">
+      <c r="A126" s="55">
         <v>30</v>
       </c>
       <c r="B126" s="5">
@@ -21077,7 +21077,7 @@
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="58"/>
+      <c r="A127" s="56"/>
       <c r="B127" s="5">
         <v>27.2</v>
       </c>
@@ -21095,7 +21095,7 @@
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="58"/>
+      <c r="A128" s="56"/>
       <c r="B128" s="5">
         <v>27.3</v>
       </c>
@@ -21113,7 +21113,7 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="58"/>
+      <c r="A129" s="56"/>
       <c r="B129" s="5">
         <v>27.4</v>
       </c>
@@ -21131,7 +21131,7 @@
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="58"/>
+      <c r="A130" s="56"/>
       <c r="B130" s="5">
         <v>27.5</v>
       </c>
@@ -21149,7 +21149,7 @@
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="58"/>
+      <c r="A131" s="56"/>
       <c r="B131" s="5">
         <v>27.6</v>
       </c>
@@ -21167,7 +21167,7 @@
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="56"/>
+      <c r="A132" s="57"/>
       <c r="B132" s="5">
         <v>27.7</v>
       </c>
@@ -21227,7 +21227,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="57">
+      <c r="A136" s="55">
         <v>32</v>
       </c>
       <c r="B136" s="5">
@@ -21251,7 +21251,7 @@
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="58"/>
+      <c r="A137" s="56"/>
       <c r="B137" s="5">
         <v>32.200000000000003</v>
       </c>
@@ -21273,7 +21273,7 @@
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="58"/>
+      <c r="A138" s="56"/>
       <c r="B138" s="5">
         <v>32.299999999999997</v>
       </c>
@@ -21295,7 +21295,7 @@
       <c r="H138" s="3"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="58"/>
+      <c r="A139" s="56"/>
       <c r="B139" s="5">
         <v>32.4</v>
       </c>
@@ -21317,7 +21317,7 @@
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="58"/>
+      <c r="A140" s="56"/>
       <c r="B140" s="5">
         <v>32.5</v>
       </c>
@@ -21341,7 +21341,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="58"/>
+      <c r="A141" s="56"/>
       <c r="B141" s="5">
         <v>32.6</v>
       </c>
@@ -21363,7 +21363,7 @@
       <c r="H141" s="3"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="56"/>
+      <c r="A142" s="57"/>
       <c r="B142" s="5">
         <v>32.700000000000003</v>
       </c>
@@ -21386,6 +21386,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A113:A122"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A38:A45"/>
     <mergeCell ref="A134:E134"/>
     <mergeCell ref="G134:H134"/>
     <mergeCell ref="A136:A142"/>
@@ -21402,32 +21428,6 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="A113:A122"/>
   </mergeCells>
   <conditionalFormatting sqref="A36">
     <cfRule type="notContainsBlanks" dxfId="27" priority="23">

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="149">
   <si>
     <t>User story: General Website Features</t>
   </si>
@@ -466,6 +466,9 @@
   <si>
     <t>Ben(InProgress)</t>
   </si>
+  <si>
+    <t>Added save button</t>
+  </si>
 </sst>
 </file>
 
@@ -817,18 +820,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -851,18 +854,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -871,8 +871,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1711,9 +1714,9 @@
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="53"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1760,7 +1763,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55">
+      <c r="A3" s="57">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -1794,7 +1797,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -1819,7 +1822,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -1844,7 +1847,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -1869,7 +1872,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -1892,7 +1895,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="5">
         <v>6.6</v>
       </c>
@@ -1923,17 +1926,17 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="53"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="54" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="53"/>
@@ -1967,7 +1970,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55">
+      <c r="A12" s="57">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -1992,7 +1995,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -2015,7 +2018,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -2030,7 +2033,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="61">
         <v>1.4</v>
       </c>
@@ -2046,27 +2049,27 @@
       <c r="F15" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="59">
+      <c r="G15" s="55">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="16">
         <v>1.5</v>
       </c>
@@ -2100,9 +2103,9 @@
       <c r="A19" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="53"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
@@ -2141,7 +2144,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55">
+      <c r="A21" s="57">
         <v>11</v>
       </c>
       <c r="B21" s="22">
@@ -2168,7 +2171,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="22">
         <v>11.2</v>
       </c>
@@ -2193,7 +2196,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2215,9 +2218,9 @@
       <c r="A25" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="53"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
@@ -2256,7 +2259,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55">
+      <c r="A27" s="57">
         <v>12</v>
       </c>
       <c r="B27" s="22">
@@ -2283,7 +2286,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="22">
         <v>12.2</v>
       </c>
@@ -2306,7 +2309,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="22">
         <v>12.3</v>
       </c>
@@ -2349,9 +2352,9 @@
       <c r="A32" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="53"/>
       <c r="F32" s="1" t="s">
         <v>88</v>
@@ -2390,7 +2393,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="55"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2401,7 +2404,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2412,7 +2415,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="56"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2423,7 +2426,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2434,7 +2437,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="56"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2445,7 +2448,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2456,7 +2459,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="57"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -10152,6 +10155,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:E19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G15:G16"/>
@@ -10163,15 +10175,6 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G1 A1 F10:G10 A10 F19:G19 A19 F25:G25 A25 F32:G32 A32">
     <cfRule type="notContainsBlanks" dxfId="37" priority="1">
@@ -10208,9 +10211,9 @@
       <c r="A1" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="53"/>
       <c r="F1" s="64" t="s">
         <v>1</v>
@@ -10256,7 +10259,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55">
+      <c r="A3" s="57">
         <v>21</v>
       </c>
       <c r="B3" s="5">
@@ -10289,7 +10292,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="5">
         <v>21.2</v>
       </c>
@@ -10313,7 +10316,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="5">
         <v>21.3</v>
       </c>
@@ -10337,7 +10340,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="5">
         <v>21.4</v>
       </c>
@@ -10361,7 +10364,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="5">
         <v>21.5</v>
       </c>
@@ -10383,7 +10386,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="56"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="5">
         <v>21.6</v>
       </c>
@@ -10405,7 +10408,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="5">
         <v>21.7</v>
       </c>
@@ -10427,7 +10430,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="5">
         <v>21.8</v>
       </c>
@@ -10451,7 +10454,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="5">
         <v>21.9</v>
       </c>
@@ -10487,9 +10490,9 @@
       <c r="A13" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="53"/>
       <c r="F13" s="64" t="s">
         <v>42</v>
@@ -10526,7 +10529,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55">
+      <c r="A15" s="57">
         <v>20</v>
       </c>
       <c r="B15" s="5">
@@ -10550,7 +10553,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="5">
         <v>20.2</v>
       </c>
@@ -10572,7 +10575,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="5">
         <v>20.3</v>
       </c>
@@ -10596,7 +10599,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="5">
         <v>20.399999999999999</v>
       </c>
@@ -10629,9 +10632,9 @@
       <c r="A20" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="53"/>
       <c r="F20" s="64" t="s">
         <v>49</v>
@@ -10668,7 +10671,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="55">
+      <c r="A22" s="57">
         <v>5</v>
       </c>
       <c r="B22" s="5">
@@ -10690,7 +10693,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="5">
         <v>5.2</v>
       </c>
@@ -10719,9 +10722,9 @@
       <c r="A25" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="53"/>
       <c r="F25" s="64" t="s">
         <v>40</v>
@@ -10758,7 +10761,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="55">
+      <c r="A27" s="57">
         <v>8</v>
       </c>
       <c r="B27" s="5">
@@ -10883,9 +10886,9 @@
       <c r="A33" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
       <c r="E33" s="53"/>
       <c r="F33" s="64" t="s">
         <v>70</v>
@@ -10922,7 +10925,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="55">
+      <c r="A35" s="57">
         <v>4</v>
       </c>
       <c r="B35" s="5">
@@ -18733,8 +18736,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60:F66"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18754,9 +18757,9 @@
       <c r="A1" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="53"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
@@ -18799,7 +18802,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="68">
+      <c r="A3" s="75">
         <v>22</v>
       </c>
       <c r="B3" s="31">
@@ -18829,7 +18832,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="31">
         <v>22.2</v>
       </c>
@@ -18851,7 +18854,7 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="68"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="31">
         <v>22.3</v>
       </c>
@@ -18876,9 +18879,9 @@
       <c r="A7" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="53"/>
       <c r="F7" s="1" t="s">
         <v>49</v>
@@ -18915,7 +18918,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="68">
+      <c r="A9" s="75">
         <v>33</v>
       </c>
       <c r="B9" s="31">
@@ -18935,7 +18938,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -18953,7 +18956,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -18971,7 +18974,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="68"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="31">
         <v>33.4</v>
       </c>
@@ -18989,7 +18992,7 @@
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="68"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="31">
         <v>33.5</v>
       </c>
@@ -19010,10 +19013,10 @@
       <c r="A15" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="70"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
@@ -19049,7 +19052,9 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
+      <c r="A17" s="71">
+        <v>34</v>
+      </c>
       <c r="B17" s="31">
         <v>34.1</v>
       </c>
@@ -19217,7 +19222,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="73">
+      <c r="A27" s="68">
         <v>35</v>
       </c>
       <c r="B27" s="5">
@@ -19237,7 +19242,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="74"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -19255,7 +19260,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="74"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -19273,7 +19278,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="74"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="31">
         <v>35.4</v>
       </c>
@@ -19291,7 +19296,7 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="74"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="5">
         <v>35.5</v>
       </c>
@@ -19309,7 +19314,7 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="74"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="31">
         <v>35.6</v>
       </c>
@@ -19327,7 +19332,7 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="74"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -19345,7 +19350,7 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="75"/>
+      <c r="A34" s="74"/>
       <c r="B34" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -19405,7 +19410,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="55">
+      <c r="A38" s="57">
         <v>40</v>
       </c>
       <c r="B38" s="5">
@@ -19593,7 +19598,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="55">
+      <c r="A49" s="57">
         <v>23</v>
       </c>
       <c r="B49" s="5">
@@ -19617,7 +19622,7 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="56"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="5">
         <v>23.2</v>
       </c>
@@ -19639,7 +19644,7 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="56"/>
+      <c r="A51" s="58"/>
       <c r="B51" s="5">
         <v>23.3</v>
       </c>
@@ -19661,7 +19666,7 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="56"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="5">
         <v>23.4</v>
       </c>
@@ -19683,7 +19688,7 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="56"/>
+      <c r="A53" s="58"/>
       <c r="B53" s="5">
         <v>23.5</v>
       </c>
@@ -19705,7 +19710,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="56"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="5">
         <v>23.6</v>
       </c>
@@ -19727,7 +19732,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="56"/>
+      <c r="A55" s="58"/>
       <c r="B55" s="5">
         <v>23.7</v>
       </c>
@@ -19749,7 +19754,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="57"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="5">
         <v>23.8</v>
       </c>
@@ -19782,7 +19787,7 @@
         <v>42</v>
       </c>
       <c r="G58" s="52" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H58" s="53"/>
     </row>
@@ -19813,7 +19818,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="55">
+      <c r="A60" s="57">
         <v>3</v>
       </c>
       <c r="B60" s="5">
@@ -19825,15 +19830,19 @@
       <c r="D60" s="5">
         <v>2</v>
       </c>
-      <c r="E60" s="5"/>
+      <c r="E60" s="5">
+        <v>2</v>
+      </c>
       <c r="F60" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="5"/>
+      <c r="G60" s="10">
+        <v>42650</v>
+      </c>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="56"/>
+      <c r="A61" s="58"/>
       <c r="B61" s="5">
         <v>3.2</v>
       </c>
@@ -19843,15 +19852,19 @@
       <c r="D61" s="5">
         <v>0.5</v>
       </c>
-      <c r="E61" s="5"/>
+      <c r="E61" s="5">
+        <v>0.5</v>
+      </c>
       <c r="F61" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="5"/>
+      <c r="G61" s="10">
+        <v>42650</v>
+      </c>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="56"/>
+      <c r="A62" s="58"/>
       <c r="B62" s="5">
         <v>3.3</v>
       </c>
@@ -19861,15 +19874,19 @@
       <c r="D62" s="5">
         <v>1</v>
       </c>
-      <c r="E62" s="5"/>
+      <c r="E62" s="5">
+        <v>1</v>
+      </c>
       <c r="F62" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="G62" s="5"/>
+      <c r="G62" s="10">
+        <v>42650</v>
+      </c>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="56"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="5">
         <v>3.4</v>
       </c>
@@ -19879,15 +19896,19 @@
       <c r="D63" s="5">
         <v>0.5</v>
       </c>
-      <c r="E63" s="5"/>
+      <c r="E63" s="5">
+        <v>0.5</v>
+      </c>
       <c r="F63" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="G63" s="5"/>
+      <c r="G63" s="10">
+        <v>42650</v>
+      </c>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="56"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="5">
         <v>3.5</v>
       </c>
@@ -19897,15 +19918,21 @@
       <c r="D64" s="5">
         <v>2</v>
       </c>
-      <c r="E64" s="5"/>
+      <c r="E64" s="5">
+        <v>2</v>
+      </c>
       <c r="F64" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="3"/>
+      <c r="G64" s="10">
+        <v>42650</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="56"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="5">
         <v>3.6</v>
       </c>
@@ -19915,15 +19942,19 @@
       <c r="D65" s="5">
         <v>1</v>
       </c>
-      <c r="E65" s="5"/>
+      <c r="E65" s="5">
+        <v>1</v>
+      </c>
       <c r="F65" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="G65" s="5"/>
+      <c r="G65" s="10">
+        <v>42650</v>
+      </c>
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="57"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="5">
         <v>3.7</v>
       </c>
@@ -19933,11 +19964,15 @@
       <c r="D66" s="3">
         <v>0.5</v>
       </c>
-      <c r="E66" s="3"/>
+      <c r="E66" s="3">
+        <v>0.5</v>
+      </c>
       <c r="F66" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="G66" s="3"/>
+      <c r="G66" s="10">
+        <v>42650</v>
+      </c>
       <c r="H66" s="3"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -19983,7 +20018,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="55">
+      <c r="A70" s="57">
         <v>41</v>
       </c>
       <c r="B70" s="5">
@@ -20003,7 +20038,7 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="56"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="5">
         <v>41.2</v>
       </c>
@@ -20021,7 +20056,7 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="56"/>
+      <c r="A72" s="58"/>
       <c r="B72" s="5">
         <v>41.3</v>
       </c>
@@ -20039,7 +20074,7 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="56"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="5">
         <v>41.4</v>
       </c>
@@ -20057,7 +20092,7 @@
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="56"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="5">
         <v>41.5</v>
       </c>
@@ -20075,7 +20110,7 @@
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="56"/>
+      <c r="A75" s="58"/>
       <c r="B75" s="5">
         <v>41.6</v>
       </c>
@@ -20093,7 +20128,7 @@
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="57"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="5">
         <v>41.7</v>
       </c>
@@ -20153,7 +20188,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="55">
+      <c r="A80" s="57">
         <v>25</v>
       </c>
       <c r="B80" s="5">
@@ -20177,7 +20212,7 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="56"/>
+      <c r="A81" s="58"/>
       <c r="B81" s="5">
         <v>25.2</v>
       </c>
@@ -20199,7 +20234,7 @@
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="56"/>
+      <c r="A82" s="58"/>
       <c r="B82" s="5">
         <v>25.3</v>
       </c>
@@ -20221,7 +20256,7 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="56"/>
+      <c r="A83" s="58"/>
       <c r="B83" s="5">
         <v>25.4</v>
       </c>
@@ -20243,7 +20278,7 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="56"/>
+      <c r="A84" s="58"/>
       <c r="B84" s="5">
         <v>25.5</v>
       </c>
@@ -20265,7 +20300,7 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="56"/>
+      <c r="A85" s="58"/>
       <c r="B85" s="5">
         <v>25.6</v>
       </c>
@@ -20287,7 +20322,7 @@
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="56"/>
+      <c r="A86" s="58"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -20297,7 +20332,7 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="57"/>
+      <c r="A87" s="56"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -20349,7 +20384,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="55">
+      <c r="A91" s="57">
         <v>26</v>
       </c>
       <c r="B91" s="39">
@@ -20373,7 +20408,7 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="56"/>
+      <c r="A92" s="58"/>
       <c r="B92" s="39">
         <v>26.2</v>
       </c>
@@ -20395,7 +20430,7 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="56"/>
+      <c r="A93" s="58"/>
       <c r="B93" s="39">
         <v>26.3</v>
       </c>
@@ -20417,7 +20452,7 @@
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="56"/>
+      <c r="A94" s="58"/>
       <c r="B94" s="39">
         <v>26.4</v>
       </c>
@@ -20439,7 +20474,7 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="56"/>
+      <c r="A95" s="58"/>
       <c r="B95" s="39">
         <v>26.5</v>
       </c>
@@ -20461,7 +20496,7 @@
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="56"/>
+      <c r="A96" s="58"/>
       <c r="B96" s="39">
         <v>26.6</v>
       </c>
@@ -20483,7 +20518,7 @@
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="56"/>
+      <c r="A97" s="58"/>
       <c r="B97" s="39">
         <v>26.7</v>
       </c>
@@ -20505,7 +20540,7 @@
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="56"/>
+      <c r="A98" s="58"/>
       <c r="B98" s="39">
         <v>26.8</v>
       </c>
@@ -20527,7 +20562,7 @@
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="57"/>
+      <c r="A99" s="56"/>
       <c r="B99" s="39">
         <v>26.9</v>
       </c>
@@ -20591,7 +20626,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="55">
+      <c r="A103" s="57">
         <v>27</v>
       </c>
       <c r="B103" s="5">
@@ -20615,7 +20650,7 @@
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="56"/>
+      <c r="A104" s="58"/>
       <c r="B104" s="5">
         <v>27.2</v>
       </c>
@@ -20637,7 +20672,7 @@
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="56"/>
+      <c r="A105" s="58"/>
       <c r="B105" s="5">
         <v>27.3</v>
       </c>
@@ -20659,7 +20694,7 @@
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="56"/>
+      <c r="A106" s="58"/>
       <c r="B106" s="5">
         <v>27.4</v>
       </c>
@@ -20681,7 +20716,7 @@
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="56"/>
+      <c r="A107" s="58"/>
       <c r="B107" s="5">
         <v>27.5</v>
       </c>
@@ -20703,7 +20738,7 @@
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="56"/>
+      <c r="A108" s="58"/>
       <c r="B108" s="5">
         <v>27.6</v>
       </c>
@@ -20725,7 +20760,7 @@
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="57"/>
+      <c r="A109" s="56"/>
       <c r="B109" s="5">
         <v>27.7</v>
       </c>
@@ -20789,7 +20824,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="73">
+      <c r="A113" s="68">
         <v>4</v>
       </c>
       <c r="B113" s="31">
@@ -20813,7 +20848,7 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="76"/>
+      <c r="A114" s="69"/>
       <c r="B114" s="31">
         <v>4.2</v>
       </c>
@@ -20835,7 +20870,7 @@
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="76"/>
+      <c r="A115" s="69"/>
       <c r="B115" s="31">
         <v>4.3</v>
       </c>
@@ -20857,7 +20892,7 @@
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="76"/>
+      <c r="A116" s="69"/>
       <c r="B116" s="31">
         <v>4.4000000000000004</v>
       </c>
@@ -20879,7 +20914,7 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="76"/>
+      <c r="A117" s="69"/>
       <c r="B117" s="31">
         <v>4.5</v>
       </c>
@@ -20901,7 +20936,7 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="76"/>
+      <c r="A118" s="69"/>
       <c r="B118" s="31">
         <v>4.5999999999999996</v>
       </c>
@@ -20925,7 +20960,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="76"/>
+      <c r="A119" s="69"/>
       <c r="B119" s="31">
         <v>4.7</v>
       </c>
@@ -20947,7 +20982,7 @@
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="76"/>
+      <c r="A120" s="69"/>
       <c r="B120" s="31">
         <v>4.8</v>
       </c>
@@ -20957,17 +20992,21 @@
       <c r="D120" s="31">
         <v>2</v>
       </c>
-      <c r="E120" s="31"/>
+      <c r="E120" s="31">
+        <v>2</v>
+      </c>
       <c r="F120" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G120" s="10"/>
+      <c r="G120" s="10">
+        <v>42650</v>
+      </c>
       <c r="H120" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="76"/>
+      <c r="A121" s="69"/>
       <c r="B121" s="31">
         <v>4.9000000000000004</v>
       </c>
@@ -20991,7 +21030,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="77"/>
+      <c r="A122" s="70"/>
       <c r="B122" s="32" t="s">
         <v>141</v>
       </c>
@@ -21057,7 +21096,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="55">
+      <c r="A126" s="57">
         <v>30</v>
       </c>
       <c r="B126" s="5">
@@ -21077,7 +21116,7 @@
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="56"/>
+      <c r="A127" s="58"/>
       <c r="B127" s="5">
         <v>27.2</v>
       </c>
@@ -21095,7 +21134,7 @@
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="56"/>
+      <c r="A128" s="58"/>
       <c r="B128" s="5">
         <v>27.3</v>
       </c>
@@ -21113,7 +21152,7 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="56"/>
+      <c r="A129" s="58"/>
       <c r="B129" s="5">
         <v>27.4</v>
       </c>
@@ -21131,7 +21170,7 @@
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="56"/>
+      <c r="A130" s="58"/>
       <c r="B130" s="5">
         <v>27.5</v>
       </c>
@@ -21149,7 +21188,7 @@
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="56"/>
+      <c r="A131" s="58"/>
       <c r="B131" s="5">
         <v>27.6</v>
       </c>
@@ -21167,7 +21206,7 @@
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="57"/>
+      <c r="A132" s="56"/>
       <c r="B132" s="5">
         <v>27.7</v>
       </c>
@@ -21227,7 +21266,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="55">
+      <c r="A136" s="57">
         <v>32</v>
       </c>
       <c r="B136" s="5">
@@ -21251,7 +21290,7 @@
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="56"/>
+      <c r="A137" s="58"/>
       <c r="B137" s="5">
         <v>32.200000000000003</v>
       </c>
@@ -21273,7 +21312,7 @@
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="56"/>
+      <c r="A138" s="58"/>
       <c r="B138" s="5">
         <v>32.299999999999997</v>
       </c>
@@ -21295,7 +21334,7 @@
       <c r="H138" s="3"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="56"/>
+      <c r="A139" s="58"/>
       <c r="B139" s="5">
         <v>32.4</v>
       </c>
@@ -21317,7 +21356,7 @@
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="56"/>
+      <c r="A140" s="58"/>
       <c r="B140" s="5">
         <v>32.5</v>
       </c>
@@ -21341,7 +21380,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="56"/>
+      <c r="A141" s="58"/>
       <c r="B141" s="5">
         <v>32.6</v>
       </c>
@@ -21363,7 +21402,7 @@
       <c r="H141" s="3"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="57"/>
+      <c r="A142" s="56"/>
       <c r="B142" s="5">
         <v>32.700000000000003</v>
       </c>
@@ -21386,32 +21425,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="A113:A122"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A38:A45"/>
     <mergeCell ref="A134:E134"/>
     <mergeCell ref="G134:H134"/>
     <mergeCell ref="A136:A142"/>
@@ -21428,6 +21441,32 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A113:A122"/>
   </mergeCells>
   <conditionalFormatting sqref="A36">
     <cfRule type="notContainsBlanks" dxfId="27" priority="23">

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="8145" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="8145" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="165">
   <si>
     <t>User story: General Website Features</t>
   </si>
@@ -469,6 +470,54 @@
   <si>
     <t>Added save button</t>
   </si>
+  <si>
+    <t>User story: Available events</t>
+  </si>
+  <si>
+    <t>Write PHP code to display the required information</t>
+  </si>
+  <si>
+    <t>User story: Event Registration</t>
+  </si>
+  <si>
+    <t>User story: Member's donation history</t>
+  </si>
+  <si>
+    <t>User story: Member's new donation</t>
+  </si>
+  <si>
+    <t>User story: Financial Tracking</t>
+  </si>
+  <si>
+    <t>Write PHP code to summarize financial details</t>
+  </si>
+  <si>
+    <t>User story: Planners Events</t>
+  </si>
+  <si>
+    <t>User story: Plan more events</t>
+  </si>
+  <si>
+    <t>User story: Create Events</t>
+  </si>
+  <si>
+    <t>User story: Edit Event Details</t>
+  </si>
+  <si>
+    <t>User story: Email</t>
+  </si>
+  <si>
+    <t>Write PHP code to display differentiate which accounts to email</t>
+  </si>
+  <si>
+    <t>Test that emails are sent and received</t>
+  </si>
+  <si>
+    <t>User story: Stop Planning event</t>
+  </si>
+  <si>
+    <t>Finish hyperlink from events page</t>
+  </si>
 </sst>
 </file>
 
@@ -532,7 +581,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -739,11 +788,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -816,22 +878,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -854,15 +917,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -871,16 +937,1041 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="111">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1711,20 +2802,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="54"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="53"/>
+      <c r="H1" s="54"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1763,7 +2854,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57">
+      <c r="A3" s="56">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -1797,7 +2888,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="58"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -1822,7 +2913,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -1847,7 +2938,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -1872,7 +2963,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -1895,7 +2986,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="56"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="5">
         <v>6.6</v>
       </c>
@@ -1926,20 +3017,20 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="53"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="53"/>
+      <c r="H10" s="54"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1970,7 +3061,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57">
+      <c r="A12" s="56">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -1995,7 +3086,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -2018,7 +3109,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -2033,43 +3124,43 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
-      <c r="B15" s="61">
+      <c r="A15" s="57"/>
+      <c r="B15" s="62">
         <v>1.4</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="62">
         <v>1</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="61">
         <v>1</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="60">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
-      <c r="B16" s="56"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
       <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="16">
         <v>1.5</v>
       </c>
@@ -2100,20 +3191,20 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="53"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="54"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="53"/>
+      <c r="H19" s="54"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2144,7 +3235,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57">
+      <c r="A21" s="56">
         <v>11</v>
       </c>
       <c r="B21" s="22">
@@ -2171,7 +3262,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="22">
         <v>11.2</v>
       </c>
@@ -2196,7 +3287,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="56"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2215,20 +3306,20 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="53"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="54"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="53"/>
+      <c r="H25" s="54"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2259,7 +3350,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57">
+      <c r="A27" s="56">
         <v>12</v>
       </c>
       <c r="B27" s="22">
@@ -2286,7 +3377,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="22">
         <v>12.2</v>
       </c>
@@ -2309,7 +3400,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="22">
         <v>12.3</v>
       </c>
@@ -2349,20 +3440,20 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="53"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="54"/>
       <c r="F32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="52" t="s">
+      <c r="G32" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="53"/>
+      <c r="H32" s="54"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2393,7 +3484,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2404,7 +3495,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="58"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2415,7 +3506,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="58"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2426,7 +3517,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="58"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2437,7 +3528,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="58"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2448,7 +3539,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="58"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2459,7 +3550,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="56"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -10155,15 +11246,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:E19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G15:G16"/>
@@ -10175,9 +11257,18 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G1 A1 F10:G10 A10 F19:G19 A19 F25:G25 A25 F32:G32 A32">
-    <cfRule type="notContainsBlanks" dxfId="37" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="95" priority="1">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10208,17 +11299,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="64" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="65"/>
+      <c r="G1" s="66"/>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
@@ -10259,7 +11350,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57">
+      <c r="A3" s="56">
         <v>21</v>
       </c>
       <c r="B3" s="5">
@@ -10292,7 +11383,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="58"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="5">
         <v>21.2</v>
       </c>
@@ -10316,7 +11407,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="5">
         <v>21.3</v>
       </c>
@@ -10340,7 +11431,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="5">
         <v>21.4</v>
       </c>
@@ -10364,7 +11455,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="5">
         <v>21.5</v>
       </c>
@@ -10386,7 +11477,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="5">
         <v>21.6</v>
       </c>
@@ -10408,7 +11499,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="5">
         <v>21.7</v>
       </c>
@@ -10430,7 +11521,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="5">
         <v>21.8</v>
       </c>
@@ -10454,7 +11545,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="5">
         <v>21.9</v>
       </c>
@@ -10487,17 +11578,17 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="64" t="s">
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="65"/>
+      <c r="G13" s="66"/>
       <c r="H13" s="4" t="s">
         <v>4</v>
       </c>
@@ -10529,7 +11620,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57">
+      <c r="A15" s="56">
         <v>20</v>
       </c>
       <c r="B15" s="5">
@@ -10553,7 +11644,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="5">
         <v>20.2</v>
       </c>
@@ -10575,7 +11666,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="5">
         <v>20.3</v>
       </c>
@@ -10599,7 +11690,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="5">
         <v>20.399999999999999</v>
       </c>
@@ -10629,17 +11720,17 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="64" t="s">
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="65"/>
+      <c r="G20" s="66"/>
       <c r="H20" s="4" t="s">
         <v>4</v>
       </c>
@@ -10671,7 +11762,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="57">
+      <c r="A22" s="56">
         <v>5</v>
       </c>
       <c r="B22" s="5">
@@ -10693,7 +11784,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="56"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="5">
         <v>5.2</v>
       </c>
@@ -10719,17 +11810,17 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="64" t="s">
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="65"/>
+      <c r="G25" s="66"/>
       <c r="H25" s="4" t="s">
         <v>4</v>
       </c>
@@ -10761,7 +11852,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57">
+      <c r="A27" s="56">
         <v>8</v>
       </c>
       <c r="B27" s="5">
@@ -10785,7 +11876,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="62"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="5">
         <v>8.1999999999999993</v>
       </c>
@@ -10807,7 +11898,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="5">
         <v>8.3000000000000007</v>
       </c>
@@ -10829,7 +11920,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62"/>
+      <c r="A30" s="63"/>
       <c r="B30" s="5">
         <v>8.4</v>
       </c>
@@ -10853,7 +11944,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="5">
         <v>8.5</v>
       </c>
@@ -10883,17 +11974,17 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="64" t="s">
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="65"/>
+      <c r="G33" s="66"/>
       <c r="H33" s="4" t="s">
         <v>4</v>
       </c>
@@ -10925,7 +12016,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57">
+      <c r="A35" s="56">
         <v>4</v>
       </c>
       <c r="B35" s="5">
@@ -10949,7 +12040,7 @@
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="62"/>
+      <c r="A36" s="63"/>
       <c r="B36" s="5">
         <v>4.2</v>
       </c>
@@ -10971,7 +12062,7 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="62"/>
+      <c r="A37" s="63"/>
       <c r="B37" s="5">
         <v>4.3</v>
       </c>
@@ -10989,7 +12080,7 @@
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="63"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="5">
         <v>4.4000000000000004</v>
       </c>
@@ -18683,47 +19774,47 @@
     <mergeCell ref="A27:A31"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 F13 H13">
-    <cfRule type="notContainsBlanks" dxfId="36" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="94" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="notContainsBlanks" dxfId="35" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="93" priority="2">
       <formula>LEN(TRIM(A13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="notContainsBlanks" dxfId="34" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="92" priority="3">
       <formula>LEN(TRIM(A20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="notContainsBlanks" dxfId="33" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="91" priority="4">
       <formula>LEN(TRIM(A25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 H1">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="90" priority="5">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 H20">
-    <cfRule type="notContainsBlanks" dxfId="31" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="89" priority="6">
       <formula>LEN(TRIM(F20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25 H25">
-    <cfRule type="notContainsBlanks" dxfId="30" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="88" priority="7">
       <formula>LEN(TRIM(F25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="87" priority="8">
       <formula>LEN(TRIM(A33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33 H33">
-    <cfRule type="notContainsBlanks" dxfId="28" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="86" priority="9">
       <formula>LEN(TRIM(F33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18736,8 +19827,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124:H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18754,20 +19845,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="54"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="53"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -18802,7 +19893,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="75">
+      <c r="A3" s="69">
         <v>22</v>
       </c>
       <c r="B3" s="31">
@@ -18832,7 +19923,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="75"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="31">
         <v>22.2</v>
       </c>
@@ -18854,7 +19945,7 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="75"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="31">
         <v>22.3</v>
       </c>
@@ -18876,20 +19967,20 @@
       <c r="H5" s="34"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="53"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="53"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
@@ -18918,7 +20009,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="75">
+      <c r="A9" s="69">
         <v>33</v>
       </c>
       <c r="B9" s="31">
@@ -18938,7 +20029,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="75"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -18956,7 +20047,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="75"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -18974,7 +20065,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="75"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="31">
         <v>33.4</v>
       </c>
@@ -18992,7 +20083,7 @@
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="75"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="31">
         <v>33.5</v>
       </c>
@@ -19010,20 +20101,20 @@
       <c r="H13" s="34"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="53"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
@@ -19052,7 +20143,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="71">
+      <c r="A17" s="72">
         <v>34</v>
       </c>
       <c r="B17" s="31">
@@ -19072,7 +20163,7 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="43">
         <v>34.200000000000003</v>
       </c>
@@ -19090,7 +20181,7 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="71"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="31">
         <v>34.299999999999997</v>
       </c>
@@ -19108,7 +20199,7 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="71"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="43">
         <v>34.4</v>
       </c>
@@ -19126,7 +20217,7 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="71"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="31">
         <v>34.5</v>
       </c>
@@ -19144,7 +20235,7 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="71"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="43">
         <v>34.6</v>
       </c>
@@ -19162,7 +20253,7 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="31">
         <v>34.700000000000003</v>
       </c>
@@ -19180,20 +20271,20 @@
       <c r="H23" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="53"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
@@ -19222,7 +20313,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="68">
+      <c r="A27" s="74">
         <v>35</v>
       </c>
       <c r="B27" s="5">
@@ -19242,7 +20333,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="73"/>
+      <c r="A28" s="75"/>
       <c r="B28" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -19260,7 +20351,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="73"/>
+      <c r="A29" s="75"/>
       <c r="B29" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -19278,7 +20369,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="73"/>
+      <c r="A30" s="75"/>
       <c r="B30" s="31">
         <v>35.4</v>
       </c>
@@ -19296,7 +20387,7 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="73"/>
+      <c r="A31" s="75"/>
       <c r="B31" s="5">
         <v>35.5</v>
       </c>
@@ -19314,7 +20405,7 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="73"/>
+      <c r="A32" s="75"/>
       <c r="B32" s="31">
         <v>35.6</v>
       </c>
@@ -19332,7 +20423,7 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="73"/>
+      <c r="A33" s="75"/>
       <c r="B33" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -19350,7 +20441,7 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="74"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -19368,20 +20459,20 @@
       <c r="H34" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="67"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="68"/>
       <c r="F36" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="52" t="s">
+      <c r="G36" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H36" s="53"/>
+      <c r="H36" s="54"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
@@ -19410,7 +20501,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="57">
+      <c r="A38" s="56">
         <v>40</v>
       </c>
       <c r="B38" s="5">
@@ -19430,7 +20521,7 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="62"/>
+      <c r="A39" s="63"/>
       <c r="B39" s="5">
         <v>40.200000000000003</v>
       </c>
@@ -19448,7 +20539,7 @@
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="62"/>
+      <c r="A40" s="63"/>
       <c r="B40" s="5">
         <v>40.299999999999997</v>
       </c>
@@ -19466,7 +20557,7 @@
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="62"/>
+      <c r="A41" s="63"/>
       <c r="B41" s="5">
         <v>40.4</v>
       </c>
@@ -19484,7 +20575,7 @@
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="62"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="5">
         <v>40.5</v>
       </c>
@@ -19502,7 +20593,7 @@
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="62"/>
+      <c r="A43" s="63"/>
       <c r="B43" s="5">
         <v>40.6</v>
       </c>
@@ -19520,7 +20611,7 @@
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="62"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="5">
         <v>40.700000000000003</v>
       </c>
@@ -19538,7 +20629,7 @@
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="63"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="5">
         <v>40.799999999999997</v>
       </c>
@@ -19556,20 +20647,20 @@
       <c r="H45" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="52" t="s">
+      <c r="A47" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="67"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="68"/>
       <c r="F47" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G47" s="52" t="s">
+      <c r="G47" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H47" s="53"/>
+      <c r="H47" s="54"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -19598,7 +20689,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="57">
+      <c r="A49" s="56">
         <v>23</v>
       </c>
       <c r="B49" s="5">
@@ -19622,7 +20713,7 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="58"/>
+      <c r="A50" s="57"/>
       <c r="B50" s="5">
         <v>23.2</v>
       </c>
@@ -19644,7 +20735,7 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="58"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="5">
         <v>23.3</v>
       </c>
@@ -19666,7 +20757,7 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
+      <c r="A52" s="57"/>
       <c r="B52" s="5">
         <v>23.4</v>
       </c>
@@ -19688,7 +20779,7 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="58"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="5">
         <v>23.5</v>
       </c>
@@ -19710,7 +20801,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="58"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="5">
         <v>23.6</v>
       </c>
@@ -19732,7 +20823,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="58"/>
+      <c r="A55" s="57"/>
       <c r="B55" s="5">
         <v>23.7</v>
       </c>
@@ -19754,7 +20845,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="56"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="5">
         <v>23.8</v>
       </c>
@@ -19776,20 +20867,20 @@
       <c r="H56" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="52" t="s">
+      <c r="A58" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="66"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="67"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="68"/>
       <c r="F58" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G58" s="52" t="s">
+      <c r="G58" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H58" s="53"/>
+      <c r="H58" s="54"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
@@ -19818,7 +20909,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="57">
+      <c r="A60" s="56">
         <v>3</v>
       </c>
       <c r="B60" s="5">
@@ -19842,7 +20933,7 @@
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="58"/>
+      <c r="A61" s="57"/>
       <c r="B61" s="5">
         <v>3.2</v>
       </c>
@@ -19864,7 +20955,7 @@
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="58"/>
+      <c r="A62" s="57"/>
       <c r="B62" s="5">
         <v>3.3</v>
       </c>
@@ -19886,7 +20977,7 @@
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="58"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="5">
         <v>3.4</v>
       </c>
@@ -19908,7 +20999,7 @@
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="58"/>
+      <c r="A64" s="57"/>
       <c r="B64" s="5">
         <v>3.5</v>
       </c>
@@ -19932,7 +21023,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="58"/>
+      <c r="A65" s="57"/>
       <c r="B65" s="5">
         <v>3.6</v>
       </c>
@@ -19954,7 +21045,7 @@
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="56"/>
+      <c r="A66" s="58"/>
       <c r="B66" s="5">
         <v>3.7</v>
       </c>
@@ -19976,20 +21067,20 @@
       <c r="H66" s="3"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="52" t="s">
+      <c r="A68" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="66"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="67"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="68"/>
       <c r="F68" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G68" s="52" t="s">
+      <c r="G68" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H68" s="53"/>
+      <c r="H68" s="54"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
@@ -20018,7 +21109,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="57">
+      <c r="A70" s="56">
         <v>41</v>
       </c>
       <c r="B70" s="5">
@@ -20038,7 +21129,7 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="58"/>
+      <c r="A71" s="57"/>
       <c r="B71" s="5">
         <v>41.2</v>
       </c>
@@ -20056,7 +21147,7 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="58"/>
+      <c r="A72" s="57"/>
       <c r="B72" s="5">
         <v>41.3</v>
       </c>
@@ -20074,7 +21165,7 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="58"/>
+      <c r="A73" s="57"/>
       <c r="B73" s="5">
         <v>41.4</v>
       </c>
@@ -20092,7 +21183,7 @@
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="58"/>
+      <c r="A74" s="57"/>
       <c r="B74" s="5">
         <v>41.5</v>
       </c>
@@ -20110,7 +21201,7 @@
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="58"/>
+      <c r="A75" s="57"/>
       <c r="B75" s="5">
         <v>41.6</v>
       </c>
@@ -20128,7 +21219,7 @@
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="56"/>
+      <c r="A76" s="58"/>
       <c r="B76" s="5">
         <v>41.7</v>
       </c>
@@ -20146,20 +21237,20 @@
       <c r="H76" s="3"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="52" t="s">
+      <c r="A78" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="66"/>
-      <c r="C78" s="66"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="67"/>
+      <c r="B78" s="67"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="68"/>
       <c r="F78" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G78" s="52" t="s">
+      <c r="G78" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H78" s="53"/>
+      <c r="H78" s="54"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
@@ -20188,7 +21279,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="57">
+      <c r="A80" s="56">
         <v>25</v>
       </c>
       <c r="B80" s="5">
@@ -20212,7 +21303,7 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="58"/>
+      <c r="A81" s="57"/>
       <c r="B81" s="5">
         <v>25.2</v>
       </c>
@@ -20234,7 +21325,7 @@
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="58"/>
+      <c r="A82" s="57"/>
       <c r="B82" s="5">
         <v>25.3</v>
       </c>
@@ -20256,7 +21347,7 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="58"/>
+      <c r="A83" s="57"/>
       <c r="B83" s="5">
         <v>25.4</v>
       </c>
@@ -20278,7 +21369,7 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="58"/>
+      <c r="A84" s="57"/>
       <c r="B84" s="5">
         <v>25.5</v>
       </c>
@@ -20300,7 +21391,7 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="58"/>
+      <c r="A85" s="57"/>
       <c r="B85" s="5">
         <v>25.6</v>
       </c>
@@ -20322,7 +21413,7 @@
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="58"/>
+      <c r="A86" s="57"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -20332,7 +21423,7 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="56"/>
+      <c r="A87" s="58"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -20342,20 +21433,20 @@
       <c r="H87" s="3"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="52" t="s">
+      <c r="A89" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="B89" s="66"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="66"/>
-      <c r="E89" s="67"/>
+      <c r="B89" s="67"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="67"/>
+      <c r="E89" s="68"/>
       <c r="F89" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G89" s="52" t="s">
+      <c r="G89" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H89" s="53"/>
+      <c r="H89" s="54"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
@@ -20384,7 +21475,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="57">
+      <c r="A91" s="56">
         <v>26</v>
       </c>
       <c r="B91" s="39">
@@ -20408,7 +21499,7 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="58"/>
+      <c r="A92" s="57"/>
       <c r="B92" s="39">
         <v>26.2</v>
       </c>
@@ -20430,7 +21521,7 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="58"/>
+      <c r="A93" s="57"/>
       <c r="B93" s="39">
         <v>26.3</v>
       </c>
@@ -20452,7 +21543,7 @@
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="58"/>
+      <c r="A94" s="57"/>
       <c r="B94" s="39">
         <v>26.4</v>
       </c>
@@ -20474,7 +21565,7 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="58"/>
+      <c r="A95" s="57"/>
       <c r="B95" s="39">
         <v>26.5</v>
       </c>
@@ -20496,7 +21587,7 @@
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="58"/>
+      <c r="A96" s="57"/>
       <c r="B96" s="39">
         <v>26.6</v>
       </c>
@@ -20518,7 +21609,7 @@
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="58"/>
+      <c r="A97" s="57"/>
       <c r="B97" s="39">
         <v>26.7</v>
       </c>
@@ -20540,7 +21631,7 @@
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="58"/>
+      <c r="A98" s="57"/>
       <c r="B98" s="39">
         <v>26.8</v>
       </c>
@@ -20562,7 +21653,7 @@
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="56"/>
+      <c r="A99" s="58"/>
       <c r="B99" s="39">
         <v>26.9</v>
       </c>
@@ -20584,20 +21675,20 @@
       <c r="H99" s="3"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="52" t="s">
+      <c r="A101" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="B101" s="66"/>
-      <c r="C101" s="66"/>
-      <c r="D101" s="66"/>
-      <c r="E101" s="67"/>
+      <c r="B101" s="67"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="68"/>
       <c r="F101" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G101" s="52" t="s">
+      <c r="G101" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H101" s="53"/>
+      <c r="H101" s="54"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
@@ -20626,7 +21717,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="57">
+      <c r="A103" s="56">
         <v>27</v>
       </c>
       <c r="B103" s="5">
@@ -20650,7 +21741,7 @@
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="58"/>
+      <c r="A104" s="57"/>
       <c r="B104" s="5">
         <v>27.2</v>
       </c>
@@ -20672,7 +21763,7 @@
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="58"/>
+      <c r="A105" s="57"/>
       <c r="B105" s="5">
         <v>27.3</v>
       </c>
@@ -20694,7 +21785,7 @@
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="58"/>
+      <c r="A106" s="57"/>
       <c r="B106" s="5">
         <v>27.4</v>
       </c>
@@ -20716,7 +21807,7 @@
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="58"/>
+      <c r="A107" s="57"/>
       <c r="B107" s="5">
         <v>27.5</v>
       </c>
@@ -20738,7 +21829,7 @@
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="58"/>
+      <c r="A108" s="57"/>
       <c r="B108" s="5">
         <v>27.6</v>
       </c>
@@ -20760,7 +21851,7 @@
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="56"/>
+      <c r="A109" s="58"/>
       <c r="B109" s="5">
         <v>27.7</v>
       </c>
@@ -20782,20 +21873,20 @@
       <c r="H109" s="3"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="52" t="s">
+      <c r="A111" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="B111" s="66"/>
-      <c r="C111" s="66"/>
-      <c r="D111" s="66"/>
-      <c r="E111" s="67"/>
+      <c r="B111" s="67"/>
+      <c r="C111" s="67"/>
+      <c r="D111" s="67"/>
+      <c r="E111" s="68"/>
       <c r="F111" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G111" s="52" t="s">
+      <c r="G111" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H111" s="53"/>
+      <c r="H111" s="54"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
@@ -20824,7 +21915,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="68">
+      <c r="A113" s="74">
         <v>4</v>
       </c>
       <c r="B113" s="31">
@@ -20848,7 +21939,7 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="69"/>
+      <c r="A114" s="77"/>
       <c r="B114" s="31">
         <v>4.2</v>
       </c>
@@ -20870,7 +21961,7 @@
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="69"/>
+      <c r="A115" s="77"/>
       <c r="B115" s="31">
         <v>4.3</v>
       </c>
@@ -20892,7 +21983,7 @@
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="69"/>
+      <c r="A116" s="77"/>
       <c r="B116" s="31">
         <v>4.4000000000000004</v>
       </c>
@@ -20914,7 +22005,7 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="69"/>
+      <c r="A117" s="77"/>
       <c r="B117" s="31">
         <v>4.5</v>
       </c>
@@ -20936,7 +22027,7 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="69"/>
+      <c r="A118" s="77"/>
       <c r="B118" s="31">
         <v>4.5999999999999996</v>
       </c>
@@ -20960,7 +22051,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="69"/>
+      <c r="A119" s="77"/>
       <c r="B119" s="31">
         <v>4.7</v>
       </c>
@@ -20982,7 +22073,7 @@
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="69"/>
+      <c r="A120" s="77"/>
       <c r="B120" s="31">
         <v>4.8</v>
       </c>
@@ -21006,7 +22097,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="69"/>
+      <c r="A121" s="77"/>
       <c r="B121" s="31">
         <v>4.9000000000000004</v>
       </c>
@@ -21030,7 +22121,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="70"/>
+      <c r="A122" s="78"/>
       <c r="B122" s="32" t="s">
         <v>141</v>
       </c>
@@ -21054,20 +22145,20 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="52" t="s">
+      <c r="A124" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="B124" s="66"/>
-      <c r="C124" s="66"/>
-      <c r="D124" s="66"/>
-      <c r="E124" s="67"/>
+      <c r="B124" s="67"/>
+      <c r="C124" s="67"/>
+      <c r="D124" s="67"/>
+      <c r="E124" s="68"/>
       <c r="F124" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G124" s="52" t="s">
+      <c r="G124" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H124" s="53"/>
+      <c r="H124" s="54"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
@@ -21096,7 +22187,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="57">
+      <c r="A126" s="56">
         <v>30</v>
       </c>
       <c r="B126" s="5">
@@ -21116,7 +22207,7 @@
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="58"/>
+      <c r="A127" s="57"/>
       <c r="B127" s="5">
         <v>27.2</v>
       </c>
@@ -21134,7 +22225,7 @@
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="58"/>
+      <c r="A128" s="57"/>
       <c r="B128" s="5">
         <v>27.3</v>
       </c>
@@ -21152,7 +22243,7 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="58"/>
+      <c r="A129" s="57"/>
       <c r="B129" s="5">
         <v>27.4</v>
       </c>
@@ -21170,7 +22261,7 @@
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="58"/>
+      <c r="A130" s="57"/>
       <c r="B130" s="5">
         <v>27.5</v>
       </c>
@@ -21188,7 +22279,7 @@
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="58"/>
+      <c r="A131" s="57"/>
       <c r="B131" s="5">
         <v>27.6</v>
       </c>
@@ -21206,7 +22297,7 @@
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="56"/>
+      <c r="A132" s="58"/>
       <c r="B132" s="5">
         <v>27.7</v>
       </c>
@@ -21224,20 +22315,20 @@
       <c r="H132" s="3"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="52" t="s">
+      <c r="A134" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="B134" s="66"/>
-      <c r="C134" s="66"/>
-      <c r="D134" s="66"/>
-      <c r="E134" s="67"/>
+      <c r="B134" s="67"/>
+      <c r="C134" s="67"/>
+      <c r="D134" s="67"/>
+      <c r="E134" s="68"/>
       <c r="F134" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G134" s="52" t="s">
+      <c r="G134" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H134" s="53"/>
+      <c r="H134" s="54"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
@@ -21266,7 +22357,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="57">
+      <c r="A136" s="56">
         <v>32</v>
       </c>
       <c r="B136" s="5">
@@ -21290,7 +22381,7 @@
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="58"/>
+      <c r="A137" s="57"/>
       <c r="B137" s="5">
         <v>32.200000000000003</v>
       </c>
@@ -21312,7 +22403,7 @@
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="58"/>
+      <c r="A138" s="57"/>
       <c r="B138" s="5">
         <v>32.299999999999997</v>
       </c>
@@ -21334,7 +22425,7 @@
       <c r="H138" s="3"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="58"/>
+      <c r="A139" s="57"/>
       <c r="B139" s="5">
         <v>32.4</v>
       </c>
@@ -21356,7 +22447,7 @@
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="58"/>
+      <c r="A140" s="57"/>
       <c r="B140" s="5">
         <v>32.5</v>
       </c>
@@ -21380,7 +22471,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="58"/>
+      <c r="A141" s="57"/>
       <c r="B141" s="5">
         <v>32.6</v>
       </c>
@@ -21402,7 +22493,7 @@
       <c r="H141" s="3"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="56"/>
+      <c r="A142" s="58"/>
       <c r="B142" s="5">
         <v>32.700000000000003</v>
       </c>
@@ -21425,6 +22516,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A113:A122"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A38:A45"/>
     <mergeCell ref="A134:E134"/>
     <mergeCell ref="G134:H134"/>
     <mergeCell ref="A136:A142"/>
@@ -21441,174 +22558,3064 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="A113:A122"/>
   </mergeCells>
   <conditionalFormatting sqref="A36">
-    <cfRule type="notContainsBlanks" dxfId="27" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="85" priority="23">
       <formula>LEN(TRIM(F36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1 A1">
-    <cfRule type="notContainsBlanks" dxfId="26" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="84" priority="27">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 A7">
-    <cfRule type="notContainsBlanks" dxfId="25" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="83" priority="26">
       <formula>LEN(TRIM(F7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15 A15">
-    <cfRule type="notContainsBlanks" dxfId="24" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="82" priority="25">
       <formula>LEN(TRIM(F15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25 A25">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="81" priority="24">
       <formula>LEN(TRIM(F25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="80" priority="19">
       <formula>LEN(TRIM(L36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="notContainsBlanks" dxfId="21" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="79" priority="22">
       <formula>LEN(TRIM(L7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="78" priority="21">
       <formula>LEN(TRIM(L15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="77" priority="20">
       <formula>LEN(TRIM(L25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 A47">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="76" priority="18">
       <formula>LEN(TRIM(F47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="75" priority="17">
       <formula>LEN(TRIM(L47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58 A58">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="74" priority="16">
       <formula>LEN(TRIM(F58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="73" priority="15">
       <formula>LEN(TRIM(L58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68 A68">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="72" priority="14">
       <formula>LEN(TRIM(F68))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="71" priority="13">
       <formula>LEN(TRIM(L68))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78 A78">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="70" priority="12">
       <formula>LEN(TRIM(F78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="69" priority="11">
       <formula>LEN(TRIM(L78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89 A89">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="68" priority="10">
       <formula>LEN(TRIM(F89))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="67" priority="9">
       <formula>LEN(TRIM(L89))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101 A101">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="66" priority="8">
       <formula>LEN(TRIM(F101))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G101">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="65" priority="7">
       <formula>LEN(TRIM(L101))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111 A111">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="64" priority="6">
       <formula>LEN(TRIM(F111))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="63" priority="5">
       <formula>LEN(TRIM(L111))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F124 A124">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="62" priority="4">
       <formula>LEN(TRIM(F124))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="61" priority="3">
       <formula>LEN(TRIM(L124))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="28">
+    <cfRule type="notContainsBlanks" dxfId="60" priority="28">
       <formula>LEN(TRIM(K2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134 A134">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="59" priority="2">
       <formula>LEN(TRIM(F134))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G134">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="58" priority="1">
       <formula>LEN(TRIM(L134))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H154"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="54"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="69">
+        <v>33</v>
+      </c>
+      <c r="B3" s="31">
+        <v>33.1</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="28">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="69"/>
+      <c r="B4" s="33">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="69"/>
+      <c r="B5" s="31">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="28">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="69"/>
+      <c r="B6" s="31">
+        <v>33.4</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="37">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="69"/>
+      <c r="B7" s="31">
+        <v>33.5</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="34"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="54"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="72">
+        <v>34</v>
+      </c>
+      <c r="B11" s="31">
+        <v>34.1</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="72"/>
+      <c r="B12" s="43">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="72"/>
+      <c r="B13" s="31">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="31">
+        <v>1</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="72"/>
+      <c r="B14" s="43">
+        <v>34.4</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="72"/>
+      <c r="B15" s="31">
+        <v>34.5</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="31">
+        <v>2</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="72"/>
+      <c r="B16" s="43">
+        <v>34.6</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="31">
+        <v>1</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="73"/>
+      <c r="B17" s="31">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="54"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="74">
+        <v>35</v>
+      </c>
+      <c r="B21" s="5">
+        <v>35.1</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="75"/>
+      <c r="B22" s="31">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="75"/>
+      <c r="B23" s="5">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="75"/>
+      <c r="B24" s="31">
+        <v>35.4</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="75"/>
+      <c r="B25" s="5">
+        <v>35.5</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="75"/>
+      <c r="B26" s="31">
+        <v>35.6</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="31">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="75"/>
+      <c r="B27" s="5">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="31">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="76"/>
+      <c r="B28" s="5">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="54"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="56">
+        <v>40</v>
+      </c>
+      <c r="B32" s="5">
+        <v>40.1</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="63"/>
+      <c r="B33" s="5">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="63"/>
+      <c r="B34" s="5">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="63"/>
+      <c r="B35" s="5">
+        <v>40.4</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="63"/>
+      <c r="B36" s="5">
+        <v>40.5</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="63"/>
+      <c r="B37" s="5">
+        <v>40.6</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="31">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="63"/>
+      <c r="B38" s="5">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="31">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="64"/>
+      <c r="B39" s="5">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="54"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="56">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5">
+        <v>41.1</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="57"/>
+      <c r="B44" s="5">
+        <v>41.2</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="57"/>
+      <c r="B45" s="5">
+        <v>41.3</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="57"/>
+      <c r="B46" s="5">
+        <v>41.4</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="57"/>
+      <c r="B47" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="57"/>
+      <c r="B48" s="5">
+        <v>41.6</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="31">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="58"/>
+      <c r="B49" s="5">
+        <v>41.7</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" s="54"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="56">
+        <v>30</v>
+      </c>
+      <c r="B53" s="5">
+        <v>27.1</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="57"/>
+      <c r="B54" s="5">
+        <v>27.2</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="57"/>
+      <c r="B55" s="5">
+        <v>27.3</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="57"/>
+      <c r="B56" s="5">
+        <v>27.4</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="57"/>
+      <c r="B57" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" s="5">
+        <v>2</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G57" s="5"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="57"/>
+      <c r="B58" s="5">
+        <v>27.6</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="58"/>
+      <c r="B59" s="5">
+        <v>27.7</v>
+      </c>
+      <c r="C59" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="67"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G61" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H61" s="54"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="56">
+        <v>30</v>
+      </c>
+      <c r="B63" s="5">
+        <v>27.1</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="5">
+        <v>2</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="57"/>
+      <c r="B64" s="5">
+        <v>27.2</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="57"/>
+      <c r="B65" s="5">
+        <v>27.3</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="57"/>
+      <c r="B66" s="5">
+        <v>27.4</v>
+      </c>
+      <c r="C66" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="57"/>
+      <c r="B67" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" s="5">
+        <v>2</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="57"/>
+      <c r="B68" s="5">
+        <v>27.6</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="58"/>
+      <c r="B69" s="5">
+        <v>27.7</v>
+      </c>
+      <c r="C69" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H71" s="54"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="69">
+        <v>24</v>
+      </c>
+      <c r="B73" s="28">
+        <v>24.1</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="39">
+        <v>2</v>
+      </c>
+      <c r="E73" s="31"/>
+      <c r="F73" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="31"/>
+      <c r="H73" s="29"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="80"/>
+      <c r="B74" s="28">
+        <v>24.2</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" s="39">
+        <v>1</v>
+      </c>
+      <c r="E74" s="31"/>
+      <c r="F74" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="31"/>
+      <c r="H74" s="29"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="80"/>
+      <c r="B75" s="28">
+        <v>24.3</v>
+      </c>
+      <c r="C75" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" s="39">
+        <v>2</v>
+      </c>
+      <c r="E75" s="31"/>
+      <c r="F75" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="31"/>
+      <c r="H75" s="29"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="80"/>
+      <c r="B76" s="28">
+        <v>24.4</v>
+      </c>
+      <c r="C76" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="D76" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="E76" s="31"/>
+      <c r="F76" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="31"/>
+      <c r="H76" s="29"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="80"/>
+      <c r="B77" s="28">
+        <v>24.5</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" s="43">
+        <v>1</v>
+      </c>
+      <c r="E77" s="31"/>
+      <c r="F77" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="31"/>
+      <c r="H77" s="29"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" s="67"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H79" s="54"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="69">
+        <v>18</v>
+      </c>
+      <c r="B81" s="52">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" s="39">
+        <v>1</v>
+      </c>
+      <c r="E81" s="31"/>
+      <c r="F81" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="31"/>
+      <c r="H81" s="29"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="80"/>
+      <c r="B82" s="28">
+        <v>18.2</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82" s="39">
+        <v>1</v>
+      </c>
+      <c r="E82" s="31"/>
+      <c r="F82" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" s="31"/>
+      <c r="H82" s="29"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="80"/>
+      <c r="B83" s="52">
+        <v>18.3</v>
+      </c>
+      <c r="C83" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D83" s="39">
+        <v>2</v>
+      </c>
+      <c r="E83" s="31"/>
+      <c r="F83" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="31"/>
+      <c r="H83" s="29"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="80"/>
+      <c r="B84" s="28">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C84" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="D84" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="E84" s="31"/>
+      <c r="F84" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" s="31"/>
+      <c r="H84" s="29"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="80"/>
+      <c r="B85" s="52">
+        <v>18.5</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" s="43">
+        <v>1</v>
+      </c>
+      <c r="E85" s="31"/>
+      <c r="F85" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="31"/>
+      <c r="H85" s="29"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="B87" s="67"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="68"/>
+      <c r="F87" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G87" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H87" s="54"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="69">
+        <v>2</v>
+      </c>
+      <c r="B89" s="52">
+        <v>2.1</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" s="39">
+        <v>2</v>
+      </c>
+      <c r="E89" s="31"/>
+      <c r="F89" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" s="31"/>
+      <c r="H89" s="29"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="80"/>
+      <c r="B90" s="28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D90" s="39">
+        <v>1</v>
+      </c>
+      <c r="E90" s="31"/>
+      <c r="F90" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90" s="31"/>
+      <c r="H90" s="29"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="80"/>
+      <c r="B91" s="52">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C91" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D91" s="39">
+        <v>2</v>
+      </c>
+      <c r="E91" s="31"/>
+      <c r="F91" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" s="31"/>
+      <c r="H91" s="29"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="80"/>
+      <c r="B92" s="28">
+        <v>2.4</v>
+      </c>
+      <c r="C92" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="D92" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="E92" s="31"/>
+      <c r="F92" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" s="31"/>
+      <c r="H92" s="29"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="80"/>
+      <c r="B93" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D93" s="43">
+        <v>1</v>
+      </c>
+      <c r="E93" s="31"/>
+      <c r="F93" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93" s="31"/>
+      <c r="H93" s="29"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="B95" s="67"/>
+      <c r="C95" s="67"/>
+      <c r="D95" s="67"/>
+      <c r="E95" s="68"/>
+      <c r="F95" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G95" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H95" s="54"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="69">
+        <v>31</v>
+      </c>
+      <c r="B97" s="52">
+        <v>31.1</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D97" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="E97" s="31"/>
+      <c r="F97" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" s="31"/>
+      <c r="H97" s="29"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="80"/>
+      <c r="B98" s="28">
+        <v>31.2</v>
+      </c>
+      <c r="C98" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="E98" s="31"/>
+      <c r="F98" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" s="31"/>
+      <c r="H98" s="29"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="80"/>
+      <c r="B99" s="52">
+        <v>31.3</v>
+      </c>
+      <c r="C99" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D99" s="39">
+        <v>1</v>
+      </c>
+      <c r="E99" s="31"/>
+      <c r="F99" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" s="31"/>
+      <c r="H99" s="29"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="80"/>
+      <c r="B100" s="28">
+        <v>31.4</v>
+      </c>
+      <c r="C100" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="D100" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="E100" s="31"/>
+      <c r="F100" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" s="31"/>
+      <c r="H100" s="29"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="80"/>
+      <c r="B101" s="52">
+        <v>31.5</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D101" s="43">
+        <v>1</v>
+      </c>
+      <c r="E101" s="31"/>
+      <c r="F101" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" s="31"/>
+      <c r="H101" s="29"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103" s="67"/>
+      <c r="C103" s="67"/>
+      <c r="D103" s="67"/>
+      <c r="E103" s="68"/>
+      <c r="F103" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G103" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H103" s="54"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="69">
+        <v>9</v>
+      </c>
+      <c r="B105" s="52">
+        <v>9.1</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D105" s="39">
+        <v>2</v>
+      </c>
+      <c r="E105" s="31"/>
+      <c r="F105" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" s="31"/>
+      <c r="H105" s="29"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="80"/>
+      <c r="B106" s="52">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C106" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D106" s="39">
+        <v>1</v>
+      </c>
+      <c r="E106" s="31"/>
+      <c r="F106" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G106" s="31"/>
+      <c r="H106" s="29"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="80"/>
+      <c r="B107" s="52">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C107" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="D107" s="39">
+        <v>2</v>
+      </c>
+      <c r="E107" s="31"/>
+      <c r="F107" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G107" s="31"/>
+      <c r="H107" s="29"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="80"/>
+      <c r="B108" s="52">
+        <v>9.4</v>
+      </c>
+      <c r="C108" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D108" s="39">
+        <v>2</v>
+      </c>
+      <c r="E108" s="31"/>
+      <c r="F108" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G108" s="31"/>
+      <c r="H108" s="29"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="80"/>
+      <c r="B109" s="52">
+        <v>9.5</v>
+      </c>
+      <c r="C109" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="D109" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="E109" s="31"/>
+      <c r="F109" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G109" s="31"/>
+      <c r="H109" s="29"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="80"/>
+      <c r="B110" s="52">
+        <v>9.6</v>
+      </c>
+      <c r="C110" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D110" s="43">
+        <v>1</v>
+      </c>
+      <c r="E110" s="31"/>
+      <c r="F110" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G110" s="31"/>
+      <c r="H110" s="29"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="B112" s="67"/>
+      <c r="C112" s="67"/>
+      <c r="D112" s="67"/>
+      <c r="E112" s="68"/>
+      <c r="F112" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G112" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H112" s="54"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="69">
+        <v>36</v>
+      </c>
+      <c r="B114" s="52">
+        <v>36.1</v>
+      </c>
+      <c r="C114" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D114" s="39">
+        <v>2</v>
+      </c>
+      <c r="E114" s="31"/>
+      <c r="F114" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G114" s="31"/>
+      <c r="H114" s="29"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="80"/>
+      <c r="B115" s="52">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D115" s="39">
+        <v>1</v>
+      </c>
+      <c r="E115" s="31"/>
+      <c r="F115" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115" s="31"/>
+      <c r="H115" s="29"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="80"/>
+      <c r="B116" s="52">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="C116" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D116" s="39">
+        <v>2</v>
+      </c>
+      <c r="E116" s="31"/>
+      <c r="F116" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" s="31"/>
+      <c r="H116" s="29"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="80"/>
+      <c r="B117" s="52">
+        <v>36.4</v>
+      </c>
+      <c r="C117" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="D117" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="E117" s="31"/>
+      <c r="F117" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G117" s="31"/>
+      <c r="H117" s="29"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="80"/>
+      <c r="B118" s="52">
+        <v>36.5</v>
+      </c>
+      <c r="C118" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D118" s="43">
+        <v>1</v>
+      </c>
+      <c r="E118" s="31"/>
+      <c r="F118" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" s="31"/>
+      <c r="H118" s="29"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B120" s="67"/>
+      <c r="C120" s="67"/>
+      <c r="D120" s="67"/>
+      <c r="E120" s="68"/>
+      <c r="F120" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G120" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H120" s="54"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="69">
+        <v>37</v>
+      </c>
+      <c r="B122" s="52">
+        <v>37.1</v>
+      </c>
+      <c r="C122" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D122" s="39">
+        <v>2</v>
+      </c>
+      <c r="E122" s="31"/>
+      <c r="F122" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G122" s="31"/>
+      <c r="H122" s="29"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="80"/>
+      <c r="B123" s="52">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="C123" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D123" s="39">
+        <v>1</v>
+      </c>
+      <c r="E123" s="31"/>
+      <c r="F123" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" s="31"/>
+      <c r="H123" s="29"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="80"/>
+      <c r="B124" s="52">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="C124" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D124" s="39">
+        <v>2</v>
+      </c>
+      <c r="E124" s="31"/>
+      <c r="F124" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G124" s="31"/>
+      <c r="H124" s="29"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="80"/>
+      <c r="B125" s="52">
+        <v>37.4</v>
+      </c>
+      <c r="C125" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="D125" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="E125" s="31"/>
+      <c r="F125" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G125" s="31"/>
+      <c r="H125" s="29"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="80"/>
+      <c r="B126" s="52">
+        <v>37.5</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D126" s="43">
+        <v>1</v>
+      </c>
+      <c r="E126" s="31"/>
+      <c r="F126" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G126" s="31"/>
+      <c r="H126" s="29"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="B128" s="67"/>
+      <c r="C128" s="67"/>
+      <c r="D128" s="67"/>
+      <c r="E128" s="68"/>
+      <c r="F128" s="46">
+        <v>2</v>
+      </c>
+      <c r="G128" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H128" s="54"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="69">
+        <v>38</v>
+      </c>
+      <c r="B130" s="52">
+        <v>38.1</v>
+      </c>
+      <c r="C130" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D130" s="39">
+        <v>2</v>
+      </c>
+      <c r="E130" s="31"/>
+      <c r="F130" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G130" s="31"/>
+      <c r="H130" s="29"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="80"/>
+      <c r="B131" s="52">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="C131" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D131" s="39">
+        <v>1</v>
+      </c>
+      <c r="E131" s="31"/>
+      <c r="F131" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G131" s="31"/>
+      <c r="H131" s="29"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="80"/>
+      <c r="B132" s="52">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="C132" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D132" s="39">
+        <v>2</v>
+      </c>
+      <c r="E132" s="31"/>
+      <c r="F132" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G132" s="31"/>
+      <c r="H132" s="29"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="80"/>
+      <c r="B133" s="52">
+        <v>38.4</v>
+      </c>
+      <c r="C133" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="D133" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="E133" s="31"/>
+      <c r="F133" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G133" s="31"/>
+      <c r="H133" s="29"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="80"/>
+      <c r="B134" s="52">
+        <v>38.5</v>
+      </c>
+      <c r="C134" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D134" s="43">
+        <v>1</v>
+      </c>
+      <c r="E134" s="31"/>
+      <c r="F134" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G134" s="31"/>
+      <c r="H134" s="29"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="B136" s="67"/>
+      <c r="C136" s="67"/>
+      <c r="D136" s="67"/>
+      <c r="E136" s="68"/>
+      <c r="F136" s="46">
+        <v>2</v>
+      </c>
+      <c r="G136" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H136" s="54"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="69">
+        <v>28</v>
+      </c>
+      <c r="B138" s="52">
+        <v>28.1</v>
+      </c>
+      <c r="C138" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D138" s="39">
+        <v>2</v>
+      </c>
+      <c r="E138" s="31"/>
+      <c r="F138" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G138" s="31"/>
+      <c r="H138" s="29"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="80"/>
+      <c r="B139" s="52">
+        <v>28.2</v>
+      </c>
+      <c r="C139" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D139" s="39">
+        <v>1</v>
+      </c>
+      <c r="E139" s="31"/>
+      <c r="F139" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G139" s="31"/>
+      <c r="H139" s="29"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="80"/>
+      <c r="B140" s="52">
+        <v>28.3</v>
+      </c>
+      <c r="C140" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D140" s="39">
+        <v>2</v>
+      </c>
+      <c r="E140" s="31"/>
+      <c r="F140" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G140" s="31"/>
+      <c r="H140" s="29"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="80"/>
+      <c r="B141" s="52">
+        <v>28.4</v>
+      </c>
+      <c r="C141" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="D141" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="E141" s="31"/>
+      <c r="F141" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G141" s="31"/>
+      <c r="H141" s="29"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="80"/>
+      <c r="B142" s="52">
+        <v>28.5</v>
+      </c>
+      <c r="C142" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D142" s="43">
+        <v>1</v>
+      </c>
+      <c r="E142" s="31"/>
+      <c r="F142" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G142" s="31"/>
+      <c r="H142" s="29"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="B144" s="67"/>
+      <c r="C144" s="67"/>
+      <c r="D144" s="67"/>
+      <c r="E144" s="68"/>
+      <c r="F144" s="46">
+        <v>4</v>
+      </c>
+      <c r="G144" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H144" s="54"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="69">
+        <v>39</v>
+      </c>
+      <c r="B146" s="52">
+        <v>39.1</v>
+      </c>
+      <c r="C146" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D146" s="39">
+        <v>3</v>
+      </c>
+      <c r="E146" s="31"/>
+      <c r="F146" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G146" s="31"/>
+      <c r="H146" s="29"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="80"/>
+      <c r="B147" s="52">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="C147" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D147" s="39">
+        <v>3</v>
+      </c>
+      <c r="E147" s="31"/>
+      <c r="F147" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G147" s="31"/>
+      <c r="H147" s="29"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="80"/>
+      <c r="B148" s="52">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="C148" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D148" s="39">
+        <v>4</v>
+      </c>
+      <c r="E148" s="31"/>
+      <c r="F148" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G148" s="31"/>
+      <c r="H148" s="29"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="80"/>
+      <c r="B149" s="52">
+        <v>39.4</v>
+      </c>
+      <c r="C149" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="D149" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="E149" s="31"/>
+      <c r="F149" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G149" s="31"/>
+      <c r="H149" s="29"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="80"/>
+      <c r="B150" s="52">
+        <v>39.5</v>
+      </c>
+      <c r="C150" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D150" s="43">
+        <v>1</v>
+      </c>
+      <c r="E150" s="31"/>
+      <c r="F150" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G150" s="31"/>
+      <c r="H150" s="29"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="B152" s="67"/>
+      <c r="C152" s="67"/>
+      <c r="D152" s="67"/>
+      <c r="E152" s="68"/>
+      <c r="F152" s="46">
+        <v>1</v>
+      </c>
+      <c r="G152" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H152" s="54"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G153" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="82">
+        <v>29</v>
+      </c>
+      <c r="B154" s="52">
+        <v>29.1</v>
+      </c>
+      <c r="C154" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D154" s="39">
+        <v>1</v>
+      </c>
+      <c r="E154" s="31"/>
+      <c r="F154" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G154" s="31"/>
+      <c r="H154" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A152:E152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="A130:A134"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A11:A17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G71">
+    <cfRule type="notContainsBlanks" dxfId="57" priority="33">
+      <formula>LEN(TRIM(L71))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="notContainsBlanks" dxfId="56" priority="45">
+      <formula>LEN(TRIM(F30))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1 A1">
+    <cfRule type="notContainsBlanks" dxfId="55" priority="48">
+      <formula>LEN(TRIM(F1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9 A9">
+    <cfRule type="notContainsBlanks" dxfId="54" priority="47">
+      <formula>LEN(TRIM(F9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19 A19">
+    <cfRule type="notContainsBlanks" dxfId="53" priority="46">
+      <formula>LEN(TRIM(F19))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="notContainsBlanks" dxfId="52" priority="41">
+      <formula>LEN(TRIM(L30))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="notContainsBlanks" dxfId="51" priority="44">
+      <formula>LEN(TRIM(L1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="notContainsBlanks" dxfId="50" priority="43">
+      <formula>LEN(TRIM(L9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="notContainsBlanks" dxfId="49" priority="42">
+      <formula>LEN(TRIM(L19))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="notContainsBlanks" dxfId="48" priority="49">
+      <formula>LEN(TRIM(K1048559))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41 A41">
+    <cfRule type="notContainsBlanks" dxfId="47" priority="40">
+      <formula>LEN(TRIM(F41))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="39">
+      <formula>LEN(TRIM(L41))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51 A51">
+    <cfRule type="notContainsBlanks" dxfId="45" priority="38">
+      <formula>LEN(TRIM(F51))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="notContainsBlanks" dxfId="44" priority="37">
+      <formula>LEN(TRIM(L51))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61 A61">
+    <cfRule type="notContainsBlanks" dxfId="43" priority="36">
+      <formula>LEN(TRIM(F61))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G61">
+    <cfRule type="notContainsBlanks" dxfId="42" priority="35">
+      <formula>LEN(TRIM(L61))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71 A71">
+    <cfRule type="notContainsBlanks" dxfId="41" priority="34">
+      <formula>LEN(TRIM(F71))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79">
+    <cfRule type="notContainsBlanks" dxfId="40" priority="31">
+      <formula>LEN(TRIM(L79))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79 A79">
+    <cfRule type="notContainsBlanks" dxfId="39" priority="32">
+      <formula>LEN(TRIM(F79))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G87">
+    <cfRule type="notContainsBlanks" dxfId="38" priority="29">
+      <formula>LEN(TRIM(L87))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87 A87">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="30">
+      <formula>LEN(TRIM(F87))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G95">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="27">
+      <formula>LEN(TRIM(L95))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95">
+    <cfRule type="notContainsBlanks" dxfId="35" priority="28">
+      <formula>LEN(TRIM(F95))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G103">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="25">
+      <formula>LEN(TRIM(L103))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="26">
+      <formula>LEN(TRIM(F103))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="24">
+      <formula>LEN(TRIM(K95))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F103">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="23">
+      <formula>LEN(TRIM(K103))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G112">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="21">
+      <formula>LEN(TRIM(L112))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="22">
+      <formula>LEN(TRIM(F112))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F128">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="10">
+      <formula>LEN(TRIM(K128))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F112">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="19">
+      <formula>LEN(TRIM(K112))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G120">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="17">
+      <formula>LEN(TRIM(L120))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="18">
+      <formula>LEN(TRIM(F120))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F120">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="16">
+      <formula>LEN(TRIM(K120))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G144">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="5">
+      <formula>LEN(TRIM(L144))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A144">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="6">
+      <formula>LEN(TRIM(F144))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F144">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="4">
+      <formula>LEN(TRIM(K144))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F152">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(K152))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G128">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="11">
+      <formula>LEN(TRIM(L128))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="12">
+      <formula>LEN(TRIM(F128))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F136">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="7">
+      <formula>LEN(TRIM(K136))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G136">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+      <formula>LEN(TRIM(L136))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="9">
+      <formula>LEN(TRIM(F136))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G152">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(L152))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
+      <formula>LEN(TRIM(F152))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -805,7 +805,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -879,22 +879,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -917,18 +922,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -937,411 +939,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="111">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="83">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2802,20 +2411,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="54"/>
+      <c r="H1" s="57"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2854,7 +2463,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56">
+      <c r="A3" s="61">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -2888,7 +2497,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -2913,7 +2522,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -2938,7 +2547,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -2963,7 +2572,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -2986,7 +2595,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="5">
         <v>6.6</v>
       </c>
@@ -3017,20 +2626,20 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="54"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="54"/>
+      <c r="H10" s="57"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3061,7 +2670,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="56">
+      <c r="A12" s="61">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -3086,7 +2695,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -3109,7 +2718,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -3124,43 +2733,43 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="62">
+      <c r="A15" s="62"/>
+      <c r="B15" s="65">
         <v>1.4</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="65">
         <v>1</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="64">
         <v>1</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="59">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
       <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="16">
         <v>1.5</v>
       </c>
@@ -3191,20 +2800,20 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="54"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="53" t="s">
+      <c r="G19" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="54"/>
+      <c r="H19" s="57"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3235,7 +2844,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56">
+      <c r="A21" s="61">
         <v>11</v>
       </c>
       <c r="B21" s="22">
@@ -3262,7 +2871,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="22">
         <v>11.2</v>
       </c>
@@ -3287,7 +2896,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="58"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -3306,20 +2915,20 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="54"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="57"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="53" t="s">
+      <c r="G25" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="54"/>
+      <c r="H25" s="57"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3350,7 +2959,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56">
+      <c r="A27" s="61">
         <v>12</v>
       </c>
       <c r="B27" s="22">
@@ -3377,7 +2986,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="22">
         <v>12.2</v>
       </c>
@@ -3400,7 +3009,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="22">
         <v>12.3</v>
       </c>
@@ -3440,20 +3049,20 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="54"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="57"/>
       <c r="F32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="53" t="s">
+      <c r="G32" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="54"/>
+      <c r="H32" s="57"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3484,7 +3093,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="56"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3495,7 +3104,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -3506,7 +3115,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="57"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -3517,7 +3126,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="57"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -3528,7 +3137,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="57"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -3539,7 +3148,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="57"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -3550,7 +3159,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="58"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -11246,6 +10855,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:E19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G15:G16"/>
@@ -11257,18 +10875,9 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G1 A1 F10:G10 A10 F19:G19 A19 F25:G25 A25 F32:G32 A32">
-    <cfRule type="notContainsBlanks" dxfId="95" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="82" priority="1">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11299,17 +10908,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="65" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="66"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
@@ -11350,7 +10959,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56">
+      <c r="A3" s="61">
         <v>21</v>
       </c>
       <c r="B3" s="5">
@@ -11383,7 +10992,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="5">
         <v>21.2</v>
       </c>
@@ -11407,7 +11016,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="5">
         <v>21.3</v>
       </c>
@@ -11431,7 +11040,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="5">
         <v>21.4</v>
       </c>
@@ -11455,7 +11064,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="5">
         <v>21.5</v>
       </c>
@@ -11477,7 +11086,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="5">
         <v>21.6</v>
       </c>
@@ -11499,7 +11108,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="5">
         <v>21.7</v>
       </c>
@@ -11521,7 +11130,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="5">
         <v>21.8</v>
       </c>
@@ -11545,7 +11154,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="5">
         <v>21.9</v>
       </c>
@@ -11578,17 +11187,17 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="65" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="66"/>
+      <c r="G13" s="69"/>
       <c r="H13" s="4" t="s">
         <v>4</v>
       </c>
@@ -11620,7 +11229,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="56">
+      <c r="A15" s="61">
         <v>20</v>
       </c>
       <c r="B15" s="5">
@@ -11644,7 +11253,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="5">
         <v>20.2</v>
       </c>
@@ -11666,7 +11275,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="5">
         <v>20.3</v>
       </c>
@@ -11690,7 +11299,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="5">
         <v>20.399999999999999</v>
       </c>
@@ -11720,17 +11329,17 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="65" t="s">
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="66"/>
+      <c r="G20" s="69"/>
       <c r="H20" s="4" t="s">
         <v>4</v>
       </c>
@@ -11762,7 +11371,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="56">
+      <c r="A22" s="61">
         <v>5</v>
       </c>
       <c r="B22" s="5">
@@ -11784,7 +11393,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="58"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="5">
         <v>5.2</v>
       </c>
@@ -11810,17 +11419,17 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="65" t="s">
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="66"/>
+      <c r="G25" s="69"/>
       <c r="H25" s="4" t="s">
         <v>4</v>
       </c>
@@ -11852,7 +11461,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56">
+      <c r="A27" s="61">
         <v>8</v>
       </c>
       <c r="B27" s="5">
@@ -11876,7 +11485,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="63"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="5">
         <v>8.1999999999999993</v>
       </c>
@@ -11898,7 +11507,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="63"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="5">
         <v>8.3000000000000007</v>
       </c>
@@ -11920,7 +11529,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="63"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="5">
         <v>8.4</v>
       </c>
@@ -11944,7 +11553,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="64"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="5">
         <v>8.5</v>
       </c>
@@ -11974,17 +11583,17 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="65" t="s">
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="66"/>
+      <c r="G33" s="69"/>
       <c r="H33" s="4" t="s">
         <v>4</v>
       </c>
@@ -12016,7 +11625,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="56">
+      <c r="A35" s="61">
         <v>4</v>
       </c>
       <c r="B35" s="5">
@@ -12040,7 +11649,7 @@
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="63"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="5">
         <v>4.2</v>
       </c>
@@ -12062,7 +11671,7 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="63"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="5">
         <v>4.3</v>
       </c>
@@ -12080,7 +11689,7 @@
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="64"/>
+      <c r="A38" s="67"/>
       <c r="B38" s="5">
         <v>4.4000000000000004</v>
       </c>
@@ -19774,47 +19383,47 @@
     <mergeCell ref="A27:A31"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 F13 H13">
-    <cfRule type="notContainsBlanks" dxfId="94" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="81" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="notContainsBlanks" dxfId="93" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="80" priority="2">
       <formula>LEN(TRIM(A13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="notContainsBlanks" dxfId="92" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="79" priority="3">
       <formula>LEN(TRIM(A20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="notContainsBlanks" dxfId="91" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="78" priority="4">
       <formula>LEN(TRIM(A25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 H1">
-    <cfRule type="notContainsBlanks" dxfId="90" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="77" priority="5">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 H20">
-    <cfRule type="notContainsBlanks" dxfId="89" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="76" priority="6">
       <formula>LEN(TRIM(F20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25 H25">
-    <cfRule type="notContainsBlanks" dxfId="88" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="75" priority="7">
       <formula>LEN(TRIM(F25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="notContainsBlanks" dxfId="87" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="74" priority="8">
       <formula>LEN(TRIM(A33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33 H33">
-    <cfRule type="notContainsBlanks" dxfId="86" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="73" priority="9">
       <formula>LEN(TRIM(F33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19845,20 +19454,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="54"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -19893,7 +19502,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="69">
+      <c r="A3" s="79">
         <v>22</v>
       </c>
       <c r="B3" s="31">
@@ -19923,7 +19532,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="31">
         <v>22.2</v>
       </c>
@@ -19945,7 +19554,7 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="31">
         <v>22.3</v>
       </c>
@@ -19967,20 +19576,20 @@
       <c r="H5" s="34"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="54"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="57"/>
       <c r="F7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="54"/>
+      <c r="H7" s="57"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
@@ -20009,7 +19618,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="69">
+      <c r="A9" s="79">
         <v>33</v>
       </c>
       <c r="B9" s="31">
@@ -20029,7 +19638,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="69"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -20047,7 +19656,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="69"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -20065,7 +19674,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="69"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="31">
         <v>33.4</v>
       </c>
@@ -20083,7 +19692,7 @@
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="69"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="31">
         <v>33.5</v>
       </c>
@@ -20101,20 +19710,20 @@
       <c r="H13" s="34"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="81"/>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="53" t="s">
+      <c r="G15" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="54"/>
+      <c r="H15" s="57"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
@@ -20143,7 +19752,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="72">
+      <c r="A17" s="75">
         <v>34</v>
       </c>
       <c r="B17" s="31">
@@ -20163,7 +19772,7 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="72"/>
+      <c r="A18" s="75"/>
       <c r="B18" s="43">
         <v>34.200000000000003</v>
       </c>
@@ -20181,7 +19790,7 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="72"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="31">
         <v>34.299999999999997</v>
       </c>
@@ -20199,7 +19808,7 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="72"/>
+      <c r="A20" s="75"/>
       <c r="B20" s="43">
         <v>34.4</v>
       </c>
@@ -20217,7 +19826,7 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="72"/>
+      <c r="A21" s="75"/>
       <c r="B21" s="31">
         <v>34.5</v>
       </c>
@@ -20235,7 +19844,7 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="72"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="43">
         <v>34.6</v>
       </c>
@@ -20253,7 +19862,7 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="73"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="31">
         <v>34.700000000000003</v>
       </c>
@@ -20271,20 +19880,20 @@
       <c r="H23" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="68"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="71"/>
       <c r="F25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="53" t="s">
+      <c r="G25" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="54"/>
+      <c r="H25" s="57"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
@@ -20313,7 +19922,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="74">
+      <c r="A27" s="72">
         <v>35</v>
       </c>
       <c r="B27" s="5">
@@ -20333,7 +19942,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="75"/>
+      <c r="A28" s="77"/>
       <c r="B28" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -20351,7 +19960,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="75"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -20369,7 +19978,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="75"/>
+      <c r="A30" s="77"/>
       <c r="B30" s="31">
         <v>35.4</v>
       </c>
@@ -20387,7 +19996,7 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="75"/>
+      <c r="A31" s="77"/>
       <c r="B31" s="5">
         <v>35.5</v>
       </c>
@@ -20405,7 +20014,7 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="75"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="31">
         <v>35.6</v>
       </c>
@@ -20423,7 +20032,7 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="75"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -20441,7 +20050,7 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="76"/>
+      <c r="A34" s="78"/>
       <c r="B34" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -20459,20 +20068,20 @@
       <c r="H34" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="68"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="71"/>
       <c r="F36" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="53" t="s">
+      <c r="G36" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H36" s="54"/>
+      <c r="H36" s="57"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
@@ -20501,7 +20110,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="56">
+      <c r="A38" s="61">
         <v>40</v>
       </c>
       <c r="B38" s="5">
@@ -20521,7 +20130,7 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="63"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="5">
         <v>40.200000000000003</v>
       </c>
@@ -20539,7 +20148,7 @@
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="63"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="5">
         <v>40.299999999999997</v>
       </c>
@@ -20557,7 +20166,7 @@
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="63"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="5">
         <v>40.4</v>
       </c>
@@ -20575,7 +20184,7 @@
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="63"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="5">
         <v>40.5</v>
       </c>
@@ -20593,7 +20202,7 @@
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="63"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="5">
         <v>40.6</v>
       </c>
@@ -20611,7 +20220,7 @@
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="63"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="5">
         <v>40.700000000000003</v>
       </c>
@@ -20629,7 +20238,7 @@
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="64"/>
+      <c r="A45" s="67"/>
       <c r="B45" s="5">
         <v>40.799999999999997</v>
       </c>
@@ -20647,20 +20256,20 @@
       <c r="H45" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="67"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="68"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="71"/>
       <c r="F47" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G47" s="53" t="s">
+      <c r="G47" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H47" s="54"/>
+      <c r="H47" s="57"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -20689,7 +20298,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="56">
+      <c r="A49" s="61">
         <v>23</v>
       </c>
       <c r="B49" s="5">
@@ -20713,7 +20322,7 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="57"/>
+      <c r="A50" s="62"/>
       <c r="B50" s="5">
         <v>23.2</v>
       </c>
@@ -20735,7 +20344,7 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="57"/>
+      <c r="A51" s="62"/>
       <c r="B51" s="5">
         <v>23.3</v>
       </c>
@@ -20757,7 +20366,7 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="57"/>
+      <c r="A52" s="62"/>
       <c r="B52" s="5">
         <v>23.4</v>
       </c>
@@ -20779,7 +20388,7 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="57"/>
+      <c r="A53" s="62"/>
       <c r="B53" s="5">
         <v>23.5</v>
       </c>
@@ -20801,7 +20410,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="57"/>
+      <c r="A54" s="62"/>
       <c r="B54" s="5">
         <v>23.6</v>
       </c>
@@ -20823,7 +20432,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="57"/>
+      <c r="A55" s="62"/>
       <c r="B55" s="5">
         <v>23.7</v>
       </c>
@@ -20845,7 +20454,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="58"/>
+      <c r="A56" s="60"/>
       <c r="B56" s="5">
         <v>23.8</v>
       </c>
@@ -20867,20 +20476,20 @@
       <c r="H56" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="53" t="s">
+      <c r="A58" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="67"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="68"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="71"/>
       <c r="F58" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G58" s="53" t="s">
+      <c r="G58" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H58" s="54"/>
+      <c r="H58" s="57"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
@@ -20909,7 +20518,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="56">
+      <c r="A60" s="61">
         <v>3</v>
       </c>
       <c r="B60" s="5">
@@ -20933,7 +20542,7 @@
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="57"/>
+      <c r="A61" s="62"/>
       <c r="B61" s="5">
         <v>3.2</v>
       </c>
@@ -20955,7 +20564,7 @@
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="57"/>
+      <c r="A62" s="62"/>
       <c r="B62" s="5">
         <v>3.3</v>
       </c>
@@ -20977,7 +20586,7 @@
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="57"/>
+      <c r="A63" s="62"/>
       <c r="B63" s="5">
         <v>3.4</v>
       </c>
@@ -20999,7 +20608,7 @@
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="57"/>
+      <c r="A64" s="62"/>
       <c r="B64" s="5">
         <v>3.5</v>
       </c>
@@ -21023,7 +20632,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="57"/>
+      <c r="A65" s="62"/>
       <c r="B65" s="5">
         <v>3.6</v>
       </c>
@@ -21045,7 +20654,7 @@
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="58"/>
+      <c r="A66" s="60"/>
       <c r="B66" s="5">
         <v>3.7</v>
       </c>
@@ -21067,20 +20676,20 @@
       <c r="H66" s="3"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="53" t="s">
+      <c r="A68" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="67"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="68"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="71"/>
       <c r="F68" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G68" s="53" t="s">
+      <c r="G68" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H68" s="54"/>
+      <c r="H68" s="57"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
@@ -21109,7 +20718,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="56">
+      <c r="A70" s="61">
         <v>41</v>
       </c>
       <c r="B70" s="5">
@@ -21129,7 +20738,7 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="57"/>
+      <c r="A71" s="62"/>
       <c r="B71" s="5">
         <v>41.2</v>
       </c>
@@ -21147,7 +20756,7 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="57"/>
+      <c r="A72" s="62"/>
       <c r="B72" s="5">
         <v>41.3</v>
       </c>
@@ -21165,7 +20774,7 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="57"/>
+      <c r="A73" s="62"/>
       <c r="B73" s="5">
         <v>41.4</v>
       </c>
@@ -21183,7 +20792,7 @@
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="57"/>
+      <c r="A74" s="62"/>
       <c r="B74" s="5">
         <v>41.5</v>
       </c>
@@ -21201,7 +20810,7 @@
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="57"/>
+      <c r="A75" s="62"/>
       <c r="B75" s="5">
         <v>41.6</v>
       </c>
@@ -21219,7 +20828,7 @@
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="58"/>
+      <c r="A76" s="60"/>
       <c r="B76" s="5">
         <v>41.7</v>
       </c>
@@ -21237,20 +20846,20 @@
       <c r="H76" s="3"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="53" t="s">
+      <c r="A78" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="67"/>
-      <c r="C78" s="67"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="68"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="71"/>
       <c r="F78" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G78" s="53" t="s">
+      <c r="G78" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H78" s="54"/>
+      <c r="H78" s="57"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
@@ -21279,7 +20888,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="56">
+      <c r="A80" s="61">
         <v>25</v>
       </c>
       <c r="B80" s="5">
@@ -21303,7 +20912,7 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="57"/>
+      <c r="A81" s="62"/>
       <c r="B81" s="5">
         <v>25.2</v>
       </c>
@@ -21325,7 +20934,7 @@
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="57"/>
+      <c r="A82" s="62"/>
       <c r="B82" s="5">
         <v>25.3</v>
       </c>
@@ -21347,7 +20956,7 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="57"/>
+      <c r="A83" s="62"/>
       <c r="B83" s="5">
         <v>25.4</v>
       </c>
@@ -21369,7 +20978,7 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="57"/>
+      <c r="A84" s="62"/>
       <c r="B84" s="5">
         <v>25.5</v>
       </c>
@@ -21391,7 +21000,7 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="57"/>
+      <c r="A85" s="62"/>
       <c r="B85" s="5">
         <v>25.6</v>
       </c>
@@ -21413,7 +21022,7 @@
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="57"/>
+      <c r="A86" s="62"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -21423,7 +21032,7 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="58"/>
+      <c r="A87" s="60"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -21433,20 +21042,20 @@
       <c r="H87" s="3"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="53" t="s">
+      <c r="A89" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="B89" s="67"/>
-      <c r="C89" s="67"/>
-      <c r="D89" s="67"/>
-      <c r="E89" s="68"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="70"/>
+      <c r="D89" s="70"/>
+      <c r="E89" s="71"/>
       <c r="F89" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G89" s="53" t="s">
+      <c r="G89" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H89" s="54"/>
+      <c r="H89" s="57"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
@@ -21475,7 +21084,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="56">
+      <c r="A91" s="61">
         <v>26</v>
       </c>
       <c r="B91" s="39">
@@ -21499,7 +21108,7 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="57"/>
+      <c r="A92" s="62"/>
       <c r="B92" s="39">
         <v>26.2</v>
       </c>
@@ -21521,7 +21130,7 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="57"/>
+      <c r="A93" s="62"/>
       <c r="B93" s="39">
         <v>26.3</v>
       </c>
@@ -21543,7 +21152,7 @@
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="57"/>
+      <c r="A94" s="62"/>
       <c r="B94" s="39">
         <v>26.4</v>
       </c>
@@ -21565,7 +21174,7 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="57"/>
+      <c r="A95" s="62"/>
       <c r="B95" s="39">
         <v>26.5</v>
       </c>
@@ -21587,7 +21196,7 @@
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="57"/>
+      <c r="A96" s="62"/>
       <c r="B96" s="39">
         <v>26.6</v>
       </c>
@@ -21609,7 +21218,7 @@
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="57"/>
+      <c r="A97" s="62"/>
       <c r="B97" s="39">
         <v>26.7</v>
       </c>
@@ -21631,7 +21240,7 @@
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="57"/>
+      <c r="A98" s="62"/>
       <c r="B98" s="39">
         <v>26.8</v>
       </c>
@@ -21653,7 +21262,7 @@
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="58"/>
+      <c r="A99" s="60"/>
       <c r="B99" s="39">
         <v>26.9</v>
       </c>
@@ -21675,20 +21284,20 @@
       <c r="H99" s="3"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="53" t="s">
+      <c r="A101" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="B101" s="67"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="67"/>
-      <c r="E101" s="68"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="70"/>
+      <c r="D101" s="70"/>
+      <c r="E101" s="71"/>
       <c r="F101" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G101" s="53" t="s">
+      <c r="G101" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H101" s="54"/>
+      <c r="H101" s="57"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
@@ -21717,7 +21326,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="56">
+      <c r="A103" s="61">
         <v>27</v>
       </c>
       <c r="B103" s="5">
@@ -21741,7 +21350,7 @@
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="57"/>
+      <c r="A104" s="62"/>
       <c r="B104" s="5">
         <v>27.2</v>
       </c>
@@ -21763,7 +21372,7 @@
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="57"/>
+      <c r="A105" s="62"/>
       <c r="B105" s="5">
         <v>27.3</v>
       </c>
@@ -21785,7 +21394,7 @@
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="57"/>
+      <c r="A106" s="62"/>
       <c r="B106" s="5">
         <v>27.4</v>
       </c>
@@ -21807,7 +21416,7 @@
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="57"/>
+      <c r="A107" s="62"/>
       <c r="B107" s="5">
         <v>27.5</v>
       </c>
@@ -21829,7 +21438,7 @@
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="57"/>
+      <c r="A108" s="62"/>
       <c r="B108" s="5">
         <v>27.6</v>
       </c>
@@ -21851,7 +21460,7 @@
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="58"/>
+      <c r="A109" s="60"/>
       <c r="B109" s="5">
         <v>27.7</v>
       </c>
@@ -21873,20 +21482,20 @@
       <c r="H109" s="3"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="53" t="s">
+      <c r="A111" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="B111" s="67"/>
-      <c r="C111" s="67"/>
-      <c r="D111" s="67"/>
-      <c r="E111" s="68"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="70"/>
+      <c r="D111" s="70"/>
+      <c r="E111" s="71"/>
       <c r="F111" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G111" s="53" t="s">
+      <c r="G111" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H111" s="54"/>
+      <c r="H111" s="57"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
@@ -21915,7 +21524,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="74">
+      <c r="A113" s="72">
         <v>4</v>
       </c>
       <c r="B113" s="31">
@@ -21939,7 +21548,7 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="77"/>
+      <c r="A114" s="73"/>
       <c r="B114" s="31">
         <v>4.2</v>
       </c>
@@ -21961,7 +21570,7 @@
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="77"/>
+      <c r="A115" s="73"/>
       <c r="B115" s="31">
         <v>4.3</v>
       </c>
@@ -21983,7 +21592,7 @@
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="77"/>
+      <c r="A116" s="73"/>
       <c r="B116" s="31">
         <v>4.4000000000000004</v>
       </c>
@@ -22005,7 +21614,7 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="77"/>
+      <c r="A117" s="73"/>
       <c r="B117" s="31">
         <v>4.5</v>
       </c>
@@ -22027,7 +21636,7 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="77"/>
+      <c r="A118" s="73"/>
       <c r="B118" s="31">
         <v>4.5999999999999996</v>
       </c>
@@ -22051,7 +21660,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="77"/>
+      <c r="A119" s="73"/>
       <c r="B119" s="31">
         <v>4.7</v>
       </c>
@@ -22073,7 +21682,7 @@
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="77"/>
+      <c r="A120" s="73"/>
       <c r="B120" s="31">
         <v>4.8</v>
       </c>
@@ -22097,7 +21706,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="77"/>
+      <c r="A121" s="73"/>
       <c r="B121" s="31">
         <v>4.9000000000000004</v>
       </c>
@@ -22121,7 +21730,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="78"/>
+      <c r="A122" s="74"/>
       <c r="B122" s="32" t="s">
         <v>141</v>
       </c>
@@ -22145,20 +21754,20 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="53" t="s">
+      <c r="A124" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="B124" s="67"/>
-      <c r="C124" s="67"/>
-      <c r="D124" s="67"/>
-      <c r="E124" s="68"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="70"/>
+      <c r="E124" s="71"/>
       <c r="F124" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G124" s="53" t="s">
+      <c r="G124" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H124" s="54"/>
+      <c r="H124" s="57"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
@@ -22187,7 +21796,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="56">
+      <c r="A126" s="61">
         <v>30</v>
       </c>
       <c r="B126" s="5">
@@ -22207,7 +21816,7 @@
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="57"/>
+      <c r="A127" s="62"/>
       <c r="B127" s="5">
         <v>27.2</v>
       </c>
@@ -22225,7 +21834,7 @@
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="57"/>
+      <c r="A128" s="62"/>
       <c r="B128" s="5">
         <v>27.3</v>
       </c>
@@ -22243,7 +21852,7 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="57"/>
+      <c r="A129" s="62"/>
       <c r="B129" s="5">
         <v>27.4</v>
       </c>
@@ -22261,7 +21870,7 @@
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="57"/>
+      <c r="A130" s="62"/>
       <c r="B130" s="5">
         <v>27.5</v>
       </c>
@@ -22279,7 +21888,7 @@
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="57"/>
+      <c r="A131" s="62"/>
       <c r="B131" s="5">
         <v>27.6</v>
       </c>
@@ -22297,7 +21906,7 @@
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="58"/>
+      <c r="A132" s="60"/>
       <c r="B132" s="5">
         <v>27.7</v>
       </c>
@@ -22315,20 +21924,20 @@
       <c r="H132" s="3"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="53" t="s">
+      <c r="A134" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="B134" s="67"/>
-      <c r="C134" s="67"/>
-      <c r="D134" s="67"/>
-      <c r="E134" s="68"/>
+      <c r="B134" s="70"/>
+      <c r="C134" s="70"/>
+      <c r="D134" s="70"/>
+      <c r="E134" s="71"/>
       <c r="F134" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G134" s="53" t="s">
+      <c r="G134" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H134" s="54"/>
+      <c r="H134" s="57"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
@@ -22357,7 +21966,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="56">
+      <c r="A136" s="61">
         <v>32</v>
       </c>
       <c r="B136" s="5">
@@ -22381,7 +21990,7 @@
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="57"/>
+      <c r="A137" s="62"/>
       <c r="B137" s="5">
         <v>32.200000000000003</v>
       </c>
@@ -22403,7 +22012,7 @@
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="57"/>
+      <c r="A138" s="62"/>
       <c r="B138" s="5">
         <v>32.299999999999997</v>
       </c>
@@ -22425,7 +22034,7 @@
       <c r="H138" s="3"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="57"/>
+      <c r="A139" s="62"/>
       <c r="B139" s="5">
         <v>32.4</v>
       </c>
@@ -22447,7 +22056,7 @@
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="57"/>
+      <c r="A140" s="62"/>
       <c r="B140" s="5">
         <v>32.5</v>
       </c>
@@ -22471,7 +22080,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="57"/>
+      <c r="A141" s="62"/>
       <c r="B141" s="5">
         <v>32.6</v>
       </c>
@@ -22493,7 +22102,7 @@
       <c r="H141" s="3"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="58"/>
+      <c r="A142" s="60"/>
       <c r="B142" s="5">
         <v>32.700000000000003</v>
       </c>
@@ -22516,32 +22125,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="A113:A122"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A38:A45"/>
     <mergeCell ref="A134:E134"/>
     <mergeCell ref="G134:H134"/>
     <mergeCell ref="A136:A142"/>
@@ -22558,144 +22141,170 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A113:A122"/>
   </mergeCells>
   <conditionalFormatting sqref="A36">
-    <cfRule type="notContainsBlanks" dxfId="85" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="72" priority="23">
       <formula>LEN(TRIM(F36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1 A1">
-    <cfRule type="notContainsBlanks" dxfId="84" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="71" priority="27">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 A7">
-    <cfRule type="notContainsBlanks" dxfId="83" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="70" priority="26">
       <formula>LEN(TRIM(F7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15 A15">
-    <cfRule type="notContainsBlanks" dxfId="82" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="69" priority="25">
       <formula>LEN(TRIM(F15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25 A25">
-    <cfRule type="notContainsBlanks" dxfId="81" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="68" priority="24">
       <formula>LEN(TRIM(F25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="notContainsBlanks" dxfId="80" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="67" priority="19">
       <formula>LEN(TRIM(L36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="notContainsBlanks" dxfId="79" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="66" priority="22">
       <formula>LEN(TRIM(L7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="notContainsBlanks" dxfId="78" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="65" priority="21">
       <formula>LEN(TRIM(L15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="notContainsBlanks" dxfId="77" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="64" priority="20">
       <formula>LEN(TRIM(L25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 A47">
-    <cfRule type="notContainsBlanks" dxfId="76" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="63" priority="18">
       <formula>LEN(TRIM(F47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="notContainsBlanks" dxfId="75" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="62" priority="17">
       <formula>LEN(TRIM(L47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58 A58">
-    <cfRule type="notContainsBlanks" dxfId="74" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="61" priority="16">
       <formula>LEN(TRIM(F58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="notContainsBlanks" dxfId="73" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="60" priority="15">
       <formula>LEN(TRIM(L58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68 A68">
-    <cfRule type="notContainsBlanks" dxfId="72" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="59" priority="14">
       <formula>LEN(TRIM(F68))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="notContainsBlanks" dxfId="71" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="58" priority="13">
       <formula>LEN(TRIM(L68))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78 A78">
-    <cfRule type="notContainsBlanks" dxfId="70" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="57" priority="12">
       <formula>LEN(TRIM(F78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="notContainsBlanks" dxfId="69" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="56" priority="11">
       <formula>LEN(TRIM(L78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89 A89">
-    <cfRule type="notContainsBlanks" dxfId="68" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="55" priority="10">
       <formula>LEN(TRIM(F89))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="notContainsBlanks" dxfId="67" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="54" priority="9">
       <formula>LEN(TRIM(L89))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101 A101">
-    <cfRule type="notContainsBlanks" dxfId="66" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="53" priority="8">
       <formula>LEN(TRIM(F101))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G101">
-    <cfRule type="notContainsBlanks" dxfId="65" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="52" priority="7">
       <formula>LEN(TRIM(L101))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111 A111">
-    <cfRule type="notContainsBlanks" dxfId="64" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="51" priority="6">
       <formula>LEN(TRIM(F111))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111">
-    <cfRule type="notContainsBlanks" dxfId="63" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="50" priority="5">
       <formula>LEN(TRIM(L111))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F124 A124">
-    <cfRule type="notContainsBlanks" dxfId="62" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="49" priority="4">
       <formula>LEN(TRIM(F124))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124">
-    <cfRule type="notContainsBlanks" dxfId="61" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="48" priority="3">
       <formula>LEN(TRIM(L124))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="notContainsBlanks" dxfId="60" priority="28">
+    <cfRule type="notContainsBlanks" dxfId="47" priority="28">
       <formula>LEN(TRIM(K2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134 A134">
-    <cfRule type="notContainsBlanks" dxfId="59" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="2">
       <formula>LEN(TRIM(F134))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G134">
-    <cfRule type="notContainsBlanks" dxfId="58" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="45" priority="1">
       <formula>LEN(TRIM(L134))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22708,8 +22317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22725,20 +22334,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="54"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -22767,7 +22376,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="69">
+      <c r="A3" s="79">
         <v>33</v>
       </c>
       <c r="B3" s="31">
@@ -22787,7 +22396,7 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -22805,7 +22414,7 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -22823,7 +22432,7 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="69"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="31">
         <v>33.4</v>
       </c>
@@ -22841,7 +22450,7 @@
       <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="69"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="31">
         <v>33.5</v>
       </c>
@@ -22859,20 +22468,20 @@
       <c r="H7" s="34"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="81"/>
       <c r="F9" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="54"/>
+      <c r="H9" s="57"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
@@ -22901,7 +22510,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="72">
+      <c r="A11" s="75">
         <v>34</v>
       </c>
       <c r="B11" s="31">
@@ -22921,7 +22530,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="72"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="43">
         <v>34.200000000000003</v>
       </c>
@@ -22939,7 +22548,7 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="72"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="31">
         <v>34.299999999999997</v>
       </c>
@@ -22957,7 +22566,7 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="72"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="43">
         <v>34.4</v>
       </c>
@@ -22975,7 +22584,7 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="72"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="31">
         <v>34.5</v>
       </c>
@@ -22993,7 +22602,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="72"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="43">
         <v>34.6</v>
       </c>
@@ -23011,7 +22620,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="73"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="31">
         <v>34.700000000000003</v>
       </c>
@@ -23029,20 +22638,20 @@
       <c r="H17" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="68"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="71"/>
       <c r="F19" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="53" t="s">
+      <c r="G19" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="54"/>
+      <c r="H19" s="57"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
@@ -23071,7 +22680,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="74">
+      <c r="A21" s="72">
         <v>35</v>
       </c>
       <c r="B21" s="5">
@@ -23091,7 +22700,7 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="75"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -23109,7 +22718,7 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="75"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -23127,7 +22736,7 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="75"/>
+      <c r="A24" s="77"/>
       <c r="B24" s="31">
         <v>35.4</v>
       </c>
@@ -23145,7 +22754,7 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="75"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="5">
         <v>35.5</v>
       </c>
@@ -23163,7 +22772,7 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="75"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="31">
         <v>35.6</v>
       </c>
@@ -23181,7 +22790,7 @@
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="75"/>
+      <c r="A27" s="77"/>
       <c r="B27" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -23199,7 +22808,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="76"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -23217,20 +22826,20 @@
       <c r="H28" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="68"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="53" t="s">
+      <c r="G30" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="54"/>
+      <c r="H30" s="57"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
@@ -23259,7 +22868,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="56">
+      <c r="A32" s="61">
         <v>40</v>
       </c>
       <c r="B32" s="5">
@@ -23279,7 +22888,7 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="63"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="5">
         <v>40.200000000000003</v>
       </c>
@@ -23297,7 +22906,7 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="63"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="5">
         <v>40.299999999999997</v>
       </c>
@@ -23315,7 +22924,7 @@
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="63"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="5">
         <v>40.4</v>
       </c>
@@ -23333,7 +22942,7 @@
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="63"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="5">
         <v>40.5</v>
       </c>
@@ -23351,7 +22960,7 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="63"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="5">
         <v>40.6</v>
       </c>
@@ -23369,7 +22978,7 @@
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="63"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="5">
         <v>40.700000000000003</v>
       </c>
@@ -23387,7 +22996,7 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="64"/>
+      <c r="A39" s="67"/>
       <c r="B39" s="5">
         <v>40.799999999999997</v>
       </c>
@@ -23405,20 +23014,20 @@
       <c r="H39" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="67"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="68"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="71"/>
       <c r="F41" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="G41" s="53" t="s">
+      <c r="G41" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="54"/>
+      <c r="H41" s="57"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
@@ -23447,7 +23056,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="56">
+      <c r="A43" s="61">
         <v>41</v>
       </c>
       <c r="B43" s="5">
@@ -23467,7 +23076,7 @@
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="57"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="5">
         <v>41.2</v>
       </c>
@@ -23485,7 +23094,7 @@
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="57"/>
+      <c r="A45" s="62"/>
       <c r="B45" s="5">
         <v>41.3</v>
       </c>
@@ -23503,7 +23112,7 @@
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="57"/>
+      <c r="A46" s="62"/>
       <c r="B46" s="5">
         <v>41.4</v>
       </c>
@@ -23521,7 +23130,7 @@
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="57"/>
+      <c r="A47" s="62"/>
       <c r="B47" s="5">
         <v>41.5</v>
       </c>
@@ -23539,7 +23148,7 @@
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="57"/>
+      <c r="A48" s="62"/>
       <c r="B48" s="5">
         <v>41.6</v>
       </c>
@@ -23557,7 +23166,7 @@
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="58"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="5">
         <v>41.7</v>
       </c>
@@ -23575,20 +23184,20 @@
       <c r="H49" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="B51" s="67"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="68"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="71"/>
       <c r="F51" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="G51" s="53" t="s">
+      <c r="G51" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H51" s="54"/>
+      <c r="H51" s="57"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
@@ -23617,7 +23226,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="56">
+      <c r="A53" s="61">
         <v>30</v>
       </c>
       <c r="B53" s="5">
@@ -23637,7 +23246,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="57"/>
+      <c r="A54" s="62"/>
       <c r="B54" s="5">
         <v>27.2</v>
       </c>
@@ -23655,7 +23264,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="57"/>
+      <c r="A55" s="62"/>
       <c r="B55" s="5">
         <v>27.3</v>
       </c>
@@ -23673,7 +23282,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="57"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="5">
         <v>27.4</v>
       </c>
@@ -23691,7 +23300,7 @@
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="57"/>
+      <c r="A57" s="62"/>
       <c r="B57" s="5">
         <v>27.5</v>
       </c>
@@ -23709,7 +23318,7 @@
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="57"/>
+      <c r="A58" s="62"/>
       <c r="B58" s="5">
         <v>27.6</v>
       </c>
@@ -23727,7 +23336,7 @@
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="58"/>
+      <c r="A59" s="60"/>
       <c r="B59" s="5">
         <v>27.7</v>
       </c>
@@ -23745,20 +23354,20 @@
       <c r="H59" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="53" t="s">
+      <c r="A61" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="B61" s="67"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="68"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="71"/>
       <c r="F61" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="G61" s="53" t="s">
+      <c r="G61" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H61" s="54"/>
+      <c r="H61" s="57"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
@@ -23787,7 +23396,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="56">
+      <c r="A63" s="61">
         <v>30</v>
       </c>
       <c r="B63" s="5">
@@ -23807,7 +23416,7 @@
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="57"/>
+      <c r="A64" s="62"/>
       <c r="B64" s="5">
         <v>27.2</v>
       </c>
@@ -23825,7 +23434,7 @@
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="57"/>
+      <c r="A65" s="62"/>
       <c r="B65" s="5">
         <v>27.3</v>
       </c>
@@ -23843,7 +23452,7 @@
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="57"/>
+      <c r="A66" s="62"/>
       <c r="B66" s="5">
         <v>27.4</v>
       </c>
@@ -23861,7 +23470,7 @@
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="57"/>
+      <c r="A67" s="62"/>
       <c r="B67" s="5">
         <v>27.5</v>
       </c>
@@ -23879,7 +23488,7 @@
       <c r="H67" s="3"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="57"/>
+      <c r="A68" s="62"/>
       <c r="B68" s="5">
         <v>27.6</v>
       </c>
@@ -23897,7 +23506,7 @@
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="58"/>
+      <c r="A69" s="60"/>
       <c r="B69" s="5">
         <v>27.7</v>
       </c>
@@ -23915,20 +23524,20 @@
       <c r="H69" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="53" t="s">
+      <c r="A71" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="B71" s="67"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="68"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="71"/>
       <c r="F71" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G71" s="53" t="s">
+      <c r="G71" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H71" s="54"/>
+      <c r="H71" s="57"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="30" t="s">
@@ -23957,7 +23566,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="69">
+      <c r="A73" s="79">
         <v>24</v>
       </c>
       <c r="B73" s="28">
@@ -23970,14 +23579,14 @@
         <v>2</v>
       </c>
       <c r="E73" s="31"/>
-      <c r="F73" s="81" t="s">
+      <c r="F73" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G73" s="31"/>
       <c r="H73" s="29"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="80"/>
+      <c r="A74" s="82"/>
       <c r="B74" s="28">
         <v>24.2</v>
       </c>
@@ -23988,14 +23597,14 @@
         <v>1</v>
       </c>
       <c r="E74" s="31"/>
-      <c r="F74" s="81" t="s">
+      <c r="F74" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G74" s="31"/>
       <c r="H74" s="29"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="80"/>
+      <c r="A75" s="82"/>
       <c r="B75" s="28">
         <v>24.3</v>
       </c>
@@ -24006,32 +23615,32 @@
         <v>2</v>
       </c>
       <c r="E75" s="31"/>
-      <c r="F75" s="81" t="s">
+      <c r="F75" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G75" s="31"/>
       <c r="H75" s="29"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="80"/>
+      <c r="A76" s="82"/>
       <c r="B76" s="28">
         <v>24.4</v>
       </c>
-      <c r="C76" s="79" t="s">
+      <c r="C76" s="53" t="s">
         <v>135</v>
       </c>
       <c r="D76" s="42">
         <v>0.5</v>
       </c>
       <c r="E76" s="31"/>
-      <c r="F76" s="81" t="s">
+      <c r="F76" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G76" s="31"/>
       <c r="H76" s="29"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="80"/>
+      <c r="A77" s="82"/>
       <c r="B77" s="28">
         <v>24.5</v>
       </c>
@@ -24042,27 +23651,27 @@
         <v>1</v>
       </c>
       <c r="E77" s="31"/>
-      <c r="F77" s="81" t="s">
+      <c r="F77" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G77" s="31"/>
       <c r="H77" s="29"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="53" t="s">
+      <c r="A79" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="B79" s="67"/>
-      <c r="C79" s="67"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="68"/>
+      <c r="B79" s="70"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="70"/>
+      <c r="E79" s="71"/>
       <c r="F79" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G79" s="53" t="s">
+      <c r="G79" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H79" s="54"/>
+      <c r="H79" s="57"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="30" t="s">
@@ -24091,7 +23700,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="69">
+      <c r="A81" s="79">
         <v>18</v>
       </c>
       <c r="B81" s="52">
@@ -24104,14 +23713,14 @@
         <v>1</v>
       </c>
       <c r="E81" s="31"/>
-      <c r="F81" s="81" t="s">
+      <c r="F81" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G81" s="31"/>
       <c r="H81" s="29"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="80"/>
+      <c r="A82" s="82"/>
       <c r="B82" s="28">
         <v>18.2</v>
       </c>
@@ -24122,14 +23731,14 @@
         <v>1</v>
       </c>
       <c r="E82" s="31"/>
-      <c r="F82" s="81" t="s">
+      <c r="F82" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G82" s="31"/>
       <c r="H82" s="29"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="80"/>
+      <c r="A83" s="82"/>
       <c r="B83" s="52">
         <v>18.3</v>
       </c>
@@ -24140,32 +23749,32 @@
         <v>2</v>
       </c>
       <c r="E83" s="31"/>
-      <c r="F83" s="81" t="s">
+      <c r="F83" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G83" s="31"/>
       <c r="H83" s="29"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="80"/>
+      <c r="A84" s="82"/>
       <c r="B84" s="28">
         <v>18.399999999999999</v>
       </c>
-      <c r="C84" s="79" t="s">
+      <c r="C84" s="53" t="s">
         <v>135</v>
       </c>
       <c r="D84" s="42">
         <v>0.5</v>
       </c>
       <c r="E84" s="31"/>
-      <c r="F84" s="81" t="s">
+      <c r="F84" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G84" s="31"/>
       <c r="H84" s="29"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="80"/>
+      <c r="A85" s="82"/>
       <c r="B85" s="52">
         <v>18.5</v>
       </c>
@@ -24176,27 +23785,27 @@
         <v>1</v>
       </c>
       <c r="E85" s="31"/>
-      <c r="F85" s="81" t="s">
+      <c r="F85" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G85" s="31"/>
       <c r="H85" s="29"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="53" t="s">
+      <c r="A87" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="B87" s="67"/>
-      <c r="C87" s="67"/>
-      <c r="D87" s="67"/>
-      <c r="E87" s="68"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="70"/>
+      <c r="E87" s="71"/>
       <c r="F87" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G87" s="53" t="s">
+      <c r="G87" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H87" s="54"/>
+      <c r="H87" s="57"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="30" t="s">
@@ -24225,7 +23834,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="69">
+      <c r="A89" s="79">
         <v>2</v>
       </c>
       <c r="B89" s="52">
@@ -24238,14 +23847,14 @@
         <v>2</v>
       </c>
       <c r="E89" s="31"/>
-      <c r="F89" s="81" t="s">
+      <c r="F89" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G89" s="31"/>
       <c r="H89" s="29"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="80"/>
+      <c r="A90" s="82"/>
       <c r="B90" s="28">
         <v>2.2000000000000002</v>
       </c>
@@ -24256,14 +23865,14 @@
         <v>1</v>
       </c>
       <c r="E90" s="31"/>
-      <c r="F90" s="81" t="s">
+      <c r="F90" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G90" s="31"/>
       <c r="H90" s="29"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="80"/>
+      <c r="A91" s="82"/>
       <c r="B91" s="52">
         <v>2.2999999999999998</v>
       </c>
@@ -24274,32 +23883,32 @@
         <v>2</v>
       </c>
       <c r="E91" s="31"/>
-      <c r="F91" s="81" t="s">
+      <c r="F91" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G91" s="31"/>
       <c r="H91" s="29"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="80"/>
+      <c r="A92" s="82"/>
       <c r="B92" s="28">
         <v>2.4</v>
       </c>
-      <c r="C92" s="79" t="s">
+      <c r="C92" s="53" t="s">
         <v>135</v>
       </c>
       <c r="D92" s="42">
         <v>0.5</v>
       </c>
       <c r="E92" s="31"/>
-      <c r="F92" s="81" t="s">
+      <c r="F92" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G92" s="31"/>
       <c r="H92" s="29"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="80"/>
+      <c r="A93" s="82"/>
       <c r="B93" s="52">
         <v>2.5</v>
       </c>
@@ -24310,27 +23919,27 @@
         <v>1</v>
       </c>
       <c r="E93" s="31"/>
-      <c r="F93" s="81" t="s">
+      <c r="F93" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G93" s="31"/>
       <c r="H93" s="29"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="53" t="s">
+      <c r="A95" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="B95" s="67"/>
-      <c r="C95" s="67"/>
-      <c r="D95" s="67"/>
-      <c r="E95" s="68"/>
+      <c r="B95" s="70"/>
+      <c r="C95" s="70"/>
+      <c r="D95" s="70"/>
+      <c r="E95" s="71"/>
       <c r="F95" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="G95" s="53" t="s">
+      <c r="G95" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H95" s="54"/>
+      <c r="H95" s="57"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="30" t="s">
@@ -24359,7 +23968,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="69">
+      <c r="A97" s="79">
         <v>31</v>
       </c>
       <c r="B97" s="52">
@@ -24372,14 +23981,14 @@
         <v>0.5</v>
       </c>
       <c r="E97" s="31"/>
-      <c r="F97" s="81" t="s">
+      <c r="F97" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G97" s="31"/>
       <c r="H97" s="29"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="80"/>
+      <c r="A98" s="82"/>
       <c r="B98" s="28">
         <v>31.2</v>
       </c>
@@ -24390,14 +23999,14 @@
         <v>0.5</v>
       </c>
       <c r="E98" s="31"/>
-      <c r="F98" s="81" t="s">
+      <c r="F98" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G98" s="31"/>
       <c r="H98" s="29"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="80"/>
+      <c r="A99" s="82"/>
       <c r="B99" s="52">
         <v>31.3</v>
       </c>
@@ -24408,32 +24017,32 @@
         <v>1</v>
       </c>
       <c r="E99" s="31"/>
-      <c r="F99" s="81" t="s">
+      <c r="F99" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G99" s="31"/>
       <c r="H99" s="29"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="80"/>
+      <c r="A100" s="82"/>
       <c r="B100" s="28">
         <v>31.4</v>
       </c>
-      <c r="C100" s="79" t="s">
+      <c r="C100" s="53" t="s">
         <v>135</v>
       </c>
       <c r="D100" s="42">
         <v>0.5</v>
       </c>
       <c r="E100" s="31"/>
-      <c r="F100" s="81" t="s">
+      <c r="F100" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G100" s="31"/>
       <c r="H100" s="29"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="80"/>
+      <c r="A101" s="82"/>
       <c r="B101" s="52">
         <v>31.5</v>
       </c>
@@ -24444,27 +24053,27 @@
         <v>1</v>
       </c>
       <c r="E101" s="31"/>
-      <c r="F101" s="81" t="s">
+      <c r="F101" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G101" s="31"/>
       <c r="H101" s="29"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="53" t="s">
+      <c r="A103" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="B103" s="67"/>
-      <c r="C103" s="67"/>
-      <c r="D103" s="67"/>
-      <c r="E103" s="68"/>
+      <c r="B103" s="70"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="70"/>
+      <c r="E103" s="71"/>
       <c r="F103" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G103" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="H103" s="54"/>
+      <c r="G103" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="H103" s="57"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="30" t="s">
@@ -24493,7 +24102,7 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="69">
+      <c r="A105" s="79">
         <v>9</v>
       </c>
       <c r="B105" s="52">
@@ -24505,15 +24114,19 @@
       <c r="D105" s="39">
         <v>2</v>
       </c>
-      <c r="E105" s="31"/>
-      <c r="F105" s="81" t="s">
+      <c r="E105" s="39">
+        <v>2</v>
+      </c>
+      <c r="F105" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G105" s="31"/>
+      <c r="G105" s="83">
+        <v>42654</v>
+      </c>
       <c r="H105" s="29"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="80"/>
+      <c r="A106" s="82"/>
       <c r="B106" s="52">
         <v>9.1999999999999993</v>
       </c>
@@ -24523,15 +24136,19 @@
       <c r="D106" s="39">
         <v>1</v>
       </c>
-      <c r="E106" s="31"/>
-      <c r="F106" s="81" t="s">
+      <c r="E106" s="39">
+        <v>1</v>
+      </c>
+      <c r="F106" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G106" s="31"/>
+      <c r="G106" s="83">
+        <v>42654</v>
+      </c>
       <c r="H106" s="29"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="80"/>
+      <c r="A107" s="82"/>
       <c r="B107" s="52">
         <v>9.3000000000000007</v>
       </c>
@@ -24541,15 +24158,19 @@
       <c r="D107" s="39">
         <v>2</v>
       </c>
-      <c r="E107" s="31"/>
-      <c r="F107" s="81" t="s">
+      <c r="E107" s="39">
+        <v>2</v>
+      </c>
+      <c r="F107" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G107" s="31"/>
+      <c r="G107" s="83">
+        <v>42654</v>
+      </c>
       <c r="H107" s="29"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="80"/>
+      <c r="A108" s="82"/>
       <c r="B108" s="52">
         <v>9.4</v>
       </c>
@@ -24559,33 +24180,41 @@
       <c r="D108" s="39">
         <v>2</v>
       </c>
-      <c r="E108" s="31"/>
-      <c r="F108" s="81" t="s">
+      <c r="E108" s="39">
+        <v>2</v>
+      </c>
+      <c r="F108" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G108" s="31"/>
+      <c r="G108" s="83">
+        <v>42654</v>
+      </c>
       <c r="H108" s="29"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="80"/>
+      <c r="A109" s="82"/>
       <c r="B109" s="52">
         <v>9.5</v>
       </c>
-      <c r="C109" s="79" t="s">
+      <c r="C109" s="53" t="s">
         <v>135</v>
       </c>
       <c r="D109" s="42">
         <v>0.5</v>
       </c>
-      <c r="E109" s="31"/>
-      <c r="F109" s="81" t="s">
+      <c r="E109" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F109" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G109" s="31"/>
+      <c r="G109" s="83">
+        <v>42654</v>
+      </c>
       <c r="H109" s="29"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="80"/>
+      <c r="A110" s="82"/>
       <c r="B110" s="52">
         <v>9.6</v>
       </c>
@@ -24595,28 +24224,32 @@
       <c r="D110" s="43">
         <v>1</v>
       </c>
-      <c r="E110" s="31"/>
-      <c r="F110" s="81" t="s">
+      <c r="E110" s="43">
+        <v>1</v>
+      </c>
+      <c r="F110" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G110" s="31"/>
+      <c r="G110" s="83">
+        <v>42654</v>
+      </c>
       <c r="H110" s="29"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="53" t="s">
+      <c r="A112" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="B112" s="67"/>
-      <c r="C112" s="67"/>
-      <c r="D112" s="67"/>
-      <c r="E112" s="68"/>
+      <c r="B112" s="70"/>
+      <c r="C112" s="70"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="71"/>
       <c r="F112" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G112" s="53" t="s">
+      <c r="G112" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H112" s="54"/>
+      <c r="H112" s="57"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="30" t="s">
@@ -24645,7 +24278,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="69">
+      <c r="A114" s="79">
         <v>36</v>
       </c>
       <c r="B114" s="52">
@@ -24658,14 +24291,14 @@
         <v>2</v>
       </c>
       <c r="E114" s="31"/>
-      <c r="F114" s="81" t="s">
+      <c r="F114" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G114" s="31"/>
       <c r="H114" s="29"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="80"/>
+      <c r="A115" s="82"/>
       <c r="B115" s="52">
         <v>36.200000000000003</v>
       </c>
@@ -24676,14 +24309,14 @@
         <v>1</v>
       </c>
       <c r="E115" s="31"/>
-      <c r="F115" s="81" t="s">
+      <c r="F115" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G115" s="31"/>
       <c r="H115" s="29"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="80"/>
+      <c r="A116" s="82"/>
       <c r="B116" s="52">
         <v>36.299999999999997</v>
       </c>
@@ -24694,32 +24327,32 @@
         <v>2</v>
       </c>
       <c r="E116" s="31"/>
-      <c r="F116" s="81" t="s">
+      <c r="F116" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G116" s="31"/>
       <c r="H116" s="29"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="80"/>
+      <c r="A117" s="82"/>
       <c r="B117" s="52">
         <v>36.4</v>
       </c>
-      <c r="C117" s="79" t="s">
+      <c r="C117" s="53" t="s">
         <v>135</v>
       </c>
       <c r="D117" s="42">
         <v>0.5</v>
       </c>
       <c r="E117" s="31"/>
-      <c r="F117" s="81" t="s">
+      <c r="F117" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G117" s="31"/>
       <c r="H117" s="29"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="80"/>
+      <c r="A118" s="82"/>
       <c r="B118" s="52">
         <v>36.5</v>
       </c>
@@ -24730,27 +24363,27 @@
         <v>1</v>
       </c>
       <c r="E118" s="31"/>
-      <c r="F118" s="81" t="s">
+      <c r="F118" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G118" s="31"/>
       <c r="H118" s="29"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="53" t="s">
+      <c r="A120" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="B120" s="67"/>
-      <c r="C120" s="67"/>
-      <c r="D120" s="67"/>
-      <c r="E120" s="68"/>
+      <c r="B120" s="70"/>
+      <c r="C120" s="70"/>
+      <c r="D120" s="70"/>
+      <c r="E120" s="71"/>
       <c r="F120" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="G120" s="53" t="s">
+      <c r="G120" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H120" s="54"/>
+      <c r="H120" s="57"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="30" t="s">
@@ -24779,7 +24412,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="69">
+      <c r="A122" s="79">
         <v>37</v>
       </c>
       <c r="B122" s="52">
@@ -24792,14 +24425,14 @@
         <v>2</v>
       </c>
       <c r="E122" s="31"/>
-      <c r="F122" s="81" t="s">
+      <c r="F122" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G122" s="31"/>
       <c r="H122" s="29"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="80"/>
+      <c r="A123" s="82"/>
       <c r="B123" s="52">
         <v>37.200000000000003</v>
       </c>
@@ -24810,14 +24443,14 @@
         <v>1</v>
       </c>
       <c r="E123" s="31"/>
-      <c r="F123" s="81" t="s">
+      <c r="F123" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G123" s="31"/>
       <c r="H123" s="29"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="80"/>
+      <c r="A124" s="82"/>
       <c r="B124" s="52">
         <v>37.299999999999997</v>
       </c>
@@ -24828,32 +24461,32 @@
         <v>2</v>
       </c>
       <c r="E124" s="31"/>
-      <c r="F124" s="81" t="s">
+      <c r="F124" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G124" s="31"/>
       <c r="H124" s="29"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="80"/>
+      <c r="A125" s="82"/>
       <c r="B125" s="52">
         <v>37.4</v>
       </c>
-      <c r="C125" s="79" t="s">
+      <c r="C125" s="53" t="s">
         <v>135</v>
       </c>
       <c r="D125" s="42">
         <v>0.5</v>
       </c>
       <c r="E125" s="31"/>
-      <c r="F125" s="81" t="s">
+      <c r="F125" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G125" s="31"/>
       <c r="H125" s="29"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="80"/>
+      <c r="A126" s="82"/>
       <c r="B126" s="52">
         <v>37.5</v>
       </c>
@@ -24864,27 +24497,27 @@
         <v>1</v>
       </c>
       <c r="E126" s="31"/>
-      <c r="F126" s="81" t="s">
+      <c r="F126" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G126" s="31"/>
       <c r="H126" s="29"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="53" t="s">
+      <c r="A128" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="B128" s="67"/>
-      <c r="C128" s="67"/>
-      <c r="D128" s="67"/>
-      <c r="E128" s="68"/>
+      <c r="B128" s="70"/>
+      <c r="C128" s="70"/>
+      <c r="D128" s="70"/>
+      <c r="E128" s="71"/>
       <c r="F128" s="46">
         <v>2</v>
       </c>
-      <c r="G128" s="53" t="s">
+      <c r="G128" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H128" s="54"/>
+      <c r="H128" s="57"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="30" t="s">
@@ -24913,7 +24546,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="69">
+      <c r="A130" s="79">
         <v>38</v>
       </c>
       <c r="B130" s="52">
@@ -24926,14 +24559,14 @@
         <v>2</v>
       </c>
       <c r="E130" s="31"/>
-      <c r="F130" s="81" t="s">
+      <c r="F130" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G130" s="31"/>
       <c r="H130" s="29"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="80"/>
+      <c r="A131" s="82"/>
       <c r="B131" s="52">
         <v>38.200000000000003</v>
       </c>
@@ -24944,14 +24577,14 @@
         <v>1</v>
       </c>
       <c r="E131" s="31"/>
-      <c r="F131" s="81" t="s">
+      <c r="F131" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G131" s="31"/>
       <c r="H131" s="29"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="80"/>
+      <c r="A132" s="82"/>
       <c r="B132" s="52">
         <v>38.299999999999997</v>
       </c>
@@ -24962,32 +24595,32 @@
         <v>2</v>
       </c>
       <c r="E132" s="31"/>
-      <c r="F132" s="81" t="s">
+      <c r="F132" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G132" s="31"/>
       <c r="H132" s="29"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="80"/>
+      <c r="A133" s="82"/>
       <c r="B133" s="52">
         <v>38.4</v>
       </c>
-      <c r="C133" s="79" t="s">
+      <c r="C133" s="53" t="s">
         <v>135</v>
       </c>
       <c r="D133" s="42">
         <v>0.5</v>
       </c>
       <c r="E133" s="31"/>
-      <c r="F133" s="81" t="s">
+      <c r="F133" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G133" s="31"/>
       <c r="H133" s="29"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="80"/>
+      <c r="A134" s="82"/>
       <c r="B134" s="52">
         <v>38.5</v>
       </c>
@@ -24998,27 +24631,27 @@
         <v>1</v>
       </c>
       <c r="E134" s="31"/>
-      <c r="F134" s="81" t="s">
+      <c r="F134" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G134" s="31"/>
       <c r="H134" s="29"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="53" t="s">
+      <c r="A136" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="B136" s="67"/>
-      <c r="C136" s="67"/>
-      <c r="D136" s="67"/>
-      <c r="E136" s="68"/>
+      <c r="B136" s="70"/>
+      <c r="C136" s="70"/>
+      <c r="D136" s="70"/>
+      <c r="E136" s="71"/>
       <c r="F136" s="46">
         <v>2</v>
       </c>
-      <c r="G136" s="53" t="s">
+      <c r="G136" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H136" s="54"/>
+      <c r="H136" s="57"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="30" t="s">
@@ -25047,7 +24680,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="69">
+      <c r="A138" s="79">
         <v>28</v>
       </c>
       <c r="B138" s="52">
@@ -25060,14 +24693,14 @@
         <v>2</v>
       </c>
       <c r="E138" s="31"/>
-      <c r="F138" s="81" t="s">
+      <c r="F138" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G138" s="31"/>
       <c r="H138" s="29"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="80"/>
+      <c r="A139" s="82"/>
       <c r="B139" s="52">
         <v>28.2</v>
       </c>
@@ -25078,14 +24711,14 @@
         <v>1</v>
       </c>
       <c r="E139" s="31"/>
-      <c r="F139" s="81" t="s">
+      <c r="F139" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G139" s="31"/>
       <c r="H139" s="29"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="80"/>
+      <c r="A140" s="82"/>
       <c r="B140" s="52">
         <v>28.3</v>
       </c>
@@ -25096,32 +24729,32 @@
         <v>2</v>
       </c>
       <c r="E140" s="31"/>
-      <c r="F140" s="81" t="s">
+      <c r="F140" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G140" s="31"/>
       <c r="H140" s="29"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="80"/>
+      <c r="A141" s="82"/>
       <c r="B141" s="52">
         <v>28.4</v>
       </c>
-      <c r="C141" s="79" t="s">
+      <c r="C141" s="53" t="s">
         <v>135</v>
       </c>
       <c r="D141" s="42">
         <v>0.5</v>
       </c>
       <c r="E141" s="31"/>
-      <c r="F141" s="81" t="s">
+      <c r="F141" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G141" s="31"/>
       <c r="H141" s="29"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="80"/>
+      <c r="A142" s="82"/>
       <c r="B142" s="52">
         <v>28.5</v>
       </c>
@@ -25132,27 +24765,27 @@
         <v>1</v>
       </c>
       <c r="E142" s="31"/>
-      <c r="F142" s="81" t="s">
+      <c r="F142" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G142" s="31"/>
       <c r="H142" s="29"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="53" t="s">
+      <c r="A144" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="B144" s="67"/>
-      <c r="C144" s="67"/>
-      <c r="D144" s="67"/>
-      <c r="E144" s="68"/>
+      <c r="B144" s="70"/>
+      <c r="C144" s="70"/>
+      <c r="D144" s="70"/>
+      <c r="E144" s="71"/>
       <c r="F144" s="46">
         <v>4</v>
       </c>
-      <c r="G144" s="53" t="s">
+      <c r="G144" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H144" s="54"/>
+      <c r="H144" s="57"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="30" t="s">
@@ -25181,7 +24814,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="69">
+      <c r="A146" s="79">
         <v>39</v>
       </c>
       <c r="B146" s="52">
@@ -25194,14 +24827,14 @@
         <v>3</v>
       </c>
       <c r="E146" s="31"/>
-      <c r="F146" s="81" t="s">
+      <c r="F146" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G146" s="31"/>
       <c r="H146" s="29"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="80"/>
+      <c r="A147" s="82"/>
       <c r="B147" s="52">
         <v>39.200000000000003</v>
       </c>
@@ -25212,14 +24845,14 @@
         <v>3</v>
       </c>
       <c r="E147" s="31"/>
-      <c r="F147" s="81" t="s">
+      <c r="F147" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G147" s="31"/>
       <c r="H147" s="29"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="80"/>
+      <c r="A148" s="82"/>
       <c r="B148" s="52">
         <v>39.299999999999997</v>
       </c>
@@ -25230,32 +24863,32 @@
         <v>4</v>
       </c>
       <c r="E148" s="31"/>
-      <c r="F148" s="81" t="s">
+      <c r="F148" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G148" s="31"/>
       <c r="H148" s="29"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="80"/>
+      <c r="A149" s="82"/>
       <c r="B149" s="52">
         <v>39.4</v>
       </c>
-      <c r="C149" s="79" t="s">
+      <c r="C149" s="53" t="s">
         <v>135</v>
       </c>
       <c r="D149" s="42">
         <v>0.5</v>
       </c>
       <c r="E149" s="31"/>
-      <c r="F149" s="81" t="s">
+      <c r="F149" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G149" s="31"/>
       <c r="H149" s="29"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="80"/>
+      <c r="A150" s="82"/>
       <c r="B150" s="52">
         <v>39.5</v>
       </c>
@@ -25266,27 +24899,27 @@
         <v>1</v>
       </c>
       <c r="E150" s="31"/>
-      <c r="F150" s="81" t="s">
+      <c r="F150" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G150" s="31"/>
       <c r="H150" s="29"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="53" t="s">
+      <c r="A152" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="B152" s="67"/>
-      <c r="C152" s="67"/>
-      <c r="D152" s="67"/>
-      <c r="E152" s="68"/>
+      <c r="B152" s="70"/>
+      <c r="C152" s="70"/>
+      <c r="D152" s="70"/>
+      <c r="E152" s="71"/>
       <c r="F152" s="46">
         <v>1</v>
       </c>
-      <c r="G152" s="53" t="s">
+      <c r="G152" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H152" s="54"/>
+      <c r="H152" s="57"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="30" t="s">
@@ -25315,7 +24948,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="82">
+      <c r="A154" s="55">
         <v>29</v>
       </c>
       <c r="B154" s="52">
@@ -25328,7 +24961,7 @@
         <v>1</v>
       </c>
       <c r="E154" s="31"/>
-      <c r="F154" s="81" t="s">
+      <c r="F154" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G154" s="31"/>
@@ -25336,16 +24969,42 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A152:E152"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="A130:A134"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="G103:H103"/>
     <mergeCell ref="A138:A142"/>
     <mergeCell ref="A112:E112"/>
     <mergeCell ref="G112:H112"/>
@@ -25353,255 +25012,229 @@
     <mergeCell ref="A120:E120"/>
     <mergeCell ref="G120:H120"/>
     <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="A130:A134"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A152:E152"/>
+    <mergeCell ref="G152:H152"/>
   </mergeCells>
   <conditionalFormatting sqref="G71">
-    <cfRule type="notContainsBlanks" dxfId="57" priority="33">
+    <cfRule type="notContainsBlanks" dxfId="44" priority="33">
       <formula>LEN(TRIM(L71))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="notContainsBlanks" dxfId="56" priority="45">
+    <cfRule type="notContainsBlanks" dxfId="43" priority="45">
       <formula>LEN(TRIM(F30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 A1">
-    <cfRule type="notContainsBlanks" dxfId="55" priority="48">
+    <cfRule type="notContainsBlanks" dxfId="42" priority="48">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 A9">
-    <cfRule type="notContainsBlanks" dxfId="54" priority="47">
+    <cfRule type="notContainsBlanks" dxfId="41" priority="47">
       <formula>LEN(TRIM(F9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19 A19">
-    <cfRule type="notContainsBlanks" dxfId="53" priority="46">
+    <cfRule type="notContainsBlanks" dxfId="40" priority="46">
       <formula>LEN(TRIM(F19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="notContainsBlanks" dxfId="52" priority="41">
+    <cfRule type="notContainsBlanks" dxfId="39" priority="41">
       <formula>LEN(TRIM(L30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="notContainsBlanks" dxfId="51" priority="44">
+    <cfRule type="notContainsBlanks" dxfId="38" priority="44">
       <formula>LEN(TRIM(L1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="notContainsBlanks" dxfId="50" priority="43">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="43">
       <formula>LEN(TRIM(L9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="notContainsBlanks" dxfId="49" priority="42">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="42">
       <formula>LEN(TRIM(L19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="notContainsBlanks" dxfId="48" priority="49">
+    <cfRule type="notContainsBlanks" dxfId="35" priority="49">
       <formula>LEN(TRIM(K1048559))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41 A41">
-    <cfRule type="notContainsBlanks" dxfId="47" priority="40">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="40">
       <formula>LEN(TRIM(F41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="notContainsBlanks" dxfId="46" priority="39">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="39">
       <formula>LEN(TRIM(L41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51 A51">
-    <cfRule type="notContainsBlanks" dxfId="45" priority="38">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="38">
       <formula>LEN(TRIM(F51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="notContainsBlanks" dxfId="44" priority="37">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="37">
       <formula>LEN(TRIM(L51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61 A61">
-    <cfRule type="notContainsBlanks" dxfId="43" priority="36">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="36">
       <formula>LEN(TRIM(F61))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61">
-    <cfRule type="notContainsBlanks" dxfId="42" priority="35">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="35">
       <formula>LEN(TRIM(L61))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71 A71">
-    <cfRule type="notContainsBlanks" dxfId="41" priority="34">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="34">
       <formula>LEN(TRIM(F71))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79">
-    <cfRule type="notContainsBlanks" dxfId="40" priority="31">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="31">
       <formula>LEN(TRIM(L79))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79 A79">
-    <cfRule type="notContainsBlanks" dxfId="39" priority="32">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="32">
       <formula>LEN(TRIM(F79))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87">
-    <cfRule type="notContainsBlanks" dxfId="38" priority="29">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="29">
       <formula>LEN(TRIM(L87))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87 A87">
-    <cfRule type="notContainsBlanks" dxfId="37" priority="30">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="30">
       <formula>LEN(TRIM(F87))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95">
-    <cfRule type="notContainsBlanks" dxfId="36" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="27">
       <formula>LEN(TRIM(L95))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="notContainsBlanks" dxfId="35" priority="28">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="28">
       <formula>LEN(TRIM(F95))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G103">
-    <cfRule type="notContainsBlanks" dxfId="34" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="25">
       <formula>LEN(TRIM(L103))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="notContainsBlanks" dxfId="33" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="26">
       <formula>LEN(TRIM(F103))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="24">
       <formula>LEN(TRIM(K95))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103">
-    <cfRule type="notContainsBlanks" dxfId="31" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="23">
       <formula>LEN(TRIM(K103))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G112">
-    <cfRule type="notContainsBlanks" dxfId="30" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="21">
       <formula>LEN(TRIM(L112))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="22">
       <formula>LEN(TRIM(F112))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F128">
-    <cfRule type="notContainsBlanks" dxfId="28" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="10">
       <formula>LEN(TRIM(K128))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112">
-    <cfRule type="notContainsBlanks" dxfId="27" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="19">
       <formula>LEN(TRIM(K112))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G120">
-    <cfRule type="notContainsBlanks" dxfId="26" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="17">
       <formula>LEN(TRIM(L120))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120">
-    <cfRule type="notContainsBlanks" dxfId="25" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="18">
       <formula>LEN(TRIM(F120))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120">
-    <cfRule type="notContainsBlanks" dxfId="24" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="16">
       <formula>LEN(TRIM(K120))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G144">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="5">
       <formula>LEN(TRIM(L144))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="6">
       <formula>LEN(TRIM(F144))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F144">
-    <cfRule type="notContainsBlanks" dxfId="21" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="4">
       <formula>LEN(TRIM(K144))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F152">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(K152))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G128">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="11">
       <formula>LEN(TRIM(L128))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="12">
       <formula>LEN(TRIM(F128))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F136">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="7">
       <formula>LEN(TRIM(K136))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G136">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="8">
       <formula>LEN(TRIM(L136))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="9">
       <formula>LEN(TRIM(F136))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -884,22 +884,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -922,15 +923,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -939,13 +943,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2411,20 +2411,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="57"/>
+      <c r="H1" s="58"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2463,7 +2463,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61">
+      <c r="A3" s="60">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -2497,7 +2497,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -2522,7 +2522,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -2547,7 +2547,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -2572,7 +2572,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -2595,7 +2595,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="60"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="5">
         <v>6.6</v>
       </c>
@@ -2626,20 +2626,20 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="57"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="57"/>
+      <c r="H10" s="58"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2670,7 +2670,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="61">
+      <c r="A12" s="60">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -2695,7 +2695,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -2718,7 +2718,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -2733,43 +2733,43 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
-      <c r="B15" s="65">
+      <c r="A15" s="61"/>
+      <c r="B15" s="66">
         <v>1.4</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="65">
+      <c r="D15" s="66">
         <v>1</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="65">
         <v>1</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="59">
+      <c r="G15" s="64">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
       <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="60"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="16">
         <v>1.5</v>
       </c>
@@ -2800,20 +2800,20 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="57"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="57"/>
+      <c r="H19" s="58"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2844,7 +2844,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61">
+      <c r="A21" s="60">
         <v>11</v>
       </c>
       <c r="B21" s="22">
@@ -2871,7 +2871,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="22">
         <v>11.2</v>
       </c>
@@ -2896,7 +2896,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="60"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2915,20 +2915,20 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="57"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="56" t="s">
+      <c r="G25" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="57"/>
+      <c r="H25" s="58"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2959,7 +2959,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61">
+      <c r="A27" s="60">
         <v>12</v>
       </c>
       <c r="B27" s="22">
@@ -2986,7 +2986,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="22">
         <v>12.2</v>
       </c>
@@ -3009,7 +3009,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="22">
         <v>12.3</v>
       </c>
@@ -3049,20 +3049,20 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="57"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="58"/>
       <c r="F32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="57"/>
+      <c r="H32" s="58"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3093,7 +3093,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="61"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3104,7 +3104,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="62"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -3115,7 +3115,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="62"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -3126,7 +3126,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="62"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -3137,7 +3137,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="62"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -3148,7 +3148,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="62"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -3159,7 +3159,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="60"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -10855,15 +10855,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:E19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G15:G16"/>
@@ -10875,6 +10866,15 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G1 A1 F10:G10 A10 F19:G19 A19 F25:G25 A25 F32:G32 A32">
     <cfRule type="notContainsBlanks" dxfId="82" priority="1">
@@ -10908,17 +10908,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="68" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="69"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
@@ -10959,7 +10959,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61">
+      <c r="A3" s="60">
         <v>21</v>
       </c>
       <c r="B3" s="5">
@@ -10992,7 +10992,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="5">
         <v>21.2</v>
       </c>
@@ -11016,7 +11016,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="5">
         <v>21.3</v>
       </c>
@@ -11040,7 +11040,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="5">
         <v>21.4</v>
       </c>
@@ -11064,7 +11064,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="5">
         <v>21.5</v>
       </c>
@@ -11086,7 +11086,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="5">
         <v>21.6</v>
       </c>
@@ -11108,7 +11108,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="5">
         <v>21.7</v>
       </c>
@@ -11130,7 +11130,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="5">
         <v>21.8</v>
       </c>
@@ -11154,7 +11154,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="5">
         <v>21.9</v>
       </c>
@@ -11187,17 +11187,17 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="68" t="s">
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="69"/>
+      <c r="G13" s="70"/>
       <c r="H13" s="4" t="s">
         <v>4</v>
       </c>
@@ -11229,7 +11229,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61">
+      <c r="A15" s="60">
         <v>20</v>
       </c>
       <c r="B15" s="5">
@@ -11253,7 +11253,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="5">
         <v>20.2</v>
       </c>
@@ -11275,7 +11275,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="5">
         <v>20.3</v>
       </c>
@@ -11299,7 +11299,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="5">
         <v>20.399999999999999</v>
       </c>
@@ -11329,17 +11329,17 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="68" t="s">
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="69"/>
+      <c r="G20" s="70"/>
       <c r="H20" s="4" t="s">
         <v>4</v>
       </c>
@@ -11371,7 +11371,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="61">
+      <c r="A22" s="60">
         <v>5</v>
       </c>
       <c r="B22" s="5">
@@ -11393,7 +11393,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="60"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="5">
         <v>5.2</v>
       </c>
@@ -11419,17 +11419,17 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="68" t="s">
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="69"/>
+      <c r="G25" s="70"/>
       <c r="H25" s="4" t="s">
         <v>4</v>
       </c>
@@ -11461,7 +11461,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61">
+      <c r="A27" s="60">
         <v>8</v>
       </c>
       <c r="B27" s="5">
@@ -11485,7 +11485,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="5">
         <v>8.1999999999999993</v>
       </c>
@@ -11507,7 +11507,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="66"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="5">
         <v>8.3000000000000007</v>
       </c>
@@ -11529,7 +11529,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="66"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="5">
         <v>8.4</v>
       </c>
@@ -11553,7 +11553,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="67"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="5">
         <v>8.5</v>
       </c>
@@ -11583,17 +11583,17 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="68" t="s">
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="69"/>
+      <c r="G33" s="70"/>
       <c r="H33" s="4" t="s">
         <v>4</v>
       </c>
@@ -11625,7 +11625,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="61">
+      <c r="A35" s="60">
         <v>4</v>
       </c>
       <c r="B35" s="5">
@@ -11649,7 +11649,7 @@
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="66"/>
+      <c r="A36" s="67"/>
       <c r="B36" s="5">
         <v>4.2</v>
       </c>
@@ -11671,7 +11671,7 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="66"/>
+      <c r="A37" s="67"/>
       <c r="B37" s="5">
         <v>4.3</v>
       </c>
@@ -11689,7 +11689,7 @@
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="67"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="5">
         <v>4.4000000000000004</v>
       </c>
@@ -19454,20 +19454,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="57"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -19502,7 +19502,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="79">
+      <c r="A3" s="73">
         <v>22</v>
       </c>
       <c r="B3" s="31">
@@ -19532,7 +19532,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="79"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="31">
         <v>22.2</v>
       </c>
@@ -19554,7 +19554,7 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="79"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="31">
         <v>22.3</v>
       </c>
@@ -19576,20 +19576,20 @@
       <c r="H5" s="34"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="57"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="57"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
@@ -19618,7 +19618,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="79">
+      <c r="A9" s="73">
         <v>33</v>
       </c>
       <c r="B9" s="31">
@@ -19638,7 +19638,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="79"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -19656,7 +19656,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="79"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -19674,7 +19674,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="79"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="31">
         <v>33.4</v>
       </c>
@@ -19692,7 +19692,7 @@
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="79"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="31">
         <v>33.5</v>
       </c>
@@ -19710,20 +19710,20 @@
       <c r="H13" s="34"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="75"/>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="57"/>
+      <c r="H15" s="58"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
@@ -19752,7 +19752,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="75">
+      <c r="A17" s="76">
         <v>34</v>
       </c>
       <c r="B17" s="31">
@@ -19772,7 +19772,7 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="75"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="43">
         <v>34.200000000000003</v>
       </c>
@@ -19790,7 +19790,7 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="75"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="31">
         <v>34.299999999999997</v>
       </c>
@@ -19808,7 +19808,7 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="75"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="43">
         <v>34.4</v>
       </c>
@@ -19826,7 +19826,7 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="75"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="31">
         <v>34.5</v>
       </c>
@@ -19844,7 +19844,7 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="75"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="43">
         <v>34.6</v>
       </c>
@@ -19862,7 +19862,7 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="76"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="31">
         <v>34.700000000000003</v>
       </c>
@@ -19880,20 +19880,20 @@
       <c r="H23" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="71"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="72"/>
       <c r="F25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="56" t="s">
+      <c r="G25" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="57"/>
+      <c r="H25" s="58"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
@@ -19922,7 +19922,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="72">
+      <c r="A27" s="78">
         <v>35</v>
       </c>
       <c r="B27" s="5">
@@ -19942,7 +19942,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="77"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -19960,7 +19960,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="77"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -19978,7 +19978,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="77"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="31">
         <v>35.4</v>
       </c>
@@ -19996,7 +19996,7 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="77"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="5">
         <v>35.5</v>
       </c>
@@ -20014,7 +20014,7 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="77"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="31">
         <v>35.6</v>
       </c>
@@ -20032,7 +20032,7 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="77"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -20050,7 +20050,7 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="78"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -20068,20 +20068,20 @@
       <c r="H34" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="71"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="72"/>
       <c r="F36" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="56" t="s">
+      <c r="G36" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H36" s="57"/>
+      <c r="H36" s="58"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
@@ -20110,7 +20110,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="61">
+      <c r="A38" s="60">
         <v>40</v>
       </c>
       <c r="B38" s="5">
@@ -20130,7 +20130,7 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="66"/>
+      <c r="A39" s="67"/>
       <c r="B39" s="5">
         <v>40.200000000000003</v>
       </c>
@@ -20148,7 +20148,7 @@
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="66"/>
+      <c r="A40" s="67"/>
       <c r="B40" s="5">
         <v>40.299999999999997</v>
       </c>
@@ -20166,7 +20166,7 @@
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="66"/>
+      <c r="A41" s="67"/>
       <c r="B41" s="5">
         <v>40.4</v>
       </c>
@@ -20184,7 +20184,7 @@
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="66"/>
+      <c r="A42" s="67"/>
       <c r="B42" s="5">
         <v>40.5</v>
       </c>
@@ -20202,7 +20202,7 @@
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="66"/>
+      <c r="A43" s="67"/>
       <c r="B43" s="5">
         <v>40.6</v>
       </c>
@@ -20220,7 +20220,7 @@
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="66"/>
+      <c r="A44" s="67"/>
       <c r="B44" s="5">
         <v>40.700000000000003</v>
       </c>
@@ -20238,7 +20238,7 @@
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="67"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="5">
         <v>40.799999999999997</v>
       </c>
@@ -20256,20 +20256,20 @@
       <c r="H45" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="56" t="s">
+      <c r="A47" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="71"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="72"/>
       <c r="F47" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G47" s="56" t="s">
+      <c r="G47" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H47" s="57"/>
+      <c r="H47" s="58"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -20298,7 +20298,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="61">
+      <c r="A49" s="60">
         <v>23</v>
       </c>
       <c r="B49" s="5">
@@ -20322,7 +20322,7 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="62"/>
+      <c r="A50" s="61"/>
       <c r="B50" s="5">
         <v>23.2</v>
       </c>
@@ -20344,7 +20344,7 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="62"/>
+      <c r="A51" s="61"/>
       <c r="B51" s="5">
         <v>23.3</v>
       </c>
@@ -20366,7 +20366,7 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="62"/>
+      <c r="A52" s="61"/>
       <c r="B52" s="5">
         <v>23.4</v>
       </c>
@@ -20388,7 +20388,7 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="62"/>
+      <c r="A53" s="61"/>
       <c r="B53" s="5">
         <v>23.5</v>
       </c>
@@ -20410,7 +20410,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="62"/>
+      <c r="A54" s="61"/>
       <c r="B54" s="5">
         <v>23.6</v>
       </c>
@@ -20432,7 +20432,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="62"/>
+      <c r="A55" s="61"/>
       <c r="B55" s="5">
         <v>23.7</v>
       </c>
@@ -20454,7 +20454,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="60"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="5">
         <v>23.8</v>
       </c>
@@ -20476,20 +20476,20 @@
       <c r="H56" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="56" t="s">
+      <c r="A58" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="71"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="72"/>
       <c r="F58" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G58" s="56" t="s">
+      <c r="G58" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H58" s="57"/>
+      <c r="H58" s="58"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
@@ -20518,7 +20518,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="61">
+      <c r="A60" s="60">
         <v>3</v>
       </c>
       <c r="B60" s="5">
@@ -20542,7 +20542,7 @@
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="62"/>
+      <c r="A61" s="61"/>
       <c r="B61" s="5">
         <v>3.2</v>
       </c>
@@ -20564,7 +20564,7 @@
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="62"/>
+      <c r="A62" s="61"/>
       <c r="B62" s="5">
         <v>3.3</v>
       </c>
@@ -20586,7 +20586,7 @@
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="62"/>
+      <c r="A63" s="61"/>
       <c r="B63" s="5">
         <v>3.4</v>
       </c>
@@ -20608,7 +20608,7 @@
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="62"/>
+      <c r="A64" s="61"/>
       <c r="B64" s="5">
         <v>3.5</v>
       </c>
@@ -20632,7 +20632,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="62"/>
+      <c r="A65" s="61"/>
       <c r="B65" s="5">
         <v>3.6</v>
       </c>
@@ -20654,7 +20654,7 @@
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="60"/>
+      <c r="A66" s="62"/>
       <c r="B66" s="5">
         <v>3.7</v>
       </c>
@@ -20676,20 +20676,20 @@
       <c r="H66" s="3"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="56" t="s">
+      <c r="A68" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="71"/>
+      <c r="B68" s="71"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="72"/>
       <c r="F68" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G68" s="56" t="s">
+      <c r="G68" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H68" s="57"/>
+      <c r="H68" s="58"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
@@ -20718,7 +20718,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="61">
+      <c r="A70" s="60">
         <v>41</v>
       </c>
       <c r="B70" s="5">
@@ -20738,7 +20738,7 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="62"/>
+      <c r="A71" s="61"/>
       <c r="B71" s="5">
         <v>41.2</v>
       </c>
@@ -20756,7 +20756,7 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="62"/>
+      <c r="A72" s="61"/>
       <c r="B72" s="5">
         <v>41.3</v>
       </c>
@@ -20774,7 +20774,7 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="62"/>
+      <c r="A73" s="61"/>
       <c r="B73" s="5">
         <v>41.4</v>
       </c>
@@ -20792,7 +20792,7 @@
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="62"/>
+      <c r="A74" s="61"/>
       <c r="B74" s="5">
         <v>41.5</v>
       </c>
@@ -20810,7 +20810,7 @@
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="62"/>
+      <c r="A75" s="61"/>
       <c r="B75" s="5">
         <v>41.6</v>
       </c>
@@ -20828,7 +20828,7 @@
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="60"/>
+      <c r="A76" s="62"/>
       <c r="B76" s="5">
         <v>41.7</v>
       </c>
@@ -20846,20 +20846,20 @@
       <c r="H76" s="3"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="56" t="s">
+      <c r="A78" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="70"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="71"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="71"/>
+      <c r="E78" s="72"/>
       <c r="F78" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G78" s="56" t="s">
+      <c r="G78" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H78" s="57"/>
+      <c r="H78" s="58"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
@@ -20888,7 +20888,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="61">
+      <c r="A80" s="60">
         <v>25</v>
       </c>
       <c r="B80" s="5">
@@ -20912,7 +20912,7 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="62"/>
+      <c r="A81" s="61"/>
       <c r="B81" s="5">
         <v>25.2</v>
       </c>
@@ -20934,7 +20934,7 @@
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="62"/>
+      <c r="A82" s="61"/>
       <c r="B82" s="5">
         <v>25.3</v>
       </c>
@@ -20956,7 +20956,7 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="62"/>
+      <c r="A83" s="61"/>
       <c r="B83" s="5">
         <v>25.4</v>
       </c>
@@ -20978,7 +20978,7 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="62"/>
+      <c r="A84" s="61"/>
       <c r="B84" s="5">
         <v>25.5</v>
       </c>
@@ -21000,7 +21000,7 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="62"/>
+      <c r="A85" s="61"/>
       <c r="B85" s="5">
         <v>25.6</v>
       </c>
@@ -21022,7 +21022,7 @@
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="62"/>
+      <c r="A86" s="61"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -21032,7 +21032,7 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="60"/>
+      <c r="A87" s="62"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -21042,20 +21042,20 @@
       <c r="H87" s="3"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="56" t="s">
+      <c r="A89" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="B89" s="70"/>
-      <c r="C89" s="70"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="71"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="71"/>
+      <c r="D89" s="71"/>
+      <c r="E89" s="72"/>
       <c r="F89" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G89" s="56" t="s">
+      <c r="G89" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H89" s="57"/>
+      <c r="H89" s="58"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
@@ -21084,7 +21084,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="61">
+      <c r="A91" s="60">
         <v>26</v>
       </c>
       <c r="B91" s="39">
@@ -21108,7 +21108,7 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="62"/>
+      <c r="A92" s="61"/>
       <c r="B92" s="39">
         <v>26.2</v>
       </c>
@@ -21130,7 +21130,7 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="62"/>
+      <c r="A93" s="61"/>
       <c r="B93" s="39">
         <v>26.3</v>
       </c>
@@ -21152,7 +21152,7 @@
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="62"/>
+      <c r="A94" s="61"/>
       <c r="B94" s="39">
         <v>26.4</v>
       </c>
@@ -21174,7 +21174,7 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="62"/>
+      <c r="A95" s="61"/>
       <c r="B95" s="39">
         <v>26.5</v>
       </c>
@@ -21196,7 +21196,7 @@
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="62"/>
+      <c r="A96" s="61"/>
       <c r="B96" s="39">
         <v>26.6</v>
       </c>
@@ -21218,7 +21218,7 @@
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="62"/>
+      <c r="A97" s="61"/>
       <c r="B97" s="39">
         <v>26.7</v>
       </c>
@@ -21240,7 +21240,7 @@
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="62"/>
+      <c r="A98" s="61"/>
       <c r="B98" s="39">
         <v>26.8</v>
       </c>
@@ -21262,7 +21262,7 @@
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="60"/>
+      <c r="A99" s="62"/>
       <c r="B99" s="39">
         <v>26.9</v>
       </c>
@@ -21284,20 +21284,20 @@
       <c r="H99" s="3"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="56" t="s">
+      <c r="A101" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="B101" s="70"/>
-      <c r="C101" s="70"/>
-      <c r="D101" s="70"/>
-      <c r="E101" s="71"/>
+      <c r="B101" s="71"/>
+      <c r="C101" s="71"/>
+      <c r="D101" s="71"/>
+      <c r="E101" s="72"/>
       <c r="F101" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G101" s="56" t="s">
+      <c r="G101" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H101" s="57"/>
+      <c r="H101" s="58"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
@@ -21326,7 +21326,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="61">
+      <c r="A103" s="60">
         <v>27</v>
       </c>
       <c r="B103" s="5">
@@ -21350,7 +21350,7 @@
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="62"/>
+      <c r="A104" s="61"/>
       <c r="B104" s="5">
         <v>27.2</v>
       </c>
@@ -21372,7 +21372,7 @@
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="62"/>
+      <c r="A105" s="61"/>
       <c r="B105" s="5">
         <v>27.3</v>
       </c>
@@ -21394,7 +21394,7 @@
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="62"/>
+      <c r="A106" s="61"/>
       <c r="B106" s="5">
         <v>27.4</v>
       </c>
@@ -21416,7 +21416,7 @@
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="62"/>
+      <c r="A107" s="61"/>
       <c r="B107" s="5">
         <v>27.5</v>
       </c>
@@ -21438,7 +21438,7 @@
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="62"/>
+      <c r="A108" s="61"/>
       <c r="B108" s="5">
         <v>27.6</v>
       </c>
@@ -21460,7 +21460,7 @@
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="60"/>
+      <c r="A109" s="62"/>
       <c r="B109" s="5">
         <v>27.7</v>
       </c>
@@ -21482,20 +21482,20 @@
       <c r="H109" s="3"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="56" t="s">
+      <c r="A111" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="B111" s="70"/>
-      <c r="C111" s="70"/>
-      <c r="D111" s="70"/>
-      <c r="E111" s="71"/>
+      <c r="B111" s="71"/>
+      <c r="C111" s="71"/>
+      <c r="D111" s="71"/>
+      <c r="E111" s="72"/>
       <c r="F111" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G111" s="56" t="s">
+      <c r="G111" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H111" s="57"/>
+      <c r="H111" s="58"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
@@ -21524,7 +21524,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="72">
+      <c r="A113" s="78">
         <v>4</v>
       </c>
       <c r="B113" s="31">
@@ -21548,7 +21548,7 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="73"/>
+      <c r="A114" s="81"/>
       <c r="B114" s="31">
         <v>4.2</v>
       </c>
@@ -21570,7 +21570,7 @@
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="73"/>
+      <c r="A115" s="81"/>
       <c r="B115" s="31">
         <v>4.3</v>
       </c>
@@ -21592,7 +21592,7 @@
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="73"/>
+      <c r="A116" s="81"/>
       <c r="B116" s="31">
         <v>4.4000000000000004</v>
       </c>
@@ -21614,7 +21614,7 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="73"/>
+      <c r="A117" s="81"/>
       <c r="B117" s="31">
         <v>4.5</v>
       </c>
@@ -21636,7 +21636,7 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="73"/>
+      <c r="A118" s="81"/>
       <c r="B118" s="31">
         <v>4.5999999999999996</v>
       </c>
@@ -21660,7 +21660,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="73"/>
+      <c r="A119" s="81"/>
       <c r="B119" s="31">
         <v>4.7</v>
       </c>
@@ -21682,7 +21682,7 @@
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="73"/>
+      <c r="A120" s="81"/>
       <c r="B120" s="31">
         <v>4.8</v>
       </c>
@@ -21706,7 +21706,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="73"/>
+      <c r="A121" s="81"/>
       <c r="B121" s="31">
         <v>4.9000000000000004</v>
       </c>
@@ -21730,7 +21730,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="74"/>
+      <c r="A122" s="82"/>
       <c r="B122" s="32" t="s">
         <v>141</v>
       </c>
@@ -21754,20 +21754,20 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="56" t="s">
+      <c r="A124" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="B124" s="70"/>
-      <c r="C124" s="70"/>
-      <c r="D124" s="70"/>
-      <c r="E124" s="71"/>
+      <c r="B124" s="71"/>
+      <c r="C124" s="71"/>
+      <c r="D124" s="71"/>
+      <c r="E124" s="72"/>
       <c r="F124" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G124" s="56" t="s">
+      <c r="G124" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H124" s="57"/>
+      <c r="H124" s="58"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
@@ -21796,7 +21796,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="61">
+      <c r="A126" s="60">
         <v>30</v>
       </c>
       <c r="B126" s="5">
@@ -21816,7 +21816,7 @@
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="62"/>
+      <c r="A127" s="61"/>
       <c r="B127" s="5">
         <v>27.2</v>
       </c>
@@ -21834,7 +21834,7 @@
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="62"/>
+      <c r="A128" s="61"/>
       <c r="B128" s="5">
         <v>27.3</v>
       </c>
@@ -21852,7 +21852,7 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="62"/>
+      <c r="A129" s="61"/>
       <c r="B129" s="5">
         <v>27.4</v>
       </c>
@@ -21870,7 +21870,7 @@
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="62"/>
+      <c r="A130" s="61"/>
       <c r="B130" s="5">
         <v>27.5</v>
       </c>
@@ -21888,7 +21888,7 @@
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="62"/>
+      <c r="A131" s="61"/>
       <c r="B131" s="5">
         <v>27.6</v>
       </c>
@@ -21906,7 +21906,7 @@
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="60"/>
+      <c r="A132" s="62"/>
       <c r="B132" s="5">
         <v>27.7</v>
       </c>
@@ -21924,20 +21924,20 @@
       <c r="H132" s="3"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="56" t="s">
+      <c r="A134" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="B134" s="70"/>
-      <c r="C134" s="70"/>
-      <c r="D134" s="70"/>
-      <c r="E134" s="71"/>
+      <c r="B134" s="71"/>
+      <c r="C134" s="71"/>
+      <c r="D134" s="71"/>
+      <c r="E134" s="72"/>
       <c r="F134" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G134" s="56" t="s">
+      <c r="G134" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H134" s="57"/>
+      <c r="H134" s="58"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
@@ -21966,7 +21966,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="61">
+      <c r="A136" s="60">
         <v>32</v>
       </c>
       <c r="B136" s="5">
@@ -21990,7 +21990,7 @@
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="62"/>
+      <c r="A137" s="61"/>
       <c r="B137" s="5">
         <v>32.200000000000003</v>
       </c>
@@ -22012,7 +22012,7 @@
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="62"/>
+      <c r="A138" s="61"/>
       <c r="B138" s="5">
         <v>32.299999999999997</v>
       </c>
@@ -22034,7 +22034,7 @@
       <c r="H138" s="3"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="62"/>
+      <c r="A139" s="61"/>
       <c r="B139" s="5">
         <v>32.4</v>
       </c>
@@ -22056,7 +22056,7 @@
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="62"/>
+      <c r="A140" s="61"/>
       <c r="B140" s="5">
         <v>32.5</v>
       </c>
@@ -22080,7 +22080,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="62"/>
+      <c r="A141" s="61"/>
       <c r="B141" s="5">
         <v>32.6</v>
       </c>
@@ -22102,7 +22102,7 @@
       <c r="H141" s="3"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="60"/>
+      <c r="A142" s="62"/>
       <c r="B142" s="5">
         <v>32.700000000000003</v>
       </c>
@@ -22125,6 +22125,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A113:A122"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A38:A45"/>
     <mergeCell ref="A134:E134"/>
     <mergeCell ref="G134:H134"/>
     <mergeCell ref="A136:A142"/>
@@ -22141,32 +22167,6 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="A113:A122"/>
   </mergeCells>
   <conditionalFormatting sqref="A36">
     <cfRule type="notContainsBlanks" dxfId="72" priority="23">
@@ -22317,8 +22317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G146" sqref="G146:G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22334,20 +22334,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="57"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -22376,7 +22376,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="79">
+      <c r="A3" s="73">
         <v>33</v>
       </c>
       <c r="B3" s="31">
@@ -22396,7 +22396,7 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="79"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -22414,7 +22414,7 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="79"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -22432,7 +22432,7 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="79"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="31">
         <v>33.4</v>
       </c>
@@ -22450,7 +22450,7 @@
       <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="79"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="31">
         <v>33.5</v>
       </c>
@@ -22468,20 +22468,20 @@
       <c r="H7" s="34"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="57"/>
+      <c r="H9" s="58"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
@@ -22510,7 +22510,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="75">
+      <c r="A11" s="76">
         <v>34</v>
       </c>
       <c r="B11" s="31">
@@ -22530,7 +22530,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="75"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="43">
         <v>34.200000000000003</v>
       </c>
@@ -22548,7 +22548,7 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="75"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="31">
         <v>34.299999999999997</v>
       </c>
@@ -22566,7 +22566,7 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="75"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="43">
         <v>34.4</v>
       </c>
@@ -22584,7 +22584,7 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="75"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="31">
         <v>34.5</v>
       </c>
@@ -22602,7 +22602,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="75"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="43">
         <v>34.6</v>
       </c>
@@ -22620,7 +22620,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="76"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="31">
         <v>34.700000000000003</v>
       </c>
@@ -22638,20 +22638,20 @@
       <c r="H17" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="57"/>
+      <c r="H19" s="58"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
@@ -22680,7 +22680,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="72">
+      <c r="A21" s="78">
         <v>35</v>
       </c>
       <c r="B21" s="5">
@@ -22700,7 +22700,7 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="77"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -22718,7 +22718,7 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="77"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -22736,7 +22736,7 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="77"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="31">
         <v>35.4</v>
       </c>
@@ -22754,7 +22754,7 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="77"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="5">
         <v>35.5</v>
       </c>
@@ -22772,7 +22772,7 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="77"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="31">
         <v>35.6</v>
       </c>
@@ -22790,7 +22790,7 @@
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="77"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -22808,7 +22808,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="78"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -22826,20 +22826,20 @@
       <c r="H28" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="71"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="72"/>
       <c r="F30" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="56" t="s">
+      <c r="G30" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="57"/>
+      <c r="H30" s="58"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
@@ -22868,7 +22868,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="61">
+      <c r="A32" s="60">
         <v>40</v>
       </c>
       <c r="B32" s="5">
@@ -22888,7 +22888,7 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="66"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="5">
         <v>40.200000000000003</v>
       </c>
@@ -22906,7 +22906,7 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="66"/>
+      <c r="A34" s="67"/>
       <c r="B34" s="5">
         <v>40.299999999999997</v>
       </c>
@@ -22924,7 +22924,7 @@
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="66"/>
+      <c r="A35" s="67"/>
       <c r="B35" s="5">
         <v>40.4</v>
       </c>
@@ -22942,7 +22942,7 @@
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="66"/>
+      <c r="A36" s="67"/>
       <c r="B36" s="5">
         <v>40.5</v>
       </c>
@@ -22960,7 +22960,7 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="66"/>
+      <c r="A37" s="67"/>
       <c r="B37" s="5">
         <v>40.6</v>
       </c>
@@ -22978,7 +22978,7 @@
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="66"/>
+      <c r="A38" s="67"/>
       <c r="B38" s="5">
         <v>40.700000000000003</v>
       </c>
@@ -22996,7 +22996,7 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="67"/>
+      <c r="A39" s="68"/>
       <c r="B39" s="5">
         <v>40.799999999999997</v>
       </c>
@@ -23014,20 +23014,20 @@
       <c r="H39" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="71"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="72"/>
       <c r="F41" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="G41" s="56" t="s">
+      <c r="G41" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="57"/>
+      <c r="H41" s="58"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
@@ -23056,7 +23056,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="61">
+      <c r="A43" s="60">
         <v>41</v>
       </c>
       <c r="B43" s="5">
@@ -23076,7 +23076,7 @@
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="62"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="5">
         <v>41.2</v>
       </c>
@@ -23094,7 +23094,7 @@
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="62"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="5">
         <v>41.3</v>
       </c>
@@ -23112,7 +23112,7 @@
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="62"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="5">
         <v>41.4</v>
       </c>
@@ -23130,7 +23130,7 @@
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="62"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="5">
         <v>41.5</v>
       </c>
@@ -23148,7 +23148,7 @@
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="62"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="5">
         <v>41.6</v>
       </c>
@@ -23166,7 +23166,7 @@
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="60"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="5">
         <v>41.7</v>
       </c>
@@ -23184,20 +23184,20 @@
       <c r="H49" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="71"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="72"/>
       <c r="F51" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="G51" s="56" t="s">
+      <c r="G51" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H51" s="57"/>
+      <c r="H51" s="58"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
@@ -23226,7 +23226,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="61">
+      <c r="A53" s="60">
         <v>30</v>
       </c>
       <c r="B53" s="5">
@@ -23246,7 +23246,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="62"/>
+      <c r="A54" s="61"/>
       <c r="B54" s="5">
         <v>27.2</v>
       </c>
@@ -23264,7 +23264,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="62"/>
+      <c r="A55" s="61"/>
       <c r="B55" s="5">
         <v>27.3</v>
       </c>
@@ -23282,7 +23282,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="62"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="5">
         <v>27.4</v>
       </c>
@@ -23300,7 +23300,7 @@
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="62"/>
+      <c r="A57" s="61"/>
       <c r="B57" s="5">
         <v>27.5</v>
       </c>
@@ -23318,7 +23318,7 @@
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="62"/>
+      <c r="A58" s="61"/>
       <c r="B58" s="5">
         <v>27.6</v>
       </c>
@@ -23336,7 +23336,7 @@
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="60"/>
+      <c r="A59" s="62"/>
       <c r="B59" s="5">
         <v>27.7</v>
       </c>
@@ -23354,20 +23354,20 @@
       <c r="H59" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="71"/>
+      <c r="B61" s="71"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="72"/>
       <c r="F61" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="G61" s="56" t="s">
+      <c r="G61" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H61" s="57"/>
+      <c r="H61" s="58"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
@@ -23396,7 +23396,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="61">
+      <c r="A63" s="60">
         <v>30</v>
       </c>
       <c r="B63" s="5">
@@ -23416,7 +23416,7 @@
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="62"/>
+      <c r="A64" s="61"/>
       <c r="B64" s="5">
         <v>27.2</v>
       </c>
@@ -23434,7 +23434,7 @@
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="62"/>
+      <c r="A65" s="61"/>
       <c r="B65" s="5">
         <v>27.3</v>
       </c>
@@ -23452,7 +23452,7 @@
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="62"/>
+      <c r="A66" s="61"/>
       <c r="B66" s="5">
         <v>27.4</v>
       </c>
@@ -23470,7 +23470,7 @@
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="62"/>
+      <c r="A67" s="61"/>
       <c r="B67" s="5">
         <v>27.5</v>
       </c>
@@ -23488,7 +23488,7 @@
       <c r="H67" s="3"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="62"/>
+      <c r="A68" s="61"/>
       <c r="B68" s="5">
         <v>27.6</v>
       </c>
@@ -23506,7 +23506,7 @@
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="60"/>
+      <c r="A69" s="62"/>
       <c r="B69" s="5">
         <v>27.7</v>
       </c>
@@ -23524,20 +23524,20 @@
       <c r="H69" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="56" t="s">
+      <c r="A71" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="B71" s="70"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="71"/>
+      <c r="B71" s="71"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="72"/>
       <c r="F71" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G71" s="56" t="s">
+      <c r="G71" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H71" s="57"/>
+      <c r="H71" s="58"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="30" t="s">
@@ -23566,7 +23566,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="79">
+      <c r="A73" s="73">
         <v>24</v>
       </c>
       <c r="B73" s="28">
@@ -23586,7 +23586,7 @@
       <c r="H73" s="29"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="82"/>
+      <c r="A74" s="83"/>
       <c r="B74" s="28">
         <v>24.2</v>
       </c>
@@ -23604,7 +23604,7 @@
       <c r="H74" s="29"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="82"/>
+      <c r="A75" s="83"/>
       <c r="B75" s="28">
         <v>24.3</v>
       </c>
@@ -23622,7 +23622,7 @@
       <c r="H75" s="29"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="82"/>
+      <c r="A76" s="83"/>
       <c r="B76" s="28">
         <v>24.4</v>
       </c>
@@ -23640,7 +23640,7 @@
       <c r="H76" s="29"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="82"/>
+      <c r="A77" s="83"/>
       <c r="B77" s="28">
         <v>24.5</v>
       </c>
@@ -23658,20 +23658,20 @@
       <c r="H77" s="29"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="56" t="s">
+      <c r="A79" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="B79" s="70"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="71"/>
+      <c r="B79" s="71"/>
+      <c r="C79" s="71"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="72"/>
       <c r="F79" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G79" s="56" t="s">
+      <c r="G79" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H79" s="57"/>
+      <c r="H79" s="58"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="30" t="s">
@@ -23700,7 +23700,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="79">
+      <c r="A81" s="73">
         <v>18</v>
       </c>
       <c r="B81" s="52">
@@ -23720,7 +23720,7 @@
       <c r="H81" s="29"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="82"/>
+      <c r="A82" s="83"/>
       <c r="B82" s="28">
         <v>18.2</v>
       </c>
@@ -23738,7 +23738,7 @@
       <c r="H82" s="29"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="82"/>
+      <c r="A83" s="83"/>
       <c r="B83" s="52">
         <v>18.3</v>
       </c>
@@ -23756,7 +23756,7 @@
       <c r="H83" s="29"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="82"/>
+      <c r="A84" s="83"/>
       <c r="B84" s="28">
         <v>18.399999999999999</v>
       </c>
@@ -23774,7 +23774,7 @@
       <c r="H84" s="29"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="82"/>
+      <c r="A85" s="83"/>
       <c r="B85" s="52">
         <v>18.5</v>
       </c>
@@ -23792,20 +23792,20 @@
       <c r="H85" s="29"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="56" t="s">
+      <c r="A87" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="B87" s="70"/>
-      <c r="C87" s="70"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="71"/>
+      <c r="B87" s="71"/>
+      <c r="C87" s="71"/>
+      <c r="D87" s="71"/>
+      <c r="E87" s="72"/>
       <c r="F87" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G87" s="56" t="s">
+      <c r="G87" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H87" s="57"/>
+      <c r="H87" s="58"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="30" t="s">
@@ -23834,7 +23834,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="79">
+      <c r="A89" s="73">
         <v>2</v>
       </c>
       <c r="B89" s="52">
@@ -23854,7 +23854,7 @@
       <c r="H89" s="29"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="82"/>
+      <c r="A90" s="83"/>
       <c r="B90" s="28">
         <v>2.2000000000000002</v>
       </c>
@@ -23872,7 +23872,7 @@
       <c r="H90" s="29"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="82"/>
+      <c r="A91" s="83"/>
       <c r="B91" s="52">
         <v>2.2999999999999998</v>
       </c>
@@ -23890,7 +23890,7 @@
       <c r="H91" s="29"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="82"/>
+      <c r="A92" s="83"/>
       <c r="B92" s="28">
         <v>2.4</v>
       </c>
@@ -23908,7 +23908,7 @@
       <c r="H92" s="29"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="82"/>
+      <c r="A93" s="83"/>
       <c r="B93" s="52">
         <v>2.5</v>
       </c>
@@ -23926,20 +23926,20 @@
       <c r="H93" s="29"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="56" t="s">
+      <c r="A95" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="B95" s="70"/>
-      <c r="C95" s="70"/>
-      <c r="D95" s="70"/>
-      <c r="E95" s="71"/>
+      <c r="B95" s="71"/>
+      <c r="C95" s="71"/>
+      <c r="D95" s="71"/>
+      <c r="E95" s="72"/>
       <c r="F95" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="G95" s="56" t="s">
+      <c r="G95" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H95" s="57"/>
+      <c r="H95" s="58"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="30" t="s">
@@ -23968,7 +23968,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="79">
+      <c r="A97" s="73">
         <v>31</v>
       </c>
       <c r="B97" s="52">
@@ -23988,7 +23988,7 @@
       <c r="H97" s="29"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="82"/>
+      <c r="A98" s="83"/>
       <c r="B98" s="28">
         <v>31.2</v>
       </c>
@@ -24006,7 +24006,7 @@
       <c r="H98" s="29"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="82"/>
+      <c r="A99" s="83"/>
       <c r="B99" s="52">
         <v>31.3</v>
       </c>
@@ -24024,7 +24024,7 @@
       <c r="H99" s="29"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="82"/>
+      <c r="A100" s="83"/>
       <c r="B100" s="28">
         <v>31.4</v>
       </c>
@@ -24042,7 +24042,7 @@
       <c r="H100" s="29"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="82"/>
+      <c r="A101" s="83"/>
       <c r="B101" s="52">
         <v>31.5</v>
       </c>
@@ -24060,20 +24060,20 @@
       <c r="H101" s="29"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="56" t="s">
+      <c r="A103" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="B103" s="70"/>
-      <c r="C103" s="70"/>
-      <c r="D103" s="70"/>
-      <c r="E103" s="71"/>
+      <c r="B103" s="71"/>
+      <c r="C103" s="71"/>
+      <c r="D103" s="71"/>
+      <c r="E103" s="72"/>
       <c r="F103" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G103" s="56" t="s">
+      <c r="G103" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H103" s="57"/>
+      <c r="H103" s="58"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="30" t="s">
@@ -24102,7 +24102,7 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="79">
+      <c r="A105" s="73">
         <v>9</v>
       </c>
       <c r="B105" s="52">
@@ -24120,13 +24120,13 @@
       <c r="F105" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G105" s="83">
+      <c r="G105" s="56">
         <v>42654</v>
       </c>
       <c r="H105" s="29"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="82"/>
+      <c r="A106" s="83"/>
       <c r="B106" s="52">
         <v>9.1999999999999993</v>
       </c>
@@ -24142,13 +24142,13 @@
       <c r="F106" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G106" s="83">
+      <c r="G106" s="56">
         <v>42654</v>
       </c>
       <c r="H106" s="29"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="82"/>
+      <c r="A107" s="83"/>
       <c r="B107" s="52">
         <v>9.3000000000000007</v>
       </c>
@@ -24164,13 +24164,13 @@
       <c r="F107" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G107" s="83">
+      <c r="G107" s="56">
         <v>42654</v>
       </c>
       <c r="H107" s="29"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="82"/>
+      <c r="A108" s="83"/>
       <c r="B108" s="52">
         <v>9.4</v>
       </c>
@@ -24186,13 +24186,13 @@
       <c r="F108" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G108" s="83">
+      <c r="G108" s="56">
         <v>42654</v>
       </c>
       <c r="H108" s="29"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="82"/>
+      <c r="A109" s="83"/>
       <c r="B109" s="52">
         <v>9.5</v>
       </c>
@@ -24208,13 +24208,13 @@
       <c r="F109" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G109" s="83">
+      <c r="G109" s="56">
         <v>42654</v>
       </c>
       <c r="H109" s="29"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="82"/>
+      <c r="A110" s="83"/>
       <c r="B110" s="52">
         <v>9.6</v>
       </c>
@@ -24230,26 +24230,26 @@
       <c r="F110" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G110" s="83">
+      <c r="G110" s="56">
         <v>42654</v>
       </c>
       <c r="H110" s="29"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="56" t="s">
+      <c r="A112" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="B112" s="70"/>
-      <c r="C112" s="70"/>
-      <c r="D112" s="70"/>
-      <c r="E112" s="71"/>
+      <c r="B112" s="71"/>
+      <c r="C112" s="71"/>
+      <c r="D112" s="71"/>
+      <c r="E112" s="72"/>
       <c r="F112" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G112" s="56" t="s">
+      <c r="G112" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H112" s="57"/>
+      <c r="H112" s="58"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="30" t="s">
@@ -24278,7 +24278,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="79">
+      <c r="A114" s="73">
         <v>36</v>
       </c>
       <c r="B114" s="52">
@@ -24298,7 +24298,7 @@
       <c r="H114" s="29"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="82"/>
+      <c r="A115" s="83"/>
       <c r="B115" s="52">
         <v>36.200000000000003</v>
       </c>
@@ -24316,7 +24316,7 @@
       <c r="H115" s="29"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="82"/>
+      <c r="A116" s="83"/>
       <c r="B116" s="52">
         <v>36.299999999999997</v>
       </c>
@@ -24334,7 +24334,7 @@
       <c r="H116" s="29"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="82"/>
+      <c r="A117" s="83"/>
       <c r="B117" s="52">
         <v>36.4</v>
       </c>
@@ -24352,7 +24352,7 @@
       <c r="H117" s="29"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="82"/>
+      <c r="A118" s="83"/>
       <c r="B118" s="52">
         <v>36.5</v>
       </c>
@@ -24370,20 +24370,20 @@
       <c r="H118" s="29"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="56" t="s">
+      <c r="A120" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="B120" s="70"/>
-      <c r="C120" s="70"/>
-      <c r="D120" s="70"/>
-      <c r="E120" s="71"/>
+      <c r="B120" s="71"/>
+      <c r="C120" s="71"/>
+      <c r="D120" s="71"/>
+      <c r="E120" s="72"/>
       <c r="F120" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="G120" s="56" t="s">
+      <c r="G120" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H120" s="57"/>
+      <c r="H120" s="58"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="30" t="s">
@@ -24412,7 +24412,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="79">
+      <c r="A122" s="73">
         <v>37</v>
       </c>
       <c r="B122" s="52">
@@ -24432,7 +24432,7 @@
       <c r="H122" s="29"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="82"/>
+      <c r="A123" s="83"/>
       <c r="B123" s="52">
         <v>37.200000000000003</v>
       </c>
@@ -24450,7 +24450,7 @@
       <c r="H123" s="29"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="82"/>
+      <c r="A124" s="83"/>
       <c r="B124" s="52">
         <v>37.299999999999997</v>
       </c>
@@ -24468,7 +24468,7 @@
       <c r="H124" s="29"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="82"/>
+      <c r="A125" s="83"/>
       <c r="B125" s="52">
         <v>37.4</v>
       </c>
@@ -24486,7 +24486,7 @@
       <c r="H125" s="29"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="82"/>
+      <c r="A126" s="83"/>
       <c r="B126" s="52">
         <v>37.5</v>
       </c>
@@ -24504,20 +24504,20 @@
       <c r="H126" s="29"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="56" t="s">
+      <c r="A128" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="B128" s="70"/>
-      <c r="C128" s="70"/>
-      <c r="D128" s="70"/>
-      <c r="E128" s="71"/>
+      <c r="B128" s="71"/>
+      <c r="C128" s="71"/>
+      <c r="D128" s="71"/>
+      <c r="E128" s="72"/>
       <c r="F128" s="46">
         <v>2</v>
       </c>
-      <c r="G128" s="56" t="s">
+      <c r="G128" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H128" s="57"/>
+      <c r="H128" s="58"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="30" t="s">
@@ -24546,7 +24546,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="79">
+      <c r="A130" s="73">
         <v>38</v>
       </c>
       <c r="B130" s="52">
@@ -24566,7 +24566,7 @@
       <c r="H130" s="29"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="82"/>
+      <c r="A131" s="83"/>
       <c r="B131" s="52">
         <v>38.200000000000003</v>
       </c>
@@ -24584,7 +24584,7 @@
       <c r="H131" s="29"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="82"/>
+      <c r="A132" s="83"/>
       <c r="B132" s="52">
         <v>38.299999999999997</v>
       </c>
@@ -24602,7 +24602,7 @@
       <c r="H132" s="29"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="82"/>
+      <c r="A133" s="83"/>
       <c r="B133" s="52">
         <v>38.4</v>
       </c>
@@ -24620,7 +24620,7 @@
       <c r="H133" s="29"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="82"/>
+      <c r="A134" s="83"/>
       <c r="B134" s="52">
         <v>38.5</v>
       </c>
@@ -24638,20 +24638,20 @@
       <c r="H134" s="29"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="56" t="s">
+      <c r="A136" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="B136" s="70"/>
-      <c r="C136" s="70"/>
-      <c r="D136" s="70"/>
-      <c r="E136" s="71"/>
+      <c r="B136" s="71"/>
+      <c r="C136" s="71"/>
+      <c r="D136" s="71"/>
+      <c r="E136" s="72"/>
       <c r="F136" s="46">
         <v>2</v>
       </c>
-      <c r="G136" s="56" t="s">
+      <c r="G136" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H136" s="57"/>
+      <c r="H136" s="58"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="30" t="s">
@@ -24680,7 +24680,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="79">
+      <c r="A138" s="73">
         <v>28</v>
       </c>
       <c r="B138" s="52">
@@ -24700,7 +24700,7 @@
       <c r="H138" s="29"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="82"/>
+      <c r="A139" s="83"/>
       <c r="B139" s="52">
         <v>28.2</v>
       </c>
@@ -24718,7 +24718,7 @@
       <c r="H139" s="29"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="82"/>
+      <c r="A140" s="83"/>
       <c r="B140" s="52">
         <v>28.3</v>
       </c>
@@ -24736,7 +24736,7 @@
       <c r="H140" s="29"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="82"/>
+      <c r="A141" s="83"/>
       <c r="B141" s="52">
         <v>28.4</v>
       </c>
@@ -24754,7 +24754,7 @@
       <c r="H141" s="29"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="82"/>
+      <c r="A142" s="83"/>
       <c r="B142" s="52">
         <v>28.5</v>
       </c>
@@ -24772,20 +24772,20 @@
       <c r="H142" s="29"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="56" t="s">
+      <c r="A144" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="B144" s="70"/>
-      <c r="C144" s="70"/>
-      <c r="D144" s="70"/>
-      <c r="E144" s="71"/>
+      <c r="B144" s="71"/>
+      <c r="C144" s="71"/>
+      <c r="D144" s="71"/>
+      <c r="E144" s="72"/>
       <c r="F144" s="46">
         <v>4</v>
       </c>
-      <c r="G144" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="H144" s="57"/>
+      <c r="G144" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="H144" s="58"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="30" t="s">
@@ -24814,7 +24814,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="79">
+      <c r="A146" s="73">
         <v>39</v>
       </c>
       <c r="B146" s="52">
@@ -24826,15 +24826,19 @@
       <c r="D146" s="39">
         <v>3</v>
       </c>
-      <c r="E146" s="31"/>
+      <c r="E146" s="39">
+        <v>3</v>
+      </c>
       <c r="F146" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G146" s="31"/>
+      <c r="G146" s="56">
+        <v>42655</v>
+      </c>
       <c r="H146" s="29"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="82"/>
+      <c r="A147" s="83"/>
       <c r="B147" s="52">
         <v>39.200000000000003</v>
       </c>
@@ -24844,15 +24848,19 @@
       <c r="D147" s="39">
         <v>3</v>
       </c>
-      <c r="E147" s="31"/>
+      <c r="E147" s="39">
+        <v>3</v>
+      </c>
       <c r="F147" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G147" s="31"/>
+      <c r="G147" s="56">
+        <v>42656</v>
+      </c>
       <c r="H147" s="29"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="82"/>
+      <c r="A148" s="83"/>
       <c r="B148" s="52">
         <v>39.299999999999997</v>
       </c>
@@ -24862,15 +24870,19 @@
       <c r="D148" s="39">
         <v>4</v>
       </c>
-      <c r="E148" s="31"/>
+      <c r="E148" s="39">
+        <v>4</v>
+      </c>
       <c r="F148" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G148" s="31"/>
+      <c r="G148" s="56">
+        <v>42657</v>
+      </c>
       <c r="H148" s="29"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="82"/>
+      <c r="A149" s="83"/>
       <c r="B149" s="52">
         <v>39.4</v>
       </c>
@@ -24880,15 +24892,19 @@
       <c r="D149" s="42">
         <v>0.5</v>
       </c>
-      <c r="E149" s="31"/>
+      <c r="E149" s="42">
+        <v>0.5</v>
+      </c>
       <c r="F149" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G149" s="31"/>
+      <c r="G149" s="56">
+        <v>42658</v>
+      </c>
       <c r="H149" s="29"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="82"/>
+      <c r="A150" s="83"/>
       <c r="B150" s="52">
         <v>39.5</v>
       </c>
@@ -24898,28 +24914,32 @@
       <c r="D150" s="43">
         <v>1</v>
       </c>
-      <c r="E150" s="31"/>
+      <c r="E150" s="43">
+        <v>1</v>
+      </c>
       <c r="F150" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G150" s="31"/>
+      <c r="G150" s="56">
+        <v>42659</v>
+      </c>
       <c r="H150" s="29"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="56" t="s">
+      <c r="A152" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="B152" s="70"/>
-      <c r="C152" s="70"/>
-      <c r="D152" s="70"/>
-      <c r="E152" s="71"/>
+      <c r="B152" s="71"/>
+      <c r="C152" s="71"/>
+      <c r="D152" s="71"/>
+      <c r="E152" s="72"/>
       <c r="F152" s="46">
         <v>1</v>
       </c>
-      <c r="G152" s="56" t="s">
+      <c r="G152" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H152" s="57"/>
+      <c r="H152" s="58"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="30" t="s">
@@ -24969,6 +24989,47 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A152:E152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="A130:A134"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="G71:H71"/>
     <mergeCell ref="A32:A39"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:H1"/>
@@ -24981,47 +25042,6 @@
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="A130:A134"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A152:E152"/>
-    <mergeCell ref="G152:H152"/>
   </mergeCells>
   <conditionalFormatting sqref="G71">
     <cfRule type="notContainsBlanks" dxfId="44" priority="33">

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="166">
   <si>
     <t>User story: General Website Features</t>
   </si>
@@ -518,6 +518,9 @@
   <si>
     <t>Finish hyperlink from events page</t>
   </si>
+  <si>
+    <t>Didn’t make each row as clickable but added buttons to do that</t>
+  </si>
 </sst>
 </file>
 
@@ -889,18 +892,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -923,18 +926,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -943,14 +943,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="89">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2414,9 +2501,9 @@
       <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="58"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -2463,7 +2550,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60">
+      <c r="A3" s="62">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -2497,7 +2584,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -2522,7 +2609,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -2547,7 +2634,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -2572,7 +2659,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -2595,7 +2682,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="5">
         <v>6.6</v>
       </c>
@@ -2626,17 +2713,17 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="58"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="59" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="58"/>
@@ -2670,7 +2757,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="60">
+      <c r="A12" s="62">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -2695,7 +2782,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -2718,7 +2805,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -2733,7 +2820,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="66">
         <v>1.4</v>
       </c>
@@ -2749,27 +2836,27 @@
       <c r="F15" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="64">
+      <c r="G15" s="60">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
       <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="16">
         <v>1.5</v>
       </c>
@@ -2803,9 +2890,9 @@
       <c r="A19" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="58"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
@@ -2844,7 +2931,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60">
+      <c r="A21" s="62">
         <v>11</v>
       </c>
       <c r="B21" s="22">
@@ -2871,7 +2958,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="22">
         <v>11.2</v>
       </c>
@@ -2896,7 +2983,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="62"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2918,9 +3005,9 @@
       <c r="A25" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="58"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
@@ -2959,7 +3046,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="60">
+      <c r="A27" s="62">
         <v>12</v>
       </c>
       <c r="B27" s="22">
@@ -2986,7 +3073,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="22">
         <v>12.2</v>
       </c>
@@ -3009,7 +3096,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="22">
         <v>12.3</v>
       </c>
@@ -3052,9 +3139,9 @@
       <c r="A32" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="58"/>
       <c r="F32" s="1" t="s">
         <v>88</v>
@@ -3093,7 +3180,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="60"/>
+      <c r="A34" s="62"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3104,7 +3191,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="61"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -3115,7 +3202,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="61"/>
+      <c r="A36" s="63"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -3126,7 +3213,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="61"/>
+      <c r="A37" s="63"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -3137,7 +3224,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="61"/>
+      <c r="A38" s="63"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -3148,7 +3235,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="61"/>
+      <c r="A39" s="63"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -3159,7 +3246,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="62"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -10855,6 +10942,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:E19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G15:G16"/>
@@ -10866,18 +10962,9 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G1 A1 F10:G10 A10 F19:G19 A19 F25:G25 A25 F32:G32 A32">
-    <cfRule type="notContainsBlanks" dxfId="82" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="88" priority="1">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10911,9 +10998,9 @@
       <c r="A1" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="58"/>
       <c r="F1" s="69" t="s">
         <v>1</v>
@@ -10959,7 +11046,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60">
+      <c r="A3" s="62">
         <v>21</v>
       </c>
       <c r="B3" s="5">
@@ -10992,7 +11079,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="5">
         <v>21.2</v>
       </c>
@@ -11016,7 +11103,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="5">
         <v>21.3</v>
       </c>
@@ -11040,7 +11127,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="5">
         <v>21.4</v>
       </c>
@@ -11064,7 +11151,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="5">
         <v>21.5</v>
       </c>
@@ -11086,7 +11173,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="5">
         <v>21.6</v>
       </c>
@@ -11108,7 +11195,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="5">
         <v>21.7</v>
       </c>
@@ -11130,7 +11217,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="5">
         <v>21.8</v>
       </c>
@@ -11154,7 +11241,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="5">
         <v>21.9</v>
       </c>
@@ -11190,9 +11277,9 @@
       <c r="A13" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="58"/>
       <c r="F13" s="69" t="s">
         <v>42</v>
@@ -11229,7 +11316,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60">
+      <c r="A15" s="62">
         <v>20</v>
       </c>
       <c r="B15" s="5">
@@ -11253,7 +11340,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="5">
         <v>20.2</v>
       </c>
@@ -11275,7 +11362,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="5">
         <v>20.3</v>
       </c>
@@ -11299,7 +11386,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="62"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="5">
         <v>20.399999999999999</v>
       </c>
@@ -11332,9 +11419,9 @@
       <c r="A20" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="58"/>
       <c r="F20" s="69" t="s">
         <v>49</v>
@@ -11371,7 +11458,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="60">
+      <c r="A22" s="62">
         <v>5</v>
       </c>
       <c r="B22" s="5">
@@ -11393,7 +11480,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="62"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="5">
         <v>5.2</v>
       </c>
@@ -11422,9 +11509,9 @@
       <c r="A25" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="58"/>
       <c r="F25" s="69" t="s">
         <v>40</v>
@@ -11461,7 +11548,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="60">
+      <c r="A27" s="62">
         <v>8</v>
       </c>
       <c r="B27" s="5">
@@ -11586,9 +11673,9 @@
       <c r="A33" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
       <c r="E33" s="58"/>
       <c r="F33" s="69" t="s">
         <v>70</v>
@@ -11625,7 +11712,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="60">
+      <c r="A35" s="62">
         <v>4</v>
       </c>
       <c r="B35" s="5">
@@ -19383,47 +19470,47 @@
     <mergeCell ref="A27:A31"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 F13 H13">
-    <cfRule type="notContainsBlanks" dxfId="81" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="87" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="notContainsBlanks" dxfId="80" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="86" priority="2">
       <formula>LEN(TRIM(A13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="notContainsBlanks" dxfId="79" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="85" priority="3">
       <formula>LEN(TRIM(A20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="notContainsBlanks" dxfId="78" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="84" priority="4">
       <formula>LEN(TRIM(A25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 H1">
-    <cfRule type="notContainsBlanks" dxfId="77" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="83" priority="5">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 H20">
-    <cfRule type="notContainsBlanks" dxfId="76" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="82" priority="6">
       <formula>LEN(TRIM(F20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25 H25">
-    <cfRule type="notContainsBlanks" dxfId="75" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="81" priority="7">
       <formula>LEN(TRIM(F25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="notContainsBlanks" dxfId="74" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="80" priority="8">
       <formula>LEN(TRIM(A33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33 H33">
-    <cfRule type="notContainsBlanks" dxfId="73" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="79" priority="9">
       <formula>LEN(TRIM(F33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19457,9 +19544,9 @@
       <c r="A1" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="58"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
@@ -19502,7 +19589,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="73">
+      <c r="A3" s="80">
         <v>22</v>
       </c>
       <c r="B3" s="31">
@@ -19532,7 +19619,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="31">
         <v>22.2</v>
       </c>
@@ -19554,7 +19641,7 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="31">
         <v>22.3</v>
       </c>
@@ -19579,9 +19666,9 @@
       <c r="A7" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="58"/>
       <c r="F7" s="1" t="s">
         <v>49</v>
@@ -19618,7 +19705,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="73">
+      <c r="A9" s="80">
         <v>33</v>
       </c>
       <c r="B9" s="31">
@@ -19638,7 +19725,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="73"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -19656,7 +19743,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="73"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -19674,7 +19761,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="31">
         <v>33.4</v>
       </c>
@@ -19692,7 +19779,7 @@
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="31">
         <v>33.5</v>
       </c>
@@ -19713,10 +19800,10 @@
       <c r="A15" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="82"/>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
@@ -19922,7 +20009,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="78">
+      <c r="A27" s="73">
         <v>35</v>
       </c>
       <c r="B27" s="5">
@@ -19942,7 +20029,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="79"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -19960,7 +20047,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="79"/>
+      <c r="A29" s="78"/>
       <c r="B29" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -19978,7 +20065,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="79"/>
+      <c r="A30" s="78"/>
       <c r="B30" s="31">
         <v>35.4</v>
       </c>
@@ -19996,7 +20083,7 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="79"/>
+      <c r="A31" s="78"/>
       <c r="B31" s="5">
         <v>35.5</v>
       </c>
@@ -20014,7 +20101,7 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="79"/>
+      <c r="A32" s="78"/>
       <c r="B32" s="31">
         <v>35.6</v>
       </c>
@@ -20032,7 +20119,7 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="79"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -20050,7 +20137,7 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="80"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -20110,7 +20197,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="60">
+      <c r="A38" s="62">
         <v>40</v>
       </c>
       <c r="B38" s="5">
@@ -20298,7 +20385,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="60">
+      <c r="A49" s="62">
         <v>23</v>
       </c>
       <c r="B49" s="5">
@@ -20322,7 +20409,7 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="61"/>
+      <c r="A50" s="63"/>
       <c r="B50" s="5">
         <v>23.2</v>
       </c>
@@ -20344,7 +20431,7 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="61"/>
+      <c r="A51" s="63"/>
       <c r="B51" s="5">
         <v>23.3</v>
       </c>
@@ -20366,7 +20453,7 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="61"/>
+      <c r="A52" s="63"/>
       <c r="B52" s="5">
         <v>23.4</v>
       </c>
@@ -20388,7 +20475,7 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="61"/>
+      <c r="A53" s="63"/>
       <c r="B53" s="5">
         <v>23.5</v>
       </c>
@@ -20410,7 +20497,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="61"/>
+      <c r="A54" s="63"/>
       <c r="B54" s="5">
         <v>23.6</v>
       </c>
@@ -20432,7 +20519,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="61"/>
+      <c r="A55" s="63"/>
       <c r="B55" s="5">
         <v>23.7</v>
       </c>
@@ -20454,7 +20541,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="62"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="5">
         <v>23.8</v>
       </c>
@@ -20518,7 +20605,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="60">
+      <c r="A60" s="62">
         <v>3</v>
       </c>
       <c r="B60" s="5">
@@ -20542,7 +20629,7 @@
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="61"/>
+      <c r="A61" s="63"/>
       <c r="B61" s="5">
         <v>3.2</v>
       </c>
@@ -20564,7 +20651,7 @@
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="61"/>
+      <c r="A62" s="63"/>
       <c r="B62" s="5">
         <v>3.3</v>
       </c>
@@ -20586,7 +20673,7 @@
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="61"/>
+      <c r="A63" s="63"/>
       <c r="B63" s="5">
         <v>3.4</v>
       </c>
@@ -20608,7 +20695,7 @@
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="61"/>
+      <c r="A64" s="63"/>
       <c r="B64" s="5">
         <v>3.5</v>
       </c>
@@ -20632,7 +20719,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="61"/>
+      <c r="A65" s="63"/>
       <c r="B65" s="5">
         <v>3.6</v>
       </c>
@@ -20654,7 +20741,7 @@
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="62"/>
+      <c r="A66" s="61"/>
       <c r="B66" s="5">
         <v>3.7</v>
       </c>
@@ -20718,7 +20805,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="60">
+      <c r="A70" s="62">
         <v>41</v>
       </c>
       <c r="B70" s="5">
@@ -20738,7 +20825,7 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="61"/>
+      <c r="A71" s="63"/>
       <c r="B71" s="5">
         <v>41.2</v>
       </c>
@@ -20756,7 +20843,7 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="61"/>
+      <c r="A72" s="63"/>
       <c r="B72" s="5">
         <v>41.3</v>
       </c>
@@ -20774,7 +20861,7 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="61"/>
+      <c r="A73" s="63"/>
       <c r="B73" s="5">
         <v>41.4</v>
       </c>
@@ -20792,7 +20879,7 @@
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="61"/>
+      <c r="A74" s="63"/>
       <c r="B74" s="5">
         <v>41.5</v>
       </c>
@@ -20810,7 +20897,7 @@
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="61"/>
+      <c r="A75" s="63"/>
       <c r="B75" s="5">
         <v>41.6</v>
       </c>
@@ -20828,7 +20915,7 @@
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="62"/>
+      <c r="A76" s="61"/>
       <c r="B76" s="5">
         <v>41.7</v>
       </c>
@@ -20888,7 +20975,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="60">
+      <c r="A80" s="62">
         <v>25</v>
       </c>
       <c r="B80" s="5">
@@ -20912,7 +20999,7 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="61"/>
+      <c r="A81" s="63"/>
       <c r="B81" s="5">
         <v>25.2</v>
       </c>
@@ -20934,7 +21021,7 @@
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="61"/>
+      <c r="A82" s="63"/>
       <c r="B82" s="5">
         <v>25.3</v>
       </c>
@@ -20956,7 +21043,7 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="61"/>
+      <c r="A83" s="63"/>
       <c r="B83" s="5">
         <v>25.4</v>
       </c>
@@ -20978,7 +21065,7 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="61"/>
+      <c r="A84" s="63"/>
       <c r="B84" s="5">
         <v>25.5</v>
       </c>
@@ -21000,7 +21087,7 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="61"/>
+      <c r="A85" s="63"/>
       <c r="B85" s="5">
         <v>25.6</v>
       </c>
@@ -21022,7 +21109,7 @@
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="61"/>
+      <c r="A86" s="63"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -21032,7 +21119,7 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="62"/>
+      <c r="A87" s="61"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -21084,7 +21171,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="60">
+      <c r="A91" s="62">
         <v>26</v>
       </c>
       <c r="B91" s="39">
@@ -21108,7 +21195,7 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="61"/>
+      <c r="A92" s="63"/>
       <c r="B92" s="39">
         <v>26.2</v>
       </c>
@@ -21130,7 +21217,7 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="61"/>
+      <c r="A93" s="63"/>
       <c r="B93" s="39">
         <v>26.3</v>
       </c>
@@ -21152,7 +21239,7 @@
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="61"/>
+      <c r="A94" s="63"/>
       <c r="B94" s="39">
         <v>26.4</v>
       </c>
@@ -21174,7 +21261,7 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="61"/>
+      <c r="A95" s="63"/>
       <c r="B95" s="39">
         <v>26.5</v>
       </c>
@@ -21196,7 +21283,7 @@
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="61"/>
+      <c r="A96" s="63"/>
       <c r="B96" s="39">
         <v>26.6</v>
       </c>
@@ -21218,7 +21305,7 @@
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="61"/>
+      <c r="A97" s="63"/>
       <c r="B97" s="39">
         <v>26.7</v>
       </c>
@@ -21240,7 +21327,7 @@
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="61"/>
+      <c r="A98" s="63"/>
       <c r="B98" s="39">
         <v>26.8</v>
       </c>
@@ -21262,7 +21349,7 @@
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="62"/>
+      <c r="A99" s="61"/>
       <c r="B99" s="39">
         <v>26.9</v>
       </c>
@@ -21326,7 +21413,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="60">
+      <c r="A103" s="62">
         <v>27</v>
       </c>
       <c r="B103" s="5">
@@ -21350,7 +21437,7 @@
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="61"/>
+      <c r="A104" s="63"/>
       <c r="B104" s="5">
         <v>27.2</v>
       </c>
@@ -21372,7 +21459,7 @@
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="61"/>
+      <c r="A105" s="63"/>
       <c r="B105" s="5">
         <v>27.3</v>
       </c>
@@ -21394,7 +21481,7 @@
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="61"/>
+      <c r="A106" s="63"/>
       <c r="B106" s="5">
         <v>27.4</v>
       </c>
@@ -21416,7 +21503,7 @@
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="61"/>
+      <c r="A107" s="63"/>
       <c r="B107" s="5">
         <v>27.5</v>
       </c>
@@ -21438,7 +21525,7 @@
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="61"/>
+      <c r="A108" s="63"/>
       <c r="B108" s="5">
         <v>27.6</v>
       </c>
@@ -21460,7 +21547,7 @@
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="62"/>
+      <c r="A109" s="61"/>
       <c r="B109" s="5">
         <v>27.7</v>
       </c>
@@ -21524,7 +21611,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="78">
+      <c r="A113" s="73">
         <v>4</v>
       </c>
       <c r="B113" s="31">
@@ -21548,7 +21635,7 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="81"/>
+      <c r="A114" s="74"/>
       <c r="B114" s="31">
         <v>4.2</v>
       </c>
@@ -21570,7 +21657,7 @@
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="81"/>
+      <c r="A115" s="74"/>
       <c r="B115" s="31">
         <v>4.3</v>
       </c>
@@ -21592,7 +21679,7 @@
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="81"/>
+      <c r="A116" s="74"/>
       <c r="B116" s="31">
         <v>4.4000000000000004</v>
       </c>
@@ -21614,7 +21701,7 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="81"/>
+      <c r="A117" s="74"/>
       <c r="B117" s="31">
         <v>4.5</v>
       </c>
@@ -21636,7 +21723,7 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="81"/>
+      <c r="A118" s="74"/>
       <c r="B118" s="31">
         <v>4.5999999999999996</v>
       </c>
@@ -21660,7 +21747,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="81"/>
+      <c r="A119" s="74"/>
       <c r="B119" s="31">
         <v>4.7</v>
       </c>
@@ -21682,7 +21769,7 @@
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="81"/>
+      <c r="A120" s="74"/>
       <c r="B120" s="31">
         <v>4.8</v>
       </c>
@@ -21706,7 +21793,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="81"/>
+      <c r="A121" s="74"/>
       <c r="B121" s="31">
         <v>4.9000000000000004</v>
       </c>
@@ -21730,7 +21817,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="82"/>
+      <c r="A122" s="75"/>
       <c r="B122" s="32" t="s">
         <v>141</v>
       </c>
@@ -21796,7 +21883,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="60">
+      <c r="A126" s="62">
         <v>30</v>
       </c>
       <c r="B126" s="5">
@@ -21816,7 +21903,7 @@
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="61"/>
+      <c r="A127" s="63"/>
       <c r="B127" s="5">
         <v>27.2</v>
       </c>
@@ -21834,7 +21921,7 @@
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="61"/>
+      <c r="A128" s="63"/>
       <c r="B128" s="5">
         <v>27.3</v>
       </c>
@@ -21852,7 +21939,7 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="61"/>
+      <c r="A129" s="63"/>
       <c r="B129" s="5">
         <v>27.4</v>
       </c>
@@ -21870,7 +21957,7 @@
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="61"/>
+      <c r="A130" s="63"/>
       <c r="B130" s="5">
         <v>27.5</v>
       </c>
@@ -21888,7 +21975,7 @@
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="61"/>
+      <c r="A131" s="63"/>
       <c r="B131" s="5">
         <v>27.6</v>
       </c>
@@ -21906,7 +21993,7 @@
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="62"/>
+      <c r="A132" s="61"/>
       <c r="B132" s="5">
         <v>27.7</v>
       </c>
@@ -21966,7 +22053,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="60">
+      <c r="A136" s="62">
         <v>32</v>
       </c>
       <c r="B136" s="5">
@@ -21990,7 +22077,7 @@
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="61"/>
+      <c r="A137" s="63"/>
       <c r="B137" s="5">
         <v>32.200000000000003</v>
       </c>
@@ -22012,7 +22099,7 @@
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="61"/>
+      <c r="A138" s="63"/>
       <c r="B138" s="5">
         <v>32.299999999999997</v>
       </c>
@@ -22034,7 +22121,7 @@
       <c r="H138" s="3"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="61"/>
+      <c r="A139" s="63"/>
       <c r="B139" s="5">
         <v>32.4</v>
       </c>
@@ -22056,7 +22143,7 @@
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="61"/>
+      <c r="A140" s="63"/>
       <c r="B140" s="5">
         <v>32.5</v>
       </c>
@@ -22080,7 +22167,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="61"/>
+      <c r="A141" s="63"/>
       <c r="B141" s="5">
         <v>32.6</v>
       </c>
@@ -22102,7 +22189,7 @@
       <c r="H141" s="3"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="62"/>
+      <c r="A142" s="61"/>
       <c r="B142" s="5">
         <v>32.700000000000003</v>
       </c>
@@ -22125,32 +22212,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="A113:A122"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A38:A45"/>
     <mergeCell ref="A134:E134"/>
     <mergeCell ref="G134:H134"/>
     <mergeCell ref="A136:A142"/>
@@ -22167,144 +22228,170 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A113:A122"/>
   </mergeCells>
   <conditionalFormatting sqref="A36">
-    <cfRule type="notContainsBlanks" dxfId="72" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="78" priority="23">
       <formula>LEN(TRIM(F36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1 A1">
-    <cfRule type="notContainsBlanks" dxfId="71" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="77" priority="27">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 A7">
-    <cfRule type="notContainsBlanks" dxfId="70" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="76" priority="26">
       <formula>LEN(TRIM(F7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15 A15">
-    <cfRule type="notContainsBlanks" dxfId="69" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="75" priority="25">
       <formula>LEN(TRIM(F15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25 A25">
-    <cfRule type="notContainsBlanks" dxfId="68" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="74" priority="24">
       <formula>LEN(TRIM(F25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="notContainsBlanks" dxfId="67" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="73" priority="19">
       <formula>LEN(TRIM(L36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="notContainsBlanks" dxfId="66" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="72" priority="22">
       <formula>LEN(TRIM(L7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="notContainsBlanks" dxfId="65" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="71" priority="21">
       <formula>LEN(TRIM(L15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="notContainsBlanks" dxfId="64" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="70" priority="20">
       <formula>LEN(TRIM(L25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 A47">
-    <cfRule type="notContainsBlanks" dxfId="63" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="69" priority="18">
       <formula>LEN(TRIM(F47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="notContainsBlanks" dxfId="62" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="68" priority="17">
       <formula>LEN(TRIM(L47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58 A58">
-    <cfRule type="notContainsBlanks" dxfId="61" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="67" priority="16">
       <formula>LEN(TRIM(F58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="notContainsBlanks" dxfId="60" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="66" priority="15">
       <formula>LEN(TRIM(L58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68 A68">
-    <cfRule type="notContainsBlanks" dxfId="59" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="65" priority="14">
       <formula>LEN(TRIM(F68))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="notContainsBlanks" dxfId="58" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="64" priority="13">
       <formula>LEN(TRIM(L68))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78 A78">
-    <cfRule type="notContainsBlanks" dxfId="57" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="63" priority="12">
       <formula>LEN(TRIM(F78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="notContainsBlanks" dxfId="56" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="62" priority="11">
       <formula>LEN(TRIM(L78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89 A89">
-    <cfRule type="notContainsBlanks" dxfId="55" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="61" priority="10">
       <formula>LEN(TRIM(F89))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="notContainsBlanks" dxfId="54" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="60" priority="9">
       <formula>LEN(TRIM(L89))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101 A101">
-    <cfRule type="notContainsBlanks" dxfId="53" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="59" priority="8">
       <formula>LEN(TRIM(F101))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G101">
-    <cfRule type="notContainsBlanks" dxfId="52" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="58" priority="7">
       <formula>LEN(TRIM(L101))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111 A111">
-    <cfRule type="notContainsBlanks" dxfId="51" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="57" priority="6">
       <formula>LEN(TRIM(F111))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111">
-    <cfRule type="notContainsBlanks" dxfId="50" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="56" priority="5">
       <formula>LEN(TRIM(L111))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F124 A124">
-    <cfRule type="notContainsBlanks" dxfId="49" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="55" priority="4">
       <formula>LEN(TRIM(F124))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124">
-    <cfRule type="notContainsBlanks" dxfId="48" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="54" priority="3">
       <formula>LEN(TRIM(L124))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="notContainsBlanks" dxfId="47" priority="28">
+    <cfRule type="notContainsBlanks" dxfId="53" priority="28">
       <formula>LEN(TRIM(K2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134 A134">
-    <cfRule type="notContainsBlanks" dxfId="46" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="52" priority="2">
       <formula>LEN(TRIM(F134))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G134">
-    <cfRule type="notContainsBlanks" dxfId="45" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="51" priority="1">
       <formula>LEN(TRIM(L134))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22317,8 +22404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G146" sqref="G146:G150"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="K151" sqref="K151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22337,9 +22424,9 @@
       <c r="A1" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="58"/>
       <c r="F1" s="46" t="s">
         <v>49</v>
@@ -22376,7 +22463,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="73">
+      <c r="A3" s="80">
         <v>33</v>
       </c>
       <c r="B3" s="31">
@@ -22396,7 +22483,7 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -22414,7 +22501,7 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -22432,7 +22519,7 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="73"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="31">
         <v>33.4</v>
       </c>
@@ -22450,7 +22537,7 @@
       <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="73"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="31">
         <v>33.5</v>
       </c>
@@ -22471,10 +22558,10 @@
       <c r="A9" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="46" t="s">
         <v>42</v>
       </c>
@@ -22680,7 +22767,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="78">
+      <c r="A21" s="73">
         <v>35</v>
       </c>
       <c r="B21" s="5">
@@ -22700,7 +22787,7 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="79"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -22718,7 +22805,7 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="79"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -22736,7 +22823,7 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="79"/>
+      <c r="A24" s="78"/>
       <c r="B24" s="31">
         <v>35.4</v>
       </c>
@@ -22754,7 +22841,7 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="79"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="5">
         <v>35.5</v>
       </c>
@@ -22772,7 +22859,7 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="79"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="31">
         <v>35.6</v>
       </c>
@@ -22790,7 +22877,7 @@
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="79"/>
+      <c r="A27" s="78"/>
       <c r="B27" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -22808,7 +22895,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="80"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -22868,7 +22955,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="60">
+      <c r="A32" s="62">
         <v>40</v>
       </c>
       <c r="B32" s="5">
@@ -23056,7 +23143,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="60">
+      <c r="A43" s="62">
         <v>41</v>
       </c>
       <c r="B43" s="5">
@@ -23076,7 +23163,7 @@
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="61"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="5">
         <v>41.2</v>
       </c>
@@ -23094,7 +23181,7 @@
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="61"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="5">
         <v>41.3</v>
       </c>
@@ -23112,7 +23199,7 @@
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="61"/>
+      <c r="A46" s="63"/>
       <c r="B46" s="5">
         <v>41.4</v>
       </c>
@@ -23130,7 +23217,7 @@
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="61"/>
+      <c r="A47" s="63"/>
       <c r="B47" s="5">
         <v>41.5</v>
       </c>
@@ -23148,7 +23235,7 @@
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="61"/>
+      <c r="A48" s="63"/>
       <c r="B48" s="5">
         <v>41.6</v>
       </c>
@@ -23166,7 +23253,7 @@
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="62"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="5">
         <v>41.7</v>
       </c>
@@ -23226,7 +23313,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="60">
+      <c r="A53" s="62">
         <v>30</v>
       </c>
       <c r="B53" s="5">
@@ -23246,7 +23333,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="61"/>
+      <c r="A54" s="63"/>
       <c r="B54" s="5">
         <v>27.2</v>
       </c>
@@ -23264,7 +23351,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="61"/>
+      <c r="A55" s="63"/>
       <c r="B55" s="5">
         <v>27.3</v>
       </c>
@@ -23282,7 +23369,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="61"/>
+      <c r="A56" s="63"/>
       <c r="B56" s="5">
         <v>27.4</v>
       </c>
@@ -23300,7 +23387,7 @@
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="61"/>
+      <c r="A57" s="63"/>
       <c r="B57" s="5">
         <v>27.5</v>
       </c>
@@ -23318,7 +23405,7 @@
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="61"/>
+      <c r="A58" s="63"/>
       <c r="B58" s="5">
         <v>27.6</v>
       </c>
@@ -23336,7 +23423,7 @@
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="62"/>
+      <c r="A59" s="61"/>
       <c r="B59" s="5">
         <v>27.7</v>
       </c>
@@ -23396,7 +23483,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="60">
+      <c r="A63" s="62">
         <v>30</v>
       </c>
       <c r="B63" s="5">
@@ -23416,7 +23503,7 @@
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="61"/>
+      <c r="A64" s="63"/>
       <c r="B64" s="5">
         <v>27.2</v>
       </c>
@@ -23434,7 +23521,7 @@
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="61"/>
+      <c r="A65" s="63"/>
       <c r="B65" s="5">
         <v>27.3</v>
       </c>
@@ -23452,7 +23539,7 @@
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="61"/>
+      <c r="A66" s="63"/>
       <c r="B66" s="5">
         <v>27.4</v>
       </c>
@@ -23470,7 +23557,7 @@
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="61"/>
+      <c r="A67" s="63"/>
       <c r="B67" s="5">
         <v>27.5</v>
       </c>
@@ -23488,7 +23575,7 @@
       <c r="H67" s="3"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="61"/>
+      <c r="A68" s="63"/>
       <c r="B68" s="5">
         <v>27.6</v>
       </c>
@@ -23506,7 +23593,7 @@
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="62"/>
+      <c r="A69" s="61"/>
       <c r="B69" s="5">
         <v>27.7</v>
       </c>
@@ -23566,7 +23653,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="73">
+      <c r="A73" s="80">
         <v>24</v>
       </c>
       <c r="B73" s="28">
@@ -23700,7 +23787,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="73">
+      <c r="A81" s="80">
         <v>18</v>
       </c>
       <c r="B81" s="52">
@@ -23834,7 +23921,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="73">
+      <c r="A89" s="80">
         <v>2</v>
       </c>
       <c r="B89" s="52">
@@ -23968,7 +24055,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="73">
+      <c r="A97" s="80">
         <v>31</v>
       </c>
       <c r="B97" s="52">
@@ -24102,7 +24189,7 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="73">
+      <c r="A105" s="80">
         <v>9</v>
       </c>
       <c r="B105" s="52">
@@ -24247,7 +24334,7 @@
         <v>42</v>
       </c>
       <c r="G112" s="57" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H112" s="58"/>
     </row>
@@ -24278,7 +24365,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="73">
+      <c r="A114" s="80">
         <v>36</v>
       </c>
       <c r="B114" s="52">
@@ -24290,12 +24377,18 @@
       <c r="D114" s="39">
         <v>2</v>
       </c>
-      <c r="E114" s="31"/>
+      <c r="E114" s="39">
+        <v>2</v>
+      </c>
       <c r="F114" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G114" s="31"/>
-      <c r="H114" s="29"/>
+      <c r="G114" s="56">
+        <v>42657</v>
+      </c>
+      <c r="H114" s="29" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="83"/>
@@ -24308,11 +24401,15 @@
       <c r="D115" s="39">
         <v>1</v>
       </c>
-      <c r="E115" s="31"/>
+      <c r="E115" s="39">
+        <v>1</v>
+      </c>
       <c r="F115" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G115" s="31"/>
+      <c r="G115" s="56">
+        <v>42657</v>
+      </c>
       <c r="H115" s="29"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -24326,11 +24423,15 @@
       <c r="D116" s="39">
         <v>2</v>
       </c>
-      <c r="E116" s="31"/>
+      <c r="E116" s="39">
+        <v>2</v>
+      </c>
       <c r="F116" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G116" s="31"/>
+      <c r="G116" s="56">
+        <v>42657</v>
+      </c>
       <c r="H116" s="29"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -24344,11 +24445,15 @@
       <c r="D117" s="42">
         <v>0.5</v>
       </c>
-      <c r="E117" s="31"/>
+      <c r="E117" s="42">
+        <v>0.5</v>
+      </c>
       <c r="F117" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G117" s="31"/>
+      <c r="G117" s="56">
+        <v>42657</v>
+      </c>
       <c r="H117" s="29"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -24362,11 +24467,15 @@
       <c r="D118" s="43">
         <v>1</v>
       </c>
-      <c r="E118" s="31"/>
+      <c r="E118" s="43">
+        <v>1</v>
+      </c>
       <c r="F118" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G118" s="31"/>
+      <c r="G118" s="56">
+        <v>42657</v>
+      </c>
       <c r="H118" s="29"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -24381,7 +24490,7 @@
         <v>49</v>
       </c>
       <c r="G120" s="57" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H120" s="58"/>
     </row>
@@ -24412,7 +24521,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="73">
+      <c r="A122" s="80">
         <v>37</v>
       </c>
       <c r="B122" s="52">
@@ -24424,11 +24533,15 @@
       <c r="D122" s="39">
         <v>2</v>
       </c>
-      <c r="E122" s="31"/>
+      <c r="E122" s="39">
+        <v>2</v>
+      </c>
       <c r="F122" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G122" s="31"/>
+      <c r="G122" s="56">
+        <v>42657</v>
+      </c>
       <c r="H122" s="29"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -24442,11 +24555,15 @@
       <c r="D123" s="39">
         <v>1</v>
       </c>
-      <c r="E123" s="31"/>
+      <c r="E123" s="39">
+        <v>1</v>
+      </c>
       <c r="F123" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G123" s="31"/>
+      <c r="G123" s="56">
+        <v>42657</v>
+      </c>
       <c r="H123" s="29"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -24460,11 +24577,15 @@
       <c r="D124" s="39">
         <v>2</v>
       </c>
-      <c r="E124" s="31"/>
+      <c r="E124" s="39">
+        <v>2</v>
+      </c>
       <c r="F124" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G124" s="31"/>
+      <c r="G124" s="56">
+        <v>42657</v>
+      </c>
       <c r="H124" s="29"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -24478,11 +24599,15 @@
       <c r="D125" s="42">
         <v>0.5</v>
       </c>
-      <c r="E125" s="31"/>
+      <c r="E125" s="42">
+        <v>0.5</v>
+      </c>
       <c r="F125" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G125" s="31"/>
+      <c r="G125" s="56">
+        <v>42657</v>
+      </c>
       <c r="H125" s="29"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -24496,11 +24621,15 @@
       <c r="D126" s="43">
         <v>1</v>
       </c>
-      <c r="E126" s="31"/>
+      <c r="E126" s="43">
+        <v>1</v>
+      </c>
       <c r="F126" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G126" s="31"/>
+      <c r="G126" s="56">
+        <v>42657</v>
+      </c>
       <c r="H126" s="29"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -24515,7 +24644,7 @@
         <v>2</v>
       </c>
       <c r="G128" s="57" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H128" s="58"/>
     </row>
@@ -24546,7 +24675,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="73">
+      <c r="A130" s="80">
         <v>38</v>
       </c>
       <c r="B130" s="52">
@@ -24558,11 +24687,15 @@
       <c r="D130" s="39">
         <v>2</v>
       </c>
-      <c r="E130" s="31"/>
+      <c r="E130" s="39">
+        <v>2</v>
+      </c>
       <c r="F130" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G130" s="31"/>
+      <c r="G130" s="56">
+        <v>42657</v>
+      </c>
       <c r="H130" s="29"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -24576,11 +24709,15 @@
       <c r="D131" s="39">
         <v>1</v>
       </c>
-      <c r="E131" s="31"/>
+      <c r="E131" s="39">
+        <v>1</v>
+      </c>
       <c r="F131" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G131" s="31"/>
+      <c r="G131" s="56">
+        <v>42657</v>
+      </c>
       <c r="H131" s="29"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -24594,11 +24731,15 @@
       <c r="D132" s="39">
         <v>2</v>
       </c>
-      <c r="E132" s="31"/>
+      <c r="E132" s="39">
+        <v>2</v>
+      </c>
       <c r="F132" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G132" s="31"/>
+      <c r="G132" s="56">
+        <v>42657</v>
+      </c>
       <c r="H132" s="29"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -24612,11 +24753,15 @@
       <c r="D133" s="42">
         <v>0.5</v>
       </c>
-      <c r="E133" s="31"/>
+      <c r="E133" s="42">
+        <v>0.5</v>
+      </c>
       <c r="F133" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G133" s="31"/>
+      <c r="G133" s="56">
+        <v>42657</v>
+      </c>
       <c r="H133" s="29"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -24630,11 +24775,15 @@
       <c r="D134" s="43">
         <v>1</v>
       </c>
-      <c r="E134" s="31"/>
+      <c r="E134" s="43">
+        <v>1</v>
+      </c>
       <c r="F134" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G134" s="31"/>
+      <c r="G134" s="56">
+        <v>42657</v>
+      </c>
       <c r="H134" s="29"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -24680,7 +24829,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="73">
+      <c r="A138" s="80">
         <v>28</v>
       </c>
       <c r="B138" s="52">
@@ -24814,7 +24963,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="73">
+      <c r="A146" s="80">
         <v>39</v>
       </c>
       <c r="B146" s="52">
@@ -24855,7 +25004,7 @@
         <v>17</v>
       </c>
       <c r="G147" s="56">
-        <v>42656</v>
+        <v>42655</v>
       </c>
       <c r="H147" s="29"/>
     </row>
@@ -24877,7 +25026,7 @@
         <v>17</v>
       </c>
       <c r="G148" s="56">
-        <v>42657</v>
+        <v>42655</v>
       </c>
       <c r="H148" s="29"/>
     </row>
@@ -24899,7 +25048,7 @@
         <v>17</v>
       </c>
       <c r="G149" s="56">
-        <v>42658</v>
+        <v>42655</v>
       </c>
       <c r="H149" s="29"/>
     </row>
@@ -24921,7 +25070,7 @@
         <v>17</v>
       </c>
       <c r="G150" s="56">
-        <v>42659</v>
+        <v>42655</v>
       </c>
       <c r="H150" s="29"/>
     </row>
@@ -24937,7 +25086,7 @@
         <v>1</v>
       </c>
       <c r="G152" s="57" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H152" s="58"/>
     </row>
@@ -24980,20 +25129,55 @@
       <c r="D154" s="39">
         <v>1</v>
       </c>
-      <c r="E154" s="31"/>
+      <c r="E154" s="39">
+        <v>1</v>
+      </c>
       <c r="F154" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G154" s="31"/>
+      <c r="G154" s="56">
+        <v>42657</v>
+      </c>
       <c r="H154" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A152:E152"/>
-    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="G103:H103"/>
     <mergeCell ref="A138:A142"/>
     <mergeCell ref="A112:E112"/>
     <mergeCell ref="G112:H112"/>
@@ -25006,266 +25190,235 @@
     <mergeCell ref="A130:A134"/>
     <mergeCell ref="A136:E136"/>
     <mergeCell ref="G136:H136"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A152:E152"/>
+    <mergeCell ref="G152:H152"/>
   </mergeCells>
   <conditionalFormatting sqref="G71">
-    <cfRule type="notContainsBlanks" dxfId="44" priority="33">
+    <cfRule type="notContainsBlanks" dxfId="50" priority="36">
       <formula>LEN(TRIM(L71))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="notContainsBlanks" dxfId="43" priority="45">
+    <cfRule type="notContainsBlanks" dxfId="49" priority="48">
       <formula>LEN(TRIM(F30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 A1">
-    <cfRule type="notContainsBlanks" dxfId="42" priority="48">
+    <cfRule type="notContainsBlanks" dxfId="48" priority="51">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 A9">
-    <cfRule type="notContainsBlanks" dxfId="41" priority="47">
+    <cfRule type="notContainsBlanks" dxfId="47" priority="50">
       <formula>LEN(TRIM(F9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19 A19">
-    <cfRule type="notContainsBlanks" dxfId="40" priority="46">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="49">
       <formula>LEN(TRIM(F19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="notContainsBlanks" dxfId="39" priority="41">
+    <cfRule type="notContainsBlanks" dxfId="45" priority="44">
       <formula>LEN(TRIM(L30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="notContainsBlanks" dxfId="38" priority="44">
+    <cfRule type="notContainsBlanks" dxfId="44" priority="47">
       <formula>LEN(TRIM(L1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="notContainsBlanks" dxfId="37" priority="43">
+    <cfRule type="notContainsBlanks" dxfId="43" priority="46">
       <formula>LEN(TRIM(L9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="notContainsBlanks" dxfId="36" priority="42">
+    <cfRule type="notContainsBlanks" dxfId="42" priority="45">
       <formula>LEN(TRIM(L19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="notContainsBlanks" dxfId="35" priority="49">
+    <cfRule type="notContainsBlanks" dxfId="41" priority="52">
       <formula>LEN(TRIM(K1048559))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41 A41">
-    <cfRule type="notContainsBlanks" dxfId="34" priority="40">
+    <cfRule type="notContainsBlanks" dxfId="40" priority="43">
       <formula>LEN(TRIM(F41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="notContainsBlanks" dxfId="33" priority="39">
+    <cfRule type="notContainsBlanks" dxfId="39" priority="42">
       <formula>LEN(TRIM(L41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51 A51">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="38">
+    <cfRule type="notContainsBlanks" dxfId="38" priority="41">
       <formula>LEN(TRIM(F51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="notContainsBlanks" dxfId="31" priority="37">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="40">
       <formula>LEN(TRIM(L51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61 A61">
-    <cfRule type="notContainsBlanks" dxfId="30" priority="36">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="39">
       <formula>LEN(TRIM(F61))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="35">
+    <cfRule type="notContainsBlanks" dxfId="35" priority="38">
       <formula>LEN(TRIM(L61))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71 A71">
-    <cfRule type="notContainsBlanks" dxfId="28" priority="34">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="37">
       <formula>LEN(TRIM(F71))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79">
-    <cfRule type="notContainsBlanks" dxfId="27" priority="31">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="34">
       <formula>LEN(TRIM(L79))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79 A79">
-    <cfRule type="notContainsBlanks" dxfId="26" priority="32">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="35">
       <formula>LEN(TRIM(F79))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87">
-    <cfRule type="notContainsBlanks" dxfId="25" priority="29">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="32">
       <formula>LEN(TRIM(L87))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87 A87">
-    <cfRule type="notContainsBlanks" dxfId="24" priority="30">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="33">
       <formula>LEN(TRIM(F87))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="30">
       <formula>LEN(TRIM(L95))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="28">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="31">
       <formula>LEN(TRIM(F95))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G103">
-    <cfRule type="notContainsBlanks" dxfId="21" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="28">
       <formula>LEN(TRIM(L103))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="29">
       <formula>LEN(TRIM(F103))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="27">
       <formula>LEN(TRIM(K95))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="26">
       <formula>LEN(TRIM(K103))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G112">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="24">
       <formula>LEN(TRIM(L112))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="25">
       <formula>LEN(TRIM(F112))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F128">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="13">
       <formula>LEN(TRIM(K128))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="22">
       <formula>LEN(TRIM(K112))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G120">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="17">
-      <formula>LEN(TRIM(L120))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A120">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="21">
       <formula>LEN(TRIM(F120))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="19">
       <formula>LEN(TRIM(K120))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G144">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="8">
       <formula>LEN(TRIM(L144))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="9">
       <formula>LEN(TRIM(F144))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F144">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="7">
       <formula>LEN(TRIM(K144))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F152">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="4">
       <formula>LEN(TRIM(K152))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G128">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="11">
-      <formula>LEN(TRIM(L128))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="15">
       <formula>LEN(TRIM(F128))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F136">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="10">
       <formula>LEN(TRIM(K136))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G136">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="11">
       <formula>LEN(TRIM(L136))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="12">
       <formula>LEN(TRIM(F136))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G152">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(L152))&gt;0</formula>
+  <conditionalFormatting sqref="A152">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="6">
+      <formula>LEN(TRIM(F152))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A152">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(F152))&gt;0</formula>
+  <conditionalFormatting sqref="G120">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="3">
+      <formula>LEN(TRIM(L120))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G128">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
+      <formula>LEN(TRIM(L128))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G152">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(L152))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="167">
   <si>
     <t>User story: General Website Features</t>
   </si>
@@ -521,6 +521,9 @@
   <si>
     <t>Didn’t make each row as clickable but added buttons to do that</t>
   </si>
+  <si>
+    <t>Also added the ability to delete event</t>
+  </si>
 </sst>
 </file>
 
@@ -892,18 +895,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -926,15 +929,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -943,17 +949,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="90">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2501,9 +2518,9 @@
       <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="58"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -2550,7 +2567,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62">
+      <c r="A3" s="60">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -2584,7 +2601,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -2609,7 +2626,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -2634,7 +2651,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -2659,7 +2676,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -2682,7 +2699,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="5">
         <v>6.6</v>
       </c>
@@ -2713,17 +2730,17 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="58"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="63" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="58"/>
@@ -2757,7 +2774,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62">
+      <c r="A12" s="60">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -2782,7 +2799,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -2805,7 +2822,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -2820,7 +2837,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="66">
         <v>1.4</v>
       </c>
@@ -2836,27 +2853,27 @@
       <c r="F15" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="64">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
       <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="16">
         <v>1.5</v>
       </c>
@@ -2890,9 +2907,9 @@
       <c r="A19" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="58"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
@@ -2931,7 +2948,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62">
+      <c r="A21" s="60">
         <v>11</v>
       </c>
       <c r="B21" s="22">
@@ -2958,7 +2975,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="22">
         <v>11.2</v>
       </c>
@@ -2983,7 +3000,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -3005,9 +3022,9 @@
       <c r="A25" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="58"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
@@ -3046,7 +3063,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="62">
+      <c r="A27" s="60">
         <v>12</v>
       </c>
       <c r="B27" s="22">
@@ -3073,7 +3090,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="22">
         <v>12.2</v>
       </c>
@@ -3096,7 +3113,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="22">
         <v>12.3</v>
       </c>
@@ -3139,9 +3156,9 @@
       <c r="A32" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="58"/>
       <c r="F32" s="1" t="s">
         <v>88</v>
@@ -3180,7 +3197,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="62"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3191,7 +3208,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="63"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -3202,7 +3219,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="63"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -3213,7 +3230,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="63"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -3224,7 +3241,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="63"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -3235,7 +3252,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="63"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -3246,7 +3263,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="61"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -10942,15 +10959,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:E19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G15:G16"/>
@@ -10962,9 +10970,18 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G1 A1 F10:G10 A10 F19:G19 A19 F25:G25 A25 F32:G32 A32">
-    <cfRule type="notContainsBlanks" dxfId="88" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="89" priority="1">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10998,9 +11015,9 @@
       <c r="A1" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="58"/>
       <c r="F1" s="69" t="s">
         <v>1</v>
@@ -11046,7 +11063,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62">
+      <c r="A3" s="60">
         <v>21</v>
       </c>
       <c r="B3" s="5">
@@ -11079,7 +11096,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="5">
         <v>21.2</v>
       </c>
@@ -11103,7 +11120,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="5">
         <v>21.3</v>
       </c>
@@ -11127,7 +11144,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="5">
         <v>21.4</v>
       </c>
@@ -11151,7 +11168,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="5">
         <v>21.5</v>
       </c>
@@ -11173,7 +11190,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="5">
         <v>21.6</v>
       </c>
@@ -11195,7 +11212,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="5">
         <v>21.7</v>
       </c>
@@ -11217,7 +11234,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="5">
         <v>21.8</v>
       </c>
@@ -11241,7 +11258,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="5">
         <v>21.9</v>
       </c>
@@ -11277,9 +11294,9 @@
       <c r="A13" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="58"/>
       <c r="F13" s="69" t="s">
         <v>42</v>
@@ -11316,7 +11333,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62">
+      <c r="A15" s="60">
         <v>20</v>
       </c>
       <c r="B15" s="5">
@@ -11340,7 +11357,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="5">
         <v>20.2</v>
       </c>
@@ -11362,7 +11379,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="5">
         <v>20.3</v>
       </c>
@@ -11386,7 +11403,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="61"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="5">
         <v>20.399999999999999</v>
       </c>
@@ -11419,9 +11436,9 @@
       <c r="A20" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="58"/>
       <c r="F20" s="69" t="s">
         <v>49</v>
@@ -11458,7 +11475,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="62">
+      <c r="A22" s="60">
         <v>5</v>
       </c>
       <c r="B22" s="5">
@@ -11480,7 +11497,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="5">
         <v>5.2</v>
       </c>
@@ -11509,9 +11526,9 @@
       <c r="A25" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="58"/>
       <c r="F25" s="69" t="s">
         <v>40</v>
@@ -11548,7 +11565,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="62">
+      <c r="A27" s="60">
         <v>8</v>
       </c>
       <c r="B27" s="5">
@@ -11673,9 +11690,9 @@
       <c r="A33" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
       <c r="E33" s="58"/>
       <c r="F33" s="69" t="s">
         <v>70</v>
@@ -11712,7 +11729,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="62">
+      <c r="A35" s="60">
         <v>4</v>
       </c>
       <c r="B35" s="5">
@@ -19470,47 +19487,47 @@
     <mergeCell ref="A27:A31"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 F13 H13">
-    <cfRule type="notContainsBlanks" dxfId="87" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="88" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="notContainsBlanks" dxfId="86" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="87" priority="2">
       <formula>LEN(TRIM(A13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="notContainsBlanks" dxfId="85" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="86" priority="3">
       <formula>LEN(TRIM(A20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="notContainsBlanks" dxfId="84" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="85" priority="4">
       <formula>LEN(TRIM(A25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 H1">
-    <cfRule type="notContainsBlanks" dxfId="83" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="84" priority="5">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 H20">
-    <cfRule type="notContainsBlanks" dxfId="82" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="83" priority="6">
       <formula>LEN(TRIM(F20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25 H25">
-    <cfRule type="notContainsBlanks" dxfId="81" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="82" priority="7">
       <formula>LEN(TRIM(F25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="notContainsBlanks" dxfId="80" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="81" priority="8">
       <formula>LEN(TRIM(A33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33 H33">
-    <cfRule type="notContainsBlanks" dxfId="79" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="80" priority="9">
       <formula>LEN(TRIM(F33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19544,9 +19561,9 @@
       <c r="A1" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="58"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
@@ -19589,7 +19606,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="80">
+      <c r="A3" s="73">
         <v>22</v>
       </c>
       <c r="B3" s="31">
@@ -19619,7 +19636,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="80"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="31">
         <v>22.2</v>
       </c>
@@ -19641,7 +19658,7 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="80"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="31">
         <v>22.3</v>
       </c>
@@ -19666,9 +19683,9 @@
       <c r="A7" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="58"/>
       <c r="F7" s="1" t="s">
         <v>49</v>
@@ -19705,7 +19722,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="80">
+      <c r="A9" s="73">
         <v>33</v>
       </c>
       <c r="B9" s="31">
@@ -19725,7 +19742,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="80"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -19743,7 +19760,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="80"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -19761,7 +19778,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="80"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="31">
         <v>33.4</v>
       </c>
@@ -19779,7 +19796,7 @@
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="80"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="31">
         <v>33.5</v>
       </c>
@@ -19800,10 +19817,10 @@
       <c r="A15" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="82"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="75"/>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
@@ -20009,7 +20026,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="73">
+      <c r="A27" s="78">
         <v>35</v>
       </c>
       <c r="B27" s="5">
@@ -20029,7 +20046,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="78"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -20047,7 +20064,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="78"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -20065,7 +20082,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="78"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="31">
         <v>35.4</v>
       </c>
@@ -20083,7 +20100,7 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="78"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="5">
         <v>35.5</v>
       </c>
@@ -20101,7 +20118,7 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="78"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="31">
         <v>35.6</v>
       </c>
@@ -20119,7 +20136,7 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="78"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -20137,7 +20154,7 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="79"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -20197,7 +20214,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="62">
+      <c r="A38" s="60">
         <v>40</v>
       </c>
       <c r="B38" s="5">
@@ -20385,7 +20402,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="62">
+      <c r="A49" s="60">
         <v>23</v>
       </c>
       <c r="B49" s="5">
@@ -20409,7 +20426,7 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="63"/>
+      <c r="A50" s="61"/>
       <c r="B50" s="5">
         <v>23.2</v>
       </c>
@@ -20431,7 +20448,7 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="63"/>
+      <c r="A51" s="61"/>
       <c r="B51" s="5">
         <v>23.3</v>
       </c>
@@ -20453,7 +20470,7 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="63"/>
+      <c r="A52" s="61"/>
       <c r="B52" s="5">
         <v>23.4</v>
       </c>
@@ -20475,7 +20492,7 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="63"/>
+      <c r="A53" s="61"/>
       <c r="B53" s="5">
         <v>23.5</v>
       </c>
@@ -20497,7 +20514,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="63"/>
+      <c r="A54" s="61"/>
       <c r="B54" s="5">
         <v>23.6</v>
       </c>
@@ -20519,7 +20536,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="63"/>
+      <c r="A55" s="61"/>
       <c r="B55" s="5">
         <v>23.7</v>
       </c>
@@ -20541,7 +20558,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="61"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="5">
         <v>23.8</v>
       </c>
@@ -20605,7 +20622,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="62">
+      <c r="A60" s="60">
         <v>3</v>
       </c>
       <c r="B60" s="5">
@@ -20629,7 +20646,7 @@
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="63"/>
+      <c r="A61" s="61"/>
       <c r="B61" s="5">
         <v>3.2</v>
       </c>
@@ -20651,7 +20668,7 @@
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="63"/>
+      <c r="A62" s="61"/>
       <c r="B62" s="5">
         <v>3.3</v>
       </c>
@@ -20673,7 +20690,7 @@
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="63"/>
+      <c r="A63" s="61"/>
       <c r="B63" s="5">
         <v>3.4</v>
       </c>
@@ -20695,7 +20712,7 @@
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="63"/>
+      <c r="A64" s="61"/>
       <c r="B64" s="5">
         <v>3.5</v>
       </c>
@@ -20719,7 +20736,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="63"/>
+      <c r="A65" s="61"/>
       <c r="B65" s="5">
         <v>3.6</v>
       </c>
@@ -20741,7 +20758,7 @@
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="61"/>
+      <c r="A66" s="62"/>
       <c r="B66" s="5">
         <v>3.7</v>
       </c>
@@ -20805,7 +20822,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="62">
+      <c r="A70" s="60">
         <v>41</v>
       </c>
       <c r="B70" s="5">
@@ -20825,7 +20842,7 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="63"/>
+      <c r="A71" s="61"/>
       <c r="B71" s="5">
         <v>41.2</v>
       </c>
@@ -20843,7 +20860,7 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="63"/>
+      <c r="A72" s="61"/>
       <c r="B72" s="5">
         <v>41.3</v>
       </c>
@@ -20861,7 +20878,7 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="63"/>
+      <c r="A73" s="61"/>
       <c r="B73" s="5">
         <v>41.4</v>
       </c>
@@ -20879,7 +20896,7 @@
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="63"/>
+      <c r="A74" s="61"/>
       <c r="B74" s="5">
         <v>41.5</v>
       </c>
@@ -20897,7 +20914,7 @@
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="63"/>
+      <c r="A75" s="61"/>
       <c r="B75" s="5">
         <v>41.6</v>
       </c>
@@ -20915,7 +20932,7 @@
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="61"/>
+      <c r="A76" s="62"/>
       <c r="B76" s="5">
         <v>41.7</v>
       </c>
@@ -20975,7 +20992,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="62">
+      <c r="A80" s="60">
         <v>25</v>
       </c>
       <c r="B80" s="5">
@@ -20999,7 +21016,7 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="63"/>
+      <c r="A81" s="61"/>
       <c r="B81" s="5">
         <v>25.2</v>
       </c>
@@ -21021,7 +21038,7 @@
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="63"/>
+      <c r="A82" s="61"/>
       <c r="B82" s="5">
         <v>25.3</v>
       </c>
@@ -21043,7 +21060,7 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="63"/>
+      <c r="A83" s="61"/>
       <c r="B83" s="5">
         <v>25.4</v>
       </c>
@@ -21065,7 +21082,7 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="63"/>
+      <c r="A84" s="61"/>
       <c r="B84" s="5">
         <v>25.5</v>
       </c>
@@ -21087,7 +21104,7 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="63"/>
+      <c r="A85" s="61"/>
       <c r="B85" s="5">
         <v>25.6</v>
       </c>
@@ -21109,7 +21126,7 @@
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="63"/>
+      <c r="A86" s="61"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -21119,7 +21136,7 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="61"/>
+      <c r="A87" s="62"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -21171,7 +21188,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="62">
+      <c r="A91" s="60">
         <v>26</v>
       </c>
       <c r="B91" s="39">
@@ -21195,7 +21212,7 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="63"/>
+      <c r="A92" s="61"/>
       <c r="B92" s="39">
         <v>26.2</v>
       </c>
@@ -21217,7 +21234,7 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="63"/>
+      <c r="A93" s="61"/>
       <c r="B93" s="39">
         <v>26.3</v>
       </c>
@@ -21239,7 +21256,7 @@
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="63"/>
+      <c r="A94" s="61"/>
       <c r="B94" s="39">
         <v>26.4</v>
       </c>
@@ -21261,7 +21278,7 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="63"/>
+      <c r="A95" s="61"/>
       <c r="B95" s="39">
         <v>26.5</v>
       </c>
@@ -21283,7 +21300,7 @@
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="63"/>
+      <c r="A96" s="61"/>
       <c r="B96" s="39">
         <v>26.6</v>
       </c>
@@ -21305,7 +21322,7 @@
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="63"/>
+      <c r="A97" s="61"/>
       <c r="B97" s="39">
         <v>26.7</v>
       </c>
@@ -21327,7 +21344,7 @@
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="63"/>
+      <c r="A98" s="61"/>
       <c r="B98" s="39">
         <v>26.8</v>
       </c>
@@ -21349,7 +21366,7 @@
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="61"/>
+      <c r="A99" s="62"/>
       <c r="B99" s="39">
         <v>26.9</v>
       </c>
@@ -21413,7 +21430,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="62">
+      <c r="A103" s="60">
         <v>27</v>
       </c>
       <c r="B103" s="5">
@@ -21437,7 +21454,7 @@
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="63"/>
+      <c r="A104" s="61"/>
       <c r="B104" s="5">
         <v>27.2</v>
       </c>
@@ -21459,7 +21476,7 @@
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="63"/>
+      <c r="A105" s="61"/>
       <c r="B105" s="5">
         <v>27.3</v>
       </c>
@@ -21481,7 +21498,7 @@
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="63"/>
+      <c r="A106" s="61"/>
       <c r="B106" s="5">
         <v>27.4</v>
       </c>
@@ -21503,7 +21520,7 @@
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="63"/>
+      <c r="A107" s="61"/>
       <c r="B107" s="5">
         <v>27.5</v>
       </c>
@@ -21525,7 +21542,7 @@
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="63"/>
+      <c r="A108" s="61"/>
       <c r="B108" s="5">
         <v>27.6</v>
       </c>
@@ -21547,7 +21564,7 @@
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="61"/>
+      <c r="A109" s="62"/>
       <c r="B109" s="5">
         <v>27.7</v>
       </c>
@@ -21611,7 +21628,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="73">
+      <c r="A113" s="78">
         <v>4</v>
       </c>
       <c r="B113" s="31">
@@ -21635,7 +21652,7 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="74"/>
+      <c r="A114" s="81"/>
       <c r="B114" s="31">
         <v>4.2</v>
       </c>
@@ -21657,7 +21674,7 @@
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="74"/>
+      <c r="A115" s="81"/>
       <c r="B115" s="31">
         <v>4.3</v>
       </c>
@@ -21679,7 +21696,7 @@
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="74"/>
+      <c r="A116" s="81"/>
       <c r="B116" s="31">
         <v>4.4000000000000004</v>
       </c>
@@ -21701,7 +21718,7 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="74"/>
+      <c r="A117" s="81"/>
       <c r="B117" s="31">
         <v>4.5</v>
       </c>
@@ -21723,7 +21740,7 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="74"/>
+      <c r="A118" s="81"/>
       <c r="B118" s="31">
         <v>4.5999999999999996</v>
       </c>
@@ -21747,7 +21764,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="74"/>
+      <c r="A119" s="81"/>
       <c r="B119" s="31">
         <v>4.7</v>
       </c>
@@ -21769,7 +21786,7 @@
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="74"/>
+      <c r="A120" s="81"/>
       <c r="B120" s="31">
         <v>4.8</v>
       </c>
@@ -21793,7 +21810,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="74"/>
+      <c r="A121" s="81"/>
       <c r="B121" s="31">
         <v>4.9000000000000004</v>
       </c>
@@ -21817,7 +21834,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="75"/>
+      <c r="A122" s="82"/>
       <c r="B122" s="32" t="s">
         <v>141</v>
       </c>
@@ -21883,7 +21900,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="62">
+      <c r="A126" s="60">
         <v>30</v>
       </c>
       <c r="B126" s="5">
@@ -21903,7 +21920,7 @@
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="63"/>
+      <c r="A127" s="61"/>
       <c r="B127" s="5">
         <v>27.2</v>
       </c>
@@ -21921,7 +21938,7 @@
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="63"/>
+      <c r="A128" s="61"/>
       <c r="B128" s="5">
         <v>27.3</v>
       </c>
@@ -21939,7 +21956,7 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="63"/>
+      <c r="A129" s="61"/>
       <c r="B129" s="5">
         <v>27.4</v>
       </c>
@@ -21957,7 +21974,7 @@
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="63"/>
+      <c r="A130" s="61"/>
       <c r="B130" s="5">
         <v>27.5</v>
       </c>
@@ -21975,7 +21992,7 @@
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="63"/>
+      <c r="A131" s="61"/>
       <c r="B131" s="5">
         <v>27.6</v>
       </c>
@@ -21993,7 +22010,7 @@
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="61"/>
+      <c r="A132" s="62"/>
       <c r="B132" s="5">
         <v>27.7</v>
       </c>
@@ -22053,7 +22070,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="62">
+      <c r="A136" s="60">
         <v>32</v>
       </c>
       <c r="B136" s="5">
@@ -22077,7 +22094,7 @@
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="63"/>
+      <c r="A137" s="61"/>
       <c r="B137" s="5">
         <v>32.200000000000003</v>
       </c>
@@ -22099,7 +22116,7 @@
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="63"/>
+      <c r="A138" s="61"/>
       <c r="B138" s="5">
         <v>32.299999999999997</v>
       </c>
@@ -22121,7 +22138,7 @@
       <c r="H138" s="3"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="63"/>
+      <c r="A139" s="61"/>
       <c r="B139" s="5">
         <v>32.4</v>
       </c>
@@ -22143,7 +22160,7 @@
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="63"/>
+      <c r="A140" s="61"/>
       <c r="B140" s="5">
         <v>32.5</v>
       </c>
@@ -22167,7 +22184,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="63"/>
+      <c r="A141" s="61"/>
       <c r="B141" s="5">
         <v>32.6</v>
       </c>
@@ -22189,7 +22206,7 @@
       <c r="H141" s="3"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="61"/>
+      <c r="A142" s="62"/>
       <c r="B142" s="5">
         <v>32.700000000000003</v>
       </c>
@@ -22212,6 +22229,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A113:A122"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A38:A45"/>
     <mergeCell ref="A134:E134"/>
     <mergeCell ref="G134:H134"/>
     <mergeCell ref="A136:A142"/>
@@ -22228,170 +22271,144 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="A113:A122"/>
   </mergeCells>
   <conditionalFormatting sqref="A36">
-    <cfRule type="notContainsBlanks" dxfId="78" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="79" priority="23">
       <formula>LEN(TRIM(F36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1 A1">
-    <cfRule type="notContainsBlanks" dxfId="77" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="78" priority="27">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 A7">
-    <cfRule type="notContainsBlanks" dxfId="76" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="77" priority="26">
       <formula>LEN(TRIM(F7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15 A15">
-    <cfRule type="notContainsBlanks" dxfId="75" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="76" priority="25">
       <formula>LEN(TRIM(F15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25 A25">
-    <cfRule type="notContainsBlanks" dxfId="74" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="75" priority="24">
       <formula>LEN(TRIM(F25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="notContainsBlanks" dxfId="73" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="74" priority="19">
       <formula>LEN(TRIM(L36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="notContainsBlanks" dxfId="72" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="73" priority="22">
       <formula>LEN(TRIM(L7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="notContainsBlanks" dxfId="71" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="72" priority="21">
       <formula>LEN(TRIM(L15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="notContainsBlanks" dxfId="70" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="71" priority="20">
       <formula>LEN(TRIM(L25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 A47">
-    <cfRule type="notContainsBlanks" dxfId="69" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="70" priority="18">
       <formula>LEN(TRIM(F47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="notContainsBlanks" dxfId="68" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="69" priority="17">
       <formula>LEN(TRIM(L47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58 A58">
-    <cfRule type="notContainsBlanks" dxfId="67" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="68" priority="16">
       <formula>LEN(TRIM(F58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="notContainsBlanks" dxfId="66" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="67" priority="15">
       <formula>LEN(TRIM(L58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68 A68">
-    <cfRule type="notContainsBlanks" dxfId="65" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="66" priority="14">
       <formula>LEN(TRIM(F68))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="notContainsBlanks" dxfId="64" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="65" priority="13">
       <formula>LEN(TRIM(L68))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78 A78">
-    <cfRule type="notContainsBlanks" dxfId="63" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="64" priority="12">
       <formula>LEN(TRIM(F78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="notContainsBlanks" dxfId="62" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="63" priority="11">
       <formula>LEN(TRIM(L78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89 A89">
-    <cfRule type="notContainsBlanks" dxfId="61" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="62" priority="10">
       <formula>LEN(TRIM(F89))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="notContainsBlanks" dxfId="60" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="61" priority="9">
       <formula>LEN(TRIM(L89))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101 A101">
-    <cfRule type="notContainsBlanks" dxfId="59" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="60" priority="8">
       <formula>LEN(TRIM(F101))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G101">
-    <cfRule type="notContainsBlanks" dxfId="58" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="59" priority="7">
       <formula>LEN(TRIM(L101))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111 A111">
-    <cfRule type="notContainsBlanks" dxfId="57" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="58" priority="6">
       <formula>LEN(TRIM(F111))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111">
-    <cfRule type="notContainsBlanks" dxfId="56" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="57" priority="5">
       <formula>LEN(TRIM(L111))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F124 A124">
-    <cfRule type="notContainsBlanks" dxfId="55" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="56" priority="4">
       <formula>LEN(TRIM(F124))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124">
-    <cfRule type="notContainsBlanks" dxfId="54" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="55" priority="3">
       <formula>LEN(TRIM(L124))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="notContainsBlanks" dxfId="53" priority="28">
+    <cfRule type="notContainsBlanks" dxfId="54" priority="28">
       <formula>LEN(TRIM(K2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134 A134">
-    <cfRule type="notContainsBlanks" dxfId="52" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="53" priority="2">
       <formula>LEN(TRIM(F134))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G134">
-    <cfRule type="notContainsBlanks" dxfId="51" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="52" priority="1">
       <formula>LEN(TRIM(L134))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22404,8 +22421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="K151" sqref="K151"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138:E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22424,9 +22441,9 @@
       <c r="A1" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="58"/>
       <c r="F1" s="46" t="s">
         <v>49</v>
@@ -22463,7 +22480,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="80">
+      <c r="A3" s="73">
         <v>33</v>
       </c>
       <c r="B3" s="31">
@@ -22483,7 +22500,7 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="80"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -22501,7 +22518,7 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="80"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -22519,7 +22536,7 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="80"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="31">
         <v>33.4</v>
       </c>
@@ -22537,7 +22554,7 @@
       <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="80"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="31">
         <v>33.5</v>
       </c>
@@ -22558,10 +22575,10 @@
       <c r="A9" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="82"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="46" t="s">
         <v>42</v>
       </c>
@@ -22767,7 +22784,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="73">
+      <c r="A21" s="78">
         <v>35</v>
       </c>
       <c r="B21" s="5">
@@ -22787,7 +22804,7 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="78"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -22805,7 +22822,7 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="78"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -22823,7 +22840,7 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="78"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="31">
         <v>35.4</v>
       </c>
@@ -22841,7 +22858,7 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="78"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="5">
         <v>35.5</v>
       </c>
@@ -22859,7 +22876,7 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="78"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="31">
         <v>35.6</v>
       </c>
@@ -22877,7 +22894,7 @@
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="78"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -22895,7 +22912,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="79"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -22955,7 +22972,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="62">
+      <c r="A32" s="60">
         <v>40</v>
       </c>
       <c r="B32" s="5">
@@ -23143,7 +23160,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="62">
+      <c r="A43" s="60">
         <v>41</v>
       </c>
       <c r="B43" s="5">
@@ -23163,7 +23180,7 @@
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="63"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="5">
         <v>41.2</v>
       </c>
@@ -23181,7 +23198,7 @@
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="63"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="5">
         <v>41.3</v>
       </c>
@@ -23199,7 +23216,7 @@
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="63"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="5">
         <v>41.4</v>
       </c>
@@ -23217,7 +23234,7 @@
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="63"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="5">
         <v>41.5</v>
       </c>
@@ -23235,7 +23252,7 @@
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="63"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="5">
         <v>41.6</v>
       </c>
@@ -23253,7 +23270,7 @@
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="61"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="5">
         <v>41.7</v>
       </c>
@@ -23313,7 +23330,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="62">
+      <c r="A53" s="60">
         <v>30</v>
       </c>
       <c r="B53" s="5">
@@ -23333,7 +23350,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="63"/>
+      <c r="A54" s="61"/>
       <c r="B54" s="5">
         <v>27.2</v>
       </c>
@@ -23351,7 +23368,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="63"/>
+      <c r="A55" s="61"/>
       <c r="B55" s="5">
         <v>27.3</v>
       </c>
@@ -23369,7 +23386,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="63"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="5">
         <v>27.4</v>
       </c>
@@ -23387,7 +23404,7 @@
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="63"/>
+      <c r="A57" s="61"/>
       <c r="B57" s="5">
         <v>27.5</v>
       </c>
@@ -23405,7 +23422,7 @@
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="63"/>
+      <c r="A58" s="61"/>
       <c r="B58" s="5">
         <v>27.6</v>
       </c>
@@ -23423,7 +23440,7 @@
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="61"/>
+      <c r="A59" s="62"/>
       <c r="B59" s="5">
         <v>27.7</v>
       </c>
@@ -23483,7 +23500,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="62">
+      <c r="A63" s="60">
         <v>30</v>
       </c>
       <c r="B63" s="5">
@@ -23503,7 +23520,7 @@
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="63"/>
+      <c r="A64" s="61"/>
       <c r="B64" s="5">
         <v>27.2</v>
       </c>
@@ -23521,7 +23538,7 @@
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="63"/>
+      <c r="A65" s="61"/>
       <c r="B65" s="5">
         <v>27.3</v>
       </c>
@@ -23539,7 +23556,7 @@
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="63"/>
+      <c r="A66" s="61"/>
       <c r="B66" s="5">
         <v>27.4</v>
       </c>
@@ -23557,7 +23574,7 @@
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="63"/>
+      <c r="A67" s="61"/>
       <c r="B67" s="5">
         <v>27.5</v>
       </c>
@@ -23575,7 +23592,7 @@
       <c r="H67" s="3"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="63"/>
+      <c r="A68" s="61"/>
       <c r="B68" s="5">
         <v>27.6</v>
       </c>
@@ -23593,7 +23610,7 @@
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="61"/>
+      <c r="A69" s="62"/>
       <c r="B69" s="5">
         <v>27.7</v>
       </c>
@@ -23622,7 +23639,7 @@
         <v>42</v>
       </c>
       <c r="G71" s="57" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H71" s="58"/>
     </row>
@@ -23653,7 +23670,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="80">
+      <c r="A73" s="73">
         <v>24</v>
       </c>
       <c r="B73" s="28">
@@ -23665,11 +23682,15 @@
       <c r="D73" s="39">
         <v>2</v>
       </c>
-      <c r="E73" s="31"/>
+      <c r="E73" s="39">
+        <v>2</v>
+      </c>
       <c r="F73" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G73" s="31"/>
+      <c r="G73" s="56">
+        <v>42658</v>
+      </c>
       <c r="H73" s="29"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -23683,11 +23704,15 @@
       <c r="D74" s="39">
         <v>1</v>
       </c>
-      <c r="E74" s="31"/>
+      <c r="E74" s="39">
+        <v>1</v>
+      </c>
       <c r="F74" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G74" s="31"/>
+      <c r="G74" s="56">
+        <v>42658</v>
+      </c>
       <c r="H74" s="29"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -23701,11 +23726,15 @@
       <c r="D75" s="39">
         <v>2</v>
       </c>
-      <c r="E75" s="31"/>
+      <c r="E75" s="39">
+        <v>2</v>
+      </c>
       <c r="F75" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G75" s="31"/>
+      <c r="G75" s="56">
+        <v>42658</v>
+      </c>
       <c r="H75" s="29"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -23719,11 +23748,15 @@
       <c r="D76" s="42">
         <v>0.5</v>
       </c>
-      <c r="E76" s="31"/>
+      <c r="E76" s="42">
+        <v>0.5</v>
+      </c>
       <c r="F76" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G76" s="31"/>
+      <c r="G76" s="56">
+        <v>42658</v>
+      </c>
       <c r="H76" s="29"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -23737,11 +23770,15 @@
       <c r="D77" s="43">
         <v>1</v>
       </c>
-      <c r="E77" s="31"/>
+      <c r="E77" s="43">
+        <v>1</v>
+      </c>
       <c r="F77" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G77" s="31"/>
+      <c r="G77" s="56">
+        <v>42658</v>
+      </c>
       <c r="H77" s="29"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -23756,7 +23793,7 @@
         <v>42</v>
       </c>
       <c r="G79" s="57" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H79" s="58"/>
     </row>
@@ -23787,7 +23824,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="80">
+      <c r="A81" s="73">
         <v>18</v>
       </c>
       <c r="B81" s="52">
@@ -23799,11 +23836,15 @@
       <c r="D81" s="39">
         <v>1</v>
       </c>
-      <c r="E81" s="31"/>
+      <c r="E81" s="39">
+        <v>1</v>
+      </c>
       <c r="F81" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G81" s="31"/>
+      <c r="G81" s="56">
+        <v>42658</v>
+      </c>
       <c r="H81" s="29"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -23817,11 +23858,15 @@
       <c r="D82" s="39">
         <v>1</v>
       </c>
-      <c r="E82" s="31"/>
+      <c r="E82" s="39">
+        <v>1</v>
+      </c>
       <c r="F82" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G82" s="31"/>
+      <c r="G82" s="56">
+        <v>42658</v>
+      </c>
       <c r="H82" s="29"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -23835,11 +23880,15 @@
       <c r="D83" s="39">
         <v>2</v>
       </c>
-      <c r="E83" s="31"/>
+      <c r="E83" s="39">
+        <v>2</v>
+      </c>
       <c r="F83" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="31"/>
+      <c r="G83" s="56">
+        <v>42658</v>
+      </c>
       <c r="H83" s="29"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -23853,11 +23902,15 @@
       <c r="D84" s="42">
         <v>0.5</v>
       </c>
-      <c r="E84" s="31"/>
+      <c r="E84" s="42">
+        <v>0.5</v>
+      </c>
       <c r="F84" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G84" s="31"/>
+      <c r="G84" s="56">
+        <v>42658</v>
+      </c>
       <c r="H84" s="29"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -23871,11 +23924,15 @@
       <c r="D85" s="43">
         <v>1</v>
       </c>
-      <c r="E85" s="31"/>
+      <c r="E85" s="43">
+        <v>1</v>
+      </c>
       <c r="F85" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G85" s="31"/>
+      <c r="G85" s="56">
+        <v>42658</v>
+      </c>
       <c r="H85" s="29"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -23892,7 +23949,7 @@
       <c r="G87" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H87" s="58"/>
+      <c r="H87" s="72"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="30" t="s">
@@ -23921,7 +23978,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="80">
+      <c r="A89" s="73">
         <v>2</v>
       </c>
       <c r="B89" s="52">
@@ -24055,7 +24112,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="80">
+      <c r="A97" s="73">
         <v>31</v>
       </c>
       <c r="B97" s="52">
@@ -24189,7 +24246,7 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="80">
+      <c r="A105" s="73">
         <v>9</v>
       </c>
       <c r="B105" s="52">
@@ -24365,7 +24422,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="80">
+      <c r="A114" s="73">
         <v>36</v>
       </c>
       <c r="B114" s="52">
@@ -24521,7 +24578,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="80">
+      <c r="A122" s="73">
         <v>37</v>
       </c>
       <c r="B122" s="52">
@@ -24675,7 +24732,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="80">
+      <c r="A130" s="73">
         <v>38</v>
       </c>
       <c r="B130" s="52">
@@ -24798,7 +24855,7 @@
         <v>2</v>
       </c>
       <c r="G136" s="57" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H136" s="58"/>
     </row>
@@ -24829,7 +24886,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="80">
+      <c r="A138" s="73">
         <v>28</v>
       </c>
       <c r="B138" s="52">
@@ -24841,12 +24898,18 @@
       <c r="D138" s="39">
         <v>2</v>
       </c>
-      <c r="E138" s="31"/>
+      <c r="E138" s="39">
+        <v>2</v>
+      </c>
       <c r="F138" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G138" s="31"/>
-      <c r="H138" s="29"/>
+      <c r="G138" s="56">
+        <v>42658</v>
+      </c>
+      <c r="H138" s="29" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="83"/>
@@ -24859,11 +24922,15 @@
       <c r="D139" s="39">
         <v>1</v>
       </c>
-      <c r="E139" s="31"/>
+      <c r="E139" s="39">
+        <v>1</v>
+      </c>
       <c r="F139" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G139" s="31"/>
+      <c r="G139" s="56">
+        <v>42658</v>
+      </c>
       <c r="H139" s="29"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -24877,11 +24944,15 @@
       <c r="D140" s="39">
         <v>2</v>
       </c>
-      <c r="E140" s="31"/>
+      <c r="E140" s="39">
+        <v>2</v>
+      </c>
       <c r="F140" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G140" s="31"/>
+      <c r="G140" s="56">
+        <v>42658</v>
+      </c>
       <c r="H140" s="29"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -24895,11 +24966,15 @@
       <c r="D141" s="42">
         <v>0.5</v>
       </c>
-      <c r="E141" s="31"/>
+      <c r="E141" s="42">
+        <v>0.5</v>
+      </c>
       <c r="F141" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G141" s="31"/>
+      <c r="G141" s="56">
+        <v>42658</v>
+      </c>
       <c r="H141" s="29"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -24913,11 +24988,15 @@
       <c r="D142" s="43">
         <v>1</v>
       </c>
-      <c r="E142" s="31"/>
+      <c r="E142" s="43">
+        <v>1</v>
+      </c>
       <c r="F142" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G142" s="31"/>
+      <c r="G142" s="56">
+        <v>42658</v>
+      </c>
       <c r="H142" s="29"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -24963,7 +25042,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="80">
+      <c r="A146" s="73">
         <v>39</v>
       </c>
       <c r="B146" s="52">
@@ -25142,6 +25221,47 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A152:E152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="A130:A134"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="G71:H71"/>
     <mergeCell ref="A32:A39"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:H1"/>
@@ -25154,271 +25274,230 @@
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="A130:A134"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A152:E152"/>
-    <mergeCell ref="G152:H152"/>
   </mergeCells>
   <conditionalFormatting sqref="G71">
-    <cfRule type="notContainsBlanks" dxfId="50" priority="36">
+    <cfRule type="notContainsBlanks" dxfId="51" priority="39">
       <formula>LEN(TRIM(L71))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="notContainsBlanks" dxfId="49" priority="48">
+    <cfRule type="notContainsBlanks" dxfId="50" priority="51">
       <formula>LEN(TRIM(F30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 A1">
-    <cfRule type="notContainsBlanks" dxfId="48" priority="51">
+    <cfRule type="notContainsBlanks" dxfId="49" priority="54">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 A9">
-    <cfRule type="notContainsBlanks" dxfId="47" priority="50">
+    <cfRule type="notContainsBlanks" dxfId="48" priority="53">
       <formula>LEN(TRIM(F9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19 A19">
-    <cfRule type="notContainsBlanks" dxfId="46" priority="49">
+    <cfRule type="notContainsBlanks" dxfId="47" priority="52">
       <formula>LEN(TRIM(F19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="notContainsBlanks" dxfId="45" priority="44">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="47">
       <formula>LEN(TRIM(L30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="notContainsBlanks" dxfId="44" priority="47">
+    <cfRule type="notContainsBlanks" dxfId="45" priority="50">
       <formula>LEN(TRIM(L1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="notContainsBlanks" dxfId="43" priority="46">
+    <cfRule type="notContainsBlanks" dxfId="44" priority="49">
       <formula>LEN(TRIM(L9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="notContainsBlanks" dxfId="42" priority="45">
+    <cfRule type="notContainsBlanks" dxfId="43" priority="48">
       <formula>LEN(TRIM(L19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="notContainsBlanks" dxfId="41" priority="52">
+    <cfRule type="notContainsBlanks" dxfId="42" priority="55">
       <formula>LEN(TRIM(K1048559))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41 A41">
-    <cfRule type="notContainsBlanks" dxfId="40" priority="43">
+    <cfRule type="notContainsBlanks" dxfId="41" priority="46">
       <formula>LEN(TRIM(F41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="notContainsBlanks" dxfId="39" priority="42">
+    <cfRule type="notContainsBlanks" dxfId="40" priority="45">
       <formula>LEN(TRIM(L41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51 A51">
-    <cfRule type="notContainsBlanks" dxfId="38" priority="41">
+    <cfRule type="notContainsBlanks" dxfId="39" priority="44">
       <formula>LEN(TRIM(F51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="notContainsBlanks" dxfId="37" priority="40">
+    <cfRule type="notContainsBlanks" dxfId="38" priority="43">
       <formula>LEN(TRIM(L51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61 A61">
-    <cfRule type="notContainsBlanks" dxfId="36" priority="39">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="42">
       <formula>LEN(TRIM(F61))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61">
-    <cfRule type="notContainsBlanks" dxfId="35" priority="38">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="41">
       <formula>LEN(TRIM(L61))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71 A71">
-    <cfRule type="notContainsBlanks" dxfId="34" priority="37">
+    <cfRule type="notContainsBlanks" dxfId="35" priority="40">
       <formula>LEN(TRIM(F71))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G79">
-    <cfRule type="notContainsBlanks" dxfId="33" priority="34">
-      <formula>LEN(TRIM(L79))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F79 A79">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="35">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="38">
       <formula>LEN(TRIM(F79))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87">
-    <cfRule type="notContainsBlanks" dxfId="31" priority="32">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="35">
       <formula>LEN(TRIM(L87))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87 A87">
-    <cfRule type="notContainsBlanks" dxfId="30" priority="33">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="36">
       <formula>LEN(TRIM(F87))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="30">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="33">
       <formula>LEN(TRIM(L95))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="notContainsBlanks" dxfId="28" priority="31">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="34">
       <formula>LEN(TRIM(F95))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G103">
-    <cfRule type="notContainsBlanks" dxfId="27" priority="28">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="31">
       <formula>LEN(TRIM(L103))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="notContainsBlanks" dxfId="26" priority="29">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="32">
       <formula>LEN(TRIM(F103))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95">
-    <cfRule type="notContainsBlanks" dxfId="25" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="30">
       <formula>LEN(TRIM(K95))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103">
-    <cfRule type="notContainsBlanks" dxfId="24" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="29">
       <formula>LEN(TRIM(K103))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G112">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="27">
       <formula>LEN(TRIM(L112))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="28">
       <formula>LEN(TRIM(F112))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F128">
-    <cfRule type="notContainsBlanks" dxfId="21" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="16">
       <formula>LEN(TRIM(K128))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="25">
       <formula>LEN(TRIM(K112))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="24">
       <formula>LEN(TRIM(F120))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="22">
       <formula>LEN(TRIM(K120))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G144">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="11">
       <formula>LEN(TRIM(L144))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="12">
       <formula>LEN(TRIM(F144))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F144">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="10">
       <formula>LEN(TRIM(K144))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F152">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="7">
       <formula>LEN(TRIM(K152))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="18">
       <formula>LEN(TRIM(F128))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F136">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="13">
       <formula>LEN(TRIM(K136))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G136">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="11">
-      <formula>LEN(TRIM(L136))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="15">
       <formula>LEN(TRIM(F136))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="9">
       <formula>LEN(TRIM(F152))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G120">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="3">
-      <formula>LEN(TRIM(L120))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G128">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="5">
       <formula>LEN(TRIM(L128))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G152">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="4">
+      <formula>LEN(TRIM(L152))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="3">
+      <formula>LEN(TRIM(L79))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G120">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
+      <formula>LEN(TRIM(L120))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G136">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(L152))&gt;0</formula>
+      <formula>LEN(TRIM(L136))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="170">
   <si>
     <t>User story: General Website Features</t>
   </si>
@@ -524,6 +524,15 @@
   <si>
     <t>Also added the ability to delete event</t>
   </si>
+  <si>
+    <t>Lance/Glynn</t>
+  </si>
+  <si>
+    <t>Glynn made the Add_new_sponsors.php</t>
+  </si>
+  <si>
+    <t>Lance made the Volunteer_account_details.php</t>
+  </si>
 </sst>
 </file>
 
@@ -811,7 +820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -895,18 +904,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -929,18 +938,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -949,112 +955,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="83">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2518,9 +2431,9 @@
       <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="58"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -2567,7 +2480,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60">
+      <c r="A3" s="62">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -2601,7 +2514,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -2626,7 +2539,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -2651,7 +2564,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -2676,7 +2589,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -2699,7 +2612,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="5">
         <v>6.6</v>
       </c>
@@ -2730,17 +2643,17 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="58"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="59" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="58"/>
@@ -2774,7 +2687,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="60">
+      <c r="A12" s="62">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -2799,7 +2712,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -2822,7 +2735,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -2837,7 +2750,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="66">
         <v>1.4</v>
       </c>
@@ -2853,27 +2766,27 @@
       <c r="F15" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="64">
+      <c r="G15" s="60">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
       <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="16">
         <v>1.5</v>
       </c>
@@ -2907,9 +2820,9 @@
       <c r="A19" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="58"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
@@ -2948,7 +2861,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60">
+      <c r="A21" s="62">
         <v>11</v>
       </c>
       <c r="B21" s="22">
@@ -2975,7 +2888,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="22">
         <v>11.2</v>
       </c>
@@ -3000,7 +2913,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="62"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -3022,9 +2935,9 @@
       <c r="A25" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="58"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
@@ -3063,7 +2976,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="60">
+      <c r="A27" s="62">
         <v>12</v>
       </c>
       <c r="B27" s="22">
@@ -3090,7 +3003,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="22">
         <v>12.2</v>
       </c>
@@ -3113,7 +3026,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="22">
         <v>12.3</v>
       </c>
@@ -3156,9 +3069,9 @@
       <c r="A32" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="58"/>
       <c r="F32" s="1" t="s">
         <v>88</v>
@@ -3197,7 +3110,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="60"/>
+      <c r="A34" s="62"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3208,7 +3121,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="61"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -3219,7 +3132,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="61"/>
+      <c r="A36" s="63"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -3230,7 +3143,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="61"/>
+      <c r="A37" s="63"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -3241,7 +3154,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="61"/>
+      <c r="A38" s="63"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -3252,7 +3165,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="61"/>
+      <c r="A39" s="63"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -3263,7 +3176,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="62"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -10959,6 +10872,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:E19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G15:G16"/>
@@ -10970,18 +10892,9 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G1 A1 F10:G10 A10 F19:G19 A19 F25:G25 A25 F32:G32 A32">
-    <cfRule type="notContainsBlanks" dxfId="89" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="82" priority="1">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11015,9 +10928,9 @@
       <c r="A1" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="58"/>
       <c r="F1" s="69" t="s">
         <v>1</v>
@@ -11063,7 +10976,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60">
+      <c r="A3" s="62">
         <v>21</v>
       </c>
       <c r="B3" s="5">
@@ -11096,7 +11009,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="5">
         <v>21.2</v>
       </c>
@@ -11120,7 +11033,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="5">
         <v>21.3</v>
       </c>
@@ -11144,7 +11057,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="5">
         <v>21.4</v>
       </c>
@@ -11168,7 +11081,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="5">
         <v>21.5</v>
       </c>
@@ -11190,7 +11103,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="5">
         <v>21.6</v>
       </c>
@@ -11212,7 +11125,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="5">
         <v>21.7</v>
       </c>
@@ -11234,7 +11147,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="5">
         <v>21.8</v>
       </c>
@@ -11258,7 +11171,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="5">
         <v>21.9</v>
       </c>
@@ -11294,9 +11207,9 @@
       <c r="A13" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="58"/>
       <c r="F13" s="69" t="s">
         <v>42</v>
@@ -11333,7 +11246,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60">
+      <c r="A15" s="62">
         <v>20</v>
       </c>
       <c r="B15" s="5">
@@ -11357,7 +11270,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="5">
         <v>20.2</v>
       </c>
@@ -11379,7 +11292,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="5">
         <v>20.3</v>
       </c>
@@ -11403,7 +11316,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="62"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="5">
         <v>20.399999999999999</v>
       </c>
@@ -11436,9 +11349,9 @@
       <c r="A20" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="58"/>
       <c r="F20" s="69" t="s">
         <v>49</v>
@@ -11475,7 +11388,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="60">
+      <c r="A22" s="62">
         <v>5</v>
       </c>
       <c r="B22" s="5">
@@ -11497,7 +11410,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="62"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="5">
         <v>5.2</v>
       </c>
@@ -11526,9 +11439,9 @@
       <c r="A25" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="58"/>
       <c r="F25" s="69" t="s">
         <v>40</v>
@@ -11565,7 +11478,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="60">
+      <c r="A27" s="62">
         <v>8</v>
       </c>
       <c r="B27" s="5">
@@ -11690,9 +11603,9 @@
       <c r="A33" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
       <c r="E33" s="58"/>
       <c r="F33" s="69" t="s">
         <v>70</v>
@@ -11729,7 +11642,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="60">
+      <c r="A35" s="62">
         <v>4</v>
       </c>
       <c r="B35" s="5">
@@ -19487,47 +19400,47 @@
     <mergeCell ref="A27:A31"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 F13 H13">
-    <cfRule type="notContainsBlanks" dxfId="88" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="81" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="notContainsBlanks" dxfId="87" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="80" priority="2">
       <formula>LEN(TRIM(A13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="notContainsBlanks" dxfId="86" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="79" priority="3">
       <formula>LEN(TRIM(A20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="notContainsBlanks" dxfId="85" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="78" priority="4">
       <formula>LEN(TRIM(A25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 H1">
-    <cfRule type="notContainsBlanks" dxfId="84" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="77" priority="5">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 H20">
-    <cfRule type="notContainsBlanks" dxfId="83" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="76" priority="6">
       <formula>LEN(TRIM(F20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25 H25">
-    <cfRule type="notContainsBlanks" dxfId="82" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="75" priority="7">
       <formula>LEN(TRIM(F25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="notContainsBlanks" dxfId="81" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="74" priority="8">
       <formula>LEN(TRIM(A33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33 H33">
-    <cfRule type="notContainsBlanks" dxfId="80" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="73" priority="9">
       <formula>LEN(TRIM(F33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19561,9 +19474,9 @@
       <c r="A1" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="58"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
@@ -19606,7 +19519,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="73">
+      <c r="A3" s="80">
         <v>22</v>
       </c>
       <c r="B3" s="31">
@@ -19636,7 +19549,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="31">
         <v>22.2</v>
       </c>
@@ -19658,7 +19571,7 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="31">
         <v>22.3</v>
       </c>
@@ -19683,9 +19596,9 @@
       <c r="A7" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="58"/>
       <c r="F7" s="1" t="s">
         <v>49</v>
@@ -19722,7 +19635,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="73">
+      <c r="A9" s="80">
         <v>33</v>
       </c>
       <c r="B9" s="31">
@@ -19742,7 +19655,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="73"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -19760,7 +19673,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="73"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -19778,7 +19691,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="31">
         <v>33.4</v>
       </c>
@@ -19796,7 +19709,7 @@
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="31">
         <v>33.5</v>
       </c>
@@ -19817,10 +19730,10 @@
       <c r="A15" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="82"/>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
@@ -20026,7 +19939,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="78">
+      <c r="A27" s="73">
         <v>35</v>
       </c>
       <c r="B27" s="5">
@@ -20046,7 +19959,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="79"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -20064,7 +19977,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="79"/>
+      <c r="A29" s="78"/>
       <c r="B29" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -20082,7 +19995,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="79"/>
+      <c r="A30" s="78"/>
       <c r="B30" s="31">
         <v>35.4</v>
       </c>
@@ -20100,7 +20013,7 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="79"/>
+      <c r="A31" s="78"/>
       <c r="B31" s="5">
         <v>35.5</v>
       </c>
@@ -20118,7 +20031,7 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="79"/>
+      <c r="A32" s="78"/>
       <c r="B32" s="31">
         <v>35.6</v>
       </c>
@@ -20136,7 +20049,7 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="79"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -20154,7 +20067,7 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="80"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -20214,7 +20127,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="60">
+      <c r="A38" s="62">
         <v>40</v>
       </c>
       <c r="B38" s="5">
@@ -20402,7 +20315,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="60">
+      <c r="A49" s="62">
         <v>23</v>
       </c>
       <c r="B49" s="5">
@@ -20426,7 +20339,7 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="61"/>
+      <c r="A50" s="63"/>
       <c r="B50" s="5">
         <v>23.2</v>
       </c>
@@ -20448,7 +20361,7 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="61"/>
+      <c r="A51" s="63"/>
       <c r="B51" s="5">
         <v>23.3</v>
       </c>
@@ -20470,7 +20383,7 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="61"/>
+      <c r="A52" s="63"/>
       <c r="B52" s="5">
         <v>23.4</v>
       </c>
@@ -20492,7 +20405,7 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="61"/>
+      <c r="A53" s="63"/>
       <c r="B53" s="5">
         <v>23.5</v>
       </c>
@@ -20514,7 +20427,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="61"/>
+      <c r="A54" s="63"/>
       <c r="B54" s="5">
         <v>23.6</v>
       </c>
@@ -20536,7 +20449,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="61"/>
+      <c r="A55" s="63"/>
       <c r="B55" s="5">
         <v>23.7</v>
       </c>
@@ -20558,7 +20471,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="62"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="5">
         <v>23.8</v>
       </c>
@@ -20622,7 +20535,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="60">
+      <c r="A60" s="62">
         <v>3</v>
       </c>
       <c r="B60" s="5">
@@ -20646,7 +20559,7 @@
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="61"/>
+      <c r="A61" s="63"/>
       <c r="B61" s="5">
         <v>3.2</v>
       </c>
@@ -20668,7 +20581,7 @@
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="61"/>
+      <c r="A62" s="63"/>
       <c r="B62" s="5">
         <v>3.3</v>
       </c>
@@ -20690,7 +20603,7 @@
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="61"/>
+      <c r="A63" s="63"/>
       <c r="B63" s="5">
         <v>3.4</v>
       </c>
@@ -20712,7 +20625,7 @@
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="61"/>
+      <c r="A64" s="63"/>
       <c r="B64" s="5">
         <v>3.5</v>
       </c>
@@ -20736,7 +20649,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="61"/>
+      <c r="A65" s="63"/>
       <c r="B65" s="5">
         <v>3.6</v>
       </c>
@@ -20758,7 +20671,7 @@
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="62"/>
+      <c r="A66" s="61"/>
       <c r="B66" s="5">
         <v>3.7</v>
       </c>
@@ -20822,7 +20735,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="60">
+      <c r="A70" s="62">
         <v>41</v>
       </c>
       <c r="B70" s="5">
@@ -20842,7 +20755,7 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="61"/>
+      <c r="A71" s="63"/>
       <c r="B71" s="5">
         <v>41.2</v>
       </c>
@@ -20860,7 +20773,7 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="61"/>
+      <c r="A72" s="63"/>
       <c r="B72" s="5">
         <v>41.3</v>
       </c>
@@ -20878,7 +20791,7 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="61"/>
+      <c r="A73" s="63"/>
       <c r="B73" s="5">
         <v>41.4</v>
       </c>
@@ -20896,7 +20809,7 @@
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="61"/>
+      <c r="A74" s="63"/>
       <c r="B74" s="5">
         <v>41.5</v>
       </c>
@@ -20914,7 +20827,7 @@
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="61"/>
+      <c r="A75" s="63"/>
       <c r="B75" s="5">
         <v>41.6</v>
       </c>
@@ -20932,7 +20845,7 @@
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="62"/>
+      <c r="A76" s="61"/>
       <c r="B76" s="5">
         <v>41.7</v>
       </c>
@@ -20992,7 +20905,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="60">
+      <c r="A80" s="62">
         <v>25</v>
       </c>
       <c r="B80" s="5">
@@ -21016,7 +20929,7 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="61"/>
+      <c r="A81" s="63"/>
       <c r="B81" s="5">
         <v>25.2</v>
       </c>
@@ -21038,7 +20951,7 @@
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="61"/>
+      <c r="A82" s="63"/>
       <c r="B82" s="5">
         <v>25.3</v>
       </c>
@@ -21060,7 +20973,7 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="61"/>
+      <c r="A83" s="63"/>
       <c r="B83" s="5">
         <v>25.4</v>
       </c>
@@ -21082,7 +20995,7 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="61"/>
+      <c r="A84" s="63"/>
       <c r="B84" s="5">
         <v>25.5</v>
       </c>
@@ -21104,7 +21017,7 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="61"/>
+      <c r="A85" s="63"/>
       <c r="B85" s="5">
         <v>25.6</v>
       </c>
@@ -21126,7 +21039,7 @@
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="61"/>
+      <c r="A86" s="63"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -21136,7 +21049,7 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="62"/>
+      <c r="A87" s="61"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -21188,7 +21101,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="60">
+      <c r="A91" s="62">
         <v>26</v>
       </c>
       <c r="B91" s="39">
@@ -21212,7 +21125,7 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="61"/>
+      <c r="A92" s="63"/>
       <c r="B92" s="39">
         <v>26.2</v>
       </c>
@@ -21234,7 +21147,7 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="61"/>
+      <c r="A93" s="63"/>
       <c r="B93" s="39">
         <v>26.3</v>
       </c>
@@ -21256,7 +21169,7 @@
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="61"/>
+      <c r="A94" s="63"/>
       <c r="B94" s="39">
         <v>26.4</v>
       </c>
@@ -21278,7 +21191,7 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="61"/>
+      <c r="A95" s="63"/>
       <c r="B95" s="39">
         <v>26.5</v>
       </c>
@@ -21300,7 +21213,7 @@
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="61"/>
+      <c r="A96" s="63"/>
       <c r="B96" s="39">
         <v>26.6</v>
       </c>
@@ -21322,7 +21235,7 @@
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="61"/>
+      <c r="A97" s="63"/>
       <c r="B97" s="39">
         <v>26.7</v>
       </c>
@@ -21344,7 +21257,7 @@
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="61"/>
+      <c r="A98" s="63"/>
       <c r="B98" s="39">
         <v>26.8</v>
       </c>
@@ -21366,7 +21279,7 @@
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="62"/>
+      <c r="A99" s="61"/>
       <c r="B99" s="39">
         <v>26.9</v>
       </c>
@@ -21430,7 +21343,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="60">
+      <c r="A103" s="62">
         <v>27</v>
       </c>
       <c r="B103" s="5">
@@ -21454,7 +21367,7 @@
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="61"/>
+      <c r="A104" s="63"/>
       <c r="B104" s="5">
         <v>27.2</v>
       </c>
@@ -21476,7 +21389,7 @@
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="61"/>
+      <c r="A105" s="63"/>
       <c r="B105" s="5">
         <v>27.3</v>
       </c>
@@ -21498,7 +21411,7 @@
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="61"/>
+      <c r="A106" s="63"/>
       <c r="B106" s="5">
         <v>27.4</v>
       </c>
@@ -21520,7 +21433,7 @@
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="61"/>
+      <c r="A107" s="63"/>
       <c r="B107" s="5">
         <v>27.5</v>
       </c>
@@ -21542,7 +21455,7 @@
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="61"/>
+      <c r="A108" s="63"/>
       <c r="B108" s="5">
         <v>27.6</v>
       </c>
@@ -21564,7 +21477,7 @@
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="62"/>
+      <c r="A109" s="61"/>
       <c r="B109" s="5">
         <v>27.7</v>
       </c>
@@ -21628,7 +21541,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="78">
+      <c r="A113" s="73">
         <v>4</v>
       </c>
       <c r="B113" s="31">
@@ -21652,7 +21565,7 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="81"/>
+      <c r="A114" s="74"/>
       <c r="B114" s="31">
         <v>4.2</v>
       </c>
@@ -21674,7 +21587,7 @@
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="81"/>
+      <c r="A115" s="74"/>
       <c r="B115" s="31">
         <v>4.3</v>
       </c>
@@ -21696,7 +21609,7 @@
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="81"/>
+      <c r="A116" s="74"/>
       <c r="B116" s="31">
         <v>4.4000000000000004</v>
       </c>
@@ -21718,7 +21631,7 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="81"/>
+      <c r="A117" s="74"/>
       <c r="B117" s="31">
         <v>4.5</v>
       </c>
@@ -21740,7 +21653,7 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="81"/>
+      <c r="A118" s="74"/>
       <c r="B118" s="31">
         <v>4.5999999999999996</v>
       </c>
@@ -21764,7 +21677,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="81"/>
+      <c r="A119" s="74"/>
       <c r="B119" s="31">
         <v>4.7</v>
       </c>
@@ -21786,7 +21699,7 @@
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="81"/>
+      <c r="A120" s="74"/>
       <c r="B120" s="31">
         <v>4.8</v>
       </c>
@@ -21810,7 +21723,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="81"/>
+      <c r="A121" s="74"/>
       <c r="B121" s="31">
         <v>4.9000000000000004</v>
       </c>
@@ -21834,7 +21747,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="82"/>
+      <c r="A122" s="75"/>
       <c r="B122" s="32" t="s">
         <v>141</v>
       </c>
@@ -21900,7 +21813,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="60">
+      <c r="A126" s="62">
         <v>30</v>
       </c>
       <c r="B126" s="5">
@@ -21920,7 +21833,7 @@
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="61"/>
+      <c r="A127" s="63"/>
       <c r="B127" s="5">
         <v>27.2</v>
       </c>
@@ -21938,7 +21851,7 @@
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="61"/>
+      <c r="A128" s="63"/>
       <c r="B128" s="5">
         <v>27.3</v>
       </c>
@@ -21956,7 +21869,7 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="61"/>
+      <c r="A129" s="63"/>
       <c r="B129" s="5">
         <v>27.4</v>
       </c>
@@ -21974,7 +21887,7 @@
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="61"/>
+      <c r="A130" s="63"/>
       <c r="B130" s="5">
         <v>27.5</v>
       </c>
@@ -21992,7 +21905,7 @@
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="61"/>
+      <c r="A131" s="63"/>
       <c r="B131" s="5">
         <v>27.6</v>
       </c>
@@ -22010,7 +21923,7 @@
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="62"/>
+      <c r="A132" s="61"/>
       <c r="B132" s="5">
         <v>27.7</v>
       </c>
@@ -22070,7 +21983,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="60">
+      <c r="A136" s="62">
         <v>32</v>
       </c>
       <c r="B136" s="5">
@@ -22094,7 +22007,7 @@
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="61"/>
+      <c r="A137" s="63"/>
       <c r="B137" s="5">
         <v>32.200000000000003</v>
       </c>
@@ -22116,7 +22029,7 @@
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="61"/>
+      <c r="A138" s="63"/>
       <c r="B138" s="5">
         <v>32.299999999999997</v>
       </c>
@@ -22138,7 +22051,7 @@
       <c r="H138" s="3"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="61"/>
+      <c r="A139" s="63"/>
       <c r="B139" s="5">
         <v>32.4</v>
       </c>
@@ -22160,7 +22073,7 @@
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="61"/>
+      <c r="A140" s="63"/>
       <c r="B140" s="5">
         <v>32.5</v>
       </c>
@@ -22184,7 +22097,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="61"/>
+      <c r="A141" s="63"/>
       <c r="B141" s="5">
         <v>32.6</v>
       </c>
@@ -22206,7 +22119,7 @@
       <c r="H141" s="3"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="62"/>
+      <c r="A142" s="61"/>
       <c r="B142" s="5">
         <v>32.700000000000003</v>
       </c>
@@ -22229,32 +22142,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="A113:A122"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A38:A45"/>
     <mergeCell ref="A134:E134"/>
     <mergeCell ref="G134:H134"/>
     <mergeCell ref="A136:A142"/>
@@ -22271,144 +22158,170 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A113:A122"/>
   </mergeCells>
   <conditionalFormatting sqref="A36">
-    <cfRule type="notContainsBlanks" dxfId="79" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="72" priority="23">
       <formula>LEN(TRIM(F36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1 A1">
-    <cfRule type="notContainsBlanks" dxfId="78" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="71" priority="27">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 A7">
-    <cfRule type="notContainsBlanks" dxfId="77" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="70" priority="26">
       <formula>LEN(TRIM(F7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15 A15">
-    <cfRule type="notContainsBlanks" dxfId="76" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="69" priority="25">
       <formula>LEN(TRIM(F15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25 A25">
-    <cfRule type="notContainsBlanks" dxfId="75" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="68" priority="24">
       <formula>LEN(TRIM(F25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="notContainsBlanks" dxfId="74" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="67" priority="19">
       <formula>LEN(TRIM(L36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="notContainsBlanks" dxfId="73" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="66" priority="22">
       <formula>LEN(TRIM(L7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="notContainsBlanks" dxfId="72" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="65" priority="21">
       <formula>LEN(TRIM(L15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="notContainsBlanks" dxfId="71" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="64" priority="20">
       <formula>LEN(TRIM(L25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 A47">
-    <cfRule type="notContainsBlanks" dxfId="70" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="63" priority="18">
       <formula>LEN(TRIM(F47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="notContainsBlanks" dxfId="69" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="62" priority="17">
       <formula>LEN(TRIM(L47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58 A58">
-    <cfRule type="notContainsBlanks" dxfId="68" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="61" priority="16">
       <formula>LEN(TRIM(F58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="notContainsBlanks" dxfId="67" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="60" priority="15">
       <formula>LEN(TRIM(L58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68 A68">
-    <cfRule type="notContainsBlanks" dxfId="66" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="59" priority="14">
       <formula>LEN(TRIM(F68))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="notContainsBlanks" dxfId="65" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="58" priority="13">
       <formula>LEN(TRIM(L68))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78 A78">
-    <cfRule type="notContainsBlanks" dxfId="64" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="57" priority="12">
       <formula>LEN(TRIM(F78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="notContainsBlanks" dxfId="63" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="56" priority="11">
       <formula>LEN(TRIM(L78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89 A89">
-    <cfRule type="notContainsBlanks" dxfId="62" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="55" priority="10">
       <formula>LEN(TRIM(F89))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="notContainsBlanks" dxfId="61" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="54" priority="9">
       <formula>LEN(TRIM(L89))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101 A101">
-    <cfRule type="notContainsBlanks" dxfId="60" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="53" priority="8">
       <formula>LEN(TRIM(F101))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G101">
-    <cfRule type="notContainsBlanks" dxfId="59" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="52" priority="7">
       <formula>LEN(TRIM(L101))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111 A111">
-    <cfRule type="notContainsBlanks" dxfId="58" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="51" priority="6">
       <formula>LEN(TRIM(F111))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111">
-    <cfRule type="notContainsBlanks" dxfId="57" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="50" priority="5">
       <formula>LEN(TRIM(L111))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F124 A124">
-    <cfRule type="notContainsBlanks" dxfId="56" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="49" priority="4">
       <formula>LEN(TRIM(F124))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124">
-    <cfRule type="notContainsBlanks" dxfId="55" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="48" priority="3">
       <formula>LEN(TRIM(L124))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="notContainsBlanks" dxfId="54" priority="28">
+    <cfRule type="notContainsBlanks" dxfId="47" priority="28">
       <formula>LEN(TRIM(K2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134 A134">
-    <cfRule type="notContainsBlanks" dxfId="53" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="2">
       <formula>LEN(TRIM(F134))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G134">
-    <cfRule type="notContainsBlanks" dxfId="52" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="45" priority="1">
       <formula>LEN(TRIM(L134))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22419,10 +22332,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138:E142"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22441,9 +22354,9 @@
       <c r="A1" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="58"/>
       <c r="F1" s="46" t="s">
         <v>49</v>
@@ -22480,7 +22393,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="73">
+      <c r="A3" s="80">
         <v>33</v>
       </c>
       <c r="B3" s="31">
@@ -22500,7 +22413,7 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -22518,7 +22431,7 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -22536,7 +22449,7 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="73"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="31">
         <v>33.4</v>
       </c>
@@ -22554,7 +22467,7 @@
       <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="73"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="31">
         <v>33.5</v>
       </c>
@@ -22575,10 +22488,10 @@
       <c r="A9" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="46" t="s">
         <v>42</v>
       </c>
@@ -22784,7 +22697,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="78">
+      <c r="A21" s="73">
         <v>35</v>
       </c>
       <c r="B21" s="5">
@@ -22804,7 +22717,7 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="79"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -22822,7 +22735,7 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="79"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -22840,7 +22753,7 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="79"/>
+      <c r="A24" s="78"/>
       <c r="B24" s="31">
         <v>35.4</v>
       </c>
@@ -22858,7 +22771,7 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="79"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="5">
         <v>35.5</v>
       </c>
@@ -22876,7 +22789,7 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="79"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="31">
         <v>35.6</v>
       </c>
@@ -22894,7 +22807,7 @@
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="79"/>
+      <c r="A27" s="78"/>
       <c r="B27" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -22912,7 +22825,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="80"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -22972,7 +22885,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="60">
+      <c r="A32" s="62">
         <v>40</v>
       </c>
       <c r="B32" s="5">
@@ -23129,7 +23042,7 @@
         <v>49</v>
       </c>
       <c r="G41" s="57" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H41" s="58"/>
     </row>
@@ -23149,7 +23062,7 @@
       <c r="E42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="18" t="s">
         <v>9</v>
       </c>
       <c r="G42" s="5" t="s">
@@ -23160,7 +23073,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="60">
+      <c r="A43" s="62">
         <v>41</v>
       </c>
       <c r="B43" s="5">
@@ -23172,15 +23085,21 @@
       <c r="D43" s="5">
         <v>1</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="3"/>
+      <c r="E43" s="39">
+        <v>1</v>
+      </c>
+      <c r="F43" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="G43" s="85">
+        <v>42660</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="61"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="5">
         <v>41.2</v>
       </c>
@@ -23190,15 +23109,21 @@
       <c r="D44" s="5">
         <v>0.5</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="3"/>
+      <c r="E44" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="G44" s="85">
+        <v>42660</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="61"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="5">
         <v>41.3</v>
       </c>
@@ -23208,15 +23133,19 @@
       <c r="D45" s="5">
         <v>1</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G45" s="5"/>
+      <c r="E45" s="39">
+        <v>1</v>
+      </c>
+      <c r="F45" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="G45" s="85">
+        <v>42660</v>
+      </c>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="61"/>
+      <c r="A46" s="63"/>
       <c r="B46" s="5">
         <v>41.4</v>
       </c>
@@ -23226,15 +23155,19 @@
       <c r="D46" s="5">
         <v>1</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G46" s="5"/>
+      <c r="E46" s="39">
+        <v>1</v>
+      </c>
+      <c r="F46" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="G46" s="85">
+        <v>42660</v>
+      </c>
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="61"/>
+      <c r="A47" s="63"/>
       <c r="B47" s="5">
         <v>41.5</v>
       </c>
@@ -23244,15 +23177,19 @@
       <c r="D47" s="5">
         <v>1</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G47" s="5"/>
+      <c r="E47" s="39">
+        <v>1</v>
+      </c>
+      <c r="F47" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="G47" s="85">
+        <v>42660</v>
+      </c>
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="61"/>
+      <c r="A48" s="63"/>
       <c r="B48" s="5">
         <v>41.6</v>
       </c>
@@ -23262,15 +23199,19 @@
       <c r="D48" s="31">
         <v>1</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G48" s="5"/>
+      <c r="E48" s="43">
+        <v>1</v>
+      </c>
+      <c r="F48" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="G48" s="85">
+        <v>42660</v>
+      </c>
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="62"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="5">
         <v>41.7</v>
       </c>
@@ -23280,11 +23221,15 @@
       <c r="D49" s="3">
         <v>0.5</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G49" s="3"/>
+      <c r="E49" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="G49" s="85">
+        <v>42660</v>
+      </c>
       <c r="H49" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -23330,7 +23275,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="60">
+      <c r="A53" s="62">
         <v>30</v>
       </c>
       <c r="B53" s="5">
@@ -23350,7 +23295,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="61"/>
+      <c r="A54" s="63"/>
       <c r="B54" s="5">
         <v>27.2</v>
       </c>
@@ -23368,7 +23313,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="61"/>
+      <c r="A55" s="63"/>
       <c r="B55" s="5">
         <v>27.3</v>
       </c>
@@ -23386,7 +23331,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="61"/>
+      <c r="A56" s="63"/>
       <c r="B56" s="5">
         <v>27.4</v>
       </c>
@@ -23404,7 +23349,7 @@
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="61"/>
+      <c r="A57" s="63"/>
       <c r="B57" s="5">
         <v>27.5</v>
       </c>
@@ -23422,7 +23367,7 @@
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="61"/>
+      <c r="A58" s="63"/>
       <c r="B58" s="5">
         <v>27.6</v>
       </c>
@@ -23440,7 +23385,7 @@
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="62"/>
+      <c r="A59" s="61"/>
       <c r="B59" s="5">
         <v>27.7</v>
       </c>
@@ -23459,22 +23404,22 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="57" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="B61" s="71"/>
       <c r="C61" s="71"/>
       <c r="D61" s="71"/>
       <c r="E61" s="72"/>
       <c r="F61" s="46" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G61" s="57" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H61" s="58"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -23486,13 +23431,13 @@
       <c r="D62" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H62" s="3" t="s">
@@ -23500,184 +23445,212 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="60">
-        <v>30</v>
-      </c>
-      <c r="B63" s="5">
-        <v>27.1</v>
+      <c r="A63" s="80">
+        <v>24</v>
+      </c>
+      <c r="B63" s="28">
+        <v>24.1</v>
       </c>
       <c r="C63" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="39">
         <v>2</v>
       </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="3"/>
+      <c r="E63" s="39">
+        <v>2</v>
+      </c>
+      <c r="F63" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="56">
+        <v>42658</v>
+      </c>
+      <c r="H63" s="29"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="61"/>
-      <c r="B64" s="5">
-        <v>27.2</v>
+      <c r="A64" s="83"/>
+      <c r="B64" s="28">
+        <v>24.2</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D64" s="5">
+        <v>111</v>
+      </c>
+      <c r="D64" s="39">
+        <v>1</v>
+      </c>
+      <c r="E64" s="39">
+        <v>1</v>
+      </c>
+      <c r="F64" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="56">
+        <v>42658</v>
+      </c>
+      <c r="H64" s="29"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="83"/>
+      <c r="B65" s="28">
+        <v>24.3</v>
+      </c>
+      <c r="C65" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" s="39">
+        <v>2</v>
+      </c>
+      <c r="E65" s="39">
+        <v>2</v>
+      </c>
+      <c r="F65" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="56">
+        <v>42658</v>
+      </c>
+      <c r="H65" s="29"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="83"/>
+      <c r="B66" s="28">
+        <v>24.4</v>
+      </c>
+      <c r="C66" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="42">
         <v>0.5</v>
       </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="61"/>
-      <c r="B65" s="5">
-        <v>27.3</v>
-      </c>
-      <c r="C65" s="32" t="s">
+      <c r="E66" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F66" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="56">
+        <v>42658</v>
+      </c>
+      <c r="H66" s="29"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="83"/>
+      <c r="B67" s="28">
+        <v>24.5</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" s="43">
+        <v>1</v>
+      </c>
+      <c r="E67" s="43">
+        <v>1</v>
+      </c>
+      <c r="F67" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="56">
+        <v>42658</v>
+      </c>
+      <c r="H67" s="29"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" s="71"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" s="58"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="80">
+        <v>18</v>
+      </c>
+      <c r="B71" s="52">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" s="39">
+        <v>1</v>
+      </c>
+      <c r="E71" s="39">
+        <v>1</v>
+      </c>
+      <c r="F71" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="56">
+        <v>42658</v>
+      </c>
+      <c r="H71" s="29"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="83"/>
+      <c r="B72" s="28">
+        <v>18.2</v>
+      </c>
+      <c r="C72" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D72" s="39">
         <v>1</v>
       </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="61"/>
-      <c r="B66" s="5">
-        <v>27.4</v>
-      </c>
-      <c r="C66" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="D66" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="61"/>
-      <c r="B67" s="5">
-        <v>27.5</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="D67" s="5">
-        <v>2</v>
-      </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="61"/>
-      <c r="B68" s="5">
-        <v>27.6</v>
-      </c>
-      <c r="C68" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D68" s="5">
+      <c r="E72" s="39">
         <v>1</v>
       </c>
-      <c r="E68" s="5"/>
-      <c r="F68" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="62"/>
-      <c r="B69" s="5">
-        <v>27.7</v>
-      </c>
-      <c r="C69" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="D69" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="B71" s="71"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G71" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="H71" s="58"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F72" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="56">
+        <v>42658</v>
+      </c>
+      <c r="H72" s="29"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="73">
-        <v>24</v>
-      </c>
-      <c r="B73" s="28">
-        <v>24.1</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>98</v>
+      <c r="A73" s="83"/>
+      <c r="B73" s="52">
+        <v>18.3</v>
+      </c>
+      <c r="C73" s="50" t="s">
+        <v>150</v>
       </c>
       <c r="D73" s="39">
         <v>2</v>
@@ -23696,16 +23669,16 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="83"/>
       <c r="B74" s="28">
-        <v>24.2</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D74" s="39">
-        <v>1</v>
-      </c>
-      <c r="E74" s="39">
-        <v>1</v>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C74" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="E74" s="42">
+        <v>0.5</v>
       </c>
       <c r="F74" s="54" t="s">
         <v>17</v>
@@ -23717,17 +23690,17 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="83"/>
-      <c r="B75" s="28">
-        <v>24.3</v>
-      </c>
-      <c r="C75" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D75" s="39">
-        <v>2</v>
-      </c>
-      <c r="E75" s="39">
-        <v>2</v>
+      <c r="B75" s="52">
+        <v>18.5</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D75" s="43">
+        <v>1</v>
+      </c>
+      <c r="E75" s="43">
+        <v>1</v>
       </c>
       <c r="F75" s="54" t="s">
         <v>17</v>
@@ -23737,258 +23710,230 @@
       </c>
       <c r="H75" s="29"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="83"/>
-      <c r="B76" s="28">
-        <v>24.4</v>
-      </c>
-      <c r="C76" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="D76" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="E76" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="F76" s="54" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="71"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G77" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="H77" s="72"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="80">
+        <v>2</v>
+      </c>
+      <c r="B79" s="52">
+        <v>2.1</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" s="39">
+        <v>2</v>
+      </c>
+      <c r="E79" s="31"/>
+      <c r="F79" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G76" s="56">
-        <v>42658</v>
-      </c>
-      <c r="H76" s="29"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="83"/>
-      <c r="B77" s="28">
-        <v>24.5</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D77" s="43">
+      <c r="G79" s="31"/>
+      <c r="H79" s="29"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="83"/>
+      <c r="B80" s="28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" s="39">
         <v>1</v>
       </c>
-      <c r="E77" s="43">
-        <v>1</v>
-      </c>
-      <c r="F77" s="54" t="s">
+      <c r="E80" s="31"/>
+      <c r="F80" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G77" s="56">
-        <v>42658</v>
-      </c>
-      <c r="H77" s="29"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="B79" s="71"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G79" s="57" t="s">
+      <c r="G80" s="31"/>
+      <c r="H80" s="29"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="83"/>
+      <c r="B81" s="52">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C81" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D81" s="39">
         <v>2</v>
       </c>
-      <c r="H79" s="58"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="73">
-        <v>18</v>
-      </c>
-      <c r="B81" s="52">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="C81" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D81" s="39">
-        <v>1</v>
-      </c>
-      <c r="E81" s="39">
-        <v>1</v>
-      </c>
+      <c r="E81" s="31"/>
       <c r="F81" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G81" s="56">
-        <v>42658</v>
-      </c>
+      <c r="G81" s="31"/>
       <c r="H81" s="29"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="83"/>
       <c r="B82" s="28">
-        <v>18.2</v>
-      </c>
-      <c r="C82" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D82" s="39">
-        <v>1</v>
-      </c>
-      <c r="E82" s="39">
-        <v>1</v>
-      </c>
+        <v>2.4</v>
+      </c>
+      <c r="C82" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D82" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="E82" s="31"/>
       <c r="F82" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G82" s="56">
-        <v>42658</v>
-      </c>
+      <c r="G82" s="31"/>
       <c r="H82" s="29"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="83"/>
       <c r="B83" s="52">
-        <v>18.3</v>
-      </c>
-      <c r="C83" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D83" s="39">
-        <v>2</v>
-      </c>
-      <c r="E83" s="39">
-        <v>2</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D83" s="43">
+        <v>1</v>
+      </c>
+      <c r="E83" s="31"/>
       <c r="F83" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="56">
-        <v>42658</v>
-      </c>
+      <c r="G83" s="31"/>
       <c r="H83" s="29"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="83"/>
-      <c r="B84" s="28">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="C84" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="D84" s="42">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G85" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="H85" s="58"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="80">
+        <v>31</v>
+      </c>
+      <c r="B87" s="52">
+        <v>31.1</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" s="39">
         <v>0.5</v>
       </c>
-      <c r="E84" s="42">
+      <c r="E87" s="31"/>
+      <c r="F87" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G87" s="31"/>
+      <c r="H87" s="29"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="83"/>
+      <c r="B88" s="28">
+        <v>31.2</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D88" s="39">
         <v>0.5</v>
       </c>
-      <c r="F84" s="54" t="s">
+      <c r="E88" s="31"/>
+      <c r="F88" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G84" s="56">
-        <v>42658</v>
-      </c>
-      <c r="H84" s="29"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="83"/>
-      <c r="B85" s="52">
-        <v>18.5</v>
-      </c>
-      <c r="C85" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D85" s="43">
+      <c r="G88" s="31"/>
+      <c r="H88" s="29"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="83"/>
+      <c r="B89" s="52">
+        <v>31.3</v>
+      </c>
+      <c r="C89" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D89" s="39">
         <v>1</v>
-      </c>
-      <c r="E85" s="43">
-        <v>1</v>
-      </c>
-      <c r="F85" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" s="56">
-        <v>42658</v>
-      </c>
-      <c r="H85" s="29"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B87" s="71"/>
-      <c r="C87" s="71"/>
-      <c r="D87" s="71"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G87" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="H87" s="72"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="73">
-        <v>2</v>
-      </c>
-      <c r="B89" s="52">
-        <v>2.1</v>
-      </c>
-      <c r="C89" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D89" s="39">
-        <v>2</v>
       </c>
       <c r="E89" s="31"/>
       <c r="F89" s="54" t="s">
@@ -24000,13 +23945,13 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="83"/>
       <c r="B90" s="28">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C90" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D90" s="39">
-        <v>1</v>
+        <v>31.4</v>
+      </c>
+      <c r="C90" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D90" s="42">
+        <v>0.5</v>
       </c>
       <c r="E90" s="31"/>
       <c r="F90" s="54" t="s">
@@ -24018,13 +23963,13 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="83"/>
       <c r="B91" s="52">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C91" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D91" s="39">
-        <v>2</v>
+        <v>31.5</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D91" s="43">
+        <v>1</v>
       </c>
       <c r="E91" s="31"/>
       <c r="F91" s="54" t="s">
@@ -24033,403 +23978,433 @@
       <c r="G91" s="31"/>
       <c r="H91" s="29"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="83"/>
-      <c r="B92" s="28">
-        <v>2.4</v>
-      </c>
-      <c r="C92" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="D92" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="E92" s="31"/>
-      <c r="F92" s="54" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B93" s="71"/>
+      <c r="C93" s="71"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G93" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="H93" s="58"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="80">
+        <v>9</v>
+      </c>
+      <c r="B95" s="52">
+        <v>9.1</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95" s="39">
+        <v>2</v>
+      </c>
+      <c r="E95" s="39">
+        <v>2</v>
+      </c>
+      <c r="F95" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G92" s="31"/>
-      <c r="H92" s="29"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="83"/>
-      <c r="B93" s="52">
-        <v>2.5</v>
-      </c>
-      <c r="C93" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D93" s="43">
+      <c r="G95" s="56">
+        <v>42654</v>
+      </c>
+      <c r="H95" s="29"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="83"/>
+      <c r="B96" s="52">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D96" s="39">
         <v>1</v>
       </c>
-      <c r="E93" s="31"/>
-      <c r="F93" s="54" t="s">
+      <c r="E96" s="39">
+        <v>1</v>
+      </c>
+      <c r="F96" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G93" s="31"/>
-      <c r="H93" s="29"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="B95" s="71"/>
-      <c r="C95" s="71"/>
-      <c r="D95" s="71"/>
-      <c r="E95" s="72"/>
-      <c r="F95" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="G95" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="H95" s="58"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G96" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="G96" s="56">
+        <v>42654</v>
+      </c>
+      <c r="H96" s="29"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="73">
-        <v>31</v>
-      </c>
+      <c r="A97" s="83"/>
       <c r="B97" s="52">
-        <v>31.1</v>
-      </c>
-      <c r="C97" s="32" t="s">
-        <v>98</v>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C97" s="41" t="s">
+        <v>155</v>
       </c>
       <c r="D97" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="E97" s="31"/>
+        <v>2</v>
+      </c>
+      <c r="E97" s="39">
+        <v>2</v>
+      </c>
       <c r="F97" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G97" s="31"/>
+      <c r="G97" s="56">
+        <v>42654</v>
+      </c>
       <c r="H97" s="29"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="83"/>
-      <c r="B98" s="28">
-        <v>31.2</v>
-      </c>
-      <c r="C98" s="32" t="s">
-        <v>111</v>
+      <c r="B98" s="52">
+        <v>9.4</v>
+      </c>
+      <c r="C98" s="50" t="s">
+        <v>150</v>
       </c>
       <c r="D98" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="E98" s="31"/>
+        <v>2</v>
+      </c>
+      <c r="E98" s="39">
+        <v>2</v>
+      </c>
       <c r="F98" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G98" s="31"/>
+      <c r="G98" s="56">
+        <v>42654</v>
+      </c>
       <c r="H98" s="29"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="83"/>
       <c r="B99" s="52">
-        <v>31.3</v>
-      </c>
-      <c r="C99" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D99" s="39">
-        <v>1</v>
-      </c>
-      <c r="E99" s="31"/>
+        <v>9.5</v>
+      </c>
+      <c r="C99" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D99" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="E99" s="42">
+        <v>0.5</v>
+      </c>
       <c r="F99" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G99" s="31"/>
+      <c r="G99" s="56">
+        <v>42654</v>
+      </c>
       <c r="H99" s="29"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="83"/>
-      <c r="B100" s="28">
-        <v>31.4</v>
-      </c>
-      <c r="C100" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="D100" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="E100" s="31"/>
+      <c r="B100" s="52">
+        <v>9.6</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D100" s="43">
+        <v>1</v>
+      </c>
+      <c r="E100" s="43">
+        <v>1</v>
+      </c>
       <c r="F100" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G100" s="31"/>
+      <c r="G100" s="56">
+        <v>42654</v>
+      </c>
       <c r="H100" s="29"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="83"/>
-      <c r="B101" s="52">
-        <v>31.5</v>
-      </c>
-      <c r="C101" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D101" s="43">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B102" s="71"/>
+      <c r="C102" s="71"/>
+      <c r="D102" s="71"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G102" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="H102" s="58"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="80">
+        <v>36</v>
+      </c>
+      <c r="B104" s="52">
+        <v>36.1</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D104" s="39">
+        <v>2</v>
+      </c>
+      <c r="E104" s="39">
+        <v>2</v>
+      </c>
+      <c r="F104" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" s="56">
+        <v>42657</v>
+      </c>
+      <c r="H104" s="29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="83"/>
+      <c r="B105" s="52">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D105" s="39">
         <v>1</v>
       </c>
-      <c r="E101" s="31"/>
-      <c r="F101" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G101" s="31"/>
-      <c r="H101" s="29"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="B103" s="71"/>
-      <c r="C103" s="71"/>
-      <c r="D103" s="71"/>
-      <c r="E103" s="72"/>
-      <c r="F103" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G103" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="H103" s="58"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G104" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="73">
-        <v>9</v>
-      </c>
-      <c r="B105" s="52">
-        <v>9.1</v>
-      </c>
-      <c r="C105" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D105" s="39">
-        <v>2</v>
-      </c>
       <c r="E105" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F105" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G105" s="56">
-        <v>42654</v>
+        <v>42657</v>
       </c>
       <c r="H105" s="29"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="83"/>
       <c r="B106" s="52">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C106" s="32" t="s">
-        <v>111</v>
+        <v>36.299999999999997</v>
+      </c>
+      <c r="C106" s="50" t="s">
+        <v>150</v>
       </c>
       <c r="D106" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F106" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G106" s="56">
-        <v>42654</v>
+        <v>42657</v>
       </c>
       <c r="H106" s="29"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="83"/>
       <c r="B107" s="52">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C107" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="D107" s="39">
-        <v>2</v>
-      </c>
-      <c r="E107" s="39">
-        <v>2</v>
+        <v>36.4</v>
+      </c>
+      <c r="C107" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D107" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="E107" s="42">
+        <v>0.5</v>
       </c>
       <c r="F107" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G107" s="56">
-        <v>42654</v>
+        <v>42657</v>
       </c>
       <c r="H107" s="29"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="83"/>
       <c r="B108" s="52">
-        <v>9.4</v>
-      </c>
-      <c r="C108" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D108" s="39">
-        <v>2</v>
-      </c>
-      <c r="E108" s="39">
-        <v>2</v>
+        <v>36.5</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D108" s="43">
+        <v>1</v>
+      </c>
+      <c r="E108" s="43">
+        <v>1</v>
       </c>
       <c r="F108" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G108" s="56">
-        <v>42654</v>
+        <v>42657</v>
       </c>
       <c r="H108" s="29"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="83"/>
-      <c r="B109" s="52">
-        <v>9.5</v>
-      </c>
-      <c r="C109" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="D109" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="E109" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="F109" s="54" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B110" s="71"/>
+      <c r="C110" s="71"/>
+      <c r="D110" s="71"/>
+      <c r="E110" s="72"/>
+      <c r="F110" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G110" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="H110" s="58"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="80">
+        <v>37</v>
+      </c>
+      <c r="B112" s="52">
+        <v>37.1</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D112" s="39">
+        <v>2</v>
+      </c>
+      <c r="E112" s="39">
+        <v>2</v>
+      </c>
+      <c r="F112" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G109" s="56">
-        <v>42654</v>
-      </c>
-      <c r="H109" s="29"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="83"/>
-      <c r="B110" s="52">
-        <v>9.6</v>
-      </c>
-      <c r="C110" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D110" s="43">
+      <c r="G112" s="56">
+        <v>42657</v>
+      </c>
+      <c r="H112" s="29"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="83"/>
+      <c r="B113" s="52">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="C113" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D113" s="39">
         <v>1</v>
       </c>
-      <c r="E110" s="43">
+      <c r="E113" s="39">
         <v>1</v>
       </c>
-      <c r="F110" s="54" t="s">
+      <c r="F113" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G110" s="56">
-        <v>42654</v>
-      </c>
-      <c r="H110" s="29"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="B112" s="71"/>
-      <c r="C112" s="71"/>
-      <c r="D112" s="71"/>
-      <c r="E112" s="72"/>
-      <c r="F112" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G112" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="H112" s="58"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E113" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F113" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G113" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="G113" s="56">
+        <v>42657</v>
+      </c>
+      <c r="H113" s="29"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="73">
-        <v>36</v>
-      </c>
+      <c r="A114" s="83"/>
       <c r="B114" s="52">
-        <v>36.1</v>
-      </c>
-      <c r="C114" s="32" t="s">
-        <v>98</v>
+        <v>37.299999999999997</v>
+      </c>
+      <c r="C114" s="50" t="s">
+        <v>150</v>
       </c>
       <c r="D114" s="39">
         <v>2</v>
@@ -24443,23 +24418,21 @@
       <c r="G114" s="56">
         <v>42657</v>
       </c>
-      <c r="H114" s="29" t="s">
-        <v>165</v>
-      </c>
+      <c r="H114" s="29"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="83"/>
       <c r="B115" s="52">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="C115" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D115" s="39">
-        <v>1</v>
-      </c>
-      <c r="E115" s="39">
-        <v>1</v>
+        <v>37.4</v>
+      </c>
+      <c r="C115" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D115" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="E115" s="42">
+        <v>0.5</v>
       </c>
       <c r="F115" s="54" t="s">
         <v>17</v>
@@ -24472,16 +24445,16 @@
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="83"/>
       <c r="B116" s="52">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="C116" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D116" s="39">
-        <v>2</v>
-      </c>
-      <c r="E116" s="39">
-        <v>2</v>
+        <v>37.5</v>
+      </c>
+      <c r="C116" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D116" s="43">
+        <v>1</v>
+      </c>
+      <c r="E116" s="43">
+        <v>1</v>
       </c>
       <c r="F116" s="54" t="s">
         <v>17</v>
@@ -24491,101 +24464,101 @@
       </c>
       <c r="H116" s="29"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="83"/>
-      <c r="B117" s="52">
-        <v>36.4</v>
-      </c>
-      <c r="C117" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="D117" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="E117" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="F117" s="54" t="s">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="B118" s="71"/>
+      <c r="C118" s="71"/>
+      <c r="D118" s="71"/>
+      <c r="E118" s="72"/>
+      <c r="F118" s="46">
+        <v>2</v>
+      </c>
+      <c r="G118" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="H118" s="58"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="80">
+        <v>38</v>
+      </c>
+      <c r="B120" s="52">
+        <v>38.1</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D120" s="39">
+        <v>2</v>
+      </c>
+      <c r="E120" s="39">
+        <v>2</v>
+      </c>
+      <c r="F120" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G117" s="56">
+      <c r="G120" s="56">
         <v>42657</v>
       </c>
-      <c r="H117" s="29"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="83"/>
-      <c r="B118" s="52">
-        <v>36.5</v>
-      </c>
-      <c r="C118" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D118" s="43">
+      <c r="H120" s="29"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="83"/>
+      <c r="B121" s="52">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D121" s="39">
         <v>1</v>
       </c>
-      <c r="E118" s="43">
+      <c r="E121" s="39">
         <v>1</v>
       </c>
-      <c r="F118" s="54" t="s">
+      <c r="F121" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G118" s="56">
+      <c r="G121" s="56">
         <v>42657</v>
       </c>
-      <c r="H118" s="29"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="B120" s="71"/>
-      <c r="C120" s="71"/>
-      <c r="D120" s="71"/>
-      <c r="E120" s="72"/>
-      <c r="F120" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="G120" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="H120" s="58"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E121" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F121" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G121" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="H121" s="29"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="73">
-        <v>37</v>
-      </c>
+      <c r="A122" s="83"/>
       <c r="B122" s="52">
-        <v>37.1</v>
-      </c>
-      <c r="C122" s="32" t="s">
-        <v>98</v>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="C122" s="50" t="s">
+        <v>150</v>
       </c>
       <c r="D122" s="39">
         <v>2</v>
@@ -24604,16 +24577,16 @@
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="83"/>
       <c r="B123" s="52">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="C123" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D123" s="39">
-        <v>1</v>
-      </c>
-      <c r="E123" s="39">
-        <v>1</v>
+        <v>38.4</v>
+      </c>
+      <c r="C123" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D123" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="E123" s="42">
+        <v>0.5</v>
       </c>
       <c r="F123" s="54" t="s">
         <v>17</v>
@@ -24626,16 +24599,16 @@
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="83"/>
       <c r="B124" s="52">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="C124" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D124" s="39">
-        <v>2</v>
-      </c>
-      <c r="E124" s="39">
-        <v>2</v>
+        <v>38.5</v>
+      </c>
+      <c r="C124" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D124" s="43">
+        <v>1</v>
+      </c>
+      <c r="E124" s="43">
+        <v>1</v>
       </c>
       <c r="F124" s="54" t="s">
         <v>17</v>
@@ -24645,101 +24618,103 @@
       </c>
       <c r="H124" s="29"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="83"/>
-      <c r="B125" s="52">
-        <v>37.4</v>
-      </c>
-      <c r="C125" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="D125" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="E125" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="F125" s="54" t="s">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="B126" s="71"/>
+      <c r="C126" s="71"/>
+      <c r="D126" s="71"/>
+      <c r="E126" s="72"/>
+      <c r="F126" s="46">
+        <v>2</v>
+      </c>
+      <c r="G126" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="H126" s="58"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="80">
+        <v>28</v>
+      </c>
+      <c r="B128" s="52">
+        <v>28.1</v>
+      </c>
+      <c r="C128" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D128" s="39">
+        <v>2</v>
+      </c>
+      <c r="E128" s="39">
+        <v>2</v>
+      </c>
+      <c r="F128" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G125" s="56">
-        <v>42657</v>
-      </c>
-      <c r="H125" s="29"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="83"/>
-      <c r="B126" s="52">
-        <v>37.5</v>
-      </c>
-      <c r="C126" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D126" s="43">
+      <c r="G128" s="56">
+        <v>42658</v>
+      </c>
+      <c r="H128" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="83"/>
+      <c r="B129" s="52">
+        <v>28.2</v>
+      </c>
+      <c r="C129" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D129" s="39">
         <v>1</v>
       </c>
-      <c r="E126" s="43">
+      <c r="E129" s="39">
         <v>1</v>
       </c>
-      <c r="F126" s="54" t="s">
+      <c r="F129" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G126" s="56">
-        <v>42657</v>
-      </c>
-      <c r="H126" s="29"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="B128" s="71"/>
-      <c r="C128" s="71"/>
-      <c r="D128" s="71"/>
-      <c r="E128" s="72"/>
-      <c r="F128" s="46">
-        <v>2</v>
-      </c>
-      <c r="G128" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="H128" s="58"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E129" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F129" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G129" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="G129" s="56">
+        <v>42658</v>
+      </c>
+      <c r="H129" s="29"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="73">
-        <v>38</v>
-      </c>
+      <c r="A130" s="83"/>
       <c r="B130" s="52">
-        <v>38.1</v>
-      </c>
-      <c r="C130" s="32" t="s">
-        <v>98</v>
+        <v>28.3</v>
+      </c>
+      <c r="C130" s="50" t="s">
+        <v>150</v>
       </c>
       <c r="D130" s="39">
         <v>2</v>
@@ -24751,517 +24726,276 @@
         <v>17</v>
       </c>
       <c r="G130" s="56">
-        <v>42657</v>
+        <v>42658</v>
       </c>
       <c r="H130" s="29"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="83"/>
       <c r="B131" s="52">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="C131" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D131" s="39">
-        <v>1</v>
-      </c>
-      <c r="E131" s="39">
-        <v>1</v>
+        <v>28.4</v>
+      </c>
+      <c r="C131" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D131" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="E131" s="42">
+        <v>0.5</v>
       </c>
       <c r="F131" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G131" s="56">
-        <v>42657</v>
+        <v>42658</v>
       </c>
       <c r="H131" s="29"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="83"/>
       <c r="B132" s="52">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="C132" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D132" s="39">
-        <v>2</v>
-      </c>
-      <c r="E132" s="39">
-        <v>2</v>
+        <v>28.5</v>
+      </c>
+      <c r="C132" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D132" s="43">
+        <v>1</v>
+      </c>
+      <c r="E132" s="43">
+        <v>1</v>
       </c>
       <c r="F132" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G132" s="56">
-        <v>42657</v>
+        <v>42658</v>
       </c>
       <c r="H132" s="29"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="83"/>
-      <c r="B133" s="52">
-        <v>38.4</v>
-      </c>
-      <c r="C133" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="D133" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="E133" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="F133" s="54" t="s">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="B134" s="71"/>
+      <c r="C134" s="71"/>
+      <c r="D134" s="71"/>
+      <c r="E134" s="72"/>
+      <c r="F134" s="46">
+        <v>4</v>
+      </c>
+      <c r="G134" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="H134" s="58"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="80">
+        <v>39</v>
+      </c>
+      <c r="B136" s="52">
+        <v>39.1</v>
+      </c>
+      <c r="C136" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D136" s="39">
+        <v>3</v>
+      </c>
+      <c r="E136" s="39">
+        <v>3</v>
+      </c>
+      <c r="F136" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G133" s="56">
-        <v>42657</v>
-      </c>
-      <c r="H133" s="29"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="83"/>
-      <c r="B134" s="52">
-        <v>38.5</v>
-      </c>
-      <c r="C134" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D134" s="43">
-        <v>1</v>
-      </c>
-      <c r="E134" s="43">
-        <v>1</v>
-      </c>
-      <c r="F134" s="54" t="s">
+      <c r="G136" s="56">
+        <v>42655</v>
+      </c>
+      <c r="H136" s="29"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="83"/>
+      <c r="B137" s="52">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="C137" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D137" s="39">
+        <v>3</v>
+      </c>
+      <c r="E137" s="39">
+        <v>3</v>
+      </c>
+      <c r="F137" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G134" s="56">
-        <v>42657</v>
-      </c>
-      <c r="H134" s="29"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="B136" s="71"/>
-      <c r="C136" s="71"/>
-      <c r="D136" s="71"/>
-      <c r="E136" s="72"/>
-      <c r="F136" s="46">
-        <v>2</v>
-      </c>
-      <c r="G136" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="H136" s="58"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E137" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F137" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G137" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H137" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="G137" s="56">
+        <v>42655</v>
+      </c>
+      <c r="H137" s="29"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="73">
-        <v>28</v>
-      </c>
+      <c r="A138" s="83"/>
       <c r="B138" s="52">
-        <v>28.1</v>
-      </c>
-      <c r="C138" s="32" t="s">
-        <v>98</v>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="C138" s="50" t="s">
+        <v>161</v>
       </c>
       <c r="D138" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E138" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F138" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G138" s="56">
-        <v>42658</v>
-      </c>
-      <c r="H138" s="29" t="s">
-        <v>166</v>
-      </c>
+        <v>42655</v>
+      </c>
+      <c r="H138" s="29"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="83"/>
       <c r="B139" s="52">
-        <v>28.2</v>
-      </c>
-      <c r="C139" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D139" s="39">
-        <v>1</v>
-      </c>
-      <c r="E139" s="39">
-        <v>1</v>
+        <v>39.4</v>
+      </c>
+      <c r="C139" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D139" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="E139" s="42">
+        <v>0.5</v>
       </c>
       <c r="F139" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G139" s="56">
-        <v>42658</v>
+        <v>42655</v>
       </c>
       <c r="H139" s="29"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="83"/>
       <c r="B140" s="52">
-        <v>28.3</v>
-      </c>
-      <c r="C140" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D140" s="39">
-        <v>2</v>
-      </c>
-      <c r="E140" s="39">
-        <v>2</v>
+        <v>39.5</v>
+      </c>
+      <c r="C140" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D140" s="43">
+        <v>1</v>
+      </c>
+      <c r="E140" s="43">
+        <v>1</v>
       </c>
       <c r="F140" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G140" s="56">
-        <v>42658</v>
+        <v>42655</v>
       </c>
       <c r="H140" s="29"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="83"/>
-      <c r="B141" s="52">
-        <v>28.4</v>
-      </c>
-      <c r="C141" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="D141" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="E141" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="F141" s="54" t="s">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="B142" s="71"/>
+      <c r="C142" s="71"/>
+      <c r="D142" s="71"/>
+      <c r="E142" s="72"/>
+      <c r="F142" s="46">
+        <v>1</v>
+      </c>
+      <c r="G142" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="H142" s="58"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="55">
+        <v>29</v>
+      </c>
+      <c r="B144" s="52">
+        <v>29.1</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D144" s="39">
+        <v>1</v>
+      </c>
+      <c r="E144" s="39">
+        <v>1</v>
+      </c>
+      <c r="F144" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G141" s="56">
-        <v>42658</v>
-      </c>
-      <c r="H141" s="29"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="83"/>
-      <c r="B142" s="52">
-        <v>28.5</v>
-      </c>
-      <c r="C142" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D142" s="43">
-        <v>1</v>
-      </c>
-      <c r="E142" s="43">
-        <v>1</v>
-      </c>
-      <c r="F142" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G142" s="56">
-        <v>42658</v>
-      </c>
-      <c r="H142" s="29"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="B144" s="71"/>
-      <c r="C144" s="71"/>
-      <c r="D144" s="71"/>
-      <c r="E144" s="72"/>
-      <c r="F144" s="46">
-        <v>4</v>
-      </c>
-      <c r="G144" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="H144" s="58"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E145" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F145" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G145" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="73">
-        <v>39</v>
-      </c>
-      <c r="B146" s="52">
-        <v>39.1</v>
-      </c>
-      <c r="C146" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D146" s="39">
-        <v>3</v>
-      </c>
-      <c r="E146" s="39">
-        <v>3</v>
-      </c>
-      <c r="F146" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G146" s="56">
-        <v>42655</v>
-      </c>
-      <c r="H146" s="29"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="83"/>
-      <c r="B147" s="52">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="C147" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D147" s="39">
-        <v>3</v>
-      </c>
-      <c r="E147" s="39">
-        <v>3</v>
-      </c>
-      <c r="F147" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G147" s="56">
-        <v>42655</v>
-      </c>
-      <c r="H147" s="29"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="83"/>
-      <c r="B148" s="52">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="C148" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="D148" s="39">
-        <v>4</v>
-      </c>
-      <c r="E148" s="39">
-        <v>4</v>
-      </c>
-      <c r="F148" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G148" s="56">
-        <v>42655</v>
-      </c>
-      <c r="H148" s="29"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="83"/>
-      <c r="B149" s="52">
-        <v>39.4</v>
-      </c>
-      <c r="C149" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="D149" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="E149" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="F149" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G149" s="56">
-        <v>42655</v>
-      </c>
-      <c r="H149" s="29"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="83"/>
-      <c r="B150" s="52">
-        <v>39.5</v>
-      </c>
-      <c r="C150" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="D150" s="43">
-        <v>1</v>
-      </c>
-      <c r="E150" s="43">
-        <v>1</v>
-      </c>
-      <c r="F150" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G150" s="56">
-        <v>42655</v>
-      </c>
-      <c r="H150" s="29"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="B152" s="71"/>
-      <c r="C152" s="71"/>
-      <c r="D152" s="71"/>
-      <c r="E152" s="72"/>
-      <c r="F152" s="46">
-        <v>1</v>
-      </c>
-      <c r="G152" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="H152" s="58"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E153" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F153" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G153" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H153" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="55">
-        <v>29</v>
-      </c>
-      <c r="B154" s="52">
-        <v>29.1</v>
-      </c>
-      <c r="C154" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="D154" s="39">
-        <v>1</v>
-      </c>
-      <c r="E154" s="39">
-        <v>1</v>
-      </c>
-      <c r="F154" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G154" s="56">
+      <c r="G144" s="56">
         <v>42657</v>
       </c>
-      <c r="H154" s="29"/>
+      <c r="H144" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A152:E152"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="A130:A134"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="G71:H71"/>
+  <mergeCells count="50">
     <mergeCell ref="A32:A39"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:H1"/>
@@ -25274,230 +25008,258 @@
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="G142:H142"/>
   </mergeCells>
-  <conditionalFormatting sqref="G71">
-    <cfRule type="notContainsBlanks" dxfId="51" priority="39">
-      <formula>LEN(TRIM(L71))&gt;0</formula>
+  <conditionalFormatting sqref="G61">
+    <cfRule type="notContainsBlanks" dxfId="44" priority="39">
+      <formula>LEN(TRIM(L61))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="notContainsBlanks" dxfId="50" priority="51">
+    <cfRule type="notContainsBlanks" dxfId="43" priority="51">
       <formula>LEN(TRIM(F30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 A1">
-    <cfRule type="notContainsBlanks" dxfId="49" priority="54">
+    <cfRule type="notContainsBlanks" dxfId="42" priority="54">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 A9">
-    <cfRule type="notContainsBlanks" dxfId="48" priority="53">
+    <cfRule type="notContainsBlanks" dxfId="41" priority="53">
       <formula>LEN(TRIM(F9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19 A19">
-    <cfRule type="notContainsBlanks" dxfId="47" priority="52">
+    <cfRule type="notContainsBlanks" dxfId="40" priority="52">
       <formula>LEN(TRIM(F19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="notContainsBlanks" dxfId="46" priority="47">
+    <cfRule type="notContainsBlanks" dxfId="39" priority="47">
       <formula>LEN(TRIM(L30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="notContainsBlanks" dxfId="45" priority="50">
+    <cfRule type="notContainsBlanks" dxfId="38" priority="50">
       <formula>LEN(TRIM(L1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="notContainsBlanks" dxfId="44" priority="49">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="49">
       <formula>LEN(TRIM(L9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="notContainsBlanks" dxfId="43" priority="48">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="48">
       <formula>LEN(TRIM(L19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="notContainsBlanks" dxfId="42" priority="55">
-      <formula>LEN(TRIM(K1048559))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="35" priority="55">
+      <formula>LEN(TRIM(K1048549))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41 A41">
-    <cfRule type="notContainsBlanks" dxfId="41" priority="46">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="46">
       <formula>LEN(TRIM(F41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="notContainsBlanks" dxfId="40" priority="45">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="45">
       <formula>LEN(TRIM(L41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51 A51">
-    <cfRule type="notContainsBlanks" dxfId="39" priority="44">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="44">
       <formula>LEN(TRIM(F51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="notContainsBlanks" dxfId="38" priority="43">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="43">
       <formula>LEN(TRIM(L51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61 A61">
-    <cfRule type="notContainsBlanks" dxfId="37" priority="42">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="40">
       <formula>LEN(TRIM(F61))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G61">
-    <cfRule type="notContainsBlanks" dxfId="36" priority="41">
-      <formula>LEN(TRIM(L61))&gt;0</formula>
+  <conditionalFormatting sqref="F69 A69">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="38">
+      <formula>LEN(TRIM(F69))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71 A71">
-    <cfRule type="notContainsBlanks" dxfId="35" priority="40">
-      <formula>LEN(TRIM(F71))&gt;0</formula>
+  <conditionalFormatting sqref="G77">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="35">
+      <formula>LEN(TRIM(L77))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79 A79">
-    <cfRule type="notContainsBlanks" dxfId="33" priority="38">
-      <formula>LEN(TRIM(F79))&gt;0</formula>
+  <conditionalFormatting sqref="F77 A77">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="36">
+      <formula>LEN(TRIM(F77))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G87">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="35">
-      <formula>LEN(TRIM(L87))&gt;0</formula>
+  <conditionalFormatting sqref="G85">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="33">
+      <formula>LEN(TRIM(L85))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87 A87">
-    <cfRule type="notContainsBlanks" dxfId="31" priority="36">
-      <formula>LEN(TRIM(F87))&gt;0</formula>
+  <conditionalFormatting sqref="A85">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="34">
+      <formula>LEN(TRIM(F85))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G95">
-    <cfRule type="notContainsBlanks" dxfId="30" priority="33">
-      <formula>LEN(TRIM(L95))&gt;0</formula>
+  <conditionalFormatting sqref="G93">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="31">
+      <formula>LEN(TRIM(L93))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="34">
-      <formula>LEN(TRIM(F95))&gt;0</formula>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="32">
+      <formula>LEN(TRIM(F93))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G103">
-    <cfRule type="notContainsBlanks" dxfId="28" priority="31">
-      <formula>LEN(TRIM(L103))&gt;0</formula>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="30">
+      <formula>LEN(TRIM(K85))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A103">
-    <cfRule type="notContainsBlanks" dxfId="27" priority="32">
-      <formula>LEN(TRIM(F103))&gt;0</formula>
+  <conditionalFormatting sqref="F93">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="29">
+      <formula>LEN(TRIM(K93))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
-    <cfRule type="notContainsBlanks" dxfId="26" priority="30">
-      <formula>LEN(TRIM(K95))&gt;0</formula>
+  <conditionalFormatting sqref="G102">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="27">
+      <formula>LEN(TRIM(L102))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F103">
-    <cfRule type="notContainsBlanks" dxfId="25" priority="29">
-      <formula>LEN(TRIM(K103))&gt;0</formula>
+  <conditionalFormatting sqref="A102">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="28">
+      <formula>LEN(TRIM(F102))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G112">
-    <cfRule type="notContainsBlanks" dxfId="24" priority="27">
-      <formula>LEN(TRIM(L112))&gt;0</formula>
+  <conditionalFormatting sqref="F118">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="16">
+      <formula>LEN(TRIM(K118))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A112">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="28">
-      <formula>LEN(TRIM(F112))&gt;0</formula>
+  <conditionalFormatting sqref="F102">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="25">
+      <formula>LEN(TRIM(K102))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F128">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="16">
-      <formula>LEN(TRIM(K128))&gt;0</formula>
+  <conditionalFormatting sqref="A110">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="24">
+      <formula>LEN(TRIM(F110))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F112">
-    <cfRule type="notContainsBlanks" dxfId="21" priority="25">
-      <formula>LEN(TRIM(K112))&gt;0</formula>
+  <conditionalFormatting sqref="F110">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="22">
+      <formula>LEN(TRIM(K110))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A120">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="24">
-      <formula>LEN(TRIM(F120))&gt;0</formula>
+  <conditionalFormatting sqref="G134">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="11">
+      <formula>LEN(TRIM(L134))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F120">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="22">
-      <formula>LEN(TRIM(K120))&gt;0</formula>
+  <conditionalFormatting sqref="A134">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="12">
+      <formula>LEN(TRIM(F134))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G144">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="11">
-      <formula>LEN(TRIM(L144))&gt;0</formula>
+  <conditionalFormatting sqref="F134">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="10">
+      <formula>LEN(TRIM(K134))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A144">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="12">
-      <formula>LEN(TRIM(F144))&gt;0</formula>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="7">
+      <formula>LEN(TRIM(K142))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F144">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="10">
-      <formula>LEN(TRIM(K144))&gt;0</formula>
+  <conditionalFormatting sqref="A118">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="18">
+      <formula>LEN(TRIM(F118))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F152">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="7">
-      <formula>LEN(TRIM(K152))&gt;0</formula>
+  <conditionalFormatting sqref="F126">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="13">
+      <formula>LEN(TRIM(K126))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A128">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="18">
-      <formula>LEN(TRIM(F128))&gt;0</formula>
+  <conditionalFormatting sqref="A126">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="15">
+      <formula>LEN(TRIM(F126))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F136">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="13">
-      <formula>LEN(TRIM(K136))&gt;0</formula>
+  <conditionalFormatting sqref="A142">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="9">
+      <formula>LEN(TRIM(F142))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A136">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="15">
-      <formula>LEN(TRIM(F136))&gt;0</formula>
+  <conditionalFormatting sqref="G118">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(L118))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A152">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="9">
-      <formula>LEN(TRIM(F152))&gt;0</formula>
+  <conditionalFormatting sqref="G142">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(L142))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G128">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="5">
-      <formula>LEN(TRIM(L128))&gt;0</formula>
+  <conditionalFormatting sqref="G69">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(L69))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G152">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="4">
-      <formula>LEN(TRIM(L152))&gt;0</formula>
+  <conditionalFormatting sqref="G110">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(L110))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G79">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="3">
-      <formula>LEN(TRIM(L79))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G120">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
-      <formula>LEN(TRIM(L120))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G136">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(L136))&gt;0</formula>
+  <conditionalFormatting sqref="G126">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(L126))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -900,22 +900,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -938,15 +940,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -955,47 +960,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="81">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2428,20 +2400,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="58"/>
+      <c r="H1" s="60"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2612,7 +2584,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="5">
         <v>6.6</v>
       </c>
@@ -2643,20 +2615,20 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="58"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="58"/>
+      <c r="H10" s="60"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2751,22 +2723,22 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="63"/>
-      <c r="B15" s="66">
+      <c r="B15" s="68">
         <v>1.4</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="66">
+      <c r="D15" s="68">
         <v>1</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="67">
         <v>1</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="66">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
@@ -2774,19 +2746,19 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="63"/>
-      <c r="B16" s="61"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
       <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="16">
         <v>1.5</v>
       </c>
@@ -2817,20 +2789,20 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="58"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="60"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="58"/>
+      <c r="H19" s="60"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2913,7 +2885,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2932,20 +2904,20 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="58"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="60"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="58"/>
+      <c r="H25" s="60"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3026,7 +2998,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="22">
         <v>12.3</v>
       </c>
@@ -3066,20 +3038,20 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="58"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="60"/>
       <c r="F32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="57" t="s">
+      <c r="G32" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="58"/>
+      <c r="H32" s="60"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3176,7 +3148,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="61"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -10872,15 +10844,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:E19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G15:G16"/>
@@ -10892,9 +10855,18 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G1 A1 F10:G10 A10 F19:G19 A19 F25:G25 A25 F32:G32 A32">
-    <cfRule type="notContainsBlanks" dxfId="82" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="80" priority="1">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10925,17 +10897,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="69" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="70"/>
+      <c r="G1" s="72"/>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
@@ -11171,7 +11143,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="5">
         <v>21.9</v>
       </c>
@@ -11204,17 +11176,17 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="69" t="s">
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="70"/>
+      <c r="G13" s="72"/>
       <c r="H13" s="4" t="s">
         <v>4</v>
       </c>
@@ -11316,7 +11288,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="61"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="5">
         <v>20.399999999999999</v>
       </c>
@@ -11346,17 +11318,17 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="69" t="s">
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="70"/>
+      <c r="G20" s="72"/>
       <c r="H20" s="4" t="s">
         <v>4</v>
       </c>
@@ -11410,7 +11382,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="5">
         <v>5.2</v>
       </c>
@@ -11436,17 +11408,17 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="69" t="s">
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="70"/>
+      <c r="G25" s="72"/>
       <c r="H25" s="4" t="s">
         <v>4</v>
       </c>
@@ -11502,7 +11474,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="67"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="5">
         <v>8.1999999999999993</v>
       </c>
@@ -11524,7 +11496,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="67"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="5">
         <v>8.3000000000000007</v>
       </c>
@@ -11546,7 +11518,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="67"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="5">
         <v>8.4</v>
       </c>
@@ -11570,7 +11542,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="68"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="5">
         <v>8.5</v>
       </c>
@@ -11600,17 +11572,17 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="69" t="s">
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="70"/>
+      <c r="G33" s="72"/>
       <c r="H33" s="4" t="s">
         <v>4</v>
       </c>
@@ -11666,7 +11638,7 @@
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="67"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="5">
         <v>4.2</v>
       </c>
@@ -11688,7 +11660,7 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="67"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="5">
         <v>4.3</v>
       </c>
@@ -11706,7 +11678,7 @@
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="68"/>
+      <c r="A38" s="70"/>
       <c r="B38" s="5">
         <v>4.4000000000000004</v>
       </c>
@@ -19400,47 +19372,47 @@
     <mergeCell ref="A27:A31"/>
   </mergeCells>
   <conditionalFormatting sqref="A1 F13 H13">
-    <cfRule type="notContainsBlanks" dxfId="81" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="79" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="notContainsBlanks" dxfId="80" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="78" priority="2">
       <formula>LEN(TRIM(A13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="notContainsBlanks" dxfId="79" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="77" priority="3">
       <formula>LEN(TRIM(A20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="notContainsBlanks" dxfId="78" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="76" priority="4">
       <formula>LEN(TRIM(A25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 H1">
-    <cfRule type="notContainsBlanks" dxfId="77" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="75" priority="5">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 H20">
-    <cfRule type="notContainsBlanks" dxfId="76" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="74" priority="6">
       <formula>LEN(TRIM(F20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25 H25">
-    <cfRule type="notContainsBlanks" dxfId="75" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="73" priority="7">
       <formula>LEN(TRIM(F25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="notContainsBlanks" dxfId="74" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="72" priority="8">
       <formula>LEN(TRIM(A33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33 H33">
-    <cfRule type="notContainsBlanks" dxfId="73" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="71" priority="9">
       <formula>LEN(TRIM(F33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19471,20 +19443,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="58"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -19519,7 +19491,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="80">
+      <c r="A3" s="75">
         <v>22</v>
       </c>
       <c r="B3" s="31">
@@ -19549,7 +19521,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="80"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="31">
         <v>22.2</v>
       </c>
@@ -19571,7 +19543,7 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="80"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="31">
         <v>22.3</v>
       </c>
@@ -19593,20 +19565,20 @@
       <c r="H5" s="34"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="58"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="58"/>
+      <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
@@ -19635,7 +19607,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="80">
+      <c r="A9" s="75">
         <v>33</v>
       </c>
       <c r="B9" s="31">
@@ -19655,7 +19627,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="80"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -19673,7 +19645,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="80"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -19691,7 +19663,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="80"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="31">
         <v>33.4</v>
       </c>
@@ -19709,7 +19681,7 @@
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="80"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="31">
         <v>33.5</v>
       </c>
@@ -19727,20 +19699,20 @@
       <c r="H13" s="34"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="82"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="58"/>
+      <c r="H15" s="60"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
@@ -19769,7 +19741,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="76">
+      <c r="A17" s="78">
         <v>34</v>
       </c>
       <c r="B17" s="31">
@@ -19789,7 +19761,7 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="76"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="43">
         <v>34.200000000000003</v>
       </c>
@@ -19807,7 +19779,7 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="76"/>
+      <c r="A19" s="78"/>
       <c r="B19" s="31">
         <v>34.299999999999997</v>
       </c>
@@ -19825,7 +19797,7 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="76"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="43">
         <v>34.4</v>
       </c>
@@ -19843,7 +19815,7 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="76"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="31">
         <v>34.5</v>
       </c>
@@ -19861,7 +19833,7 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="76"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="43">
         <v>34.6</v>
       </c>
@@ -19879,7 +19851,7 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="77"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="31">
         <v>34.700000000000003</v>
       </c>
@@ -19897,20 +19869,20 @@
       <c r="H23" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="74"/>
       <c r="F25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="58"/>
+      <c r="H25" s="60"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
@@ -19939,7 +19911,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="73">
+      <c r="A27" s="80">
         <v>35</v>
       </c>
       <c r="B27" s="5">
@@ -19959,7 +19931,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="78"/>
+      <c r="A28" s="81"/>
       <c r="B28" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -19977,7 +19949,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="78"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -19995,7 +19967,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="78"/>
+      <c r="A30" s="81"/>
       <c r="B30" s="31">
         <v>35.4</v>
       </c>
@@ -20013,7 +19985,7 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="78"/>
+      <c r="A31" s="81"/>
       <c r="B31" s="5">
         <v>35.5</v>
       </c>
@@ -20031,7 +20003,7 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="78"/>
+      <c r="A32" s="81"/>
       <c r="B32" s="31">
         <v>35.6</v>
       </c>
@@ -20049,7 +20021,7 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="78"/>
+      <c r="A33" s="81"/>
       <c r="B33" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -20067,7 +20039,7 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="79"/>
+      <c r="A34" s="82"/>
       <c r="B34" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -20085,20 +20057,20 @@
       <c r="H34" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="72"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="74"/>
       <c r="F36" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="57" t="s">
+      <c r="G36" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="H36" s="58"/>
+      <c r="H36" s="60"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
@@ -20147,7 +20119,7 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="67"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="5">
         <v>40.200000000000003</v>
       </c>
@@ -20165,7 +20137,7 @@
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="67"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="5">
         <v>40.299999999999997</v>
       </c>
@@ -20183,7 +20155,7 @@
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="67"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="5">
         <v>40.4</v>
       </c>
@@ -20201,7 +20173,7 @@
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="67"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="5">
         <v>40.5</v>
       </c>
@@ -20219,7 +20191,7 @@
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="67"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="5">
         <v>40.6</v>
       </c>
@@ -20237,7 +20209,7 @@
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="67"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="5">
         <v>40.700000000000003</v>
       </c>
@@ -20255,7 +20227,7 @@
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="68"/>
+      <c r="A45" s="70"/>
       <c r="B45" s="5">
         <v>40.799999999999997</v>
       </c>
@@ -20273,20 +20245,20 @@
       <c r="H45" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="71"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="72"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="74"/>
       <c r="F47" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G47" s="57" t="s">
+      <c r="G47" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H47" s="58"/>
+      <c r="H47" s="60"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -20471,7 +20443,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="61"/>
+      <c r="A56" s="64"/>
       <c r="B56" s="5">
         <v>23.8</v>
       </c>
@@ -20493,20 +20465,20 @@
       <c r="H56" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="57" t="s">
+      <c r="A58" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="71"/>
-      <c r="C58" s="71"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="72"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="74"/>
       <c r="F58" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G58" s="57" t="s">
+      <c r="G58" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H58" s="58"/>
+      <c r="H58" s="60"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
@@ -20671,7 +20643,7 @@
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="61"/>
+      <c r="A66" s="64"/>
       <c r="B66" s="5">
         <v>3.7</v>
       </c>
@@ -20693,20 +20665,20 @@
       <c r="H66" s="3"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="57" t="s">
+      <c r="A68" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="71"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="72"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="74"/>
       <c r="F68" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G68" s="57" t="s">
+      <c r="G68" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="H68" s="58"/>
+      <c r="H68" s="60"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
@@ -20845,7 +20817,7 @@
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="61"/>
+      <c r="A76" s="64"/>
       <c r="B76" s="5">
         <v>41.7</v>
       </c>
@@ -20863,20 +20835,20 @@
       <c r="H76" s="3"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="57" t="s">
+      <c r="A78" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="72"/>
+      <c r="B78" s="73"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="74"/>
       <c r="F78" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G78" s="57" t="s">
+      <c r="G78" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H78" s="58"/>
+      <c r="H78" s="60"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
@@ -21049,7 +21021,7 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="61"/>
+      <c r="A87" s="64"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -21059,20 +21031,20 @@
       <c r="H87" s="3"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="57" t="s">
+      <c r="A89" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="B89" s="71"/>
-      <c r="C89" s="71"/>
-      <c r="D89" s="71"/>
-      <c r="E89" s="72"/>
+      <c r="B89" s="73"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="74"/>
       <c r="F89" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G89" s="57" t="s">
+      <c r="G89" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H89" s="58"/>
+      <c r="H89" s="60"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
@@ -21279,7 +21251,7 @@
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="61"/>
+      <c r="A99" s="64"/>
       <c r="B99" s="39">
         <v>26.9</v>
       </c>
@@ -21301,20 +21273,20 @@
       <c r="H99" s="3"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="57" t="s">
+      <c r="A101" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="B101" s="71"/>
-      <c r="C101" s="71"/>
-      <c r="D101" s="71"/>
-      <c r="E101" s="72"/>
+      <c r="B101" s="73"/>
+      <c r="C101" s="73"/>
+      <c r="D101" s="73"/>
+      <c r="E101" s="74"/>
       <c r="F101" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G101" s="57" t="s">
+      <c r="G101" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H101" s="58"/>
+      <c r="H101" s="60"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
@@ -21477,7 +21449,7 @@
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="61"/>
+      <c r="A109" s="64"/>
       <c r="B109" s="5">
         <v>27.7</v>
       </c>
@@ -21499,20 +21471,20 @@
       <c r="H109" s="3"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="57" t="s">
+      <c r="A111" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="B111" s="71"/>
-      <c r="C111" s="71"/>
-      <c r="D111" s="71"/>
-      <c r="E111" s="72"/>
+      <c r="B111" s="73"/>
+      <c r="C111" s="73"/>
+      <c r="D111" s="73"/>
+      <c r="E111" s="74"/>
       <c r="F111" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G111" s="57" t="s">
+      <c r="G111" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="H111" s="58"/>
+      <c r="H111" s="60"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
@@ -21541,7 +21513,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="73">
+      <c r="A113" s="80">
         <v>4</v>
       </c>
       <c r="B113" s="31">
@@ -21565,7 +21537,7 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="74"/>
+      <c r="A114" s="83"/>
       <c r="B114" s="31">
         <v>4.2</v>
       </c>
@@ -21587,7 +21559,7 @@
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="74"/>
+      <c r="A115" s="83"/>
       <c r="B115" s="31">
         <v>4.3</v>
       </c>
@@ -21609,7 +21581,7 @@
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="74"/>
+      <c r="A116" s="83"/>
       <c r="B116" s="31">
         <v>4.4000000000000004</v>
       </c>
@@ -21631,7 +21603,7 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="74"/>
+      <c r="A117" s="83"/>
       <c r="B117" s="31">
         <v>4.5</v>
       </c>
@@ -21653,7 +21625,7 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="74"/>
+      <c r="A118" s="83"/>
       <c r="B118" s="31">
         <v>4.5999999999999996</v>
       </c>
@@ -21677,7 +21649,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="74"/>
+      <c r="A119" s="83"/>
       <c r="B119" s="31">
         <v>4.7</v>
       </c>
@@ -21699,7 +21671,7 @@
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="74"/>
+      <c r="A120" s="83"/>
       <c r="B120" s="31">
         <v>4.8</v>
       </c>
@@ -21723,7 +21695,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="74"/>
+      <c r="A121" s="83"/>
       <c r="B121" s="31">
         <v>4.9000000000000004</v>
       </c>
@@ -21747,7 +21719,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="75"/>
+      <c r="A122" s="84"/>
       <c r="B122" s="32" t="s">
         <v>141</v>
       </c>
@@ -21771,20 +21743,20 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="57" t="s">
+      <c r="A124" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="B124" s="71"/>
-      <c r="C124" s="71"/>
-      <c r="D124" s="71"/>
-      <c r="E124" s="72"/>
+      <c r="B124" s="73"/>
+      <c r="C124" s="73"/>
+      <c r="D124" s="73"/>
+      <c r="E124" s="74"/>
       <c r="F124" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G124" s="57" t="s">
+      <c r="G124" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="H124" s="58"/>
+      <c r="H124" s="60"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
@@ -21923,7 +21895,7 @@
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="61"/>
+      <c r="A132" s="64"/>
       <c r="B132" s="5">
         <v>27.7</v>
       </c>
@@ -21941,20 +21913,20 @@
       <c r="H132" s="3"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="57" t="s">
+      <c r="A134" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B134" s="71"/>
-      <c r="C134" s="71"/>
-      <c r="D134" s="71"/>
-      <c r="E134" s="72"/>
+      <c r="B134" s="73"/>
+      <c r="C134" s="73"/>
+      <c r="D134" s="73"/>
+      <c r="E134" s="74"/>
       <c r="F134" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G134" s="57" t="s">
+      <c r="G134" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H134" s="58"/>
+      <c r="H134" s="60"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
@@ -22119,7 +22091,7 @@
       <c r="H141" s="3"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="61"/>
+      <c r="A142" s="64"/>
       <c r="B142" s="5">
         <v>32.700000000000003</v>
       </c>
@@ -22142,6 +22114,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A113:A122"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A38:A45"/>
     <mergeCell ref="A134:E134"/>
     <mergeCell ref="G134:H134"/>
     <mergeCell ref="A136:A142"/>
@@ -22158,170 +22156,144 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="A113:A122"/>
   </mergeCells>
   <conditionalFormatting sqref="A36">
-    <cfRule type="notContainsBlanks" dxfId="72" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="70" priority="23">
       <formula>LEN(TRIM(F36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1 A1">
-    <cfRule type="notContainsBlanks" dxfId="71" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="69" priority="27">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 A7">
-    <cfRule type="notContainsBlanks" dxfId="70" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="68" priority="26">
       <formula>LEN(TRIM(F7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15 A15">
-    <cfRule type="notContainsBlanks" dxfId="69" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="67" priority="25">
       <formula>LEN(TRIM(F15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25 A25">
-    <cfRule type="notContainsBlanks" dxfId="68" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="66" priority="24">
       <formula>LEN(TRIM(F25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="notContainsBlanks" dxfId="67" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="65" priority="19">
       <formula>LEN(TRIM(L36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="notContainsBlanks" dxfId="66" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="64" priority="22">
       <formula>LEN(TRIM(L7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="notContainsBlanks" dxfId="65" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="63" priority="21">
       <formula>LEN(TRIM(L15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="notContainsBlanks" dxfId="64" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="62" priority="20">
       <formula>LEN(TRIM(L25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 A47">
-    <cfRule type="notContainsBlanks" dxfId="63" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="61" priority="18">
       <formula>LEN(TRIM(F47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="notContainsBlanks" dxfId="62" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="60" priority="17">
       <formula>LEN(TRIM(L47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58 A58">
-    <cfRule type="notContainsBlanks" dxfId="61" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="59" priority="16">
       <formula>LEN(TRIM(F58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="notContainsBlanks" dxfId="60" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="58" priority="15">
       <formula>LEN(TRIM(L58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68 A68">
-    <cfRule type="notContainsBlanks" dxfId="59" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="57" priority="14">
       <formula>LEN(TRIM(F68))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="notContainsBlanks" dxfId="58" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="56" priority="13">
       <formula>LEN(TRIM(L68))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78 A78">
-    <cfRule type="notContainsBlanks" dxfId="57" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="55" priority="12">
       <formula>LEN(TRIM(F78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="notContainsBlanks" dxfId="56" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="54" priority="11">
       <formula>LEN(TRIM(L78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89 A89">
-    <cfRule type="notContainsBlanks" dxfId="55" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="53" priority="10">
       <formula>LEN(TRIM(F89))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="notContainsBlanks" dxfId="54" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="52" priority="9">
       <formula>LEN(TRIM(L89))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101 A101">
-    <cfRule type="notContainsBlanks" dxfId="53" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="51" priority="8">
       <formula>LEN(TRIM(F101))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G101">
-    <cfRule type="notContainsBlanks" dxfId="52" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="50" priority="7">
       <formula>LEN(TRIM(L101))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111 A111">
-    <cfRule type="notContainsBlanks" dxfId="51" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="49" priority="6">
       <formula>LEN(TRIM(F111))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111">
-    <cfRule type="notContainsBlanks" dxfId="50" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="48" priority="5">
       <formula>LEN(TRIM(L111))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F124 A124">
-    <cfRule type="notContainsBlanks" dxfId="49" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="47" priority="4">
       <formula>LEN(TRIM(F124))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124">
-    <cfRule type="notContainsBlanks" dxfId="48" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="3">
       <formula>LEN(TRIM(L124))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="notContainsBlanks" dxfId="47" priority="28">
+    <cfRule type="notContainsBlanks" dxfId="45" priority="28">
       <formula>LEN(TRIM(K2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134 A134">
-    <cfRule type="notContainsBlanks" dxfId="46" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="44" priority="2">
       <formula>LEN(TRIM(F134))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G134">
-    <cfRule type="notContainsBlanks" dxfId="45" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="43" priority="1">
       <formula>LEN(TRIM(L134))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22334,8 +22306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22351,20 +22323,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="58"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -22393,7 +22365,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="80">
+      <c r="A3" s="75">
         <v>33</v>
       </c>
       <c r="B3" s="31">
@@ -22413,7 +22385,7 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="80"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -22431,7 +22403,7 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="80"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -22449,7 +22421,7 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="80"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="31">
         <v>33.4</v>
       </c>
@@ -22467,7 +22439,7 @@
       <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="80"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="31">
         <v>33.5</v>
       </c>
@@ -22485,20 +22457,20 @@
       <c r="H7" s="34"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="82"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="77"/>
       <c r="F9" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="58"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
@@ -22527,7 +22499,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="76">
+      <c r="A11" s="78">
         <v>34</v>
       </c>
       <c r="B11" s="31">
@@ -22547,7 +22519,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="76"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="43">
         <v>34.200000000000003</v>
       </c>
@@ -22565,7 +22537,7 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="76"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="31">
         <v>34.299999999999997</v>
       </c>
@@ -22583,7 +22555,7 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="76"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="43">
         <v>34.4</v>
       </c>
@@ -22601,7 +22573,7 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="76"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="31">
         <v>34.5</v>
       </c>
@@ -22619,7 +22591,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="76"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="43">
         <v>34.6</v>
       </c>
@@ -22637,7 +22609,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="77"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="31">
         <v>34.700000000000003</v>
       </c>
@@ -22655,20 +22627,20 @@
       <c r="H17" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="58"/>
+      <c r="H19" s="60"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
@@ -22697,7 +22669,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="73">
+      <c r="A21" s="80">
         <v>35</v>
       </c>
       <c r="B21" s="5">
@@ -22717,7 +22689,7 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="78"/>
+      <c r="A22" s="81"/>
       <c r="B22" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -22735,7 +22707,7 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="78"/>
+      <c r="A23" s="81"/>
       <c r="B23" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -22753,7 +22725,7 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="78"/>
+      <c r="A24" s="81"/>
       <c r="B24" s="31">
         <v>35.4</v>
       </c>
@@ -22771,7 +22743,7 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="78"/>
+      <c r="A25" s="81"/>
       <c r="B25" s="5">
         <v>35.5</v>
       </c>
@@ -22789,7 +22761,7 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="78"/>
+      <c r="A26" s="81"/>
       <c r="B26" s="31">
         <v>35.6</v>
       </c>
@@ -22807,7 +22779,7 @@
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="78"/>
+      <c r="A27" s="81"/>
       <c r="B27" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -22825,7 +22797,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="79"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -22843,20 +22815,20 @@
       <c r="H28" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="72"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="74"/>
       <c r="F30" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="57" t="s">
+      <c r="G30" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="58"/>
+      <c r="H30" s="60"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
@@ -22905,7 +22877,7 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="67"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="5">
         <v>40.200000000000003</v>
       </c>
@@ -22923,7 +22895,7 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="67"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="5">
         <v>40.299999999999997</v>
       </c>
@@ -22941,7 +22913,7 @@
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="67"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="5">
         <v>40.4</v>
       </c>
@@ -22959,7 +22931,7 @@
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="67"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="5">
         <v>40.5</v>
       </c>
@@ -22977,7 +22949,7 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="67"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="5">
         <v>40.6</v>
       </c>
@@ -22995,7 +22967,7 @@
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="67"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="5">
         <v>40.700000000000003</v>
       </c>
@@ -23013,7 +22985,7 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="68"/>
+      <c r="A39" s="70"/>
       <c r="B39" s="5">
         <v>40.799999999999997</v>
       </c>
@@ -23031,20 +23003,20 @@
       <c r="H39" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="57" t="s">
+      <c r="A41" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="72"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="74"/>
       <c r="F41" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="G41" s="57" t="s">
+      <c r="G41" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H41" s="58"/>
+      <c r="H41" s="60"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
@@ -23091,7 +23063,7 @@
       <c r="F43" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="G43" s="85">
+      <c r="G43" s="58">
         <v>42660</v>
       </c>
       <c r="H43" s="3" t="s">
@@ -23115,7 +23087,7 @@
       <c r="F44" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="G44" s="85">
+      <c r="G44" s="58">
         <v>42660</v>
       </c>
       <c r="H44" s="3" t="s">
@@ -23139,7 +23111,7 @@
       <c r="F45" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="G45" s="85">
+      <c r="G45" s="58">
         <v>42660</v>
       </c>
       <c r="H45" s="3"/>
@@ -23161,7 +23133,7 @@
       <c r="F46" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="G46" s="85">
+      <c r="G46" s="58">
         <v>42660</v>
       </c>
       <c r="H46" s="3"/>
@@ -23183,7 +23155,7 @@
       <c r="F47" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="G47" s="85">
+      <c r="G47" s="58">
         <v>42660</v>
       </c>
       <c r="H47" s="3"/>
@@ -23205,13 +23177,13 @@
       <c r="F48" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="G48" s="85">
+      <c r="G48" s="58">
         <v>42660</v>
       </c>
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="61"/>
+      <c r="A49" s="64"/>
       <c r="B49" s="5">
         <v>41.7</v>
       </c>
@@ -23221,32 +23193,32 @@
       <c r="D49" s="3">
         <v>0.5</v>
       </c>
-      <c r="E49" s="84">
+      <c r="E49" s="57">
         <v>0.5</v>
       </c>
       <c r="F49" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="G49" s="85">
+      <c r="G49" s="58">
         <v>42660</v>
       </c>
       <c r="H49" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="57" t="s">
+      <c r="A51" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="B51" s="71"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="72"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="74"/>
       <c r="F51" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="G51" s="57" t="s">
+      <c r="G51" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="H51" s="58"/>
+      <c r="H51" s="60"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
@@ -23385,7 +23357,7 @@
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="61"/>
+      <c r="A59" s="64"/>
       <c r="B59" s="5">
         <v>27.7</v>
       </c>
@@ -23403,20 +23375,20 @@
       <c r="H59" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="57" t="s">
+      <c r="A61" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="71"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="72"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="74"/>
       <c r="F61" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G61" s="57" t="s">
+      <c r="G61" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H61" s="58"/>
+      <c r="H61" s="60"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="30" t="s">
@@ -23445,7 +23417,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="80">
+      <c r="A63" s="75">
         <v>24</v>
       </c>
       <c r="B63" s="28">
@@ -23469,7 +23441,7 @@
       <c r="H63" s="29"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="83"/>
+      <c r="A64" s="85"/>
       <c r="B64" s="28">
         <v>24.2</v>
       </c>
@@ -23491,7 +23463,7 @@
       <c r="H64" s="29"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="83"/>
+      <c r="A65" s="85"/>
       <c r="B65" s="28">
         <v>24.3</v>
       </c>
@@ -23513,7 +23485,7 @@
       <c r="H65" s="29"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="83"/>
+      <c r="A66" s="85"/>
       <c r="B66" s="28">
         <v>24.4</v>
       </c>
@@ -23535,7 +23507,7 @@
       <c r="H66" s="29"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="83"/>
+      <c r="A67" s="85"/>
       <c r="B67" s="28">
         <v>24.5</v>
       </c>
@@ -23557,20 +23529,20 @@
       <c r="H67" s="29"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="57" t="s">
+      <c r="A69" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="B69" s="71"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="72"/>
+      <c r="B69" s="73"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="74"/>
       <c r="F69" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G69" s="57" t="s">
+      <c r="G69" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H69" s="58"/>
+      <c r="H69" s="60"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="30" t="s">
@@ -23599,7 +23571,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="80">
+      <c r="A71" s="75">
         <v>18</v>
       </c>
       <c r="B71" s="52">
@@ -23623,7 +23595,7 @@
       <c r="H71" s="29"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="83"/>
+      <c r="A72" s="85"/>
       <c r="B72" s="28">
         <v>18.2</v>
       </c>
@@ -23645,7 +23617,7 @@
       <c r="H72" s="29"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="83"/>
+      <c r="A73" s="85"/>
       <c r="B73" s="52">
         <v>18.3</v>
       </c>
@@ -23667,7 +23639,7 @@
       <c r="H73" s="29"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="83"/>
+      <c r="A74" s="85"/>
       <c r="B74" s="28">
         <v>18.399999999999999</v>
       </c>
@@ -23689,7 +23661,7 @@
       <c r="H74" s="29"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="83"/>
+      <c r="A75" s="85"/>
       <c r="B75" s="52">
         <v>18.5</v>
       </c>
@@ -23711,20 +23683,20 @@
       <c r="H75" s="29"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="57" t="s">
+      <c r="A77" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="72"/>
+      <c r="B77" s="73"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="74"/>
       <c r="F77" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G77" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="H77" s="72"/>
+      <c r="G77" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="H77" s="74"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="30" t="s">
@@ -23753,7 +23725,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="80">
+      <c r="A79" s="75">
         <v>2</v>
       </c>
       <c r="B79" s="52">
@@ -23765,15 +23737,19 @@
       <c r="D79" s="39">
         <v>2</v>
       </c>
-      <c r="E79" s="31"/>
+      <c r="E79" s="39">
+        <v>2</v>
+      </c>
       <c r="F79" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G79" s="31"/>
+      <c r="G79" s="56">
+        <v>42662</v>
+      </c>
       <c r="H79" s="29"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="83"/>
+      <c r="A80" s="85"/>
       <c r="B80" s="28">
         <v>2.2000000000000002</v>
       </c>
@@ -23783,15 +23759,19 @@
       <c r="D80" s="39">
         <v>1</v>
       </c>
-      <c r="E80" s="31"/>
+      <c r="E80" s="39">
+        <v>1</v>
+      </c>
       <c r="F80" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G80" s="31"/>
+      <c r="G80" s="56">
+        <v>42662</v>
+      </c>
       <c r="H80" s="29"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="83"/>
+      <c r="A81" s="85"/>
       <c r="B81" s="52">
         <v>2.2999999999999998</v>
       </c>
@@ -23801,15 +23781,19 @@
       <c r="D81" s="39">
         <v>2</v>
       </c>
-      <c r="E81" s="31"/>
+      <c r="E81" s="39">
+        <v>2</v>
+      </c>
       <c r="F81" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G81" s="31"/>
+      <c r="G81" s="56">
+        <v>42662</v>
+      </c>
       <c r="H81" s="29"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="83"/>
+      <c r="A82" s="85"/>
       <c r="B82" s="28">
         <v>2.4</v>
       </c>
@@ -23819,15 +23803,19 @@
       <c r="D82" s="42">
         <v>0.5</v>
       </c>
-      <c r="E82" s="31"/>
+      <c r="E82" s="42">
+        <v>0.5</v>
+      </c>
       <c r="F82" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G82" s="31"/>
+      <c r="G82" s="56">
+        <v>42662</v>
+      </c>
       <c r="H82" s="29"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="83"/>
+      <c r="A83" s="85"/>
       <c r="B83" s="52">
         <v>2.5</v>
       </c>
@@ -23837,28 +23825,32 @@
       <c r="D83" s="43">
         <v>1</v>
       </c>
-      <c r="E83" s="31"/>
+      <c r="E83" s="43">
+        <v>1</v>
+      </c>
       <c r="F83" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="31"/>
+      <c r="G83" s="56">
+        <v>42662</v>
+      </c>
       <c r="H83" s="29"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="57" t="s">
+      <c r="A85" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="B85" s="71"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="71"/>
-      <c r="E85" s="72"/>
+      <c r="B85" s="73"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="73"/>
+      <c r="E85" s="74"/>
       <c r="F85" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="G85" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="H85" s="58"/>
+      <c r="G85" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85" s="60"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="30" t="s">
@@ -23887,7 +23879,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="80">
+      <c r="A87" s="75">
         <v>31</v>
       </c>
       <c r="B87" s="52">
@@ -23899,15 +23891,19 @@
       <c r="D87" s="39">
         <v>0.5</v>
       </c>
-      <c r="E87" s="31"/>
+      <c r="E87" s="39">
+        <v>2</v>
+      </c>
       <c r="F87" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G87" s="31"/>
+      <c r="G87" s="56">
+        <v>42662</v>
+      </c>
       <c r="H87" s="29"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="83"/>
+      <c r="A88" s="85"/>
       <c r="B88" s="28">
         <v>31.2</v>
       </c>
@@ -23917,15 +23913,19 @@
       <c r="D88" s="39">
         <v>0.5</v>
       </c>
-      <c r="E88" s="31"/>
+      <c r="E88" s="39">
+        <v>1</v>
+      </c>
       <c r="F88" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G88" s="31"/>
+      <c r="G88" s="56">
+        <v>42662</v>
+      </c>
       <c r="H88" s="29"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="83"/>
+      <c r="A89" s="85"/>
       <c r="B89" s="52">
         <v>31.3</v>
       </c>
@@ -23935,15 +23935,19 @@
       <c r="D89" s="39">
         <v>1</v>
       </c>
-      <c r="E89" s="31"/>
+      <c r="E89" s="39">
+        <v>2</v>
+      </c>
       <c r="F89" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G89" s="31"/>
+      <c r="G89" s="56">
+        <v>42662</v>
+      </c>
       <c r="H89" s="29"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="83"/>
+      <c r="A90" s="85"/>
       <c r="B90" s="28">
         <v>31.4</v>
       </c>
@@ -23953,15 +23957,19 @@
       <c r="D90" s="42">
         <v>0.5</v>
       </c>
-      <c r="E90" s="31"/>
+      <c r="E90" s="42">
+        <v>0.5</v>
+      </c>
       <c r="F90" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G90" s="31"/>
+      <c r="G90" s="56">
+        <v>42662</v>
+      </c>
       <c r="H90" s="29"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="83"/>
+      <c r="A91" s="85"/>
       <c r="B91" s="52">
         <v>31.5</v>
       </c>
@@ -23971,28 +23979,32 @@
       <c r="D91" s="43">
         <v>1</v>
       </c>
-      <c r="E91" s="31"/>
+      <c r="E91" s="43">
+        <v>1</v>
+      </c>
       <c r="F91" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G91" s="31"/>
+      <c r="G91" s="56">
+        <v>42662</v>
+      </c>
       <c r="H91" s="29"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="57" t="s">
+      <c r="A93" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B93" s="71"/>
-      <c r="C93" s="71"/>
-      <c r="D93" s="71"/>
-      <c r="E93" s="72"/>
+      <c r="B93" s="73"/>
+      <c r="C93" s="73"/>
+      <c r="D93" s="73"/>
+      <c r="E93" s="74"/>
       <c r="F93" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G93" s="57" t="s">
+      <c r="G93" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H93" s="58"/>
+      <c r="H93" s="60"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="30" t="s">
@@ -24021,7 +24033,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="80">
+      <c r="A95" s="75">
         <v>9</v>
       </c>
       <c r="B95" s="52">
@@ -24045,7 +24057,7 @@
       <c r="H95" s="29"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="83"/>
+      <c r="A96" s="85"/>
       <c r="B96" s="52">
         <v>9.1999999999999993</v>
       </c>
@@ -24067,7 +24079,7 @@
       <c r="H96" s="29"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="83"/>
+      <c r="A97" s="85"/>
       <c r="B97" s="52">
         <v>9.3000000000000007</v>
       </c>
@@ -24089,7 +24101,7 @@
       <c r="H97" s="29"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="83"/>
+      <c r="A98" s="85"/>
       <c r="B98" s="52">
         <v>9.4</v>
       </c>
@@ -24111,7 +24123,7 @@
       <c r="H98" s="29"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="83"/>
+      <c r="A99" s="85"/>
       <c r="B99" s="52">
         <v>9.5</v>
       </c>
@@ -24133,7 +24145,7 @@
       <c r="H99" s="29"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="83"/>
+      <c r="A100" s="85"/>
       <c r="B100" s="52">
         <v>9.6</v>
       </c>
@@ -24155,20 +24167,20 @@
       <c r="H100" s="29"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="57" t="s">
+      <c r="A102" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="B102" s="71"/>
-      <c r="C102" s="71"/>
-      <c r="D102" s="71"/>
-      <c r="E102" s="72"/>
+      <c r="B102" s="73"/>
+      <c r="C102" s="73"/>
+      <c r="D102" s="73"/>
+      <c r="E102" s="74"/>
       <c r="F102" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G102" s="57" t="s">
+      <c r="G102" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H102" s="58"/>
+      <c r="H102" s="60"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="30" t="s">
@@ -24197,7 +24209,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="80">
+      <c r="A104" s="75">
         <v>36</v>
       </c>
       <c r="B104" s="52">
@@ -24223,7 +24235,7 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="83"/>
+      <c r="A105" s="85"/>
       <c r="B105" s="52">
         <v>36.200000000000003</v>
       </c>
@@ -24245,7 +24257,7 @@
       <c r="H105" s="29"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="83"/>
+      <c r="A106" s="85"/>
       <c r="B106" s="52">
         <v>36.299999999999997</v>
       </c>
@@ -24267,7 +24279,7 @@
       <c r="H106" s="29"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="83"/>
+      <c r="A107" s="85"/>
       <c r="B107" s="52">
         <v>36.4</v>
       </c>
@@ -24289,7 +24301,7 @@
       <c r="H107" s="29"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="83"/>
+      <c r="A108" s="85"/>
       <c r="B108" s="52">
         <v>36.5</v>
       </c>
@@ -24311,20 +24323,20 @@
       <c r="H108" s="29"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="57" t="s">
+      <c r="A110" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="B110" s="71"/>
-      <c r="C110" s="71"/>
-      <c r="D110" s="71"/>
-      <c r="E110" s="72"/>
+      <c r="B110" s="73"/>
+      <c r="C110" s="73"/>
+      <c r="D110" s="73"/>
+      <c r="E110" s="74"/>
       <c r="F110" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="G110" s="57" t="s">
+      <c r="G110" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H110" s="58"/>
+      <c r="H110" s="60"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="30" t="s">
@@ -24353,7 +24365,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="80">
+      <c r="A112" s="75">
         <v>37</v>
       </c>
       <c r="B112" s="52">
@@ -24377,7 +24389,7 @@
       <c r="H112" s="29"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="83"/>
+      <c r="A113" s="85"/>
       <c r="B113" s="52">
         <v>37.200000000000003</v>
       </c>
@@ -24399,7 +24411,7 @@
       <c r="H113" s="29"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="83"/>
+      <c r="A114" s="85"/>
       <c r="B114" s="52">
         <v>37.299999999999997</v>
       </c>
@@ -24421,7 +24433,7 @@
       <c r="H114" s="29"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="83"/>
+      <c r="A115" s="85"/>
       <c r="B115" s="52">
         <v>37.4</v>
       </c>
@@ -24443,7 +24455,7 @@
       <c r="H115" s="29"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="83"/>
+      <c r="A116" s="85"/>
       <c r="B116" s="52">
         <v>37.5</v>
       </c>
@@ -24465,20 +24477,20 @@
       <c r="H116" s="29"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="57" t="s">
+      <c r="A118" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="B118" s="71"/>
-      <c r="C118" s="71"/>
-      <c r="D118" s="71"/>
-      <c r="E118" s="72"/>
+      <c r="B118" s="73"/>
+      <c r="C118" s="73"/>
+      <c r="D118" s="73"/>
+      <c r="E118" s="74"/>
       <c r="F118" s="46">
         <v>2</v>
       </c>
-      <c r="G118" s="57" t="s">
+      <c r="G118" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H118" s="58"/>
+      <c r="H118" s="60"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="30" t="s">
@@ -24507,7 +24519,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="80">
+      <c r="A120" s="75">
         <v>38</v>
       </c>
       <c r="B120" s="52">
@@ -24531,7 +24543,7 @@
       <c r="H120" s="29"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="83"/>
+      <c r="A121" s="85"/>
       <c r="B121" s="52">
         <v>38.200000000000003</v>
       </c>
@@ -24553,7 +24565,7 @@
       <c r="H121" s="29"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="83"/>
+      <c r="A122" s="85"/>
       <c r="B122" s="52">
         <v>38.299999999999997</v>
       </c>
@@ -24575,7 +24587,7 @@
       <c r="H122" s="29"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="83"/>
+      <c r="A123" s="85"/>
       <c r="B123" s="52">
         <v>38.4</v>
       </c>
@@ -24597,7 +24609,7 @@
       <c r="H123" s="29"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="83"/>
+      <c r="A124" s="85"/>
       <c r="B124" s="52">
         <v>38.5</v>
       </c>
@@ -24619,20 +24631,20 @@
       <c r="H124" s="29"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="57" t="s">
+      <c r="A126" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="B126" s="71"/>
-      <c r="C126" s="71"/>
-      <c r="D126" s="71"/>
-      <c r="E126" s="72"/>
+      <c r="B126" s="73"/>
+      <c r="C126" s="73"/>
+      <c r="D126" s="73"/>
+      <c r="E126" s="74"/>
       <c r="F126" s="46">
         <v>2</v>
       </c>
-      <c r="G126" s="57" t="s">
+      <c r="G126" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H126" s="58"/>
+      <c r="H126" s="60"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="30" t="s">
@@ -24661,7 +24673,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="80">
+      <c r="A128" s="75">
         <v>28</v>
       </c>
       <c r="B128" s="52">
@@ -24687,7 +24699,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="83"/>
+      <c r="A129" s="85"/>
       <c r="B129" s="52">
         <v>28.2</v>
       </c>
@@ -24709,7 +24721,7 @@
       <c r="H129" s="29"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="83"/>
+      <c r="A130" s="85"/>
       <c r="B130" s="52">
         <v>28.3</v>
       </c>
@@ -24731,7 +24743,7 @@
       <c r="H130" s="29"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="83"/>
+      <c r="A131" s="85"/>
       <c r="B131" s="52">
         <v>28.4</v>
       </c>
@@ -24753,7 +24765,7 @@
       <c r="H131" s="29"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="83"/>
+      <c r="A132" s="85"/>
       <c r="B132" s="52">
         <v>28.5</v>
       </c>
@@ -24775,20 +24787,20 @@
       <c r="H132" s="29"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="57" t="s">
+      <c r="A134" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="B134" s="71"/>
-      <c r="C134" s="71"/>
-      <c r="D134" s="71"/>
-      <c r="E134" s="72"/>
+      <c r="B134" s="73"/>
+      <c r="C134" s="73"/>
+      <c r="D134" s="73"/>
+      <c r="E134" s="74"/>
       <c r="F134" s="46">
         <v>4</v>
       </c>
-      <c r="G134" s="57" t="s">
+      <c r="G134" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H134" s="58"/>
+      <c r="H134" s="60"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="30" t="s">
@@ -24817,7 +24829,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="80">
+      <c r="A136" s="75">
         <v>39</v>
       </c>
       <c r="B136" s="52">
@@ -24841,7 +24853,7 @@
       <c r="H136" s="29"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="83"/>
+      <c r="A137" s="85"/>
       <c r="B137" s="52">
         <v>39.200000000000003</v>
       </c>
@@ -24863,7 +24875,7 @@
       <c r="H137" s="29"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="83"/>
+      <c r="A138" s="85"/>
       <c r="B138" s="52">
         <v>39.299999999999997</v>
       </c>
@@ -24885,7 +24897,7 @@
       <c r="H138" s="29"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="83"/>
+      <c r="A139" s="85"/>
       <c r="B139" s="52">
         <v>39.4</v>
       </c>
@@ -24907,7 +24919,7 @@
       <c r="H139" s="29"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="83"/>
+      <c r="A140" s="85"/>
       <c r="B140" s="52">
         <v>39.5</v>
       </c>
@@ -24929,20 +24941,20 @@
       <c r="H140" s="29"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="57" t="s">
+      <c r="A142" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="B142" s="71"/>
-      <c r="C142" s="71"/>
-      <c r="D142" s="71"/>
-      <c r="E142" s="72"/>
+      <c r="B142" s="73"/>
+      <c r="C142" s="73"/>
+      <c r="D142" s="73"/>
+      <c r="E142" s="74"/>
       <c r="F142" s="46">
         <v>1</v>
       </c>
-      <c r="G142" s="57" t="s">
+      <c r="G142" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H142" s="58"/>
+      <c r="H142" s="60"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="30" t="s">
@@ -24996,6 +25008,44 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="G61:H61"/>
     <mergeCell ref="A32:A39"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:H1"/>
@@ -25008,112 +25058,74 @@
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A142:E142"/>
-    <mergeCell ref="G142:H142"/>
   </mergeCells>
   <conditionalFormatting sqref="G61">
-    <cfRule type="notContainsBlanks" dxfId="44" priority="39">
+    <cfRule type="notContainsBlanks" dxfId="42" priority="39">
       <formula>LEN(TRIM(L61))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="notContainsBlanks" dxfId="43" priority="51">
+    <cfRule type="notContainsBlanks" dxfId="41" priority="51">
       <formula>LEN(TRIM(F30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 A1">
-    <cfRule type="notContainsBlanks" dxfId="42" priority="54">
+    <cfRule type="notContainsBlanks" dxfId="40" priority="54">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 A9">
-    <cfRule type="notContainsBlanks" dxfId="41" priority="53">
+    <cfRule type="notContainsBlanks" dxfId="39" priority="53">
       <formula>LEN(TRIM(F9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19 A19">
-    <cfRule type="notContainsBlanks" dxfId="40" priority="52">
+    <cfRule type="notContainsBlanks" dxfId="38" priority="52">
       <formula>LEN(TRIM(F19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="notContainsBlanks" dxfId="39" priority="47">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="47">
       <formula>LEN(TRIM(L30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="notContainsBlanks" dxfId="38" priority="50">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="50">
       <formula>LEN(TRIM(L1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="notContainsBlanks" dxfId="37" priority="49">
+    <cfRule type="notContainsBlanks" dxfId="35" priority="49">
       <formula>LEN(TRIM(L9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="notContainsBlanks" dxfId="36" priority="48">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="48">
       <formula>LEN(TRIM(L19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="notContainsBlanks" dxfId="35" priority="55">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="55">
       <formula>LEN(TRIM(K1048549))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41 A41">
-    <cfRule type="notContainsBlanks" dxfId="34" priority="46">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="46">
       <formula>LEN(TRIM(F41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="notContainsBlanks" dxfId="33" priority="45">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="45">
       <formula>LEN(TRIM(L41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51 A51">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="44">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="44">
       <formula>LEN(TRIM(F51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="notContainsBlanks" dxfId="31" priority="43">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="43">
       <formula>LEN(TRIM(L51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="172">
   <si>
     <t>User story: General Website Features</t>
   </si>
@@ -533,6 +533,12 @@
   <si>
     <t>Lance made the Volunteer_account_details.php</t>
   </si>
+  <si>
+    <t>Added the latest event the sponsor donated to</t>
+  </si>
+  <si>
+    <t>Fixed up the button that links to the new sponsor registration</t>
+  </si>
 </sst>
 </file>
 
@@ -906,18 +912,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -940,18 +946,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -960,8 +963,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2403,9 +2409,9 @@
       <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="60"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -2452,7 +2458,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62">
+      <c r="A3" s="64">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -2486,7 +2492,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -2511,7 +2517,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -2536,7 +2542,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -2561,7 +2567,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -2584,7 +2590,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="64"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="5">
         <v>6.6</v>
       </c>
@@ -2615,17 +2621,17 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="60"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="61" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="60"/>
@@ -2659,7 +2665,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62">
+      <c r="A12" s="64">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -2684,7 +2690,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -2707,7 +2713,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -2722,7 +2728,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="68">
         <v>1.4</v>
       </c>
@@ -2738,27 +2744,27 @@
       <c r="F15" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="62">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
-      <c r="B16" s="64"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="64"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="16">
         <v>1.5</v>
       </c>
@@ -2792,9 +2798,9 @@
       <c r="A19" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="60"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
@@ -2833,7 +2839,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62">
+      <c r="A21" s="64">
         <v>11</v>
       </c>
       <c r="B21" s="22">
@@ -2860,7 +2866,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="22">
         <v>11.2</v>
       </c>
@@ -2885,7 +2891,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="64"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2907,9 +2913,9 @@
       <c r="A25" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="60"/>
       <c r="F25" s="1" t="s">
         <v>42</v>
@@ -2948,7 +2954,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="62">
+      <c r="A27" s="64">
         <v>12</v>
       </c>
       <c r="B27" s="22">
@@ -2975,7 +2981,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="22">
         <v>12.2</v>
       </c>
@@ -2998,7 +3004,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="22">
         <v>12.3</v>
       </c>
@@ -3041,9 +3047,9 @@
       <c r="A32" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
       <c r="E32" s="60"/>
       <c r="F32" s="1" t="s">
         <v>88</v>
@@ -3082,7 +3088,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="62"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3093,7 +3099,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="63"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -3104,7 +3110,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="63"/>
+      <c r="A36" s="65"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -3115,7 +3121,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="63"/>
+      <c r="A37" s="65"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -3126,7 +3132,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="63"/>
+      <c r="A38" s="65"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -3137,7 +3143,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="63"/>
+      <c r="A39" s="65"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -3148,7 +3154,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="64"/>
+      <c r="A40" s="63"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -10844,6 +10850,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A19:E19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G15:G16"/>
@@ -10855,15 +10870,6 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G1 A1 F10:G10 A10 F19:G19 A19 F25:G25 A25 F32:G32 A32">
     <cfRule type="notContainsBlanks" dxfId="80" priority="1">
@@ -10900,9 +10906,9 @@
       <c r="A1" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="60"/>
       <c r="F1" s="71" t="s">
         <v>1</v>
@@ -10948,7 +10954,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62">
+      <c r="A3" s="64">
         <v>21</v>
       </c>
       <c r="B3" s="5">
@@ -10981,7 +10987,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="5">
         <v>21.2</v>
       </c>
@@ -11005,7 +11011,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="5">
         <v>21.3</v>
       </c>
@@ -11029,7 +11035,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="5">
         <v>21.4</v>
       </c>
@@ -11053,7 +11059,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="5">
         <v>21.5</v>
       </c>
@@ -11075,7 +11081,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="5">
         <v>21.6</v>
       </c>
@@ -11097,7 +11103,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="5">
         <v>21.7</v>
       </c>
@@ -11119,7 +11125,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="5">
         <v>21.8</v>
       </c>
@@ -11143,7 +11149,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="5">
         <v>21.9</v>
       </c>
@@ -11179,9 +11185,9 @@
       <c r="A13" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="60"/>
       <c r="F13" s="71" t="s">
         <v>42</v>
@@ -11218,7 +11224,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62">
+      <c r="A15" s="64">
         <v>20</v>
       </c>
       <c r="B15" s="5">
@@ -11242,7 +11248,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="5">
         <v>20.2</v>
       </c>
@@ -11264,7 +11270,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="5">
         <v>20.3</v>
       </c>
@@ -11288,7 +11294,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="64"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="5">
         <v>20.399999999999999</v>
       </c>
@@ -11321,9 +11327,9 @@
       <c r="A20" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="60"/>
       <c r="F20" s="71" t="s">
         <v>49</v>
@@ -11360,7 +11366,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="62">
+      <c r="A22" s="64">
         <v>5</v>
       </c>
       <c r="B22" s="5">
@@ -11382,7 +11388,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="64"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="5">
         <v>5.2</v>
       </c>
@@ -11411,9 +11417,9 @@
       <c r="A25" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="60"/>
       <c r="F25" s="71" t="s">
         <v>40</v>
@@ -11450,7 +11456,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="62">
+      <c r="A27" s="64">
         <v>8</v>
       </c>
       <c r="B27" s="5">
@@ -11575,9 +11581,9 @@
       <c r="A33" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
       <c r="E33" s="60"/>
       <c r="F33" s="71" t="s">
         <v>70</v>
@@ -11614,7 +11620,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="62">
+      <c r="A35" s="64">
         <v>4</v>
       </c>
       <c r="B35" s="5">
@@ -19446,9 +19452,9 @@
       <c r="A1" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="60"/>
       <c r="F1" s="1" t="s">
         <v>49</v>
@@ -19491,7 +19497,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="75">
+      <c r="A3" s="82">
         <v>22</v>
       </c>
       <c r="B3" s="31">
@@ -19521,7 +19527,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="75"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="31">
         <v>22.2</v>
       </c>
@@ -19543,7 +19549,7 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="75"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="31">
         <v>22.3</v>
       </c>
@@ -19568,9 +19574,9 @@
       <c r="A7" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="60"/>
       <c r="F7" s="1" t="s">
         <v>49</v>
@@ -19607,7 +19613,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="75">
+      <c r="A9" s="82">
         <v>33</v>
       </c>
       <c r="B9" s="31">
@@ -19627,7 +19633,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="75"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -19645,7 +19651,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="75"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -19663,7 +19669,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="75"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="31">
         <v>33.4</v>
       </c>
@@ -19681,7 +19687,7 @@
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="75"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="31">
         <v>33.5</v>
       </c>
@@ -19702,10 +19708,10 @@
       <c r="A15" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
@@ -19911,7 +19917,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="80">
+      <c r="A27" s="75">
         <v>35</v>
       </c>
       <c r="B27" s="5">
@@ -19931,7 +19937,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="81"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -19949,7 +19955,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="81"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -19967,7 +19973,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="81"/>
+      <c r="A30" s="80"/>
       <c r="B30" s="31">
         <v>35.4</v>
       </c>
@@ -19985,7 +19991,7 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="81"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="5">
         <v>35.5</v>
       </c>
@@ -20003,7 +20009,7 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="81"/>
+      <c r="A32" s="80"/>
       <c r="B32" s="31">
         <v>35.6</v>
       </c>
@@ -20021,7 +20027,7 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="81"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -20039,7 +20045,7 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="82"/>
+      <c r="A34" s="81"/>
       <c r="B34" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -20099,7 +20105,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="62">
+      <c r="A38" s="64">
         <v>40</v>
       </c>
       <c r="B38" s="5">
@@ -20287,7 +20293,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="62">
+      <c r="A49" s="64">
         <v>23</v>
       </c>
       <c r="B49" s="5">
@@ -20311,7 +20317,7 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="63"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="5">
         <v>23.2</v>
       </c>
@@ -20333,7 +20339,7 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="63"/>
+      <c r="A51" s="65"/>
       <c r="B51" s="5">
         <v>23.3</v>
       </c>
@@ -20355,7 +20361,7 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="63"/>
+      <c r="A52" s="65"/>
       <c r="B52" s="5">
         <v>23.4</v>
       </c>
@@ -20377,7 +20383,7 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="63"/>
+      <c r="A53" s="65"/>
       <c r="B53" s="5">
         <v>23.5</v>
       </c>
@@ -20399,7 +20405,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="63"/>
+      <c r="A54" s="65"/>
       <c r="B54" s="5">
         <v>23.6</v>
       </c>
@@ -20421,7 +20427,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="63"/>
+      <c r="A55" s="65"/>
       <c r="B55" s="5">
         <v>23.7</v>
       </c>
@@ -20443,7 +20449,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="64"/>
+      <c r="A56" s="63"/>
       <c r="B56" s="5">
         <v>23.8</v>
       </c>
@@ -20507,7 +20513,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="62">
+      <c r="A60" s="64">
         <v>3</v>
       </c>
       <c r="B60" s="5">
@@ -20531,7 +20537,7 @@
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="63"/>
+      <c r="A61" s="65"/>
       <c r="B61" s="5">
         <v>3.2</v>
       </c>
@@ -20553,7 +20559,7 @@
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="63"/>
+      <c r="A62" s="65"/>
       <c r="B62" s="5">
         <v>3.3</v>
       </c>
@@ -20575,7 +20581,7 @@
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="63"/>
+      <c r="A63" s="65"/>
       <c r="B63" s="5">
         <v>3.4</v>
       </c>
@@ -20597,7 +20603,7 @@
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="63"/>
+      <c r="A64" s="65"/>
       <c r="B64" s="5">
         <v>3.5</v>
       </c>
@@ -20621,7 +20627,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="63"/>
+      <c r="A65" s="65"/>
       <c r="B65" s="5">
         <v>3.6</v>
       </c>
@@ -20643,7 +20649,7 @@
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="64"/>
+      <c r="A66" s="63"/>
       <c r="B66" s="5">
         <v>3.7</v>
       </c>
@@ -20707,7 +20713,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="62">
+      <c r="A70" s="64">
         <v>41</v>
       </c>
       <c r="B70" s="5">
@@ -20727,7 +20733,7 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="63"/>
+      <c r="A71" s="65"/>
       <c r="B71" s="5">
         <v>41.2</v>
       </c>
@@ -20745,7 +20751,7 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="63"/>
+      <c r="A72" s="65"/>
       <c r="B72" s="5">
         <v>41.3</v>
       </c>
@@ -20763,7 +20769,7 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="63"/>
+      <c r="A73" s="65"/>
       <c r="B73" s="5">
         <v>41.4</v>
       </c>
@@ -20781,7 +20787,7 @@
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="63"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="5">
         <v>41.5</v>
       </c>
@@ -20799,7 +20805,7 @@
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="63"/>
+      <c r="A75" s="65"/>
       <c r="B75" s="5">
         <v>41.6</v>
       </c>
@@ -20817,7 +20823,7 @@
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="64"/>
+      <c r="A76" s="63"/>
       <c r="B76" s="5">
         <v>41.7</v>
       </c>
@@ -20877,7 +20883,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="62">
+      <c r="A80" s="64">
         <v>25</v>
       </c>
       <c r="B80" s="5">
@@ -20901,7 +20907,7 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="63"/>
+      <c r="A81" s="65"/>
       <c r="B81" s="5">
         <v>25.2</v>
       </c>
@@ -20923,7 +20929,7 @@
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="63"/>
+      <c r="A82" s="65"/>
       <c r="B82" s="5">
         <v>25.3</v>
       </c>
@@ -20945,7 +20951,7 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="63"/>
+      <c r="A83" s="65"/>
       <c r="B83" s="5">
         <v>25.4</v>
       </c>
@@ -20967,7 +20973,7 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="63"/>
+      <c r="A84" s="65"/>
       <c r="B84" s="5">
         <v>25.5</v>
       </c>
@@ -20989,7 +20995,7 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="63"/>
+      <c r="A85" s="65"/>
       <c r="B85" s="5">
         <v>25.6</v>
       </c>
@@ -21011,7 +21017,7 @@
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="63"/>
+      <c r="A86" s="65"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -21021,7 +21027,7 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="64"/>
+      <c r="A87" s="63"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -21073,7 +21079,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="62">
+      <c r="A91" s="64">
         <v>26</v>
       </c>
       <c r="B91" s="39">
@@ -21097,7 +21103,7 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="63"/>
+      <c r="A92" s="65"/>
       <c r="B92" s="39">
         <v>26.2</v>
       </c>
@@ -21119,7 +21125,7 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="63"/>
+      <c r="A93" s="65"/>
       <c r="B93" s="39">
         <v>26.3</v>
       </c>
@@ -21141,7 +21147,7 @@
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="63"/>
+      <c r="A94" s="65"/>
       <c r="B94" s="39">
         <v>26.4</v>
       </c>
@@ -21163,7 +21169,7 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="63"/>
+      <c r="A95" s="65"/>
       <c r="B95" s="39">
         <v>26.5</v>
       </c>
@@ -21185,7 +21191,7 @@
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="63"/>
+      <c r="A96" s="65"/>
       <c r="B96" s="39">
         <v>26.6</v>
       </c>
@@ -21207,7 +21213,7 @@
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="63"/>
+      <c r="A97" s="65"/>
       <c r="B97" s="39">
         <v>26.7</v>
       </c>
@@ -21229,7 +21235,7 @@
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="63"/>
+      <c r="A98" s="65"/>
       <c r="B98" s="39">
         <v>26.8</v>
       </c>
@@ -21251,7 +21257,7 @@
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="64"/>
+      <c r="A99" s="63"/>
       <c r="B99" s="39">
         <v>26.9</v>
       </c>
@@ -21315,7 +21321,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="62">
+      <c r="A103" s="64">
         <v>27</v>
       </c>
       <c r="B103" s="5">
@@ -21339,7 +21345,7 @@
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="63"/>
+      <c r="A104" s="65"/>
       <c r="B104" s="5">
         <v>27.2</v>
       </c>
@@ -21361,7 +21367,7 @@
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="63"/>
+      <c r="A105" s="65"/>
       <c r="B105" s="5">
         <v>27.3</v>
       </c>
@@ -21383,7 +21389,7 @@
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="63"/>
+      <c r="A106" s="65"/>
       <c r="B106" s="5">
         <v>27.4</v>
       </c>
@@ -21405,7 +21411,7 @@
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="63"/>
+      <c r="A107" s="65"/>
       <c r="B107" s="5">
         <v>27.5</v>
       </c>
@@ -21427,7 +21433,7 @@
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="63"/>
+      <c r="A108" s="65"/>
       <c r="B108" s="5">
         <v>27.6</v>
       </c>
@@ -21449,7 +21455,7 @@
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="64"/>
+      <c r="A109" s="63"/>
       <c r="B109" s="5">
         <v>27.7</v>
       </c>
@@ -21513,7 +21519,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="80">
+      <c r="A113" s="75">
         <v>4</v>
       </c>
       <c r="B113" s="31">
@@ -21537,7 +21543,7 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="83"/>
+      <c r="A114" s="76"/>
       <c r="B114" s="31">
         <v>4.2</v>
       </c>
@@ -21559,7 +21565,7 @@
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="83"/>
+      <c r="A115" s="76"/>
       <c r="B115" s="31">
         <v>4.3</v>
       </c>
@@ -21581,7 +21587,7 @@
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="83"/>
+      <c r="A116" s="76"/>
       <c r="B116" s="31">
         <v>4.4000000000000004</v>
       </c>
@@ -21603,7 +21609,7 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="83"/>
+      <c r="A117" s="76"/>
       <c r="B117" s="31">
         <v>4.5</v>
       </c>
@@ -21625,7 +21631,7 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="83"/>
+      <c r="A118" s="76"/>
       <c r="B118" s="31">
         <v>4.5999999999999996</v>
       </c>
@@ -21649,7 +21655,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="83"/>
+      <c r="A119" s="76"/>
       <c r="B119" s="31">
         <v>4.7</v>
       </c>
@@ -21671,7 +21677,7 @@
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="83"/>
+      <c r="A120" s="76"/>
       <c r="B120" s="31">
         <v>4.8</v>
       </c>
@@ -21695,7 +21701,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="83"/>
+      <c r="A121" s="76"/>
       <c r="B121" s="31">
         <v>4.9000000000000004</v>
       </c>
@@ -21719,7 +21725,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="84"/>
+      <c r="A122" s="77"/>
       <c r="B122" s="32" t="s">
         <v>141</v>
       </c>
@@ -21785,7 +21791,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="62">
+      <c r="A126" s="64">
         <v>30</v>
       </c>
       <c r="B126" s="5">
@@ -21805,7 +21811,7 @@
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="63"/>
+      <c r="A127" s="65"/>
       <c r="B127" s="5">
         <v>27.2</v>
       </c>
@@ -21823,7 +21829,7 @@
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="63"/>
+      <c r="A128" s="65"/>
       <c r="B128" s="5">
         <v>27.3</v>
       </c>
@@ -21841,7 +21847,7 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="63"/>
+      <c r="A129" s="65"/>
       <c r="B129" s="5">
         <v>27.4</v>
       </c>
@@ -21859,7 +21865,7 @@
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="63"/>
+      <c r="A130" s="65"/>
       <c r="B130" s="5">
         <v>27.5</v>
       </c>
@@ -21877,7 +21883,7 @@
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="63"/>
+      <c r="A131" s="65"/>
       <c r="B131" s="5">
         <v>27.6</v>
       </c>
@@ -21895,7 +21901,7 @@
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="64"/>
+      <c r="A132" s="63"/>
       <c r="B132" s="5">
         <v>27.7</v>
       </c>
@@ -21955,7 +21961,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="62">
+      <c r="A136" s="64">
         <v>32</v>
       </c>
       <c r="B136" s="5">
@@ -21979,7 +21985,7 @@
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="63"/>
+      <c r="A137" s="65"/>
       <c r="B137" s="5">
         <v>32.200000000000003</v>
       </c>
@@ -22001,7 +22007,7 @@
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="63"/>
+      <c r="A138" s="65"/>
       <c r="B138" s="5">
         <v>32.299999999999997</v>
       </c>
@@ -22023,7 +22029,7 @@
       <c r="H138" s="3"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="63"/>
+      <c r="A139" s="65"/>
       <c r="B139" s="5">
         <v>32.4</v>
       </c>
@@ -22045,7 +22051,7 @@
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="63"/>
+      <c r="A140" s="65"/>
       <c r="B140" s="5">
         <v>32.5</v>
       </c>
@@ -22069,7 +22075,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="63"/>
+      <c r="A141" s="65"/>
       <c r="B141" s="5">
         <v>32.6</v>
       </c>
@@ -22091,7 +22097,7 @@
       <c r="H141" s="3"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="64"/>
+      <c r="A142" s="63"/>
       <c r="B142" s="5">
         <v>32.700000000000003</v>
       </c>
@@ -22114,32 +22120,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="A113:A122"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A38:A45"/>
     <mergeCell ref="A134:E134"/>
     <mergeCell ref="G134:H134"/>
     <mergeCell ref="A136:A142"/>
@@ -22156,6 +22136,32 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A113:A122"/>
   </mergeCells>
   <conditionalFormatting sqref="A36">
     <cfRule type="notContainsBlanks" dxfId="70" priority="23">
@@ -22306,8 +22312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22326,9 +22332,9 @@
       <c r="A1" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="60"/>
       <c r="F1" s="46" t="s">
         <v>49</v>
@@ -22365,7 +22371,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="75">
+      <c r="A3" s="82">
         <v>33</v>
       </c>
       <c r="B3" s="31">
@@ -22385,7 +22391,7 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="75"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="33">
         <v>33.200000000000003</v>
       </c>
@@ -22403,7 +22409,7 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="75"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="31">
         <v>33.299999999999997</v>
       </c>
@@ -22421,7 +22427,7 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="75"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="31">
         <v>33.4</v>
       </c>
@@ -22439,7 +22445,7 @@
       <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="75"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="31">
         <v>33.5</v>
       </c>
@@ -22460,15 +22466,15 @@
       <c r="A9" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="77"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="84"/>
       <c r="F9" s="46" t="s">
         <v>42</v>
       </c>
       <c r="G9" s="59" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" s="60"/>
     </row>
@@ -22511,11 +22517,15 @@
       <c r="D11" s="31">
         <v>0.5</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="5"/>
+      <c r="E11" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="10">
+        <v>42661</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -22529,11 +22539,15 @@
       <c r="D12" s="31">
         <v>0.5</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="5"/>
+      <c r="E12" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="10">
+        <v>42661</v>
+      </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -22547,11 +22561,15 @@
       <c r="D13" s="31">
         <v>1</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="5"/>
+      <c r="E13" s="31">
+        <v>1</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="10">
+        <v>42661</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -22565,11 +22583,15 @@
       <c r="D14" s="31">
         <v>0.5</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="5"/>
+      <c r="E14" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="10">
+        <v>42661</v>
+      </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -22583,12 +22605,18 @@
       <c r="D15" s="31">
         <v>2</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="3"/>
+      <c r="E15" s="31">
+        <v>2</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="10">
+        <v>42663</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
@@ -22601,12 +22629,18 @@
       <c r="D16" s="31">
         <v>1</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="3"/>
+      <c r="E16" s="31">
+        <v>1</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="10">
+        <v>42663</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="79"/>
@@ -22619,11 +22653,15 @@
       <c r="D17" s="3">
         <v>0.5</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="3"/>
+      <c r="E17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="10">
+        <v>42661</v>
+      </c>
       <c r="H17" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -22669,7 +22707,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="80">
+      <c r="A21" s="75">
         <v>35</v>
       </c>
       <c r="B21" s="5">
@@ -22681,15 +22719,19 @@
       <c r="D21" s="5">
         <v>0.5</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="5"/>
+      <c r="E21" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="10">
+        <v>42663</v>
+      </c>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="81"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="31">
         <v>35.200000000000003</v>
       </c>
@@ -22699,15 +22741,19 @@
       <c r="D22" s="5">
         <v>0.5</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="5"/>
+      <c r="E22" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="10">
+        <v>42663</v>
+      </c>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="81"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="5">
         <v>35.299999999999997</v>
       </c>
@@ -22717,15 +22763,19 @@
       <c r="D23" s="5">
         <v>0.5</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G23" s="5"/>
+      <c r="E23" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="10">
+        <v>42663</v>
+      </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="81"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="31">
         <v>35.4</v>
       </c>
@@ -22735,15 +22785,19 @@
       <c r="D24" s="5">
         <v>1</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="5"/>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="10">
+        <v>42663</v>
+      </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="81"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="5">
         <v>35.5</v>
       </c>
@@ -22753,15 +22807,19 @@
       <c r="D25" s="5">
         <v>0.5</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="5"/>
+      <c r="E25" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="10">
+        <v>42663</v>
+      </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="81"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="31">
         <v>35.6</v>
       </c>
@@ -22771,15 +22829,19 @@
       <c r="D26" s="31">
         <v>1</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G26" s="5"/>
+      <c r="E26" s="31">
+        <v>1</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="10">
+        <v>42663</v>
+      </c>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="81"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="5">
         <v>35.700000000000003</v>
       </c>
@@ -22789,15 +22851,19 @@
       <c r="D27" s="31">
         <v>1</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G27" s="5"/>
+      <c r="E27" s="31">
+        <v>1</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="10">
+        <v>42663</v>
+      </c>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="82"/>
+      <c r="A28" s="81"/>
       <c r="B28" s="5">
         <v>35.799999999999997</v>
       </c>
@@ -22807,11 +22873,15 @@
       <c r="D28" s="3">
         <v>0.5</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G28" s="3"/>
+      <c r="E28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="10">
+        <v>42663</v>
+      </c>
       <c r="H28" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -22857,7 +22927,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="62">
+      <c r="A32" s="64">
         <v>40</v>
       </c>
       <c r="B32" s="5">
@@ -22869,11 +22939,15 @@
       <c r="D32" s="31">
         <v>0.5</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G32" s="5"/>
+      <c r="E32" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="10">
+        <v>42663</v>
+      </c>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -22887,11 +22961,15 @@
       <c r="D33" s="5">
         <v>2</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G33" s="5"/>
+      <c r="E33" s="5">
+        <v>2</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="10">
+        <v>42663</v>
+      </c>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -22905,11 +22983,15 @@
       <c r="D34" s="5">
         <v>0.5</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G34" s="5"/>
+      <c r="E34" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="10">
+        <v>42663</v>
+      </c>
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -22923,11 +23005,15 @@
       <c r="D35" s="5">
         <v>1</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G35" s="5"/>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="10">
+        <v>42663</v>
+      </c>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -22941,11 +23027,15 @@
       <c r="D36" s="5">
         <v>1</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G36" s="5"/>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="10">
+        <v>42663</v>
+      </c>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -22959,11 +23049,15 @@
       <c r="D37" s="31">
         <v>1</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G37" s="5"/>
+      <c r="E37" s="31">
+        <v>1</v>
+      </c>
+      <c r="F37" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="10">
+        <v>42663</v>
+      </c>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -22977,11 +23071,15 @@
       <c r="D38" s="31">
         <v>1</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G38" s="5"/>
+      <c r="E38" s="31">
+        <v>1</v>
+      </c>
+      <c r="F38" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="10">
+        <v>42663</v>
+      </c>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -22995,11 +23093,15 @@
       <c r="D39" s="3">
         <v>0.5</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="G39" s="3"/>
+      <c r="E39" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="10">
+        <v>42663</v>
+      </c>
       <c r="H39" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -23045,7 +23147,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="62">
+      <c r="A43" s="64">
         <v>41</v>
       </c>
       <c r="B43" s="5">
@@ -23071,7 +23173,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="63"/>
+      <c r="A44" s="65"/>
       <c r="B44" s="5">
         <v>41.2</v>
       </c>
@@ -23095,7 +23197,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="63"/>
+      <c r="A45" s="65"/>
       <c r="B45" s="5">
         <v>41.3</v>
       </c>
@@ -23117,7 +23219,7 @@
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="63"/>
+      <c r="A46" s="65"/>
       <c r="B46" s="5">
         <v>41.4</v>
       </c>
@@ -23139,7 +23241,7 @@
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="63"/>
+      <c r="A47" s="65"/>
       <c r="B47" s="5">
         <v>41.5</v>
       </c>
@@ -23161,7 +23263,7 @@
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="63"/>
+      <c r="A48" s="65"/>
       <c r="B48" s="5">
         <v>41.6</v>
       </c>
@@ -23183,7 +23285,7 @@
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="64"/>
+      <c r="A49" s="63"/>
       <c r="B49" s="5">
         <v>41.7</v>
       </c>
@@ -23247,7 +23349,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="62">
+      <c r="A53" s="64">
         <v>30</v>
       </c>
       <c r="B53" s="5">
@@ -23267,7 +23369,7 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="63"/>
+      <c r="A54" s="65"/>
       <c r="B54" s="5">
         <v>27.2</v>
       </c>
@@ -23285,7 +23387,7 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="63"/>
+      <c r="A55" s="65"/>
       <c r="B55" s="5">
         <v>27.3</v>
       </c>
@@ -23303,7 +23405,7 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="63"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="5">
         <v>27.4</v>
       </c>
@@ -23321,7 +23423,7 @@
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="63"/>
+      <c r="A57" s="65"/>
       <c r="B57" s="5">
         <v>27.5</v>
       </c>
@@ -23339,7 +23441,7 @@
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="63"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="5">
         <v>27.6</v>
       </c>
@@ -23357,7 +23459,7 @@
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="64"/>
+      <c r="A59" s="63"/>
       <c r="B59" s="5">
         <v>27.7</v>
       </c>
@@ -23417,7 +23519,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="75">
+      <c r="A63" s="82">
         <v>24</v>
       </c>
       <c r="B63" s="28">
@@ -23571,7 +23673,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="75">
+      <c r="A71" s="82">
         <v>18</v>
       </c>
       <c r="B71" s="52">
@@ -23725,7 +23827,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="75">
+      <c r="A79" s="82">
         <v>2</v>
       </c>
       <c r="B79" s="52">
@@ -23879,7 +23981,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="75">
+      <c r="A87" s="82">
         <v>31</v>
       </c>
       <c r="B87" s="52">
@@ -24033,7 +24135,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="75">
+      <c r="A95" s="82">
         <v>9</v>
       </c>
       <c r="B95" s="52">
@@ -24209,7 +24311,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="75">
+      <c r="A104" s="82">
         <v>36</v>
       </c>
       <c r="B104" s="52">
@@ -24365,7 +24467,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="75">
+      <c r="A112" s="82">
         <v>37</v>
       </c>
       <c r="B112" s="52">
@@ -24519,7 +24621,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="75">
+      <c r="A120" s="82">
         <v>38</v>
       </c>
       <c r="B120" s="52">
@@ -24673,7 +24775,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="75">
+      <c r="A128" s="82">
         <v>28</v>
       </c>
       <c r="B128" s="52">
@@ -24829,7 +24931,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="75">
+      <c r="A136" s="82">
         <v>39</v>
       </c>
       <c r="B136" s="52">
@@ -25008,11 +25110,39 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A142:E142"/>
-    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="G93:H93"/>
     <mergeCell ref="A128:A132"/>
     <mergeCell ref="A102:E102"/>
     <mergeCell ref="G102:H102"/>
@@ -25025,39 +25155,11 @@
     <mergeCell ref="A120:A124"/>
     <mergeCell ref="A126:E126"/>
     <mergeCell ref="G126:H126"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="G142:H142"/>
   </mergeCells>
   <conditionalFormatting sqref="G61">
     <cfRule type="notContainsBlanks" dxfId="42" priority="39">

--- a/Task Assignment Sheet.xlsx
+++ b/Task Assignment Sheet.xlsx
@@ -912,18 +912,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -946,15 +946,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -963,17 +966,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="81">
+  <dxfs count="85">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2409,9 +2465,9 @@
       <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="60"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -2458,7 +2514,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64">
+      <c r="A3" s="62">
         <v>6</v>
       </c>
       <c r="B3" s="5">
@@ -2492,7 +2548,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="5">
         <v>6.2</v>
       </c>
@@ -2517,7 +2573,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="5">
         <v>6.3</v>
       </c>
@@ -2542,7 +2598,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="5">
         <v>6.4</v>
       </c>
@@ -2567,7 +2623,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="5">
         <v>6.5</v>
       </c>
@@ -2590,7 +2646,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="5">
         <v>6.6</v>
       </c>
@@ -2621,17 +2677,17 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="60"/>
       <c r="F10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="G10" s="65" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="60"/>
@@ -2665,7 +2721,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="64">
+      <c r="A12" s="62">
         <v>1</v>
       </c>
       <c r="B12" s="17">
@@ -2690,7 +2746,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="17">
         <v>1.2</v>
       </c>
@@ -2713,7 +2769,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="17">
         <v>1.3</v>
       </c>
@@ -2728,7 +2784,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="68">
         <v>1.4</v>
       </c>
@@ -2744,27 +2800,27 @@
       <c r="F15" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="66">
         <v>42378</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
-      <c r="B16" s="63"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
       <c r="H16" s="3"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="16">
         <v>1.5</v>
       </c>
@@ -2798,9 +2854,9 @@
       <c r="A19" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="60"/>
       <c r="F19" s="1" t="s">
         <v>49</v>
@@ -2839,7 +2895,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" 